--- a/data/02_intermediate/cleaned_MZ_songs.xlsx
+++ b/data/02_intermediate/cleaned_MZ_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Je viens d'une ville où il n'y a plus de loi Où il n'y a plus de roi Je veux être le prince de la ville Hey J'suis au volant de ma caisse Au feu rouge on m'demande une pièce Paris connait aussi la hess J'ai quelques trucs à régler dans la ville Gyrophares, contrôle et j'repars, pourtant j'avais de la S Et j'vois des paires de fesses sur l'trottoir J'te raconte pas les histoires d'M.S.T Quand t'as une dette, Paris n'est plus gigantesque Donc marche avec un c-tru dans la veste Yeah, hun Les embrouilles de schlags dans le bus de nuit Yeah, hun Le soir y a de l'action, donc jamais j'm'ennuie Yeah, hun J'vais chez l'épicier, j'viens d'prendre un flash Le soir au tier-quar ça peut vite partir en clash Yeah, hun, la musique est sombre, le négro vient du fond Hun, la musique est sombre, le blanco vient du fond On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Princes de la ville On va tout faire pour devenir les princes de la ville Tu seras ma princesse, on va devenir les princes de la ville On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée You might also like Hun, 3 heures du mat' j'suis dans les p'tites gâteries Bonbons sur bonbons, aujourd'hui c'est Halloween J'ai pas attendu le côté obscur pour avoir le flow de Anakin J'suis défoncé, toute l'année À c'qu'il parait y'en a qui attendent le nouvel an En vérité, abandonner n'est pas dans le vocabulaire Déjà que tenter n'est pas suffisant J'marche dans la ville, bonne est la weed Quand il s'agit de mes billets bébé y a pas de sentiments Guettes mes rétines, mes cicatrices Comme le corps à Dhalsim mes histoires en disent long Hier et aujourd'hui se ressemblent Mais demain sera sûrement différent Les erreurs font grandir, j'ai un cur de géant Yeah, hun, la musique est sombre, le négro vient du fond Hun, la musique est sombre, le blanco vient du fond On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Princes de la ville On va tout faire pour devenir les princes de la ville Tu seras ma princesse, on va devenir les princes de la ville On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée La nuit dans Paris Sud, je pense en grand Sais-tu ce que ça coûte de vivre ? Quand les gens s'endorment à travers la vitre Je vois les feux ensanglanter les gouttes de pluie, et je pense Yeah, hun, rien ne peut m'arriver, j'ai le cur ensommeillé, hun Mais cette nuit j'ai mal rêvé, la douleur m'a réveillé, hun Faire le Pont de la Concorde et revenir à pied, hun Et t'aimer au-delà d'ton corps, yeah Penses-tu qu'un jour on ira mieux ? Je rêvais d'avenir radieux, vu qu'on pensait finir à deux Mais tire un trait, t'as tout raté T'inquiète avant de dire adieu j'ai des prières à dire à Dieu Je me tairai une fois enterré mais la Terre est irradiée, hun Yeah, un Noir tue un Noir tout au fond de ma rue Bienvenue dans la ville où les témoins n'ont jamais rien vu J'ai fait tapiner ma Marie dans tout Paris Sud Y a mes empreintes sur pas mal de ces murs Et mon ADN sur pas mal de ces culs J'suis sorti de la maison sans dire au revoir à Maman Et j'suis pas rentré de la semaine, j'ai perdu le sommeil J'use mes semelles sur la route qui mène au sommet La voix sort des cités HLM Flow est sale, vient de l'afflux de la Seine Rêve de briller comme Paris la nuit Un spliff entre les lèvres, j'suis le prince de la ville Paris Sud, Paris Sud la nuit On est les princes de la ville On est les princes de la ville MZ, yeah, on est les princes de la ville Seine Zoo, -Crew boy On est les princes de la ville Yeah, hun, la musique est sombre, le négro vient du fond Hun, la musique est sombre, le blanco vient du fond On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Princes de la ville On va tout faire pour devenir les princes de la ville Tu seras ma princesse, on va devenir les princes de la ville On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Je viens d'une ville où il n'y a plus de loi Où il n'y a plus de roi Je veux être le prince de la ville30</t>
+          <t>Je viens d'une ville où il n'y a plus de loi Où il n'y a plus de roi Je veux être le prince de la ville Hey J'suis au volant de ma caisse Au feu rouge on m'demande une pièce Paris connait aussi la hess J'ai quelques trucs à régler dans la ville Gyrophares, contrôle et j'repars, pourtant j'avais de la S Et j'vois des paires de fesses sur l'trottoir J'te raconte pas les histoires d'M.S.T Quand t'as une dette, Paris n'est plus gigantesque Donc marche avec un c-tru dans la veste Yeah, hun Les embrouilles de schlags dans le bus de nuit Yeah, hun Le soir y a de l'action, donc jamais j'm'ennuie Yeah, hun J'vais chez l'épicier, j'viens d'prendre un flash Le soir au tier-quar ça peut vite partir en clash Yeah, hun, la musique est sombre, le négro vient du fond Hun, la musique est sombre, le blanco vient du fond On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Princes de la ville On va tout faire pour devenir les princes de la ville Tu seras ma princesse, on va devenir les princes de la ville On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Hun, 3 heures du mat' j'suis dans les p'tites gâteries Bonbons sur bonbons, aujourd'hui c'est Halloween J'ai pas attendu le côté obscur pour avoir le flow de Anakin J'suis défoncé, toute l'année À c'qu'il parait y'en a qui attendent le nouvel an En vérité, abandonner n'est pas dans le vocabulaire Déjà que tenter n'est pas suffisant J'marche dans la ville, bonne est la weed Quand il s'agit de mes billets bébé y a pas de sentiments Guettes mes rétines, mes cicatrices Comme le corps à Dhalsim mes histoires en disent long Hier et aujourd'hui se ressemblent Mais demain sera sûrement différent Les erreurs font grandir, j'ai un cur de géant Yeah, hun, la musique est sombre, le négro vient du fond Hun, la musique est sombre, le blanco vient du fond On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Princes de la ville On va tout faire pour devenir les princes de la ville Tu seras ma princesse, on va devenir les princes de la ville On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée La nuit dans Paris Sud, je pense en grand Sais-tu ce que ça coûte de vivre ? Quand les gens s'endorment à travers la vitre Je vois les feux ensanglanter les gouttes de pluie, et je pense Yeah, hun, rien ne peut m'arriver, j'ai le cur ensommeillé, hun Mais cette nuit j'ai mal rêvé, la douleur m'a réveillé, hun Faire le Pont de la Concorde et revenir à pied, hun Et t'aimer au-delà d'ton corps, yeah Penses-tu qu'un jour on ira mieux ? Je rêvais d'avenir radieux, vu qu'on pensait finir à deux Mais tire un trait, t'as tout raté T'inquiète avant de dire adieu j'ai des prières à dire à Dieu Je me tairai une fois enterré mais la Terre est irradiée, hun Yeah, un Noir tue un Noir tout au fond de ma rue Bienvenue dans la ville où les témoins n'ont jamais rien vu J'ai fait tapiner ma Marie dans tout Paris Sud Y a mes empreintes sur pas mal de ces murs Et mon ADN sur pas mal de ces culs J'suis sorti de la maison sans dire au revoir à Maman Et j'suis pas rentré de la semaine, j'ai perdu le sommeil J'use mes semelles sur la route qui mène au sommet La voix sort des cités HLM Flow est sale, vient de l'afflux de la Seine Rêve de briller comme Paris la nuit Un spliff entre les lèvres, j'suis le prince de la ville Paris Sud, Paris Sud la nuit On est les princes de la ville On est les princes de la ville MZ, yeah, on est les princes de la ville Seine Zoo, -Crew boy On est les princes de la ville Yeah, hun, la musique est sombre, le négro vient du fond Hun, la musique est sombre, le blanco vient du fond On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Princes de la ville On va tout faire pour devenir les princes de la ville Tu seras ma princesse, on va devenir les princes de la ville On rêve de briller comme Paris la nuit, sous ses lumières J'ai traîné, j'ai erré, j'ai zoné et j'ai dormi toute la journée Je viens d'une ville où il n'y a plus de loi Où il n'y a plus de roi Je veux être le prince de la ville30</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>De la zèb de la tise dans la bre-cham Des bad bitches très alléchantes Mes gavas seront désagréables et te niqueront ta soirée si tu commences à jouer la meuf chiante Écoute ma belle on est toujours direct dans nos propos Je sais que tu kiffes fais pas la mytho Finis de fumer ce putain de bédo Avant que je te mette ta part enlève-moi tous les nuds que j'ai dans le dos Tu sais, je suis pas là pour jacter, je veux juste te fumer Dans le crâne une 'teille de Jack D Dans mon délire je suis fonce-dé Le voisinage t'entendra crier, grillés toute la soirée Par contre tu casses tout le lire-dé quand tu veux faire du sérieux Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser You might also like On va juste fumer, tiser, baiser Non d'abord tu vas me branl... Et n'oublie même pas de me suc... Ouais, t'inquiète, tu vas kiffer Viens avec deux copines, je serai avec Jo et Pims Il y aura du Sprite, de la codéine On sera le meilleur coup de vos vies, sans doute Bébé, vous serez plus en chaleur qu'en août Pour le rap, pour le sexe t'as confiance en nous Donc vous viendrez comme des chiennes en loup On sera sous pillave, je sais que t'aimes ça, coquine ! Une soirée inoubliable que tu raconteras à ta fille Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser J'veux juste chicher, tiser, prendre du plaisir hmmm hmmm... J'emmerde ma conscience ma santé, j'sais que tu me désires hmmm hmmm... J'veux que tu sois ma salope au lit Et ta bouche la meilleure conseillère de mon zizi J'suis fou, mais tu t'en fous J'suis pas ton mec, ni ton ex, ni ton futur Juste ton meilleur coup et j'te monte en l'air sans jamais que t'atterrisses J'veux la baiser sans le besoin de dire bébé hmmm hmmm... Et elle veut m'baiser jusqu'à ce que je crie Mayday hmmm hmmm... Présent dans tes zones érogènes ou j'en serre une autre Sûrement avec un plus gros dos J'm'en bats les couilles, c'est pas de ma faute Bébé, j'suis fonce-dé... rejoins-moi Accroche-toi car le Septième Ciel n'est pas loin Ce soir sois ma Whitney, je ferais ton Bobby Fumons, tisons, baisons toute la nuit Vis cette nuit comme la dernière de ta vie Mouille les draps du lit crie, réveille toute la ville Je sens ton cur qui bat vite Tes paupières palpitent T'es tombée accroc à ma... j'suis ton héroïne Ce soir rien ne sert de trop parler, consomme-moi jusqu'à l'overdose Tout ce qui ce passe dans cette piaule reste dans cette piaule Vrai négro fait vraies choses Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser18</t>
+          <t>De la zèb de la tise dans la bre-cham Des bad bitches très alléchantes Mes gavas seront désagréables et te niqueront ta soirée si tu commences à jouer la meuf chiante Écoute ma belle on est toujours direct dans nos propos Je sais que tu kiffes fais pas la mytho Finis de fumer ce putain de bédo Avant que je te mette ta part enlève-moi tous les nuds que j'ai dans le dos Tu sais, je suis pas là pour jacter, je veux juste te fumer Dans le crâne une 'teille de Jack D Dans mon délire je suis fonce-dé Le voisinage t'entendra crier, grillés toute la soirée Par contre tu casses tout le lire-dé quand tu veux faire du sérieux Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser On va juste fumer, tiser, baiser Non d'abord tu vas me branl... Et n'oublie même pas de me suc... Ouais, t'inquiète, tu vas kiffer Viens avec deux copines, je serai avec Jo et Pims Il y aura du Sprite, de la codéine On sera le meilleur coup de vos vies, sans doute Bébé, vous serez plus en chaleur qu'en août Pour le rap, pour le sexe t'as confiance en nous Donc vous viendrez comme des chiennes en loup On sera sous pillave, je sais que t'aimes ça, coquine ! Une soirée inoubliable que tu raconteras à ta fille Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser J'veux juste chicher, tiser, prendre du plaisir hmmm hmmm... J'emmerde ma conscience ma santé, j'sais que tu me désires hmmm hmmm... J'veux que tu sois ma salope au lit Et ta bouche la meilleure conseillère de mon zizi J'suis fou, mais tu t'en fous J'suis pas ton mec, ni ton ex, ni ton futur Juste ton meilleur coup et j'te monte en l'air sans jamais que t'atterrisses J'veux la baiser sans le besoin de dire bébé hmmm hmmm... Et elle veut m'baiser jusqu'à ce que je crie Mayday hmmm hmmm... Présent dans tes zones érogènes ou j'en serre une autre Sûrement avec un plus gros dos J'm'en bats les couilles, c'est pas de ma faute Bébé, j'suis fonce-dé... rejoins-moi Accroche-toi car le Septième Ciel n'est pas loin Ce soir sois ma Whitney, je ferais ton Bobby Fumons, tisons, baisons toute la nuit Vis cette nuit comme la dernière de ta vie Mouille les draps du lit crie, réveille toute la ville Je sens ton cur qui bat vite Tes paupières palpitent T'es tombée accroc à ma... j'suis ton héroïne Ce soir rien ne sert de trop parler, consomme-moi jusqu'à l'overdose Tout ce qui ce passe dans cette piaule reste dans cette piaule Vrai négro fait vraies choses Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser Bébé, je t'attends... Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Qu'est-ce que t'attends ? Non Suis le son de ma voix rentre dans la chambre... Non On fera rien de bien méchant On va juste fumer, tiser, baiser Fumer, tiser, baiser Fumer, tiser, baiser Rentre dans la chambre on va fumer, tiser, baiser18</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jok'Air... Et j'ai chanté tout l'été Je fus fort dépourvu quand la bise fut venue, mon bébé Mets ta plus belle robe ce soir je t'emmène danser N'rentrons pas à la maison avant d'être défoncé Viens on skurt en état d'ivresse Mais faisons belek à la Mercedes J'ai laissé la caution d'la loc' en espèces N'vomis pas dans la caisse Cesse de m'prendre la tête J'bosse pour gratter ma pièce, pas pour les paires de fesses J'ai grandi dans la hess pour sortir de la tess Dois-je te rappeler mon adresse ? J'étais dans cette merde bien avant d'te connaître Tu m'énerves quand tu laisses ton rouge à lèvres sur mon... J'préfère qu'tu l'laisses sur ma verge D'ailleurs, rentrons ma belle Fais moins de bruit qu'avant hier car les voisins se plaignent J'ai reçu une lettre du concierge Han han han han, eh eh eh J'suis au studio, bébé, je n'ai pas de réseau Han han han han, eh eh eh Moi sur toi ou toi sur moi ferait un joli morceau Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose You might also like Pour m'en sortir je ne connais que la merde Les pochetons, les plastiques brulés, les lamelles Pas de fiche de paye, la musique est belle Couleur ébène, bébé, le négro ne gère pas les Je t'aime Je suis au studio, ah ouais, je n'ai pas de réseau Et j'ai pas raison, j'ai juste mes raisons Qui me permettent d'être content comme un idiot Enfermé dans l'bunker et j'ai pas ce putain de réseau J'ai pas de maison, j'ai quitté la zone Corps et âme dans une histoire qui ne vole pas haut Je suis au studio, bébé, le temps passe tellement vite Rythmique et plaisir, il ne manquerait plus que nous Avec du champagne et ce putain de lit Je ne sors que pour prendre mon bif Je ne sors que pour prendre mon bif Han han han han, eh eh eh J'suis au studio, bébé, je n'ai pas de réseau Han han han han, eh eh eh Moi sur toi ou toi sur moi ferait un joli morceau Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Oh mi amor, j'sais que t'es love et qu'tu m'aimes à mort Est-ce réciproque ? Moi je dis que ça viendra avec le temps Oublie cette fille, je te l'ai déjà dit, c'était qu'une bitch Oh j'ai compris, ton rêve est de lui casser les dents T'inquiète t'es ma numéro uno Même si des fois je me comporte comme un woulo Tu veux rencontrer maman, mais c'est pas l'moment T'inquiète on fera ça calmement Han han han han, eh eh eh J'suis au studio, bébé, je n'ai pas de réseau Han han han han, eh eh eh Moi sur toi ou toi sur moi ferait un joli morceau Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose9</t>
+          <t>Jok'Air... Et j'ai chanté tout l'été Je fus fort dépourvu quand la bise fut venue, mon bébé Mets ta plus belle robe ce soir je t'emmène danser N'rentrons pas à la maison avant d'être défoncé Viens on skurt en état d'ivresse Mais faisons belek à la Mercedes J'ai laissé la caution d'la loc' en espèces N'vomis pas dans la caisse Cesse de m'prendre la tête J'bosse pour gratter ma pièce, pas pour les paires de fesses J'ai grandi dans la hess pour sortir de la tess Dois-je te rappeler mon adresse ? J'étais dans cette merde bien avant d'te connaître Tu m'énerves quand tu laisses ton rouge à lèvres sur mon... J'préfère qu'tu l'laisses sur ma verge D'ailleurs, rentrons ma belle Fais moins de bruit qu'avant hier car les voisins se plaignent J'ai reçu une lettre du concierge Han han han han, eh eh eh J'suis au studio, bébé, je n'ai pas de réseau Han han han han, eh eh eh Moi sur toi ou toi sur moi ferait un joli morceau Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Pour m'en sortir je ne connais que la merde Les pochetons, les plastiques brulés, les lamelles Pas de fiche de paye, la musique est belle Couleur ébène, bébé, le négro ne gère pas les Je t'aime Je suis au studio, ah ouais, je n'ai pas de réseau Et j'ai pas raison, j'ai juste mes raisons Qui me permettent d'être content comme un idiot Enfermé dans l'bunker et j'ai pas ce putain de réseau J'ai pas de maison, j'ai quitté la zone Corps et âme dans une histoire qui ne vole pas haut Je suis au studio, bébé, le temps passe tellement vite Rythmique et plaisir, il ne manquerait plus que nous Avec du champagne et ce putain de lit Je ne sors que pour prendre mon bif Je ne sors que pour prendre mon bif Han han han han, eh eh eh J'suis au studio, bébé, je n'ai pas de réseau Han han han han, eh eh eh Moi sur toi ou toi sur moi ferait un joli morceau Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Oh mi amor, j'sais que t'es love et qu'tu m'aimes à mort Est-ce réciproque ? Moi je dis que ça viendra avec le temps Oublie cette fille, je te l'ai déjà dit, c'était qu'une bitch Oh j'ai compris, ton rêve est de lui casser les dents T'inquiète t'es ma numéro uno Même si des fois je me comporte comme un woulo Tu veux rencontrer maman, mais c'est pas l'moment T'inquiète on fera ça calmement Han han han han, eh eh eh J'suis au studio, bébé, je n'ai pas de réseau Han han han han, eh eh eh Moi sur toi ou toi sur moi ferait un joli morceau Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose Faire l'amour est une chose Baiser en est une autre Vu que nous sommes accros l'un de l'autre Allons jusqu'à l'overdose9</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint Un coup de fil me réveille, un ient-cli se gratte les veines Virée nocturne, plan, meuf, teille-bou de whisky à la veille Je passe un coup de fil à Dav', d'un coup je me mange une baffe Maman me dit d'arrêter de glander et de me trouver du taff Bon bref, je me barre au tièk, courir après l'oseille Ça charbonne dans la street en attendant que le rap paye Mes journées se ressemblent, toujours la même lère-ga Vu qu'il y a rien a faire je crois que je vais passer chez rek-Ta Je vais me fonceder À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint Je viens d'avoir le bac, j'ai la daronne sur les pattes Car le rap ne paie pas le loyer et que je n'irai pas à la fac Ma petite amie du moment me plaque, pendant que les yeux de maman me braque Je me sens mal, la porte je claque, le hall du bâtiment je squatte des clopes Du eu-f, des yeufs une conss, ça va tirer Je plane les pieds au sol par le vide, je me sens attiré Deux-trois homies se ramènent avec de la vodka, du whisky, je vais me fonceder Fais-moi la passe D, que je zappe tous mes soucis You might also like Je vais me fonceder À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint Je crois que je suis rré-bou, les gars je commence à plus tenir debout Faut pas que je rentre à la baraque, il va falloir que je raque Je veux boire mais y a plus de teille-bou Passe passe le oinj, il y a du monde sur la corde à linge Putain je crois que je deviens dingue, mes negros hurlent tous comme des singes Je suis foncedé, foncedé, foncedé, foncedé J'ai l'impression d'être possédé, j'ai mal Les gars je suis foncedé, je plane Je vais me fonceder18</t>
+          <t>À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint Un coup de fil me réveille, un ient-cli se gratte les veines Virée nocturne, plan, meuf, teille-bou de whisky à la veille Je passe un coup de fil à Dav', d'un coup je me mange une baffe Maman me dit d'arrêter de glander et de me trouver du taff Bon bref, je me barre au tièk, courir après l'oseille Ça charbonne dans la street en attendant que le rap paye Mes journées se ressemblent, toujours la même lère-ga Vu qu'il y a rien a faire je crois que je vais passer chez rek-Ta Je vais me fonceder À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint Je viens d'avoir le bac, j'ai la daronne sur les pattes Car le rap ne paie pas le loyer et que je n'irai pas à la fac Ma petite amie du moment me plaque, pendant que les yeux de maman me braque Je me sens mal, la porte je claque, le hall du bâtiment je squatte des clopes Du eu-f, des yeufs une conss, ça va tirer Je plane les pieds au sol par le vide, je me sens attiré Deux-trois homies se ramènent avec de la vodka, du whisky, je vais me fonceder Fais-moi la passe D, que je zappe tous mes soucis Je vais me fonceder À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint À la longue ça me fera du mal, mais bon, là ça me fait du bien J'avale la pisse du Diable et je me renferme dans un joint Je crois que je suis rré-bou, les gars je commence à plus tenir debout Faut pas que je rentre à la baraque, il va falloir que je raque Je veux boire mais y a plus de teille-bou Passe passe le oinj, il y a du monde sur la corde à linge Putain je crois que je deviens dingue, mes negros hurlent tous comme des singes Je suis foncedé, foncedé, foncedé, foncedé J'ai l'impression d'être possédé, j'ai mal Les gars je suis foncedé, je plane Je vais me fonceder18</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L'alcool, la drogue m'aident à méditer J'suis venu rapper ma vérité J'suis venu rapper la vie pas ordinaire D'un jeune négro de cité Qu'sa maman a bien éduqué Qui déteste l'autorité Qui a fait du mal par nécessité Pas pour la street crédibilité J'ai qu'la musique pour sortir de la merde Pas l'choix, j'dois tout niquer J'veux plus te vendre du shit Ou aller les braquer, cagoulé, ganté, broliqué J'bosse dur, hiver comme été Avec Excalibur comme épée Car si la hess vient m'refaire du pied D'un coup d'lame j'vais l'amputer Trop d'flow, trop d'niveau Dans ce rap game j'suis l'plus redouté Trop d'faux, trop d'mythos Autour de moi m'ont fait trop douter Trop d'négros m'ont dégoûté Franchement si vous les écoutiez Hier ils m'parlaient d'unité Aujourd'hui ils parlent de vouloir m'buter La vie est une chienne Chaque soir j'pense à la ken D'une manière dont t'as pas idée Elle m'a trop eu, m'a privé d'dignité Donc à mon tour j'dois pas l'éviter J'compte la baiser avec brutalité Ici, revancharde est la mentalité Chich m'a dit d'pas paniquer Et j'fume de la dope de qualité You might also like J'suis entré armé d'un 3.5.7 Oh, oh J'lui ai dit Vide-moi cette caisse Oh, oh Avant qu'j'te pète la tête Comme si j'allais le faire J'ai investi dans la gue-dro Oh, oh Ça s'passe comme ça dans mon ghetto Oh, oh C'est la merde il faut des euros Ouais il faut les faire On s'était dit qu'on s'aimait Tu voulais qu'j'te fasse un bébé Et moi j'étais pas prêt Avec un autre t'es allée le faire J'suis toute ma vie en studio J'traîne la nuit avec mes potos Ils veulent pas d'nous dans leurs radios T'inquiète un jour ça va le faire Plus petit, j'te cache pas, j'te disais que la drogue j'y toucherais pas Un peu plus tard, disons que j'me déplace pas pour moins d'cinquante balles J'suis là, et j'te raconte c'que tes rappeurs n'vivaient pas Au quartier, j'attends qu'ça passe, à la ceinture, mon Beretta Quoiqu'on fasse, nous t'inquiète on s'laisse pas niquer par nos choix Un clin d'il à toute cette fumée que j'accumule tous les soirs Et oui, c'est vrai, j'suis un gros mytho, quand tu m'donnes qu'envie de jouir Bébé mon cur n'a pas ton temps, là y'a ma haine qui chuine Alors j'suis rentré au studio, vous m'avez aimé Les inconvénients c'est qu'j'ai d'autres préoccupations L'amour des billets, mes rimes, me fonceder tous les soirs J'suis rentré au studio, j'en ai vu m'détester Grâce à mon talent, gros, j'ai d'autres préoccupations L'amour des billets, mes rimes, me fonceder tous les soirs J'suis entré armé d'un 3.5.7 Oh, oh J'lui ai dit Vide-moi cette caisse Oh, oh Avant qu'j'te pète la tête Comme si j'allais le faire J'ai investi dans la gue-dro Oh, oh Ça s'passe comme ça dans mon ghetto Oh, oh C'est la merde il faut des euros Ouais il faut les faire On s'était dit qu'on s'aimait Tu voulais qu'j'te fasse un bébé Et moi j'étais pas prêt Avec un autre t'es allée le faire J'suis toute ma vie en studio J'traîne la nuit avec mes potos Ils veulent pas d'nous dans leurs radios T'inquiète un jour ça va le faire Vingt-deux balais, les études moi j'm'en bats les Couilles, mais j'finirai pas avec un balais Devenir footballer est-c'que tu t'en sou-viens ? On terminera sur l'terrain, attendant qu'les sous viennent Un petit job ? Nan nous on a préféré les plaquettes Le temps passe vite et j'm'aperçois qu'des frères on perdu la tête 'Sky, weed, fonceder, faudrait qu'un jour on arrête Oui j'ai fait du mal, faut qu'tu comprennes c'était la crise aux manettes J'suis entré armé d'un 3.5.7 Oh, oh J'lui ai dit Vide-moi cette caisse Oh, oh Avant qu'j'te pète la tête Comme si j'allais le faire J'ai investi dans la gue-dro Oh, oh Ça s'passe comme ça dans mon ghetto Oh, oh C'est la merde il faut des euros Ouais il faut les faire On s'était dit qu'on s'aimait Tu voulais qu'j'te fasse un bébé Et moi j'étais pas prêt Avec un autre t'es allée le faire J'suis toute ma vie en studio J'traîne la nuit avec mes potos Ils veulent pas d'nous dans leurs radios T'inquiète un jour ça va le faire8</t>
+          <t>L'alcool, la drogue m'aident à méditer J'suis venu rapper ma vérité J'suis venu rapper la vie pas ordinaire D'un jeune négro de cité Qu'sa maman a bien éduqué Qui déteste l'autorité Qui a fait du mal par nécessité Pas pour la street crédibilité J'ai qu'la musique pour sortir de la merde Pas l'choix, j'dois tout niquer J'veux plus te vendre du shit Ou aller les braquer, cagoulé, ganté, broliqué J'bosse dur, hiver comme été Avec Excalibur comme épée Car si la hess vient m'refaire du pied D'un coup d'lame j'vais l'amputer Trop d'flow, trop d'niveau Dans ce rap game j'suis l'plus redouté Trop d'faux, trop d'mythos Autour de moi m'ont fait trop douter Trop d'négros m'ont dégoûté Franchement si vous les écoutiez Hier ils m'parlaient d'unité Aujourd'hui ils parlent de vouloir m'buter La vie est une chienne Chaque soir j'pense à la ken D'une manière dont t'as pas idée Elle m'a trop eu, m'a privé d'dignité Donc à mon tour j'dois pas l'éviter J'compte la baiser avec brutalité Ici, revancharde est la mentalité Chich m'a dit d'pas paniquer Et j'fume de la dope de qualité J'suis entré armé d'un 3.5.7 Oh, oh J'lui ai dit Vide-moi cette caisse Oh, oh Avant qu'j'te pète la tête Comme si j'allais le faire J'ai investi dans la gue-dro Oh, oh Ça s'passe comme ça dans mon ghetto Oh, oh C'est la merde il faut des euros Ouais il faut les faire On s'était dit qu'on s'aimait Tu voulais qu'j'te fasse un bébé Et moi j'étais pas prêt Avec un autre t'es allée le faire J'suis toute ma vie en studio J'traîne la nuit avec mes potos Ils veulent pas d'nous dans leurs radios T'inquiète un jour ça va le faire Plus petit, j'te cache pas, j'te disais que la drogue j'y toucherais pas Un peu plus tard, disons que j'me déplace pas pour moins d'cinquante balles J'suis là, et j'te raconte c'que tes rappeurs n'vivaient pas Au quartier, j'attends qu'ça passe, à la ceinture, mon Beretta Quoiqu'on fasse, nous t'inquiète on s'laisse pas niquer par nos choix Un clin d'il à toute cette fumée que j'accumule tous les soirs Et oui, c'est vrai, j'suis un gros mytho, quand tu m'donnes qu'envie de jouir Bébé mon cur n'a pas ton temps, là y'a ma haine qui chuine Alors j'suis rentré au studio, vous m'avez aimé Les inconvénients c'est qu'j'ai d'autres préoccupations L'amour des billets, mes rimes, me fonceder tous les soirs J'suis rentré au studio, j'en ai vu m'détester Grâce à mon talent, gros, j'ai d'autres préoccupations L'amour des billets, mes rimes, me fonceder tous les soirs J'suis entré armé d'un 3.5.7 Oh, oh J'lui ai dit Vide-moi cette caisse Oh, oh Avant qu'j'te pète la tête Comme si j'allais le faire J'ai investi dans la gue-dro Oh, oh Ça s'passe comme ça dans mon ghetto Oh, oh C'est la merde il faut des euros Ouais il faut les faire On s'était dit qu'on s'aimait Tu voulais qu'j'te fasse un bébé Et moi j'étais pas prêt Avec un autre t'es allée le faire J'suis toute ma vie en studio J'traîne la nuit avec mes potos Ils veulent pas d'nous dans leurs radios T'inquiète un jour ça va le faire Vingt-deux balais, les études moi j'm'en bats les Couilles, mais j'finirai pas avec un balais Devenir footballer est-c'que tu t'en sou-viens ? On terminera sur l'terrain, attendant qu'les sous viennent Un petit job ? Nan nous on a préféré les plaquettes Le temps passe vite et j'm'aperçois qu'des frères on perdu la tête 'Sky, weed, fonceder, faudrait qu'un jour on arrête Oui j'ai fait du mal, faut qu'tu comprennes c'était la crise aux manettes J'suis entré armé d'un 3.5.7 Oh, oh J'lui ai dit Vide-moi cette caisse Oh, oh Avant qu'j'te pète la tête Comme si j'allais le faire J'ai investi dans la gue-dro Oh, oh Ça s'passe comme ça dans mon ghetto Oh, oh C'est la merde il faut des euros Ouais il faut les faire On s'était dit qu'on s'aimait Tu voulais qu'j'te fasse un bébé Et moi j'étais pas prêt Avec un autre t'es allée le faire J'suis toute ma vie en studio J'traîne la nuit avec mes potos Ils veulent pas d'nous dans leurs radios T'inquiète un jour ça va le faire8</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Yep, qu'allons-nous faire maintenant ? Veux-tu qu'on perdre notre temps à parler d'nos sentiments ? Veux-tu qu'j'te mente en disant c'que tu veux entendre ? Déshabille-toi sans oublier tes sous-vêtements Prends soin d'moi comme un bébé Dehors c'est chaud y a que dans tes bras que j'me sens vraiment en paix Entre tes hanches c'est wow ! J'perds la notion du danger Si on m'tue, trois balles dans l'dos Comme l'abeille iras-tu m'venger ? Ensemble nous sommes mignons comme tout On fume, on tise, on baise, ensemble on parle de tout Sans parler d'amour, pas d'ça entre nous De tout c'qui sort d'notre bouche, c'est le seul sujet tabou Embrasse-moi fort, mon bébé, plus fort, mon bébé Mets sur moi l'odeur de ton corps Bébé vivons d'instants présents, encore et encore Demain c'est loin et s'projeter demande trop d'efforts Yeah You might also like Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Ok on s'mettra ensemble parce que tu parles pas trop Mais tu m'balances des Je t'aime dès que débute l'intro Tu m'connais que du net apparemment tu m'aimes trop Toi tu connais pas l'prénom, toi tu connais qu'Dehmo On s'exilait aux toilettes lors des soirées potos On t'entendait crier parce qu'il baise comme un taureau J'rentre pas dans les détails toute façon c'est prouvé Y a qu'elles qu'ont pas sucé qui peuvent désapprouver J'love pour toi bébé, j'crois qu'au fond on est pareils Et si t'as des doutes, appelle-moi qu'ils disparaissent J'te l'ai jamais dis mais bientôt j'compte t'épouser Et si tu crois ces conneries nan cocotte là j't'arrête Prends bien tes pilules et ne m'parle pas de marmots Et ne m'prends pas pour un con juste parce qu'on a taro Et si tu m'gardes pour deux mois là j'te dirais bravo J't'en veux de pas connaître le prénom car tu connais qu'Dehmo Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Tu veux être avec moi ? Est-c'que t'assumeras mon train de vie ? Des fois j'rentrerai tard le soir Avec les cheveux d'une autre fille Tu t'imagines une vie de rêve Mais moi je vise une vie de merde En vrai j'rentrerai pas le soir Toute seule en larmes dans ce pauvre lit C'était juste pour le fun mais toi tu comprends pas Arrête tes petits jeux, j'veux pas rencontrer tes rents-pa Toi tu t'imagines trop de choses Et puis p't-être que j'en aime une autre Et puis vas dire à toutes tes copines qui te servent de radar Que je les emmerde et que je suis un bâtard En vrai j'ai pas besoin de love D'abord faut qu'j'fasse rentrer plein d'loves Embrasse-moi Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Tu t'imagines Rencontrer ta mère, rencontrer tes frères Te faire de nombreux bébés Tu t'imagines Embrasse-moi Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi, embrasse-moi Mon bébé, mon bébé, mon bébé18</t>
+          <t>Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Yep, qu'allons-nous faire maintenant ? Veux-tu qu'on perdre notre temps à parler d'nos sentiments ? Veux-tu qu'j'te mente en disant c'que tu veux entendre ? Déshabille-toi sans oublier tes sous-vêtements Prends soin d'moi comme un bébé Dehors c'est chaud y a que dans tes bras que j'me sens vraiment en paix Entre tes hanches c'est wow ! J'perds la notion du danger Si on m'tue, trois balles dans l'dos Comme l'abeille iras-tu m'venger ? Ensemble nous sommes mignons comme tout On fume, on tise, on baise, ensemble on parle de tout Sans parler d'amour, pas d'ça entre nous De tout c'qui sort d'notre bouche, c'est le seul sujet tabou Embrasse-moi fort, mon bébé, plus fort, mon bébé Mets sur moi l'odeur de ton corps Bébé vivons d'instants présents, encore et encore Demain c'est loin et s'projeter demande trop d'efforts Yeah Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Ok on s'mettra ensemble parce que tu parles pas trop Mais tu m'balances des Je t'aime dès que débute l'intro Tu m'connais que du net apparemment tu m'aimes trop Toi tu connais pas l'prénom, toi tu connais qu'Dehmo On s'exilait aux toilettes lors des soirées potos On t'entendait crier parce qu'il baise comme un taureau J'rentre pas dans les détails toute façon c'est prouvé Y a qu'elles qu'ont pas sucé qui peuvent désapprouver J'love pour toi bébé, j'crois qu'au fond on est pareils Et si t'as des doutes, appelle-moi qu'ils disparaissent J'te l'ai jamais dis mais bientôt j'compte t'épouser Et si tu crois ces conneries nan cocotte là j't'arrête Prends bien tes pilules et ne m'parle pas de marmots Et ne m'prends pas pour un con juste parce qu'on a taro Et si tu m'gardes pour deux mois là j'te dirais bravo J't'en veux de pas connaître le prénom car tu connais qu'Dehmo Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Tu veux être avec moi ? Est-c'que t'assumeras mon train de vie ? Des fois j'rentrerai tard le soir Avec les cheveux d'une autre fille Tu t'imagines une vie de rêve Mais moi je vise une vie de merde En vrai j'rentrerai pas le soir Toute seule en larmes dans ce pauvre lit C'était juste pour le fun mais toi tu comprends pas Arrête tes petits jeux, j'veux pas rencontrer tes rents-pa Toi tu t'imagines trop de choses Et puis p't-être que j'en aime une autre Et puis vas dire à toutes tes copines qui te servent de radar Que je les emmerde et que je suis un bâtard En vrai j'ai pas besoin de love D'abord faut qu'j'fasse rentrer plein d'loves Embrasse-moi Tu t'imagines Rencontrer ma mère, rencontrer mes frères Me faire de nombreux bébés Tu t'imagines Que j'te mette la bague à l'annulaire Qu'j'te dise oui devant l'maire Tout ça en week-end d'été Embrasse-moi fort Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi fort, mon bébé Embrasse-moi fort, mon bébé Tu t'imagines Rencontrer ta mère, rencontrer tes frères Te faire de nombreux bébés Tu t'imagines Embrasse-moi Prends-moi sur l'moment Vivons l'instant présent Demain c'est loin mon bébé Embrasse-moi, embrasse-moi Mon bébé, mon bébé, mon bébé18</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J'ai éffrité ma substance Je l'ai roulée dans ma feuille Et je l'ai collée juste d'un coup d'langue Puis j'ai sorti mon feu Et cette merde m'a emmené loin Et cette merde m'a emmené loin Du Belaire dans mon red cup Vénèr est mon époque Beaucoup d'ennemis et peu d'potes Mais j'ai l'sourire, j'suis fucked up Et cette merde m'a emmené loin Et cette merde m'a emmené loin Oh, trouve-moi dans le ghetto complètement... défoncé Tous les 5 minutes je fais que de pisser Evidemment que ce soir je vais bien pioncer Du 'sky dans les veines La bouteille je lui nique sa grand-mère avec aucune peine Pas de dosage dans mes verres La défonce me monte à la tête et j'm'en bats les yeuks On prend la voiture et on va foutre le zbeul sur Paname Mes négros fument des gros spliffs On est dans l'aquarium dans le plus grand des calmes Ce soir ça va être dur de se tenir à carreaux, merde Toujours ce putain de verre de trop pour venir me mettre un KO You might also like J'ai éffrité ma substance Je l'ai roulée dans ma feuille Et je l'ai collée juste d'un coup d'langue Puis j'ai sorti mon feu Et cette merde m'a emmené loin Et cette merde m'a emmené loin Du Belaire dans mon red cup Vénèr est mon époque Beaucoup d'ennemis et peu d'potes Mais j'ai l'sourire, j'suis fucked up Et cette merde m'a emmené loin Et cette merde m'a emmené loin J'ai pas passé une soirée, mon poto, sans la présence de la dame blanche Mes poumons sont grillés comme les orteils à Tarzan Mes neurones oublient le passé, parfois le présent Pour le futur, j'aurais besoin d'une balance Ouais, j'aurais besoin d'une balance Pour me dire comment je ferai le bonheur de maman Mon corps sur un canapé, mon esprit est ailleurs C'est pas méchant Qu'est-ce que tu veux que je te dise ? Je te connais pas mais mon ambiance est belle Cette connerie touche Blancs, Jaunes, Beurs jusqu'à ma couleur ébène Quand t'as des fesses, ma belle, ça te rend plus belle J'suis fucked up, tellement plus belle J'suis fucked up, pourtant poubelle J'suis à jeun J'ai éffrité ma substance Je l'ai roulée dans ma feuille Et je l'ai collée juste d'un coup d'langue Puis j'ai sorti mon feu Et cette merde m'a emmené loin Et cette merde m'a emmené loin Du Belaire dans mon red cup Vénèr est mon époque Beaucoup d'ennemis et peu d'potes Mais j'ai l'sourire, j'suis fucked up Et cette merde m'a emmené loin Et cette merde m'a emmené loin J'suis loin, yo J'suis loin, ouh ouh Tellement loin que je ne peux plus revenir J'suis loin, yo, j'suis loin, ouh ouh Malgré ma chienne de vie, mes ennemis et mes soucis J'suis bien, yo, j'suis loin, yo, j'suis loin Tellement loin que je ne peux plus revenir, ouh ouh Yo, j'suis loin Malgré ma chienne de vie, mes ennemis et mes soucis, j'suis bien J'suis loin, oh oh Tellement loin que je ne peux plus revenir, oh oh J'suis loin j'suis loin Malgré ma chienne de vie, mes ennemis et mes soucis, j'suis bien Yo, j'suis bien3</t>
+          <t>J'ai éffrité ma substance Je l'ai roulée dans ma feuille Et je l'ai collée juste d'un coup d'langue Puis j'ai sorti mon feu Et cette merde m'a emmené loin Et cette merde m'a emmené loin Du Belaire dans mon red cup Vénèr est mon époque Beaucoup d'ennemis et peu d'potes Mais j'ai l'sourire, j'suis fucked up Et cette merde m'a emmené loin Et cette merde m'a emmené loin Oh, trouve-moi dans le ghetto complètement... défoncé Tous les 5 minutes je fais que de pisser Evidemment que ce soir je vais bien pioncer Du 'sky dans les veines La bouteille je lui nique sa grand-mère avec aucune peine Pas de dosage dans mes verres La défonce me monte à la tête et j'm'en bats les yeuks On prend la voiture et on va foutre le zbeul sur Paname Mes négros fument des gros spliffs On est dans l'aquarium dans le plus grand des calmes Ce soir ça va être dur de se tenir à carreaux, merde Toujours ce putain de verre de trop pour venir me mettre un KO J'ai éffrité ma substance Je l'ai roulée dans ma feuille Et je l'ai collée juste d'un coup d'langue Puis j'ai sorti mon feu Et cette merde m'a emmené loin Et cette merde m'a emmené loin Du Belaire dans mon red cup Vénèr est mon époque Beaucoup d'ennemis et peu d'potes Mais j'ai l'sourire, j'suis fucked up Et cette merde m'a emmené loin Et cette merde m'a emmené loin J'ai pas passé une soirée, mon poto, sans la présence de la dame blanche Mes poumons sont grillés comme les orteils à Tarzan Mes neurones oublient le passé, parfois le présent Pour le futur, j'aurais besoin d'une balance Ouais, j'aurais besoin d'une balance Pour me dire comment je ferai le bonheur de maman Mon corps sur un canapé, mon esprit est ailleurs C'est pas méchant Qu'est-ce que tu veux que je te dise ? Je te connais pas mais mon ambiance est belle Cette connerie touche Blancs, Jaunes, Beurs jusqu'à ma couleur ébène Quand t'as des fesses, ma belle, ça te rend plus belle J'suis fucked up, tellement plus belle J'suis fucked up, pourtant poubelle J'suis à jeun J'ai éffrité ma substance Je l'ai roulée dans ma feuille Et je l'ai collée juste d'un coup d'langue Puis j'ai sorti mon feu Et cette merde m'a emmené loin Et cette merde m'a emmené loin Du Belaire dans mon red cup Vénèr est mon époque Beaucoup d'ennemis et peu d'potes Mais j'ai l'sourire, j'suis fucked up Et cette merde m'a emmené loin Et cette merde m'a emmené loin J'suis loin, yo J'suis loin, ouh ouh Tellement loin que je ne peux plus revenir J'suis loin, yo, j'suis loin, ouh ouh Malgré ma chienne de vie, mes ennemis et mes soucis J'suis bien, yo, j'suis loin, yo, j'suis loin Tellement loin que je ne peux plus revenir, ouh ouh Yo, j'suis loin Malgré ma chienne de vie, mes ennemis et mes soucis, j'suis bien J'suis loin, oh oh Tellement loin que je ne peux plus revenir, oh oh J'suis loin j'suis loin Malgré ma chienne de vie, mes ennemis et mes soucis, j'suis bien Yo, j'suis bien3</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein Oh yeah Y'a de la MD pour les tasses-pé et pour nous de la weed Monte dans la caisse, j'te ramène dans le bando, j'suis pas Oui-Oui J'suis pas taxi hein Pétasse, t'as v'là les kilométrages, mais ton corps à l'air jdid Défonce-toi comme tu veux, mais ne touche pas ma lean Y'a d'la MD pour les djantras Regarde l'aquarium salope, I'm so high J'me sens comme Superman J'suis plus fort que Batman Et mon corps est super lège You might also like Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein Y'a d'la MD dans son verre d'eau Y'a d'la MD dans son verre d'eau Y'a d'la wax sur mon bédo Y'a d'la wax sur mon bédo La défonce nous monte au cerveau La défonce nous monte au cerveau Nos échanges ne sont plus verbaux Nos échanges ne sont plus verbaux Oh no, oh no, oh no, oh no Bitch, fais-moi un strip Oh no, oh no, oh no, oh no Bitch, twerk comme dans les clips Oh no, oh no, oh no, oh no Chaque jour que Dieu fait, j'suis dans la drogue et l'alcool Oh no, oh no, oh no, oh no Chaque jour que Dieu fait, je pense qu'à trouver l'pactole Ma bite est dans cette pute euh Cette pute est sur ma bite Et j'connais pas l'prénom d'cette pute hein Elle ne connait que mes hits Mon bas-ventre tape son uc Elle crie comme une actrice X Ses seins pendent comme mes testicules Rien qu'elle s'agite et je gicle J'suis fonce-dé, j'suis flex Gun planqué sous la veste J'suis fucked up, j'suis high Doigt sur la gâchette du nine T'as beau faire d'l'MMA Nous c'est zéro blabla Zéro tracas comme MMA J'ai d'la MDMA pour les baby mamas J'ai d'la Lady Gaga pour les narines du Pape Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein Négro tu me vois partout, j'suis sur la montée J'ai croisé des p'tites babtous, dis-leur de monter Deux-trois grammes de came, j'dépanne, c'est le boulot Fais pas mal au crâne, tu merdes, j'ai des rouleaux Laisse pas traîner ta fille, qu'est-ce qu'elle fout dans la rue ? Y'a d'la MD chérie et j'crois qu'le flic m'a vu J'retourne au placard, amène-moi du bédo Deux-trois mois au chtar, oublie ta libido Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein</t>
+          <t>Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein Oh yeah Y'a de la MD pour les tasses-pé et pour nous de la weed Monte dans la caisse, j'te ramène dans le bando, j'suis pas Oui-Oui J'suis pas taxi hein Pétasse, t'as v'là les kilométrages, mais ton corps à l'air jdid Défonce-toi comme tu veux, mais ne touche pas ma lean Y'a d'la MD pour les djantras Regarde l'aquarium salope, I'm so high J'me sens comme Superman J'suis plus fort que Batman Et mon corps est super lège Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein Y'a d'la MD dans son verre d'eau Y'a d'la MD dans son verre d'eau Y'a d'la wax sur mon bédo Y'a d'la wax sur mon bédo La défonce nous monte au cerveau La défonce nous monte au cerveau Nos échanges ne sont plus verbaux Nos échanges ne sont plus verbaux Oh no, oh no, oh no, oh no Bitch, fais-moi un strip Oh no, oh no, oh no, oh no Bitch, twerk comme dans les clips Oh no, oh no, oh no, oh no Chaque jour que Dieu fait, j'suis dans la drogue et l'alcool Oh no, oh no, oh no, oh no Chaque jour que Dieu fait, je pense qu'à trouver l'pactole Ma bite est dans cette pute euh Cette pute est sur ma bite Et j'connais pas l'prénom d'cette pute hein Elle ne connait que mes hits Mon bas-ventre tape son uc Elle crie comme une actrice X Ses seins pendent comme mes testicules Rien qu'elle s'agite et je gicle J'suis fonce-dé, j'suis flex Gun planqué sous la veste J'suis fucked up, j'suis high Doigt sur la gâchette du nine T'as beau faire d'l'MMA Nous c'est zéro blabla Zéro tracas comme MMA J'ai d'la MDMA pour les baby mamas J'ai d'la Lady Gaga pour les narines du Pape Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein Négro tu me vois partout, j'suis sur la montée J'ai croisé des p'tites babtous, dis-leur de monter Deux-trois grammes de came, j'dépanne, c'est le boulot Fais pas mal au crâne, tu merdes, j'ai des rouleaux Laisse pas traîner ta fille, qu'est-ce qu'elle fout dans la rue ? Y'a d'la MD chérie et j'crois qu'le flic m'a vu J'retourne au placard, amène-moi du bédo Deux-trois mois au chtar, oublie ta libido Y'a d'la MD pour les tasses-pé Y'a d'la MD pour les putains Y'a d'a MD pour les salopes Y'a d'la MD pour les djantra MD, MD, MD, ah MD, MD, MD, hein Y'a d'la MD pour les tasses-pé MD, MD, MD, ah Y'a d'la MD pour les putains MD, MD, MD, hein</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur Tu sais qu'j'aime pas t'voir dans cet état J'ai pas d'mouchoir sur moi En plus t'es pas belle comme ça Ton maquillage dégouline sur ton visage T'as cherché, t'as trouvé En fouillant dans mon téléphone, t'es tombée sur les messages D'Alicia, Katia et cetera Maintenant t'as l'impression d'faire une chute de sept étages Autour de toi, le monde s'écroule J'ai l'air d'un con mais j'essaye d'rester cool Aucun de tes ex n'a pris aussi soin d'toi Aucun ne t'a baisé comme moi Aucun d'ces couples n'est aussi mignon qu'nous Et si tu pars j'espère qu'tu reviendras Garde-moi une place dans ton cur J't'en garde une sous mes draps Au pire des cas j'penserai à toi Dans les bras d'une autre meuf La vie est belle, la mort est proche et... You might also like L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur Ma belle j'ai pas le temps d'me prendre la tête avec toi Ouais je sais j'suis un bâtard Mes parents n'étaient pas mariés Mais veux-tu coucher avec moi ? Viens on s'fait la guerre pour mieux s'faire l'amour Peut-être que ce sera l'une des dernières fois Trois bagues au doigt pour mes ennemis T'as visé l'annulaire, mmh, garde la foi J'suis pas l'tocard de tes morceaux d'zouk J'suis plus rusé que les tocards de tes morceaux d'zouk Regarde pas mon portable il est méchant Mais il t'fait des bisous Je lève jamais la main sur une femme Je met en i le missile, en i le missile Deux-trois cheveux coincés dans l'calbard Là j'suis sorti d'un homicide Quel bon homicide L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur J'suis chez l'poto qu'est-c'tu m'dis ? C'était la voix de sa petite cousine J'suis le roi des abrutis J'me suis encore fait attraper ce coup-ci Eh, no stress, retournement de situation que j'vais tenter Pas d'panique, j'suis un menteur J'sais déjà c'que j'vais dire dès que j'vais rentrer Trop serein, ici c'est moi qui gère Des mots d'amour autour d'un restau On s'fait l'amour, on s'fait la guerre Ça peut aller très vite à cause d'un texto Par contre toi si tu m'trompes, j'te casse la gueule J'rigole, j'm'en bats les couilles, j'en serre une autre En vrai il n'y a pas que des menteurs Les meufs ont rendu des gars paranos L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis une menteuse Ce soir je dormirai seule Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur4</t>
+          <t>L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur Tu sais qu'j'aime pas t'voir dans cet état J'ai pas d'mouchoir sur moi En plus t'es pas belle comme ça Ton maquillage dégouline sur ton visage T'as cherché, t'as trouvé En fouillant dans mon téléphone, t'es tombée sur les messages D'Alicia, Katia et cetera Maintenant t'as l'impression d'faire une chute de sept étages Autour de toi, le monde s'écroule J'ai l'air d'un con mais j'essaye d'rester cool Aucun de tes ex n'a pris aussi soin d'toi Aucun ne t'a baisé comme moi Aucun d'ces couples n'est aussi mignon qu'nous Et si tu pars j'espère qu'tu reviendras Garde-moi une place dans ton cur J't'en garde une sous mes draps Au pire des cas j'penserai à toi Dans les bras d'une autre meuf La vie est belle, la mort est proche et... L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur Ma belle j'ai pas le temps d'me prendre la tête avec toi Ouais je sais j'suis un bâtard Mes parents n'étaient pas mariés Mais veux-tu coucher avec moi ? Viens on s'fait la guerre pour mieux s'faire l'amour Peut-être que ce sera l'une des dernières fois Trois bagues au doigt pour mes ennemis T'as visé l'annulaire, mmh, garde la foi J'suis pas l'tocard de tes morceaux d'zouk J'suis plus rusé que les tocards de tes morceaux d'zouk Regarde pas mon portable il est méchant Mais il t'fait des bisous Je lève jamais la main sur une femme Je met en i le missile, en i le missile Deux-trois cheveux coincés dans l'calbard Là j'suis sorti d'un homicide Quel bon homicide L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis un menteur Ce soir je dormirai seul Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur J'suis chez l'poto qu'est-c'tu m'dis ? C'était la voix de sa petite cousine J'suis le roi des abrutis J'me suis encore fait attraper ce coup-ci Eh, no stress, retournement de situation que j'vais tenter Pas d'panique, j'suis un menteur J'sais déjà c'que j'vais dire dès que j'vais rentrer Trop serein, ici c'est moi qui gère Des mots d'amour autour d'un restau On s'fait l'amour, on s'fait la guerre Ça peut aller très vite à cause d'un texto Par contre toi si tu m'trompes, j'te casse la gueule J'rigole, j'm'en bats les couilles, j'en serre une autre En vrai il n'y a pas que des menteurs Les meufs ont rendu des gars paranos L'amour est une épreuve Et on en est la preuve Tes sentiments me font peur Et j'ai honte quand tu pleures Parce que je suis une menteuse Ce soir je dormirai seule Chez nous l'amour n'a pas d'cur Bébé l'amour n'a pas d'cur4</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'vais commencer par un Maman jtaime Cest la seule qui pourra jamais mjeter À la vie à la mort pour cette femme rien au monde ne pourra macheter Pour linstant mes gavas je suis fier de nous Pas dembrouilles de lovés encore moins pour des poules Des galères mais on tient le coup Dieu merci on sporte bien à part certains quon perdu la boule Pas dfemme des tasses des grosses teille bave on traîne la night mon petit frère part en cours quand jtrer-ren Pas dtaf, des liasses, des grosses rettes-ba les boules lplacard, tous ces fils de putes en bleu dérangent On arrêté lécole trop tôt pour aller charbonner pour au final se trouver dans la merde Parler la mariage non cest trop tôt non tu sais ma chérie ça smérite de fixer droit les yeux dma mère Galérien devant le lice-dé, tout seul perché dans mon lire-dé Ya des choses que jpeux pas dire, tout cqui spasse dans ma tête tas pas idée Toujours vrai, les vrais savent que demain si j'suis à la barre Ange-Patrick n'aura jamais changé J'suis entre la vie et la mort, la sique-mu et les 100g Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres You might also like Loracle ma dit qujallais dead jeune et riche comme 2Pac Comme Biggie jdois être ready to die quand les balles surgiront de la Cadillac Jdois garder la niaque Tous les soirs foncedé avec Dehmo et Yaks Jrentre à sept heures du mat maman est déjà au travail Elle prend dlâge jveux quun jour elle puisse vivre de mon rap Donc jbosse dur pour y arriver Oui jbosse dur pour ne pas échouer Mais jai le cur muet et la gorge nouée Négro jai trop saigné trop sué La haine me tourne autour ma musique a rendu fous djalousie des négros qujestimais Jme suis battu pour elle, jpourrai tuer pour elle, bande de fils de putes cette rime vous est destinée Kalina ma rendu la vie dure, jai mangé, chié et vomi du bitume J'dois faire des thunes, des gros tubes faire bouger les gros culs sur linstru et faire part dmon vécu Esquiver la brigade des stups, les pièges de la rue, bref assurer ma sécu Puisque la vie est une pute et quon en a quune, négro jai baisé cette pute Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres Jai perdu mon père, quil repose en paix, que mes prières se payent Abonné à la merde jai choisi la musique apparemment le nègre, court à sa perte Une larme de tapette parce que mon frère est devenu fou Jessaye dacquérir plus quune foule Est-ce ma faute si jen ai gros sur un cur de haineux qui pèse déjà lourd ? Jai pas ltemps pour ton cinéma si jsors un gun cest pour stopper ton pouls Cours, jai peur de moi et pour mes frères ça peut virer au rouge à la cool Maman ne me comprend pas, elle croit que jsuis comme tous les cons den bas Police, clé dbras, poto on a trop fait les cons les gars Dédicace à ma beuh elle est bonne la salope elle adoucit mes sous Si jai pas niqué votre game de merde cest que jsuis écouté par les sourds Jsuis plus plus fort que vos thos-my, promis Jai des responsabilités et jsuis un peu pommé Quatre fois jai évité davoir des bouches à nourrir, homie Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres7</t>
+          <t>J'vais commencer par un Maman jtaime Cest la seule qui pourra jamais mjeter À la vie à la mort pour cette femme rien au monde ne pourra macheter Pour linstant mes gavas je suis fier de nous Pas dembrouilles de lovés encore moins pour des poules Des galères mais on tient le coup Dieu merci on sporte bien à part certains quon perdu la boule Pas dfemme des tasses des grosses teille bave on traîne la night mon petit frère part en cours quand jtrer-ren Pas dtaf, des liasses, des grosses rettes-ba les boules lplacard, tous ces fils de putes en bleu dérangent On arrêté lécole trop tôt pour aller charbonner pour au final se trouver dans la merde Parler la mariage non cest trop tôt non tu sais ma chérie ça smérite de fixer droit les yeux dma mère Galérien devant le lice-dé, tout seul perché dans mon lire-dé Ya des choses que jpeux pas dire, tout cqui spasse dans ma tête tas pas idée Toujours vrai, les vrais savent que demain si j'suis à la barre Ange-Patrick n'aura jamais changé J'suis entre la vie et la mort, la sique-mu et les 100g Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres Loracle ma dit qujallais dead jeune et riche comme 2Pac Comme Biggie jdois être ready to die quand les balles surgiront de la Cadillac Jdois garder la niaque Tous les soirs foncedé avec Dehmo et Yaks Jrentre à sept heures du mat maman est déjà au travail Elle prend dlâge jveux quun jour elle puisse vivre de mon rap Donc jbosse dur pour y arriver Oui jbosse dur pour ne pas échouer Mais jai le cur muet et la gorge nouée Négro jai trop saigné trop sué La haine me tourne autour ma musique a rendu fous djalousie des négros qujestimais Jme suis battu pour elle, jpourrai tuer pour elle, bande de fils de putes cette rime vous est destinée Kalina ma rendu la vie dure, jai mangé, chié et vomi du bitume J'dois faire des thunes, des gros tubes faire bouger les gros culs sur linstru et faire part dmon vécu Esquiver la brigade des stups, les pièges de la rue, bref assurer ma sécu Puisque la vie est une pute et quon en a quune, négro jai baisé cette pute Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres Jai perdu mon père, quil repose en paix, que mes prières se payent Abonné à la merde jai choisi la musique apparemment le nègre, court à sa perte Une larme de tapette parce que mon frère est devenu fou Jessaye dacquérir plus quune foule Est-ce ma faute si jen ai gros sur un cur de haineux qui pèse déjà lourd ? Jai pas ltemps pour ton cinéma si jsors un gun cest pour stopper ton pouls Cours, jai peur de moi et pour mes frères ça peut virer au rouge à la cool Maman ne me comprend pas, elle croit que jsuis comme tous les cons den bas Police, clé dbras, poto on a trop fait les cons les gars Dédicace à ma beuh elle est bonne la salope elle adoucit mes sous Si jai pas niqué votre game de merde cest que jsuis écouté par les sourds Jsuis plus plus fort que vos thos-my, promis Jai des responsabilités et jsuis un peu pommé Quatre fois jai évité davoir des bouches à nourrir, homie Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres Jsuis cette créature qui tourne autour de toi Jour et nuit tentends ma douce voix Tu ne peux rien faire je suis plus forte que toi Dans ta conscience rien que je prends du poids Tiens fumes cette dope, vends cette dope Lâche cette meuf négro yen a dautres Pt-être quelle sfait baiser par un autre Putain écoute-moi négro yen a dautres Tire cette dope, fumes cette dope Tiens cette dope, vends cette dope Tiens cette dope, fumes cette dope Putain lâche cette go négro yen a dautres7</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eh, eh, jme lève gros barreau sur l'té-cô comme dhab Appels manqués de losses-bo tu connais comme d'hab J'descends prendre de l'air au tiekson comme d'hab Avant daller refaire la journée de deux-trois comptables On slève à nimporte quelle heure et on fait dla monnaie On va baiser cputain drap game en double poney Trop dgens comptent sur moi dans la street ou dans la zik Jdois tout niquer jai pas ltemps daller me branler Gros jai pas ltemps daller mbranler On fait des sons de dingue depuis tu dors plus jsuis dbonne humeur Petit jaloux, on est partout, tu deviens fou gros j'suis d'bonne humeur Toujours un fils de pute dans ltier-quar pour tinventer cette rumeur fils de pute ! Quand lalbum sortira certains rappeurs ne seront plus dhumeur Jme lève du pied gauche, jdescends dans mon ghetto Négro comme dhab Une feuille, de la frappe et je roule mon bédo Négro comme dhab Sa gorge est profonde elle met pas les chicots Comme dhab Jai pris le micro, jai monté le niveau Négro comme dhab Nouveau chèque aujourdhui cest shopping le compte monte en flèche, jsuis dbonne humeur Jme lève à quinze heures, jsais qula vie est devant moi Jsuis dbonne humeur Jai les échos les ennemis dmes amis sont en train dber-tom Jsuis dbonne humeur Bois à ta santé les bouteilles sont bénef' quand c'est nous J'suis d'bonne humeur You might also like On fait du bon son et tu kiffes négro, cest comme dhab Dans mon blunt ya que de la weed négro, cest comme dhab Moi et mon équipe on fait toujours la diff négro, cest comme dhab Tous ceux qui t'entourent sont tous des snitchs négro, c'est normal C'est Marlo feat Voldemort bang bang bang Oui c'est vrai je baise t'es mort bang bang bang Mon rêve c'est d'tuer un porc bang bang bang Woop, woop, ouais c'est gang Mes négros m'appellent pour de l'oseille Fais le malin BM va t'arroser Ils ont volé le flow Ricky Rozay J'ai l'pognon ce soir je veux baiser Jme lève du pied gauche, jdescends dans mon ghetto Négro comme dhab Une feuille, de la frappe et je roule mon bédo Négro comme dhab Sa gorge est profonde elle met pas les chicots Comme dhab Jai pris le micro, jai monté le niveau Négro comme dhab Nouveau chèque aujourdhui cest shopping le compte monte en flèche, jsuis dbonne humeur Jme lève à quinze heures, jsais qula vie est devant moi Jsuis dbonne humeur Jai les échos les ennemis dmes amis sont en train dber-tom Jsuis dbonne humeur Bois à ta santé les bouteilles sont bénef' quand c'est nous J'suis d'bonne humeur Soirée et copines, Sarah est coquine Y'a mon équipe, donc forcément un tas d'kikis Sur la piste y'a trop de styles Bien sûr c'est nous arrête d'envier négro, vis ta vie On s'en fout d'ta gueule, on t'connaît pas Tu fais des gestes de tir, fuck vous, vive ma clique Quand il fait l'foolek avec les tits-pe T'inquiète pas que nous on sait ça dépend de qui J'suis de bonne humeur car mon talent m'a dit normalement bientôt je quitte ce merdier Le futur sent bon j'suis content pour mon frère qui bientôt devrait se marier Négro faut qu'tu meures si t'as balance ton équipe et t'en as rien à foutre d'assumer En fait c'est pas mon problème moi j'suis en route pour taper des coups qui sont à succès Mon Marocco toujours à droite négro, c'est comme d'hab Elle mouille sans que j'la doigte négro, c'est comme d'hab J'ai baisé Hermione dans les toilettes de Poudlard Coup d'baguette magique avec mon zizi tout noir J'te balafre le visage comme un haal pulaar Et j'te coupe la te-tê pour qu'tu perdes la mémoire Ta mère la cougar pense à moi tous les soirs et ton père en a marre Je suis son pire cauchemar, je rentre chez toi quand il n'est pas là Je roule mes joints pénard, posé dans son plumard Ma tête est fucked up, parle à mon cul parle à mon cul Non ne me compare pas à ces moldus Jme lève du pied gauche, jdescends dans mon ghetto Négro comme dhab Une feuille, de la frappe et je roule mon bédo Négro comme dhab Sa gorge est profonde elle met pas les chicots Comme dhab Jai pris le micro, jai monté le niveau Négro comme dhab Nouveau chèque aujourdhui cest shopping le compte monte en flèche, jsuis dbonne humeur Jme lève à quinze heures, jsais qula vie est devant moi Jsuis dbonne humeur Jai les échos les ennemis dmes amis sont en train dber-tom Jsuis dbonne humeur Bois à ta santé les bouteilles sont bénef' quand c'est nous J'suis d'bonne humeur Oh mon négro j'suis de bonne humeur Oh mon négro j'suis de bonne humeur J'suis de bonne humeur Oh mon négro j'suis de bonne humeur4</t>
+          <t>Eh, eh, jme lève gros barreau sur l'té-cô comme dhab Appels manqués de losses-bo tu connais comme d'hab J'descends prendre de l'air au tiekson comme d'hab Avant daller refaire la journée de deux-trois comptables On slève à nimporte quelle heure et on fait dla monnaie On va baiser cputain drap game en double poney Trop dgens comptent sur moi dans la street ou dans la zik Jdois tout niquer jai pas ltemps daller me branler Gros jai pas ltemps daller mbranler On fait des sons de dingue depuis tu dors plus jsuis dbonne humeur Petit jaloux, on est partout, tu deviens fou gros j'suis d'bonne humeur Toujours un fils de pute dans ltier-quar pour tinventer cette rumeur fils de pute ! Quand lalbum sortira certains rappeurs ne seront plus dhumeur Jme lève du pied gauche, jdescends dans mon ghetto Négro comme dhab Une feuille, de la frappe et je roule mon bédo Négro comme dhab Sa gorge est profonde elle met pas les chicots Comme dhab Jai pris le micro, jai monté le niveau Négro comme dhab Nouveau chèque aujourdhui cest shopping le compte monte en flèche, jsuis dbonne humeur Jme lève à quinze heures, jsais qula vie est devant moi Jsuis dbonne humeur Jai les échos les ennemis dmes amis sont en train dber-tom Jsuis dbonne humeur Bois à ta santé les bouteilles sont bénef' quand c'est nous J'suis d'bonne humeur On fait du bon son et tu kiffes négro, cest comme dhab Dans mon blunt ya que de la weed négro, cest comme dhab Moi et mon équipe on fait toujours la diff négro, cest comme dhab Tous ceux qui t'entourent sont tous des snitchs négro, c'est normal C'est Marlo feat Voldemort bang bang bang Oui c'est vrai je baise t'es mort bang bang bang Mon rêve c'est d'tuer un porc bang bang bang Woop, woop, ouais c'est gang Mes négros m'appellent pour de l'oseille Fais le malin BM va t'arroser Ils ont volé le flow Ricky Rozay J'ai l'pognon ce soir je veux baiser Jme lève du pied gauche, jdescends dans mon ghetto Négro comme dhab Une feuille, de la frappe et je roule mon bédo Négro comme dhab Sa gorge est profonde elle met pas les chicots Comme dhab Jai pris le micro, jai monté le niveau Négro comme dhab Nouveau chèque aujourdhui cest shopping le compte monte en flèche, jsuis dbonne humeur Jme lève à quinze heures, jsais qula vie est devant moi Jsuis dbonne humeur Jai les échos les ennemis dmes amis sont en train dber-tom Jsuis dbonne humeur Bois à ta santé les bouteilles sont bénef' quand c'est nous J'suis d'bonne humeur Soirée et copines, Sarah est coquine Y'a mon équipe, donc forcément un tas d'kikis Sur la piste y'a trop de styles Bien sûr c'est nous arrête d'envier négro, vis ta vie On s'en fout d'ta gueule, on t'connaît pas Tu fais des gestes de tir, fuck vous, vive ma clique Quand il fait l'foolek avec les tits-pe T'inquiète pas que nous on sait ça dépend de qui J'suis de bonne humeur car mon talent m'a dit normalement bientôt je quitte ce merdier Le futur sent bon j'suis content pour mon frère qui bientôt devrait se marier Négro faut qu'tu meures si t'as balance ton équipe et t'en as rien à foutre d'assumer En fait c'est pas mon problème moi j'suis en route pour taper des coups qui sont à succès Mon Marocco toujours à droite négro, c'est comme d'hab Elle mouille sans que j'la doigte négro, c'est comme d'hab J'ai baisé Hermione dans les toilettes de Poudlard Coup d'baguette magique avec mon zizi tout noir J'te balafre le visage comme un haal pulaar Et j'te coupe la te-tê pour qu'tu perdes la mémoire Ta mère la cougar pense à moi tous les soirs et ton père en a marre Je suis son pire cauchemar, je rentre chez toi quand il n'est pas là Je roule mes joints pénard, posé dans son plumard Ma tête est fucked up, parle à mon cul parle à mon cul Non ne me compare pas à ces moldus Jme lève du pied gauche, jdescends dans mon ghetto Négro comme dhab Une feuille, de la frappe et je roule mon bédo Négro comme dhab Sa gorge est profonde elle met pas les chicots Comme dhab Jai pris le micro, jai monté le niveau Négro comme dhab Nouveau chèque aujourdhui cest shopping le compte monte en flèche, jsuis dbonne humeur Jme lève à quinze heures, jsais qula vie est devant moi Jsuis dbonne humeur Jai les échos les ennemis dmes amis sont en train dber-tom Jsuis dbonne humeur Bois à ta santé les bouteilles sont bénef' quand c'est nous J'suis d'bonne humeur Oh mon négro j'suis de bonne humeur Oh mon négro j'suis de bonne humeur J'suis de bonne humeur Oh mon négro j'suis de bonne humeur4</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jok'Air, MZ, Big Daddy Jok J'étais devant l'bloc avec Davidson On parlait d'faire de grosses sommes Il disait qu'nos mères n'pouvaient plus continuer D'bosser de la sorte, qu'il fallait qu'on s'en sorte J'lui ai répondu Vu l'artillerie musicale que j'ai en stock T'inquiète, on a d'quoi marquer notre époque Jusqu'à c'qu'elle vienne perturber le décor Que les courbes de son corps viennent nous jeter un sort Elle ressemblait aux stars de magazines Beaucoup plus bonne que la plus bonne de tes copines Elle avait d'quoi rendre jalouse toutes les filles De quoi faire bander les bandits Jusqu'à provoquer une guerre civile Sur sa route, elle laisse les négros fragiles Le monde est à ses pieds en un battement de cils Faut que j'fasse belek, elle peut m'faire tomber love Cette bitch a trop d'style J'étais devant le bloc, avec deux-trois potes Posés pas loin d'un Glock, on parlait de grosses sommes C'était un soir d'automne où la nuit était bonne Et la beuh était bonne, et cette meuf était... Elle est passée et tout s'est arrêté Cette sorcière nous a tous envoutés Faut que j'fasse belek, elle peut m'faire tomber love Stop ! La go a mis pause... You might also like La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause Elle a mis pause, j'suis bloqué J'regarde son gros boule, putain, est-il homologué ? Ça jacte, j'lui rentre que des squettes-di J'veux juste la grain, j'm'en bats les couilles de c'qu'elle m'dit Les torticolis sont présents, c'est chaud Y'a d'la de-vian et les carnivores sont chauds On causait, elle est passée, elle a mis pause C'est bon, moi j'ai pris ma dose J'arrête avant que ma tête explose J'étais devant le bloc, avec deux-trois potes Posés pas loin d'un Glock, on parlait de grosses sommes C'était un soir d'automne où la nuit était bonne Et la beuh était bonne, et cette meuf était... Elle est passée et tout s'est arrêté Cette sorcière nous a tous envoutés Faut que j'fasse belek, elle peut m'faire tomber love Stop ! La go a mis pause... La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause J'étais posé dans la rue, tu connais, j'tapais la pose Ici c'est chez ma mère à part quand les flics me contrôlent Toujours avec les mêmes qui s'consolent avec leurs doses On commençait à s'enjailler mais la pétasse a mis pause J'te jure, un aveugle a retrouvé la vue Un pigeon lui a proposé d'partager son pain Le temps s'est arrêté, 11 2 mais elle moi égal à 1 Elle est pas bonne, elle est classe Regarde-moi son boule première classe Oh no, oh no, comme la beuh elle a boycotté mon cerveau Un avion de chasse que je chasse Y'a pas que ma bouche qui en bave Oh no, oh no, comme la beuh elle a boycotté mon cerveau J'étais devant le bloc, avec deux-trois potes Posés pas loin d'un Glock, on parlait de grosses sommes C'était un soir d'automne où la nuit était bonne Et la beuh était bonne, et cette meuf était... Elle est passée et tout s'est arrêté Cette sorcière nous a tous envoutés Faut que j'fasse belek, elle peut m'faire tomber love Stop ! La go a mis pause... La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause7</t>
+          <t>Jok'Air, MZ, Big Daddy Jok J'étais devant l'bloc avec Davidson On parlait d'faire de grosses sommes Il disait qu'nos mères n'pouvaient plus continuer D'bosser de la sorte, qu'il fallait qu'on s'en sorte J'lui ai répondu Vu l'artillerie musicale que j'ai en stock T'inquiète, on a d'quoi marquer notre époque Jusqu'à c'qu'elle vienne perturber le décor Que les courbes de son corps viennent nous jeter un sort Elle ressemblait aux stars de magazines Beaucoup plus bonne que la plus bonne de tes copines Elle avait d'quoi rendre jalouse toutes les filles De quoi faire bander les bandits Jusqu'à provoquer une guerre civile Sur sa route, elle laisse les négros fragiles Le monde est à ses pieds en un battement de cils Faut que j'fasse belek, elle peut m'faire tomber love Cette bitch a trop d'style J'étais devant le bloc, avec deux-trois potes Posés pas loin d'un Glock, on parlait de grosses sommes C'était un soir d'automne où la nuit était bonne Et la beuh était bonne, et cette meuf était... Elle est passée et tout s'est arrêté Cette sorcière nous a tous envoutés Faut que j'fasse belek, elle peut m'faire tomber love Stop ! La go a mis pause... La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause Elle a mis pause, j'suis bloqué J'regarde son gros boule, putain, est-il homologué ? Ça jacte, j'lui rentre que des squettes-di J'veux juste la grain, j'm'en bats les couilles de c'qu'elle m'dit Les torticolis sont présents, c'est chaud Y'a d'la de-vian et les carnivores sont chauds On causait, elle est passée, elle a mis pause C'est bon, moi j'ai pris ma dose J'arrête avant que ma tête explose J'étais devant le bloc, avec deux-trois potes Posés pas loin d'un Glock, on parlait de grosses sommes C'était un soir d'automne où la nuit était bonne Et la beuh était bonne, et cette meuf était... Elle est passée et tout s'est arrêté Cette sorcière nous a tous envoutés Faut que j'fasse belek, elle peut m'faire tomber love Stop ! La go a mis pause... La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause J'étais posé dans la rue, tu connais, j'tapais la pose Ici c'est chez ma mère à part quand les flics me contrôlent Toujours avec les mêmes qui s'consolent avec leurs doses On commençait à s'enjailler mais la pétasse a mis pause J'te jure, un aveugle a retrouvé la vue Un pigeon lui a proposé d'partager son pain Le temps s'est arrêté, 11 2 mais elle moi égal à 1 Elle est pas bonne, elle est classe Regarde-moi son boule première classe Oh no, oh no, comme la beuh elle a boycotté mon cerveau Un avion de chasse que je chasse Y'a pas que ma bouche qui en bave Oh no, oh no, comme la beuh elle a boycotté mon cerveau J'étais devant le bloc, avec deux-trois potes Posés pas loin d'un Glock, on parlait de grosses sommes C'était un soir d'automne où la nuit était bonne Et la beuh était bonne, et cette meuf était... Elle est passée et tout s'est arrêté Cette sorcière nous a tous envoutés Faut que j'fasse belek, elle peut m'faire tomber love Stop ! La go a mis pause... La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause La go a mis pause La go a mis pause La go a mis pause Cette bitch a mis pause La go a mis pause La salope a mis pause La go a mis pause La djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause Ouais la go a mis pause, cette bitch a mis pause La salope a mis pause, la djandjou a mis pause7</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Non, négro Jok'Air, MZ, Big Daddy Jok' Je suis la conséquence de l'empire colonial Une victime du vol légal, ils ont tué l'Afrique Coupé ses vivres et tu te demandes qu'est-ce que je fous là On m'a dit que les colons n'avaient pas prédit ça Qu'ils seraient les premiers partisans du métissage J'suis méprisé par les médias, oublié de lEducation Nationale Je n'ai pas la gueule de l'emploi, j'incarne la délinquance 400 ans d'esclavage Dites-moi qu'incarne la France et ils osent m'ôter ma présomption dinnocence Dis-moi, qu'est-ce que t'en penses ? Je ne serai jamais leur négro de service Je me laisserai pas mourir au début du film J'aime bien la France mais je baise sa politique Aux Antilles la traite négrière n'est pas finie Pour mes Cains-fri qui naviguent vers l'Europe Pour que plus belles soient leurs vies Mais qui souffrent de Château Rouge jusqu'à Place D'italie Montre-leur qui sont les vrais négros à Paris Bitch, c'est nous et non pas Kanye West et Jay-Z C'est dur, mon négro, mais on bosse, mon négro Soit t'en fais deux fois plus, soit t'as rien, mon négro Mais force, mon négro, et t'inquiète, mon négro Je ne suis pas communautaire, mais je t'aime, mon négro You might also like Les enfants ont peur du noir Cette peur s'amplifie avec l'âge Vois-tu de quoi je te parle ? As-tu capté mon message ? Tu haïs ce dont tu as peur, car toi tu as peur de moi J'suis noir comme ma maman Noir comme mon papa, noir comme mes surs Noir comme mes frères, que la race humaine me respecte C'est dur pour un noir En France pour me croire il faut le vivre Fuck les politiques, les médias nous méprisent Ils disent qu'je me victimise J'suis un black à la 2Pac, je suis le suspect quand le coup part Elle est sapée en black, donc j'ai la tête du coupable Black comme le métis qui sort de ta chatte Je bosse trois fois plus pour pour t'enculer à coup de carte black Black qui débarque dans le bloc Le gun est gris, Pah, Pah, Pah, la vitre teintée est black Comme Mamadou et Fatou Mate sur la carte d'identité la belle tâche au black Et comme Dutty et Mandela pour briser mes chaînes, gros je suis ready to die Nique le Ku Klux Klan, Obama président, même leur grand-mère n'a pas prédit le bail Black comme N'Gijol ou Sy Omar J'me sers de mon talent pour faire des maths Noir c'est noir, il n'y a plus d'espoir Ta fille aussi aimait la Banania Les enfants ont peur du noir Cette peur s'amplifie avec l'âge Vois-tu de quoi je te parle ? As-tu capté mon message ? Tu haïs ce dont tu as peur, car toi tu as peur de moi J'suis noir comme ma maman Noir comme mon papa, noir comme mes surs Noir comme mes frères, que la race humaine me respecte C'est dur pour un noir En France pour me croire il faut le vivre Fuck les politiques, les médias nous méprisent Ils disent qu'je me victimise Tu cherches ton sac quand je rentre dans le wagon Monte les vitres quand je suis proche de ta va-go Ils nous disent pas tout en cours d'histoire Professeur de merde, ragots sur ragots Pourquoi ma sur fera carrière dans le ménage ? Ces petites filles à papa dans un bureau Pas d'taf pour lui alors qu'il a tous les diplômes Désespéré, mon frère finira siste-gros Il faut que ça change j'attends Les bleus sont nuls depuis l'quota Toujours le même slogan que j'entends ''Rentre chez toi si t'es pas content'' Et oui j'te le dis j'suis pas content Donc je ne rentrerai pas chez moi Si tu veux que je rentre, rends-moi tout ce que tu m'as pris chez moi Les enfants ont peur du noir Cette peur s'amplifie avec l'âge Vois-tu de quoi je te parle ? As-tu capté mon message ? Réalise ce dont tu as peur, car toi tu as peur de moi J'suis noir comme ma maman Noir comme mon papa, noir comme mes surs Noir comme mes frères, que la race humaine me respecte C'est dur pour un noir En France pour me croire il faut le vivre Fuck les politiques, les médias nous méprisent Ils disent qu'je me victimise5</t>
+          <t>Non, négro Jok'Air, MZ, Big Daddy Jok' Je suis la conséquence de l'empire colonial Une victime du vol légal, ils ont tué l'Afrique Coupé ses vivres et tu te demandes qu'est-ce que je fous là On m'a dit que les colons n'avaient pas prédit ça Qu'ils seraient les premiers partisans du métissage J'suis méprisé par les médias, oublié de lEducation Nationale Je n'ai pas la gueule de l'emploi, j'incarne la délinquance 400 ans d'esclavage Dites-moi qu'incarne la France et ils osent m'ôter ma présomption dinnocence Dis-moi, qu'est-ce que t'en penses ? Je ne serai jamais leur négro de service Je me laisserai pas mourir au début du film J'aime bien la France mais je baise sa politique Aux Antilles la traite négrière n'est pas finie Pour mes Cains-fri qui naviguent vers l'Europe Pour que plus belles soient leurs vies Mais qui souffrent de Château Rouge jusqu'à Place D'italie Montre-leur qui sont les vrais négros à Paris Bitch, c'est nous et non pas Kanye West et Jay-Z C'est dur, mon négro, mais on bosse, mon négro Soit t'en fais deux fois plus, soit t'as rien, mon négro Mais force, mon négro, et t'inquiète, mon négro Je ne suis pas communautaire, mais je t'aime, mon négro Les enfants ont peur du noir Cette peur s'amplifie avec l'âge Vois-tu de quoi je te parle ? As-tu capté mon message ? Tu haïs ce dont tu as peur, car toi tu as peur de moi J'suis noir comme ma maman Noir comme mon papa, noir comme mes surs Noir comme mes frères, que la race humaine me respecte C'est dur pour un noir En France pour me croire il faut le vivre Fuck les politiques, les médias nous méprisent Ils disent qu'je me victimise J'suis un black à la 2Pac, je suis le suspect quand le coup part Elle est sapée en black, donc j'ai la tête du coupable Black comme le métis qui sort de ta chatte Je bosse trois fois plus pour pour t'enculer à coup de carte black Black qui débarque dans le bloc Le gun est gris, Pah, Pah, Pah, la vitre teintée est black Comme Mamadou et Fatou Mate sur la carte d'identité la belle tâche au black Et comme Dutty et Mandela pour briser mes chaînes, gros je suis ready to die Nique le Ku Klux Klan, Obama président, même leur grand-mère n'a pas prédit le bail Black comme N'Gijol ou Sy Omar J'me sers de mon talent pour faire des maths Noir c'est noir, il n'y a plus d'espoir Ta fille aussi aimait la Banania Les enfants ont peur du noir Cette peur s'amplifie avec l'âge Vois-tu de quoi je te parle ? As-tu capté mon message ? Tu haïs ce dont tu as peur, car toi tu as peur de moi J'suis noir comme ma maman Noir comme mon papa, noir comme mes surs Noir comme mes frères, que la race humaine me respecte C'est dur pour un noir En France pour me croire il faut le vivre Fuck les politiques, les médias nous méprisent Ils disent qu'je me victimise Tu cherches ton sac quand je rentre dans le wagon Monte les vitres quand je suis proche de ta va-go Ils nous disent pas tout en cours d'histoire Professeur de merde, ragots sur ragots Pourquoi ma sur fera carrière dans le ménage ? Ces petites filles à papa dans un bureau Pas d'taf pour lui alors qu'il a tous les diplômes Désespéré, mon frère finira siste-gros Il faut que ça change j'attends Les bleus sont nuls depuis l'quota Toujours le même slogan que j'entends ''Rentre chez toi si t'es pas content'' Et oui j'te le dis j'suis pas content Donc je ne rentrerai pas chez moi Si tu veux que je rentre, rends-moi tout ce que tu m'as pris chez moi Les enfants ont peur du noir Cette peur s'amplifie avec l'âge Vois-tu de quoi je te parle ? As-tu capté mon message ? Réalise ce dont tu as peur, car toi tu as peur de moi J'suis noir comme ma maman Noir comme mon papa, noir comme mes surs Noir comme mes frères, que la race humaine me respecte C'est dur pour un noir En France pour me croire il faut le vivre Fuck les politiques, les médias nous méprisent Ils disent qu'je me victimise5</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Devant mes potes j'dis que c'est ma pute Sous les draps j'l'appelle ma puce Je lui mens depuis le début Honnêtement j'trouve que j'abuse en plus À chaque fois que j'la baise ça devient rude j'm'attache De plus en plus, en plus elle traîne une sale réput' À la base ce n'était qu'un plan cul Ce n'est pas une be-bom, mais bon, elle a ce qu'il faut là où il faut Son caractère est son seul défaut, les je t'aime sont de moins en moins faux Elle commence à fouiller mon Facebook, mon phone, devient folle, m'espionne Elle me colle à mort, elle est tombée love, mais comment me détacher de cette p'tite conne ? Dans la rue, elle veut qu'on se tienne la main, dans les transports qu'on s'embrasse Elle m'embarrasse, faut que j'm'en débarrasse Jusqu'au jour où cette salope me largue en espérant me faire du mal La seule chose que j'regretterai c'était sa finition buccale, donc J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note You might also like Elle dit qu'elle m'aime à la folie mais qu'elle me trouve grave zzar-bi En effet quand elle est pas là j'ambiance des 'tasses avec 2-3 Sahbi Elle vérifie mon Facebook, j'te parle même pas d'mon phone Elle se crée des faux comptes pour des traquenards, allez j'crois qu'elle devient folle Elle cherche le prince charmant mais j'crois qu'elle s'est trompée J'fais que d'la tromper et j'pense à ceux qui lui courent après Qui s'raient tous prêts à me pomper Elle me fait la gueule quand elle me crame mais tous ça se répare par des je t'aime Mes gars m'disent que j'suis un bâtard et que j'finirai par m'faire jeter Et de temps en temps, ses propos me font grave marrer Quand elle me parle de faire des marmots et d'se marier Quand elle m'attrape madame veut toujours se barrer C'est une de perdue l'infini de retrouvé, donc J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J't'avoue que c'est con mais les meufs bien c'est plus fait pour moi Que j'ai fait le compte que j'suis pas assez bonhomme, juste un beau gosse Juste économe d'amour, destiné à devenir un bel homme Dites aux filles faciles que j'suis pas là pour juger Que c'est pas des putes vu qu'j'ai pas besoin d'les payer Besoin d'un bisou, juste envie d'parler c'est c'que j'vous dirai si j'vous mentirai Une de perdue 10 de retrouvées, elle avait son mec mais j'l'ai détourné J'l'ai retourné, re-retourné, avec son mec elle est retournée Après ils diront que j'suis un bâtard, ouais j'avoue que les mecs c'est des bâtards Mais t'as vu, moi j'ai forcé personne pour qu'elle écarte Et sur Facebook mettrons des statuts d'amours, commentés par pleins d'putes aux gros boules Moi j'aime bien j't'avoue que j'me marre beaucoup, j'me marre beaucoup Mais là j'me casse j'vais voir ma go J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note5</t>
+          <t>Devant mes potes j'dis que c'est ma pute Sous les draps j'l'appelle ma puce Je lui mens depuis le début Honnêtement j'trouve que j'abuse en plus À chaque fois que j'la baise ça devient rude j'm'attache De plus en plus, en plus elle traîne une sale réput' À la base ce n'était qu'un plan cul Ce n'est pas une be-bom, mais bon, elle a ce qu'il faut là où il faut Son caractère est son seul défaut, les je t'aime sont de moins en moins faux Elle commence à fouiller mon Facebook, mon phone, devient folle, m'espionne Elle me colle à mort, elle est tombée love, mais comment me détacher de cette p'tite conne ? Dans la rue, elle veut qu'on se tienne la main, dans les transports qu'on s'embrasse Elle m'embarrasse, faut que j'm'en débarrasse Jusqu'au jour où cette salope me largue en espérant me faire du mal La seule chose que j'regretterai c'était sa finition buccale, donc J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note Elle dit qu'elle m'aime à la folie mais qu'elle me trouve grave zzar-bi En effet quand elle est pas là j'ambiance des 'tasses avec 2-3 Sahbi Elle vérifie mon Facebook, j'te parle même pas d'mon phone Elle se crée des faux comptes pour des traquenards, allez j'crois qu'elle devient folle Elle cherche le prince charmant mais j'crois qu'elle s'est trompée J'fais que d'la tromper et j'pense à ceux qui lui courent après Qui s'raient tous prêts à me pomper Elle me fait la gueule quand elle me crame mais tous ça se répare par des je t'aime Mes gars m'disent que j'suis un bâtard et que j'finirai par m'faire jeter Et de temps en temps, ses propos me font grave marrer Quand elle me parle de faire des marmots et d'se marier Quand elle m'attrape madame veut toujours se barrer C'est une de perdue l'infini de retrouvé, donc J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J't'avoue que c'est con mais les meufs bien c'est plus fait pour moi Que j'ai fait le compte que j'suis pas assez bonhomme, juste un beau gosse Juste économe d'amour, destiné à devenir un bel homme Dites aux filles faciles que j'suis pas là pour juger Que c'est pas des putes vu qu'j'ai pas besoin d'les payer Besoin d'un bisou, juste envie d'parler c'est c'que j'vous dirai si j'vous mentirai Une de perdue 10 de retrouvées, elle avait son mec mais j'l'ai détourné J'l'ai retourné, re-retourné, avec son mec elle est retournée Après ils diront que j'suis un bâtard, ouais j'avoue que les mecs c'est des bâtards Mais t'as vu, moi j'ai forcé personne pour qu'elle écarte Et sur Facebook mettrons des statuts d'amours, commentés par pleins d'putes aux gros boules Moi j'aime bien j't'avoue que j'me marre beaucoup, j'me marre beaucoup Mais là j'me casse j'vais voir ma go J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre J'm'en bats les couilles j'en serre une autre Au fond ce n'est pas de ma faute un blaze de plus sur mon bloc note5</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>J'me pavane sur Berize avec poto Blacky, nique sa mère Miami Les Bleus c'est les méchants, nous c'est les gentils, qui veut du teuchi ? Moi j'suis pas trop Bella plutôt Mariama a.k.a. Mimi J'me souviens pas quand je l'ai mal mise Je les oublie quand elles m'appellent mon mari Wesh les gavas dites c'est quoi le boulot Mes diolas, mes dioulas, mandingues et poulhos Les MC's sont forts, n'y crois pas c'est des lol Négro ferme tes fesses tu sers qu'à galoche J'ai la dégaine donc elles kiffent le bonbon Shoot dans les couilles de ce con de Cupidon Balance les 'teilles-teilles qu'on se tire sur Pluton Mais jamais j'aurais l'même ventre que ton Tonton Il m'faut une pétasse pas sale, wesh Jico J'te cache pas avec énorme dos Un C4 cé-pla dans les locaux du comico Et badaboum j'sors toutes mes chicos Allez niquez vos mères vous n'êtes même pas beaux Même pas bons, vous allez sauter comme Laurent Gbagbo Oh zeub, j'suis le meilleur avec trop d'défauts Là c'est le volume 3, bonobo, D.E.H.M.O Oh, oh 1 pour le respect, 2 pour le seille-o Balance pas la famille comme D'Angelo J'sens des échos quand je décroche mon bigo, oh Bitch balance ton boule du bas vers le haut Prenez position, j'parle à tous mes négros Et comme ce gros lard de Rozay on arrose Bratatata ! You might also like Une nouvelle mixtape te renvoie sur l'banc de touche Hold-up de 4 nègres et tout le Rap Game se couche Crois-moi que l'oseille te rend n'importe quel Bleu louche T'as mis des rottes-ca, t'es wanted, grille tous les feux rouges Bolosse, indic', pleins de clichés Je fais ce que j'ai à faire ce que tu penses je m'en tape J'ai des sous à prendre s'te plaît, me fais pas chier Dans ce rap de merde y a pas d'amitié On les baise, on les baise, demande au litier Touche à la mif on a plus l'âge de jouer On t'envoie à la Salpêtr' sans pitié M.Z Music volume 3 chaud bouillant tah le magma Depuis Bang Bang flow je vois les mêmes trucs Le volume 2 leur a fait sentir la tate-pa Bédier, Chevaleret, ssage-pa Ton rappeur préféré va se faire ssacre-ma Ils sont pas prêts pas pour le bum-al Pour l'instant on leur met des petits coups de traque-ma Ils nous regardent de haut Le mensonge prend l'ascenseur la vérité l'escalier donc à bientôt Suis le son de nos voix et dis-moi ce que tu vois On est 4 comme les 4 saisons dans le rap on vient faire la météo Alléluia, alléluia 4 comme les points cardinaux Du nord au sud de l'est à l'ouest nos blazes se propagent dans les ghettos Alléluia, alléluia 4 négros, 4 flows Beat de Boul dans la sono, bedo dans la che-bou Nos boules ne sont pas à bibi... Davidson gère le biz à la Diddy Jok' Pololo a.k.a Biggy Bitch, allume ces pétasses comme Lil' Kim et j'ferai de toi ma habibi Connecté par la weed à haut débit J'suis, j'suis défoncé comme ODB C'est à notre tour de briller demande au King de Boulbi Nique le rap game, nique la relève Nique leurs punchlines de merde, j'écris des déclarations de guerre Connecté par la weed à haut débit J'suis, j'suis défoncé comme ODB C'est à notre tour de briller demande au King de Boulbi 5</t>
+          <t>J'me pavane sur Berize avec poto Blacky, nique sa mère Miami Les Bleus c'est les méchants, nous c'est les gentils, qui veut du teuchi ? Moi j'suis pas trop Bella plutôt Mariama a.k.a. Mimi J'me souviens pas quand je l'ai mal mise Je les oublie quand elles m'appellent mon mari Wesh les gavas dites c'est quoi le boulot Mes diolas, mes dioulas, mandingues et poulhos Les MC's sont forts, n'y crois pas c'est des lol Négro ferme tes fesses tu sers qu'à galoche J'ai la dégaine donc elles kiffent le bonbon Shoot dans les couilles de ce con de Cupidon Balance les 'teilles-teilles qu'on se tire sur Pluton Mais jamais j'aurais l'même ventre que ton Tonton Il m'faut une pétasse pas sale, wesh Jico J'te cache pas avec énorme dos Un C4 cé-pla dans les locaux du comico Et badaboum j'sors toutes mes chicos Allez niquez vos mères vous n'êtes même pas beaux Même pas bons, vous allez sauter comme Laurent Gbagbo Oh zeub, j'suis le meilleur avec trop d'défauts Là c'est le volume 3, bonobo, D.E.H.M.O Oh, oh 1 pour le respect, 2 pour le seille-o Balance pas la famille comme D'Angelo J'sens des échos quand je décroche mon bigo, oh Bitch balance ton boule du bas vers le haut Prenez position, j'parle à tous mes négros Et comme ce gros lard de Rozay on arrose Bratatata ! Une nouvelle mixtape te renvoie sur l'banc de touche Hold-up de 4 nègres et tout le Rap Game se couche Crois-moi que l'oseille te rend n'importe quel Bleu louche T'as mis des rottes-ca, t'es wanted, grille tous les feux rouges Bolosse, indic', pleins de clichés Je fais ce que j'ai à faire ce que tu penses je m'en tape J'ai des sous à prendre s'te plaît, me fais pas chier Dans ce rap de merde y a pas d'amitié On les baise, on les baise, demande au litier Touche à la mif on a plus l'âge de jouer On t'envoie à la Salpêtr' sans pitié M.Z Music volume 3 chaud bouillant tah le magma Depuis Bang Bang flow je vois les mêmes trucs Le volume 2 leur a fait sentir la tate-pa Bédier, Chevaleret, ssage-pa Ton rappeur préféré va se faire ssacre-ma Ils sont pas prêts pas pour le bum-al Pour l'instant on leur met des petits coups de traque-ma Ils nous regardent de haut Le mensonge prend l'ascenseur la vérité l'escalier donc à bientôt Suis le son de nos voix et dis-moi ce que tu vois On est 4 comme les 4 saisons dans le rap on vient faire la météo Alléluia, alléluia 4 comme les points cardinaux Du nord au sud de l'est à l'ouest nos blazes se propagent dans les ghettos Alléluia, alléluia 4 négros, 4 flows Beat de Boul dans la sono, bedo dans la che-bou Nos boules ne sont pas à bibi... Davidson gère le biz à la Diddy Jok' Pololo a.k.a Biggy Bitch, allume ces pétasses comme Lil' Kim et j'ferai de toi ma habibi Connecté par la weed à haut débit J'suis, j'suis défoncé comme ODB C'est à notre tour de briller demande au King de Boulbi Nique le rap game, nique la relève Nique leurs punchlines de merde, j'écris des déclarations de guerre Connecté par la weed à haut débit J'suis, j'suis défoncé comme ODB C'est à notre tour de briller demande au King de Boulbi 5</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Depuis tout petit jvoulais compter des billets donc jai pas boycotté les maths Jai arrêté les cours pour ce putain dmic, quel putain dmic Le jour où ça paye là cest sûr que jverrai plus maman slever à cinq heures du mat Les profs se plaignaient cest vrai qujétais dissipé Cela ma valu quatre conseils de discipline Comme un con jai ramené la police à la maison pardonne-moi oh maman jten supplie Le daron était absent, toute seule madame a fait de moi un grand garçon On a grandi sans papa ça nous a fait mal Poto tu sais pas toute cette haine quon avait dans nos regards sombres Avec Zaïko et Loka dans mes premières conneries Quand jy repense les gars rien qujai golri Et jme rappelle lépoque dAudacity ALKA-13, des finisseurs Quand Jeci Jess se jouait les cainris Comme au de-blé jai les crocs Jme dois de réussir dans cpays qui me traite de sale négro Dévisagé, montré du doigt depuis tout petit mon gros cest trop Big up à tous ces haineux quon qui maintenant nsont plus dans nos rétros Ouais cest trop Regarde ma petite maman jai grandi jsuis un conquérant Dieu men est témoin que jeune jétais quun con errant Jai fait cque jai à faire jai pas attendu tes compliments Ne mattendez pas jmapprête à faire le tour du continent Mais que ce soit ma dope, ma liasse, ma tasse-pé, tout est resté Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Regarde ma petite maman jai grandi jsuis un conquérant Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Plus jeune jétais quun con errant Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Jmapprête à faire le tour du continent Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Mais que ce soit ma dope, ma liasse, ma tasse-pé, tout est resté Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz You might also like Jme souviens dmoi et dma paire de scratchs Luttant pour quma coupe sdégrade En faisant l'con pour que cette blonde regarde Maintenant jai la côte, des barres Je smoke mari' jsuis loin déjà Je plane coco comme un aigle royal Toi claque pas ta tune comme si tenculais lÉtat quand on aime on ncompte pas Tu comptes grave Jétais, je suis, un inconnu qui rêver juste de sen sortir Je taime, jmexcuse de te lavoir dit maintenant quton cur est dans les soucis Respecte, MZ cest tellement dcoups dcrasse qu'la rançon devient pénible On montait, maintenant on descend La rue cest la rue quand tu la manges, un délice Quitte la street ça fait du bien gros Ou maîtrise-la pour tu fais du bien gros Enfoiré dssiste-gro dans cette merde ya des mots qu'on apprend pas dans le dico La rue je la quitte, bye-bye, jte laisse avec tes histoires de drive-by Bye-bye, jai retourné les conneries par terre, maintenant je lui dis bye-bye Plus de monnaie, plus de problèmes Les mecs allons chercher les problèmes Allons chercher cette merde Allons couper les têtes des mecs qui font tourner ce rapgame À présent jsais on avance, jles laisse croire entre eux quils sont dans les temps Ils nous verront pas venir comme lange de la mort Comme les vents du nord ou comme un uppercut dans le ventre Que personne ne mattende ni ma famille ni mon gang car la route est longue Je promets drester frais jusque dans ma tombe Le jour où jmente la vérité vienne me couper la langue Et à la longue, ça mfera du mal Là doù jviens linstinct dsurvie est animal Peu importe le nombre, peu importent les armes Jleur ferai la guerre jusquau point final J'ai coupé, cellophané, négro jai vendu cette dope Gros jsais pas si les fleurs ont fané sur la route jai perdu des potes Jai gagné des ennemis et des proches qui me prennent pour un autre Seigneur laissez les me haïr au fond ce nest pas de leur faute 8</t>
+          <t>Depuis tout petit jvoulais compter des billets donc jai pas boycotté les maths Jai arrêté les cours pour ce putain dmic, quel putain dmic Le jour où ça paye là cest sûr que jverrai plus maman slever à cinq heures du mat Les profs se plaignaient cest vrai qujétais dissipé Cela ma valu quatre conseils de discipline Comme un con jai ramené la police à la maison pardonne-moi oh maman jten supplie Le daron était absent, toute seule madame a fait de moi un grand garçon On a grandi sans papa ça nous a fait mal Poto tu sais pas toute cette haine quon avait dans nos regards sombres Avec Zaïko et Loka dans mes premières conneries Quand jy repense les gars rien qujai golri Et jme rappelle lépoque dAudacity ALKA-13, des finisseurs Quand Jeci Jess se jouait les cainris Comme au de-blé jai les crocs Jme dois de réussir dans cpays qui me traite de sale négro Dévisagé, montré du doigt depuis tout petit mon gros cest trop Big up à tous ces haineux quon qui maintenant nsont plus dans nos rétros Ouais cest trop Regarde ma petite maman jai grandi jsuis un conquérant Dieu men est témoin que jeune jétais quun con errant Jai fait cque jai à faire jai pas attendu tes compliments Ne mattendez pas jmapprête à faire le tour du continent Mais que ce soit ma dope, ma liasse, ma tasse-pé, tout est resté Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Regarde ma petite maman jai grandi jsuis un conquérant Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Plus jeune jétais quun con errant Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Jmapprête à faire le tour du continent Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Mais que ce soit ma dope, ma liasse, ma tasse-pé, tout est resté Gaingz, gaingz, gaingz, gaingz, gaingz, gaingz, gaingz Jme souviens dmoi et dma paire de scratchs Luttant pour quma coupe sdégrade En faisant l'con pour que cette blonde regarde Maintenant jai la côte, des barres Je smoke mari' jsuis loin déjà Je plane coco comme un aigle royal Toi claque pas ta tune comme si tenculais lÉtat quand on aime on ncompte pas Tu comptes grave Jétais, je suis, un inconnu qui rêver juste de sen sortir Je taime, jmexcuse de te lavoir dit maintenant quton cur est dans les soucis Respecte, MZ cest tellement dcoups dcrasse qu'la rançon devient pénible On montait, maintenant on descend La rue cest la rue quand tu la manges, un délice Quitte la street ça fait du bien gros Ou maîtrise-la pour tu fais du bien gros Enfoiré dssiste-gro dans cette merde ya des mots qu'on apprend pas dans le dico La rue je la quitte, bye-bye, jte laisse avec tes histoires de drive-by Bye-bye, jai retourné les conneries par terre, maintenant je lui dis bye-bye Plus de monnaie, plus de problèmes Les mecs allons chercher les problèmes Allons chercher cette merde Allons couper les têtes des mecs qui font tourner ce rapgame À présent jsais on avance, jles laisse croire entre eux quils sont dans les temps Ils nous verront pas venir comme lange de la mort Comme les vents du nord ou comme un uppercut dans le ventre Que personne ne mattende ni ma famille ni mon gang car la route est longue Je promets drester frais jusque dans ma tombe Le jour où jmente la vérité vienne me couper la langue Et à la longue, ça mfera du mal Là doù jviens linstinct dsurvie est animal Peu importe le nombre, peu importent les armes Jleur ferai la guerre jusquau point final J'ai coupé, cellophané, négro jai vendu cette dope Gros jsais pas si les fleurs ont fané sur la route jai perdu des potes Jai gagné des ennemis et des proches qui me prennent pour un autre Seigneur laissez les me haïr au fond ce nest pas de leur faute 8</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>- J'adore danser - Et bien bravo, vous allez en avoir l'occasion Jte parle de 'sique, tu mparles du Diable Taboies comme un pit', jenvoie du Jack Tu veux un feat ? Hein, faut qutu raques On nfait pas la maligne quand on pue dla chatte Jsuis dans le tieks, oui jme la pète Tout lmonde me guette, comme un 22 Soit largent dla street, soit largent dla 'sique On ma dit choisis, bah jveux les deux Demande à Blacky qui a chargé les los-ki, 120 tranquille Dis-leurs poto Dibs, qui spavane dans lcarré VIP Sûrement pas leur team Rempli de plaquettes, était la planque Real, pas comme tous ces rappeurs qui mentent On aime trop les billets de banque, jhabite à Paris Crois-moi qucest pas les ients-cli qui manquent Négro jsuis dans la street avec Davidson Jai du bon shit, donc le portable sonne Jsuis légendaire, un peu comme Jackson Ces rappeurs mfont rire, un peu comme Patson Tu mverras jamais dans les partouzes Ces suceurs de bites me foutent grave les nerfs Si jétais blanc jserais partout Si jétais aux States jserais millionnaire You might also like Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Je bouge comme un légendaire Et mes gars bougent comme des légendaires Et ma biatch bouge comme une légendaire Et tous ces gens bougent comme des légendaires Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jaime quand elle maccueille les jambes en lair Acrobate, droit au but, elle mappelle Jean-Pierre Papin Quand jopère elle co-opère, elle vire ses collocataires On a boogie-woogie avant dfaire nos prières Sur du Eddy Mitchell en fumant dla be-her Elle a tellement mouillé quelle sortit la serpillère La scène fut légendaire, jrends mes négros fiers Jnai rien à perdre comme un légionnaire Jme sens comme Superman Jviens pour sauver lrap game Jfais rien dexemplaire Jsuis bien lfils de mon père Ne mcompare pas à ces rappeurs de merde Jnai rien dordinaire, négro jsuis légendaire Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Je bouge comme un légendaire Et mes gars bougent comme des légendaires Et ma biatch bouge comme une légendaire Et tous ces gens bougent comme des légendaires Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis en forme petit négro jai pas tisé du Yop Jme ramène dans le hip-hop, vois son Papa Jsais qutu mvois comme si jétais pas vrai Mes défauts mes vont tellement bien que jsuis parfait, mec Pour des femelles, si tu veux mfaire la guerre jte fais lamour Pour des lamelles, si tu fais lCasper gros jte mets lamende Moi jfais ça comme personne toi tu fais comme moi Putain cest rempli denfoirés dPokémon Jsuis trop flé-gon, ça jaccorde On ma pas bien tapé quand jétais gosse Jnique tout comme Dark vador Jla baise, jla mitraille comme à Pearl Harbor Jai lil comme Albator Frappe dans la lucarne, le client est daccord Smoke ça comme Doggy Dog Aujourdhui jsuis capable de niquer Robocop Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Je bouge comme un légendaire Et mes gars bougent comme des légendaires Et ma biatch bouge comme une légendaire Et tous ces gens bougent comme des légendaires Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger1</t>
+          <t>- J'adore danser - Et bien bravo, vous allez en avoir l'occasion Jte parle de 'sique, tu mparles du Diable Taboies comme un pit', jenvoie du Jack Tu veux un feat ? Hein, faut qutu raques On nfait pas la maligne quand on pue dla chatte Jsuis dans le tieks, oui jme la pète Tout lmonde me guette, comme un 22 Soit largent dla street, soit largent dla 'sique On ma dit choisis, bah jveux les deux Demande à Blacky qui a chargé les los-ki, 120 tranquille Dis-leurs poto Dibs, qui spavane dans lcarré VIP Sûrement pas leur team Rempli de plaquettes, était la planque Real, pas comme tous ces rappeurs qui mentent On aime trop les billets de banque, jhabite à Paris Crois-moi qucest pas les ients-cli qui manquent Négro jsuis dans la street avec Davidson Jai du bon shit, donc le portable sonne Jsuis légendaire, un peu comme Jackson Ces rappeurs mfont rire, un peu comme Patson Tu mverras jamais dans les partouzes Ces suceurs de bites me foutent grave les nerfs Si jétais blanc jserais partout Si jétais aux States jserais millionnaire Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Je bouge comme un légendaire Et mes gars bougent comme des légendaires Et ma biatch bouge comme une légendaire Et tous ces gens bougent comme des légendaires Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jaime quand elle maccueille les jambes en lair Acrobate, droit au but, elle mappelle Jean-Pierre Papin Quand jopère elle co-opère, elle vire ses collocataires On a boogie-woogie avant dfaire nos prières Sur du Eddy Mitchell en fumant dla be-her Elle a tellement mouillé quelle sortit la serpillère La scène fut légendaire, jrends mes négros fiers Jnai rien à perdre comme un légionnaire Jme sens comme Superman Jviens pour sauver lrap game Jfais rien dexemplaire Jsuis bien lfils de mon père Ne mcompare pas à ces rappeurs de merde Jnai rien dordinaire, négro jsuis légendaire Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Je bouge comme un légendaire Et mes gars bougent comme des légendaires Et ma biatch bouge comme une légendaire Et tous ces gens bougent comme des légendaires Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis en forme petit négro jai pas tisé du Yop Jme ramène dans le hip-hop, vois son Papa Jsais qutu mvois comme si jétais pas vrai Mes défauts mes vont tellement bien que jsuis parfait, mec Pour des femelles, si tu veux mfaire la guerre jte fais lamour Pour des lamelles, si tu fais lCasper gros jte mets lamende Moi jfais ça comme personne toi tu fais comme moi Putain cest rempli denfoirés dPokémon Jsuis trop flé-gon, ça jaccorde On ma pas bien tapé quand jétais gosse Jnique tout comme Dark vador Jla baise, jla mitraille comme à Pearl Harbor Jai lil comme Albator Frappe dans la lucarne, le client est daccord Smoke ça comme Doggy Dog Aujourdhui jsuis capable de niquer Robocop Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Jsuis plus fort que Superman Je bouge comme un légendaire Et mes gars bougent comme des légendaires Et ma biatch bouge comme une légendaire Et tous ces gens bougent comme des légendaires Jme sens, jme sens, jme sens super léger Jme sens, jme sens, jme sens super léger1</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Déjà je t'aime pas Ferme ta gueule si tu veux rester en bonne santé, je t'ai jamais dis que j'étais sympa Et si cette pute t'aime pas C'est surement parce que t'es sur la paille ou ta bite ne commet pas d'attentat Ils kiffent mon cul à force de parler dans mon dos Les petits distribuent comme Iniesta dans le bendo Pétasse, je t'intercepte dès ta crise d'ado Prendre la bonne pour avoir le flow d'une andouille J'ai connu ma ville en la cambriolant guette J'ai connu la weed dans une chicha goût menthe gangz J'ai connu ma ville en faisant des clients Maintenant c'est fini, je fais le tour de la France entière en chantant Dehmo de la MZ, enchanté gangz Toi arrête de fumer la merde ça rend cinglé gangz Bande d'enfoirés je vous vois rapper, j'sais que vous mentez Te fie pas à la dégaine, gros je suis trop chaud, N'Golo Kanté Je remonte ma braguette pute Capote usagée sur la cuvette splash Je ressors des toilettes La serveuse se rhabille, je retourne à mon tête à tête suce Qui m'attend pour le dessert, sans savoir que j'viens d'lui faire doublette pute, pute Pour me faire pardonner, la remercier de sa patience, je lui boufferai la schneck salope, salope On roule à trois comme les 2Be3, repose en paix Filip Nikolic oui Nouveau boys band dans cette industrie, je les pénètre sans faire de bruit, je switch switch Comme une Spalding, je te face à la J.R Smith J'veux être dans la pyramide, sortir des classiques comme Phil Collins boum You might also like Tu n'es qu'une simple pute pute, je baise des doubles putes ouh Méga triple pute triple, quadruple nano pute Nouveau style libre, mon ami c'est cadeau Oui j'mets la dose, on mixe le matos Ton anus est crados comme la myxomatose Si tu veux sucer toutes nos bites c'est gratos suce, suce On est des vikings, oui, de nous t'es victime pute On te met à BX voilà, derrière des vitrines voilà, me-sper et cyprine suce Vous étiez si tristes pute, couplet décisif exact, on s'dope comme des cyclistes nion Click, click, paw, méga électrochoc électrochoc Tu veux tester ma clique mais elle est trop chaude elle est trop chaude J'évite les clochards comme Randolf et Mortimer Mortimer En plein été, les tox' pratiquent les sports d'hiver pute, pute Tu crèveras dans ton cercueil à deux places nion Va fumer du tilleul, du cerfeuil à deux balles méga pute Alk' putain de pote, le meilleur de l'espace Si j'meurs dans le din, c'est toutes mes erreurs que j'efface triple pute J'vais encore sévir, c'est bordélique, j't'égorge très vite J'suis un écorché vif, j'fais danser même les corps chétifs J'vais encore sévir, c'est bordélique, j't'égorge très vite couic J'suis un écorché vif, j'fais danser même les corps chétifs Eh, ces jaloux font que parler, eux sont pas méchants salope Les armes sont cachés sous le lit dans la bre-cham piou-piou-piou Depuis les millions de vues, poto j'ai pas gé-chan Je veux une salope et une teille-bou sur le champ oui Je roule dans la ville à cent mille, par contre pas permis nion Toujours frais, pourtant avant c'était la sère-mi pute J'ai plus l'temps pour ces p'tites vermines Maintenant je fais le buzz, haineux, all eyez on me C'est les Marches de l'Empereur petite bitch pute J'ai de la MD pour toi petite bitch pute Ya des ves-ca pour toi petite snitch pute J'ai de la cocaïne pour ces fils de riches pu-pu-pu-pute MZ MUSIC, ALK P.O.T.E salope salope, salope, salope Quand on arrive dans le secteur ces petites putes galopent MZ MUSIC, ALK P.O.T.E salope salope, salope, salope Quand on arrive dans le secteur ces petites putes galopent galopent, galopent, galopent Épisode 3, triple pute, Tounsi DJ putain d'Weedim, la boulangerie française est dans cette pute Daymolition, Daymolition, Daymolition2</t>
+          <t>Déjà je t'aime pas Ferme ta gueule si tu veux rester en bonne santé, je t'ai jamais dis que j'étais sympa Et si cette pute t'aime pas C'est surement parce que t'es sur la paille ou ta bite ne commet pas d'attentat Ils kiffent mon cul à force de parler dans mon dos Les petits distribuent comme Iniesta dans le bendo Pétasse, je t'intercepte dès ta crise d'ado Prendre la bonne pour avoir le flow d'une andouille J'ai connu ma ville en la cambriolant guette J'ai connu la weed dans une chicha goût menthe gangz J'ai connu ma ville en faisant des clients Maintenant c'est fini, je fais le tour de la France entière en chantant Dehmo de la MZ, enchanté gangz Toi arrête de fumer la merde ça rend cinglé gangz Bande d'enfoirés je vous vois rapper, j'sais que vous mentez Te fie pas à la dégaine, gros je suis trop chaud, N'Golo Kanté Je remonte ma braguette pute Capote usagée sur la cuvette splash Je ressors des toilettes La serveuse se rhabille, je retourne à mon tête à tête suce Qui m'attend pour le dessert, sans savoir que j'viens d'lui faire doublette pute, pute Pour me faire pardonner, la remercier de sa patience, je lui boufferai la schneck salope, salope On roule à trois comme les 2Be3, repose en paix Filip Nikolic oui Nouveau boys band dans cette industrie, je les pénètre sans faire de bruit, je switch switch Comme une Spalding, je te face à la J.R Smith J'veux être dans la pyramide, sortir des classiques comme Phil Collins boum Tu n'es qu'une simple pute pute, je baise des doubles putes ouh Méga triple pute triple, quadruple nano pute Nouveau style libre, mon ami c'est cadeau Oui j'mets la dose, on mixe le matos Ton anus est crados comme la myxomatose Si tu veux sucer toutes nos bites c'est gratos suce, suce On est des vikings, oui, de nous t'es victime pute On te met à BX voilà, derrière des vitrines voilà, me-sper et cyprine suce Vous étiez si tristes pute, couplet décisif exact, on s'dope comme des cyclistes nion Click, click, paw, méga électrochoc électrochoc Tu veux tester ma clique mais elle est trop chaude elle est trop chaude J'évite les clochards comme Randolf et Mortimer Mortimer En plein été, les tox' pratiquent les sports d'hiver pute, pute Tu crèveras dans ton cercueil à deux places nion Va fumer du tilleul, du cerfeuil à deux balles méga pute Alk' putain de pote, le meilleur de l'espace Si j'meurs dans le din, c'est toutes mes erreurs que j'efface triple pute J'vais encore sévir, c'est bordélique, j't'égorge très vite J'suis un écorché vif, j'fais danser même les corps chétifs J'vais encore sévir, c'est bordélique, j't'égorge très vite couic J'suis un écorché vif, j'fais danser même les corps chétifs Eh, ces jaloux font que parler, eux sont pas méchants salope Les armes sont cachés sous le lit dans la bre-cham piou-piou-piou Depuis les millions de vues, poto j'ai pas gé-chan Je veux une salope et une teille-bou sur le champ oui Je roule dans la ville à cent mille, par contre pas permis nion Toujours frais, pourtant avant c'était la sère-mi pute J'ai plus l'temps pour ces p'tites vermines Maintenant je fais le buzz, haineux, all eyez on me C'est les Marches de l'Empereur petite bitch pute J'ai de la MD pour toi petite bitch pute Ya des ves-ca pour toi petite snitch pute J'ai de la cocaïne pour ces fils de riches pu-pu-pu-pute MZ MUSIC, ALK P.O.T.E salope salope, salope, salope Quand on arrive dans le secteur ces petites putes galopent MZ MUSIC, ALK P.O.T.E salope salope, salope, salope Quand on arrive dans le secteur ces petites putes galopent galopent, galopent, galopent Épisode 3, triple pute, Tounsi DJ putain d'Weedim, la boulangerie française est dans cette pute Daymolition, Daymolition, Daymolition2</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Un jour ou l'autre je vous dirais bye-bye Je mourrai comme un ange ou comme un gangsta J'ai un faible pour la défonce et les belles femmes Mais l'inconcevable c'est de mourir comme un clochard Bye bye bye bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye bye bye Je ne pense qu'à faire des mathéma-mathématiques Que j'traine avec une calculatrice Quand j'passe tout le monde mate ma, mate ma clique Avis aux amatrices Et puis tu connais quand tu fais de l'argent les mecs deviennent fous Jusqu'à en prendre le gun et en vouloir à ta vie Si tu fais l'con, tu fais le faux pas J'ai plaisir à deuil pour ton p'tit cul Toi et ta bande de Heidi, Heidi J'ai pas le temps pour tes rappeurs c'est des p'tits cons à la Hakeem Faut que j'fasse du papier mon négro, faut que je bouquine J'dois laisser des thunes avant la crise cardiaque Ou avant qu'on m'kill, tranquille Je ne pense qu'à faire des mathématiques You might also like Un jour ou l'autre je vous dirais bye-bye Je mourrai comme un ange ou comme un gangsta J'ai un faible pour la défonce et les belles femmes Mais l'inconcevable c'est de mourir comme un clochard Bye bye bye bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye bye bye Crois-moi qu'on touche pas les même bails au même prix 100 grammes de re-pu est égal à 3 milles 8 Négro aboule le cash et vite On s'connait pas donc j'tallume par contre on s'arrangera si t'as de la bonne weed Trop d'affaires donc j'suis dans mes mathématiques Toujours autant de bitch en train de mater ma clique Non, c't'été faut que j'aille m'enjailler à Babi Que la proc' s'cale un oigt-d et que la juge m'astique Maman chérie m'dit d'me serrer la ceinture Hélas attiré par le luxe et les grosses voitures Kalina m'a dit Mon p'tit sans moi la vie est dure L'argent ne fait pas le bonheur mais la sère-mi tue L'argent est égal à ton temps de gloire La gloire, fais de toi le tron-pan Certains sness-bi sont égaux à des rotte-ca Pour des rotte-ca, les dealers ne se trompent pas Un jour ou l'autre je vous dirais bye-bye Je mourrai comme un ange ou comme un gangsta J'ai un faible pour la défonce et les belles femmes Mais l'inconcevable c'est de mourir comme un clochard Bye bye bye bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye bye bye Big Daddy Jok, Jok'Air... Je vous dirai bye-bye comme Tupac à Las Vegas Comme Diana au pont de l'Alma Comme Claude François dans sa baignoire J'vais finir sur scène comme le voulait Dalida Et j'vais partir en pleine bataille J'préférerais mourir par balle Que comme Eazy-E sur son lit dhôpital Avant je me dois de faire des mathématiques J'en ai marre de soustraire toute ma vie J'veux multiplier comme m'a appris mon institutrice Bitch, ils ont pillé l'Afrique, divisé ma mif Et les flics essayent de coffrer ma clique Mais sachez que si mes khos vendent du shit Ce n'est pas pour le kiff, ni pour faire l'arithmétique Nous seuls connaissons l'injustice Si l'argent ne rend pas heureux, bah moi j'préfère être triste Et si jamais le bonheur existe, si vous le croisez dites-lui seulement que ma famille existe J'veux m'faire poursuivre par le fisc Faire tout mon possible pour que l'impossible nous devienne possible Et je n'veux pas voir compter mon fils J'veux peser, lui dire de sécher les cours de mathématiques3</t>
+          <t>Un jour ou l'autre je vous dirais bye-bye Je mourrai comme un ange ou comme un gangsta J'ai un faible pour la défonce et les belles femmes Mais l'inconcevable c'est de mourir comme un clochard Bye bye bye bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye bye bye Je ne pense qu'à faire des mathéma-mathématiques Que j'traine avec une calculatrice Quand j'passe tout le monde mate ma, mate ma clique Avis aux amatrices Et puis tu connais quand tu fais de l'argent les mecs deviennent fous Jusqu'à en prendre le gun et en vouloir à ta vie Si tu fais l'con, tu fais le faux pas J'ai plaisir à deuil pour ton p'tit cul Toi et ta bande de Heidi, Heidi J'ai pas le temps pour tes rappeurs c'est des p'tits cons à la Hakeem Faut que j'fasse du papier mon négro, faut que je bouquine J'dois laisser des thunes avant la crise cardiaque Ou avant qu'on m'kill, tranquille Je ne pense qu'à faire des mathématiques Un jour ou l'autre je vous dirais bye-bye Je mourrai comme un ange ou comme un gangsta J'ai un faible pour la défonce et les belles femmes Mais l'inconcevable c'est de mourir comme un clochard Bye bye bye bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye bye bye Crois-moi qu'on touche pas les même bails au même prix 100 grammes de re-pu est égal à 3 milles 8 Négro aboule le cash et vite On s'connait pas donc j'tallume par contre on s'arrangera si t'as de la bonne weed Trop d'affaires donc j'suis dans mes mathématiques Toujours autant de bitch en train de mater ma clique Non, c't'été faut que j'aille m'enjailler à Babi Que la proc' s'cale un oigt-d et que la juge m'astique Maman chérie m'dit d'me serrer la ceinture Hélas attiré par le luxe et les grosses voitures Kalina m'a dit Mon p'tit sans moi la vie est dure L'argent ne fait pas le bonheur mais la sère-mi tue L'argent est égal à ton temps de gloire La gloire, fais de toi le tron-pan Certains sness-bi sont égaux à des rotte-ca Pour des rotte-ca, les dealers ne se trompent pas Un jour ou l'autre je vous dirais bye-bye Je mourrai comme un ange ou comme un gangsta J'ai un faible pour la défonce et les belles femmes Mais l'inconcevable c'est de mourir comme un clochard Bye bye bye bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye Je ne pense qu'à faire des mathématiques, bye bye bye Big Daddy Jok, Jok'Air... Je vous dirai bye-bye comme Tupac à Las Vegas Comme Diana au pont de l'Alma Comme Claude François dans sa baignoire J'vais finir sur scène comme le voulait Dalida Et j'vais partir en pleine bataille J'préférerais mourir par balle Que comme Eazy-E sur son lit dhôpital Avant je me dois de faire des mathématiques J'en ai marre de soustraire toute ma vie J'veux multiplier comme m'a appris mon institutrice Bitch, ils ont pillé l'Afrique, divisé ma mif Et les flics essayent de coffrer ma clique Mais sachez que si mes khos vendent du shit Ce n'est pas pour le kiff, ni pour faire l'arithmétique Nous seuls connaissons l'injustice Si l'argent ne rend pas heureux, bah moi j'préfère être triste Et si jamais le bonheur existe, si vous le croisez dites-lui seulement que ma famille existe J'veux m'faire poursuivre par le fisc Faire tout mon possible pour que l'impossible nous devienne possible Et je n'veux pas voir compter mon fils J'veux peser, lui dire de sécher les cours de mathématiques3</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MZ... Quoi de neuf Ekynoxxx ? Davidson Presents KDBZik Tchek Ecoute... J'traine dans mon tièqu'... Comme les carottes dans mon tiep... Le riz n'cuit jamais dans l'eau... Enfoiré d'négro t'as pas iepds, négro tu vas yèp Ok J'traîne dans mon tièqu' Mec, j'n'arrive pas a t'blairer comme les carottes dans mon tiep Même avec d'la patience le riz n'cuit jamais dans l'eau tiède Viens pas nager chez nous enfoiré d'négro t'as pas iepds Négro tu vas yép J'traine dans mon tiequ', j'écoute ma mixtape Vous êtes pas crédibles allez niquez vos... hein Les pieds sur terre, ma grosse tête en l'air Petit j'vais t'frapper, ramène même ton grand frère Pour être honnête, appelle même ton père On respecte le respect, ça date pas d'hier J'ai une idée d'génie, frotte ma lanterne Sans tailler, lèche les vitrines qu'tu peux pas yép J'suis pas flé-gon j'ai pas d'or et je le sais J'ai pas ton temps Minimoys J'aime les cochonnes, pas le porc Comme tous mes potes Donc vilain maîtrise les bords Si j'ai la gaule j'veux les go' Toujours dispo, marre des haineux d'à té-co Oui, merci j'suis pas beau Mais j'plairais même à ta femme, si j'ai le seill'o Si j'ai le seill'o, j'm'achèterais le déguisement de Zorro Et avec son épée sur ton cul, j'mettrais un Z comme zéro Oui zéro euro, j'suis pas méchant mais bon fuck les héros... Fuck les héros, sinon j'aurais connu plus de bas que de hauts You might also like Pour les mecs de Bédier, pour les mecs de Che-Che, pour les mecs du ssage-Pa Pendant qu'tu parles, petit con, ta sur me fais des putains d'ssages-ma Tranquillou dans mon tièks, les gros boules défilent comme ner-tour les patrouilles Le meilleur rappeur d'chez toi n'vaut pas un clou Comme ces petits joueurs de lutte que j'dépouille Pas d'fils à papa besoin d'sonne-per pour les sous, débrouillards que des grands garçons Toujours fidèle à mon fameux tièkson et les vrais savent que je n'baisserai jamais mon caleçon Mes gars sont sous cheu, fument de la beuh Posé sur le turf H24 comme à Gre' Ne m'ramène pas tes rappeurs si tu veux les revoir, j'commence à avoir un p'tit creux J'traîne dans mon tièks Y'a des boloss et des décs J'prépare ta mutuelle si tu ralass pas, t'es dead J'traîne dans mon tièks et pas dans une gare J'suis trop sinière-ga J'traîne dans mon tièqu, j'y suis à l'aise comme dans une shneck Ils sortent des mixtapes, on sort des sextapes On vient cracher sur les fesses du game après l'avoir pris en levrette Négro c'est la MZ, on a la bonne recette, on a le meilleur tiep Dehmo est dans l'tièqu', Rod'K est dans l'tièqu' Hache-P est dans l'tièqu', Jok'air est dans l'tièqu' Nous compare pas à ces rappeurs de merde qui sont ghettos qu'dans leurs textes Biatch roule-moi mon teh, fais-moi du twerk et prépare mon tiep J'traîne dans mon tièqu' Mec, j'n'arrive pas à t'blairer comme les carottes dans mon tiep Même avec d'la patience le riz n'cuit jamais dans l'eau tiède Viens pas nager chez nous enfoiré d'négro t'as pas iepds Négro tu vas yép 7</t>
+          <t>MZ... Quoi de neuf Ekynoxxx ? Davidson Presents KDBZik Tchek Ecoute... J'traine dans mon tièqu'... Comme les carottes dans mon tiep... Le riz n'cuit jamais dans l'eau... Enfoiré d'négro t'as pas iepds, négro tu vas yèp Ok J'traîne dans mon tièqu' Mec, j'n'arrive pas a t'blairer comme les carottes dans mon tiep Même avec d'la patience le riz n'cuit jamais dans l'eau tiède Viens pas nager chez nous enfoiré d'négro t'as pas iepds Négro tu vas yép J'traine dans mon tiequ', j'écoute ma mixtape Vous êtes pas crédibles allez niquez vos... hein Les pieds sur terre, ma grosse tête en l'air Petit j'vais t'frapper, ramène même ton grand frère Pour être honnête, appelle même ton père On respecte le respect, ça date pas d'hier J'ai une idée d'génie, frotte ma lanterne Sans tailler, lèche les vitrines qu'tu peux pas yép J'suis pas flé-gon j'ai pas d'or et je le sais J'ai pas ton temps Minimoys J'aime les cochonnes, pas le porc Comme tous mes potes Donc vilain maîtrise les bords Si j'ai la gaule j'veux les go' Toujours dispo, marre des haineux d'à té-co Oui, merci j'suis pas beau Mais j'plairais même à ta femme, si j'ai le seill'o Si j'ai le seill'o, j'm'achèterais le déguisement de Zorro Et avec son épée sur ton cul, j'mettrais un Z comme zéro Oui zéro euro, j'suis pas méchant mais bon fuck les héros... Fuck les héros, sinon j'aurais connu plus de bas que de hauts Pour les mecs de Bédier, pour les mecs de Che-Che, pour les mecs du ssage-Pa Pendant qu'tu parles, petit con, ta sur me fais des putains d'ssages-ma Tranquillou dans mon tièks, les gros boules défilent comme ner-tour les patrouilles Le meilleur rappeur d'chez toi n'vaut pas un clou Comme ces petits joueurs de lutte que j'dépouille Pas d'fils à papa besoin d'sonne-per pour les sous, débrouillards que des grands garçons Toujours fidèle à mon fameux tièkson et les vrais savent que je n'baisserai jamais mon caleçon Mes gars sont sous cheu, fument de la beuh Posé sur le turf H24 comme à Gre' Ne m'ramène pas tes rappeurs si tu veux les revoir, j'commence à avoir un p'tit creux J'traîne dans mon tièks Y'a des boloss et des décs J'prépare ta mutuelle si tu ralass pas, t'es dead J'traîne dans mon tièks et pas dans une gare J'suis trop sinière-ga J'traîne dans mon tièqu, j'y suis à l'aise comme dans une shneck Ils sortent des mixtapes, on sort des sextapes On vient cracher sur les fesses du game après l'avoir pris en levrette Négro c'est la MZ, on a la bonne recette, on a le meilleur tiep Dehmo est dans l'tièqu', Rod'K est dans l'tièqu' Hache-P est dans l'tièqu', Jok'air est dans l'tièqu' Nous compare pas à ces rappeurs de merde qui sont ghettos qu'dans leurs textes Biatch roule-moi mon teh, fais-moi du twerk et prépare mon tiep J'traîne dans mon tièqu' Mec, j'n'arrive pas à t'blairer comme les carottes dans mon tiep Même avec d'la patience le riz n'cuit jamais dans l'eau tiède Viens pas nager chez nous enfoiré d'négro t'as pas iepds Négro tu vas yép 7</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jveux les mêmes baskets que mes grands frères pour la rentrée Jreprésente mon block même dans la cour de récré À chaque retour dvacances quand on mdemande où jétais Jréponds Jsuis resté au quartier, jai squatté Paname tout lété Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Jsuis dans le block, avec dans le froc quelques blocs Passe me voir un dces quatre que jdébloque La routine me tue, la police fait zouker lbitume Moi devant lOPJ jmappelle Têtu Les gosses me trouvent chaud Jrejoins mon bébé qui mtrouve chou Pas tellement quand jsors mon machin Sur la file de gauche, sans lcode de la route Jroule, jlaisse mes problèmes à demain Et direction le bendo, bien avant lépoque de la Nintendo Bien avant les Totally Spies jsuis space Jai le sang chaud, jjoue pas au paintball Les petits me prennent pour exemple, mais par exemple Jménerve pour un rien, alors qujai pas raison Cest les voisins qui splaignent, les négros qui pèsent Disons que jai pas voulu faire leur connaissance Ils veulent faire la même coupe que moi pour la rentrée Ils représentent mon block même dans leur cour de récré À chaque retour dvacances quand on mdemande Où tétais ? Jtaffais ma musique pour espérer sortir tous les petits du quartier Hors du bendo You might also like Jai dla white, jveux men débarasser Jte cache pas quelle est coupée Et jai dla caille, jcrois pas qutu voudrais la goûter Jmets des douilles, pas cher elle ma coûté Jsuis posé au lice-Dé, avec Chavo Ya dla te-car, on prépare les coups, jai pas le temps Jdois faire des sous, descente de keufs, jmen bats les couilles Jack dans la teille de Coca corsée Liasse dans ma poche que jvais dépenser Jvis la street tous les jours sans forcer Neuf milli pour les faire danser Jroule, jfais des tours de pâté Ruelle de XXX Jmate le gros boule de toutes ces tasses-pé Joint dpeufra et mes niagas se font des passes dé' Dans lbendo comme dans lrap Et si ça marche pas, on sinquiète pas Pas comme tous ces rappeurs thos-my Moi jgère les flows comme la coke et les quettes-pla On est dans lbendo bendo Avec les tasses-pé du bendo bendo Davidson est dans le bendo bendo KDBzik est dans le bendo bendo Plus la compèt est malsaine, plus jlaime Jte nique ta mère comme Joey et Kool Shen Au tièk les arracheurs de chaînes rêvent Tous les jours de croiser la route à 2 Chainz Big Daddy Khalifa ferait lbonheur de mes dealers Big Daddy Mayweather de mes braqueurs Big Daddy Ça pue la merde dans lsecteur Pour ça qui mfaut du biff pour fuir le secteur Même ton producteur sait qucest nous les meilleurs MC cesse de jouer les haters Jrentre dans le game, lindex est calé sur trigger Le canon pointé vers ces rappeurs Depuis bébé dans le bendo Jsuis dans le block avec Ousmane et Dembo Torse velu, barbu, à la Kimbo Ta pute me guette, jme la pète comme une bimbo On vit dans lghetto, on est sortis très tôt On a vendu de la dope, on nest pas des mythos Les keufs prennent en photo mes potos Mais la zone on contrôle comme Dikembe Mutombo On sait que dans ltièk jme sens comme dans un tank Comme dans la shnek de la sur à ta tante Le Diable autour dnous tourne et les fantômes me hantent Jsuis dans le bendo, quil neige ou quil vente 3</t>
+          <t>Jveux les mêmes baskets que mes grands frères pour la rentrée Jreprésente mon block même dans la cour de récré À chaque retour dvacances quand on mdemande où jétais Jréponds Jsuis resté au quartier, jai squatté Paname tout lété Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Dans le bendo dans le bendo Jsuis dans le bendo j'suis dans le bendo Jsuis dans le block, avec dans le froc quelques blocs Passe me voir un dces quatre que jdébloque La routine me tue, la police fait zouker lbitume Moi devant lOPJ jmappelle Têtu Les gosses me trouvent chaud Jrejoins mon bébé qui mtrouve chou Pas tellement quand jsors mon machin Sur la file de gauche, sans lcode de la route Jroule, jlaisse mes problèmes à demain Et direction le bendo, bien avant lépoque de la Nintendo Bien avant les Totally Spies jsuis space Jai le sang chaud, jjoue pas au paintball Les petits me prennent pour exemple, mais par exemple Jménerve pour un rien, alors qujai pas raison Cest les voisins qui splaignent, les négros qui pèsent Disons que jai pas voulu faire leur connaissance Ils veulent faire la même coupe que moi pour la rentrée Ils représentent mon block même dans leur cour de récré À chaque retour dvacances quand on mdemande Où tétais ? Jtaffais ma musique pour espérer sortir tous les petits du quartier Hors du bendo Jai dla white, jveux men débarasser Jte cache pas quelle est coupée Et jai dla caille, jcrois pas qutu voudrais la goûter Jmets des douilles, pas cher elle ma coûté Jsuis posé au lice-Dé, avec Chavo Ya dla te-car, on prépare les coups, jai pas le temps Jdois faire des sous, descente de keufs, jmen bats les couilles Jack dans la teille de Coca corsée Liasse dans ma poche que jvais dépenser Jvis la street tous les jours sans forcer Neuf milli pour les faire danser Jroule, jfais des tours de pâté Ruelle de XXX Jmate le gros boule de toutes ces tasses-pé Joint dpeufra et mes niagas se font des passes dé' Dans lbendo comme dans lrap Et si ça marche pas, on sinquiète pas Pas comme tous ces rappeurs thos-my Moi jgère les flows comme la coke et les quettes-pla On est dans lbendo bendo Avec les tasses-pé du bendo bendo Davidson est dans le bendo bendo KDBzik est dans le bendo bendo Plus la compèt est malsaine, plus jlaime Jte nique ta mère comme Joey et Kool Shen Au tièk les arracheurs de chaînes rêvent Tous les jours de croiser la route à 2 Chainz Big Daddy Khalifa ferait lbonheur de mes dealers Big Daddy Mayweather de mes braqueurs Big Daddy Ça pue la merde dans lsecteur Pour ça qui mfaut du biff pour fuir le secteur Même ton producteur sait qucest nous les meilleurs MC cesse de jouer les haters Jrentre dans le game, lindex est calé sur trigger Le canon pointé vers ces rappeurs Depuis bébé dans le bendo Jsuis dans le block avec Ousmane et Dembo Torse velu, barbu, à la Kimbo Ta pute me guette, jme la pète comme une bimbo On vit dans lghetto, on est sortis très tôt On a vendu de la dope, on nest pas des mythos Les keufs prennent en photo mes potos Mais la zone on contrôle comme Dikembe Mutombo On sait que dans ltièk jme sens comme dans un tank Comme dans la shnek de la sur à ta tante Le Diable autour dnous tourne et les fantômes me hantent Jsuis dans le bendo, quil neige ou quil vente 3</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>En ce moment je fais le même cauchemar J'vois des rappeurs plus fort que moi Au milieu de la nuit j'me réveille en sueur Ma biche me prend dans ses bras Elle me dit Tinquiète rendors toi, un jour tout le monde admettra que c'est toi le meilleur J'lui répond qu'je bosse pour ça, je vis pour ça, je tue pour ça, je meurs pour ça mais... Elle m'dit d'attendre mon heure, j'ai peur J'ai peur car au final les vainqueurs ne sont pas toujours les meilleurs Pourquoi serais-je le meilleur ? Et pourquoi ma plume serait-elle la plus puissante ? Pourquoi j'attire le malheur ? Pourquoi le bonheur fait des appels en mépuisant Dois-je retourner dans le hall ? Faire belek à ma peau tout en t'servant ta dose À la longue c'est pas drôle d'esquiver la lice-po Et de jouer le mauvais rôle, han, yeah J'pose que du lourd, même quand je fait de la merde J't'encule toi et ton c'est pas mal..., han, yeah J'veux que du biff, je bosse que pour ça Quand j'le perd je dit pas c'est pas grave You might also like En ce moment je fais le même cauchemar J'vois des rappeurs plus fort que moi Au milieu de la nuit j'me réveille en sueur Ma biche me prend dans ses bras Elle me dit Tinquiète rendors toi, un jour tout le monde admettra que c'est toi le meilleur J'lui répond qu'je bosse pour ça, je vie pour ça, je tue pour ça, je meurs pour ça mais... Elle m'dit d'attendre mon heure, j'ai peur J'ai peur car au final les vainqueurs ne sont pas toujours les meilleurs J'rappe pas depuis hier, tit-pe j'suis pas nouveau Ne nous compare pas on a pas de rivaux À part nous faire que de la trap, propose-moi autre chose J'sais pas, montre-moi ce que tu vaux Dans la voiture avec des muss et Jo D'la grosse de-mer à la radio J'suis là pour du long terme, pas comme tous ces idiots Et j'bosse, et j'dors pas, donc que j'm'inquiète pas On est les meilleurs, ils nous envient grave J'suis au studio, que des gros morceaux J'ferai le boulot, jusqu'à que tous ces cons sautent En ce moment tu fais l'même cauchemar Tu vois des rappeurs plus fort que toi Au milieu de la nuit tu te réveilles en sueur Viens que je te prenne un peu dans mes bras Bébé tinquiète pas rendors toi, un jour tout le monde admettra que c'est toi le meilleur Tu me réponds qu'tu bosses pour ça, tu vies pour ça, tu tues pour ça, tu meurs pour ça mais... Taffes et attend ton heure, j'ai peur J'ai peur, m'aimeras-tu encore si c'est toi le meilleur ? J'bosse dur pour être le meilleur Jour et nuit je taffe jusqu'à pas d'heure J'ai comme seul témoin le seigneur Ne m'compare pas à ces suceurs Ces rappeurs ne sont que des suiveurs Je ne pense qu'à être le leader Combien de fois dans ma vie j'ai croisé le diable en personne Des onomatopées sortent de ma bouche quand le futur me questionne Plus rien ne m'impressionne, j'roule avec Davidson En ce moment je fais le même cauchemar J'vois des rappeurs plus fort que moi Au milieu de la nuit j'me réveille en sueur Ma biche me prend dans ses bras Elle me dit Tinquiète rendors toi, un jour tout le monde admettra que c'est toi le meilleur J'lui répond qu'je bosse pour ça, je vie pour ça, je tue pour ça, je meurs pour ça mais... Elle m'dit d'attendre mon heure, j'ai peur J'ai peur car au final les vainqueurs ne sont pas toujours les meilleurs Yeaaah, m'aimeras-tu encore si c'est toi le meilleur ? Nan, nan, nan, nan, nan M'aimeras-tu encore si c'est toi le meilleur ? Ouuuuuuuuuuh Yeaaaah, m'aimeras-tu encore ? M'aimeras-tu encore si c'est toi le meilleur ?8</t>
+          <t>En ce moment je fais le même cauchemar J'vois des rappeurs plus fort que moi Au milieu de la nuit j'me réveille en sueur Ma biche me prend dans ses bras Elle me dit Tinquiète rendors toi, un jour tout le monde admettra que c'est toi le meilleur J'lui répond qu'je bosse pour ça, je vis pour ça, je tue pour ça, je meurs pour ça mais... Elle m'dit d'attendre mon heure, j'ai peur J'ai peur car au final les vainqueurs ne sont pas toujours les meilleurs Pourquoi serais-je le meilleur ? Et pourquoi ma plume serait-elle la plus puissante ? Pourquoi j'attire le malheur ? Pourquoi le bonheur fait des appels en mépuisant Dois-je retourner dans le hall ? Faire belek à ma peau tout en t'servant ta dose À la longue c'est pas drôle d'esquiver la lice-po Et de jouer le mauvais rôle, han, yeah J'pose que du lourd, même quand je fait de la merde J't'encule toi et ton c'est pas mal..., han, yeah J'veux que du biff, je bosse que pour ça Quand j'le perd je dit pas c'est pas grave En ce moment je fais le même cauchemar J'vois des rappeurs plus fort que moi Au milieu de la nuit j'me réveille en sueur Ma biche me prend dans ses bras Elle me dit Tinquiète rendors toi, un jour tout le monde admettra que c'est toi le meilleur J'lui répond qu'je bosse pour ça, je vie pour ça, je tue pour ça, je meurs pour ça mais... Elle m'dit d'attendre mon heure, j'ai peur J'ai peur car au final les vainqueurs ne sont pas toujours les meilleurs J'rappe pas depuis hier, tit-pe j'suis pas nouveau Ne nous compare pas on a pas de rivaux À part nous faire que de la trap, propose-moi autre chose J'sais pas, montre-moi ce que tu vaux Dans la voiture avec des muss et Jo D'la grosse de-mer à la radio J'suis là pour du long terme, pas comme tous ces idiots Et j'bosse, et j'dors pas, donc que j'm'inquiète pas On est les meilleurs, ils nous envient grave J'suis au studio, que des gros morceaux J'ferai le boulot, jusqu'à que tous ces cons sautent En ce moment tu fais l'même cauchemar Tu vois des rappeurs plus fort que toi Au milieu de la nuit tu te réveilles en sueur Viens que je te prenne un peu dans mes bras Bébé tinquiète pas rendors toi, un jour tout le monde admettra que c'est toi le meilleur Tu me réponds qu'tu bosses pour ça, tu vies pour ça, tu tues pour ça, tu meurs pour ça mais... Taffes et attend ton heure, j'ai peur J'ai peur, m'aimeras-tu encore si c'est toi le meilleur ? J'bosse dur pour être le meilleur Jour et nuit je taffe jusqu'à pas d'heure J'ai comme seul témoin le seigneur Ne m'compare pas à ces suceurs Ces rappeurs ne sont que des suiveurs Je ne pense qu'à être le leader Combien de fois dans ma vie j'ai croisé le diable en personne Des onomatopées sortent de ma bouche quand le futur me questionne Plus rien ne m'impressionne, j'roule avec Davidson En ce moment je fais le même cauchemar J'vois des rappeurs plus fort que moi Au milieu de la nuit j'me réveille en sueur Ma biche me prend dans ses bras Elle me dit Tinquiète rendors toi, un jour tout le monde admettra que c'est toi le meilleur J'lui répond qu'je bosse pour ça, je vie pour ça, je tue pour ça, je meurs pour ça mais... Elle m'dit d'attendre mon heure, j'ai peur J'ai peur car au final les vainqueurs ne sont pas toujours les meilleurs Yeaaah, m'aimeras-tu encore si c'est toi le meilleur ? Nan, nan, nan, nan, nan M'aimeras-tu encore si c'est toi le meilleur ? Ouuuuuuuuuuh Yeaaaah, m'aimeras-tu encore ? M'aimeras-tu encore si c'est toi le meilleur ?8</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>x2 Plus rien ne peut m'intimider Dehors j'ai perdu mon intimité La drogue et l'alcool m'aident à méditer Faut-il que je m'en tire une dans le crâne pour qu'à leurs yeux je puisse exister ? Enfermé dehors Jugé coupable à tort Le temps que je m'évade ouvre la porte À mon retour je te couvre d'or Je me suis enfermé dehors Jugé coupable à tort Le temps que je m'évade ouvre la porte À mon retour je te couvre d'or Je me suis enfermé dehors Enfermé dehors, enfermé dehors, enfermé dehors Je me suis enfermé dehors Dans les coins les plus hardcores Le temps que je m'évade ouvre la porte Regarde, mon corps en pleure encore Ouvre-moi le temps d'une chanson Je veux juste rentrer à la maison Je me suis enfermé dehors J'aimerais voir d'autres horizons J'ai vu passer toutes les saisons Je me suis enfermé dehors S'il te plait laisse-moi rentrer J'te jure j'suis fatigué Dehors c'est chaud mais j'suis frais Frais hiver comme été S'il te plait laisse-moi rentrer J'te jure j'suis fatigué Dehors c'est chaud mais j'suis frais Frais hiver comme été You might also like Dehors, grec dans l'estomac Shit dans le calbar Loin de la mama J'écoute ma paranoïa donc ma confiance elle est out, dans le coma Pour le moment faut de la money Les minis montent les monuments la rage dans les molaires Je sors le soir enfermé dans le 2.6 Chicha d'la guerre pour mes soldats La rue c'est pas ma mère c'est qu'une pute que j'utilise Et pour la porte de sortie j'suis un itinéraire indécis Cette femelle veut de moi mais rien que la justice me demande J'ai l'coeur en or pour ceux que j'aime Tony t'as bien fait d'tuer Many La rue c'est pas c'que tu crois Ma sécu ne sera jamais aux mains d'une tapette Que Dieu me préserve de prendre perpèt Jok'air en est témoin j'aime pas les tapettes Maman faut m'croire quand j'dis Que j'suis désolé d'être tombé dans l'panneau Au lieu de shooter des gueules J'aurais simplement du shooter le ballon Je peux mourir pour mes négros Tuer pour mes négros Je roule avec mes négros Je fais de la musique pour les négros7</t>
+          <t>x2 Plus rien ne peut m'intimider Dehors j'ai perdu mon intimité La drogue et l'alcool m'aident à méditer Faut-il que je m'en tire une dans le crâne pour qu'à leurs yeux je puisse exister ? Enfermé dehors Jugé coupable à tort Le temps que je m'évade ouvre la porte À mon retour je te couvre d'or Je me suis enfermé dehors Jugé coupable à tort Le temps que je m'évade ouvre la porte À mon retour je te couvre d'or Je me suis enfermé dehors Enfermé dehors, enfermé dehors, enfermé dehors Je me suis enfermé dehors Dans les coins les plus hardcores Le temps que je m'évade ouvre la porte Regarde, mon corps en pleure encore Ouvre-moi le temps d'une chanson Je veux juste rentrer à la maison Je me suis enfermé dehors J'aimerais voir d'autres horizons J'ai vu passer toutes les saisons Je me suis enfermé dehors S'il te plait laisse-moi rentrer J'te jure j'suis fatigué Dehors c'est chaud mais j'suis frais Frais hiver comme été S'il te plait laisse-moi rentrer J'te jure j'suis fatigué Dehors c'est chaud mais j'suis frais Frais hiver comme été Dehors, grec dans l'estomac Shit dans le calbar Loin de la mama J'écoute ma paranoïa donc ma confiance elle est out, dans le coma Pour le moment faut de la money Les minis montent les monuments la rage dans les molaires Je sors le soir enfermé dans le 2.6 Chicha d'la guerre pour mes soldats La rue c'est pas ma mère c'est qu'une pute que j'utilise Et pour la porte de sortie j'suis un itinéraire indécis Cette femelle veut de moi mais rien que la justice me demande J'ai l'coeur en or pour ceux que j'aime Tony t'as bien fait d'tuer Many La rue c'est pas c'que tu crois Ma sécu ne sera jamais aux mains d'une tapette Que Dieu me préserve de prendre perpèt Jok'air en est témoin j'aime pas les tapettes Maman faut m'croire quand j'dis Que j'suis désolé d'être tombé dans l'panneau Au lieu de shooter des gueules J'aurais simplement du shooter le ballon Je peux mourir pour mes négros Tuer pour mes négros Je roule avec mes négros Je fais de la musique pour les négros7</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dans le tier-quar tranquillement les bouteilles sont vides, on est complètement rapta Les tits-pe te vi-ser d'la tate-pa On magouille et le pe-ra comme gagne pain Ces porcs cassent la porte de la raque-ba Le son tourne, le son tourne en pagaille Des quartiers riches au cards-pla Ces vieilles radios nous passent pas Tant pis, j'baisserai pas mon froc, hétéro comme papa Et si ce business ne marche pas Ces sois disant dealers perdront leur loss Sur la vie de ma queue que ta meuf me lâche pas Regarde j'ai le calbar taché de gloss La Dictature dans les bacs Ils vont se manger des tartes Et si ces fils de putain jactent, sa carrière sarrête XXX Jeci vas-y Tout les niaggas de ma tess font du biff, faut qu'on bouffe de ce quatre-quarts J'veux peser comme mes re-frés du Qatar Prendre la vedette à ces bâtards Écraser les MCs de mon 4x4 Dans mon bendo, ma tête, gros c'est Bagdad J'suis qu'un gros d'Bériz qui sent la patate Sortez le truc ça fait ratat Je veux voir tous ces enculés à quatre pattes, et alors J'fais tourner la gaga à tous mes niaggas Je l'aime mi amor, lâche léquipe galactique Davidson présente c'est une mise à mort Je suis cale dans mon bendo, rien qu'on chasse le seille-o Fuck le proc et ses porcs Je suis de cette ville où on fait dans ces bails et si t'es pas d'accord On te dit mange tes morts You might also like Oooh no ! On a rappé, ils ont fait comme nous mais c'est rien Oh no ! Du gros son lourd pour vous mettre bien Oooh no ! Me parle pas de la concu', moi j'm'en gniagne On va les prendre en deuboukéhi x2 Les suceurs font la queue, ils auront que dalle Roule un gros joint d'beuh, on fait rien d'mal Les bitchs font la queue, y'a tous mes gars Bisou aux haineux, ils veulent nous voir mal Laisse moi faire négro, j'vais faire en sorte que toutes ces djandjou fassent bouger leurs fesses plates Ici c'est réel, ça ne joue pas J'm'inquiète pas, fais l'taffe, mets de la beuh dans la chicha et Hakuna Matata Y'a l'cerveau de quelques potes sur la Lune Chez nous quand on veut passer à la Une Casque intégral d'T-Max dans la rue Dehors il fait froid, poto, prends un pull Chauffe le couteau, gros, tu connais l'bail Me chauffe pas, salope, si t'assumes pas l'boy La belle vie se résume à la carte black pour que mon fils se promène chez moi en pocket bike T'en veux à mes fesses mais j'te connais pas T'en veux à mon cul mais tu m'connais pas Ce soir qui mène la danse ? J'veux voir l'chorégraphe Fume de la bonne tu seras plus fort que Superman J'me sens, j'me sens, j'me sens super léger J'me sens, j'me sens... Une meuf qui pose autour de tout ça d'gars On a jamais vu ça, mais c'est quoi ça ? J'suis pas une rappeuse ni une gangsta Progressive R'n'B, j'suis là pour ça Certains diront Mais c'est qui celle-là ? Elle s'prend pour un bonhomme mais c'est pas ça Tu niques l'éthique j'm'en bats d'vos critiques Allez stop, j'vous montre de quoi j'suis capable Mallaury enchantée, oui j'viens d'arriver Et j'compte bien m'imposer, qui pourra me stopper ? Celui là n'est pas encore né, donc imagine la suite Davidson présente La Dictature et Hache-P dis-leur de quoi on est capable On vient bratatatata ces enflures et achever toute cette bande de misérables Big Daddy Jok, Jok'Air Ma bite dans sa chatte et ma tête dans ma money Mes yeux sont rivés vers le sommet Ton MC préféré est XXX XXX vitre sans teint fils de pute me reconnait Seigneur, j'ai pêché car j'étais paumé Avec elle, défoncés sous ce pommier Pardonne moi si j'ai croqué la pomme Mais Eve est trop bonne et cambrée comme un poney Big Daddy Jok' est dans ta maison J'fume ta conso' sur ton balcon J'prends soin d'ta meuf quand t'es en prison J'étends mes caleçons dans ton salon J'fais la vaisselle pour les grandes occasions Si j'engrosse ta femme, espèce de pauvre con Tu reconnaîtras le fiston Oooh no ! On a rappé, ils ont fait comme nous mais c'est rien Oh no ! Du gros son lourd pour vous mettre bien Oooh no ! Me parle pas de la concu', moi j'm'en gniagne On va les prendre en deuboukéhi x2 Les suceurs font la queue, ils auront que dalle Roule un gros joint d'beuh, on fait rien d'mal Les bitchs font la queue, y'a tous mes gars Bisou aux haineux, ils veulent nous voir mal Les suceurs font la queue Roule un gros joint d'beuh Les bitchs font la queue Bisou aux haineux</t>
+          <t>Dans le tier-quar tranquillement les bouteilles sont vides, on est complètement rapta Les tits-pe te vi-ser d'la tate-pa On magouille et le pe-ra comme gagne pain Ces porcs cassent la porte de la raque-ba Le son tourne, le son tourne en pagaille Des quartiers riches au cards-pla Ces vieilles radios nous passent pas Tant pis, j'baisserai pas mon froc, hétéro comme papa Et si ce business ne marche pas Ces sois disant dealers perdront leur loss Sur la vie de ma queue que ta meuf me lâche pas Regarde j'ai le calbar taché de gloss La Dictature dans les bacs Ils vont se manger des tartes Et si ces fils de putain jactent, sa carrière sarrête XXX Jeci vas-y Tout les niaggas de ma tess font du biff, faut qu'on bouffe de ce quatre-quarts J'veux peser comme mes re-frés du Qatar Prendre la vedette à ces bâtards Écraser les MCs de mon 4x4 Dans mon bendo, ma tête, gros c'est Bagdad J'suis qu'un gros d'Bériz qui sent la patate Sortez le truc ça fait ratat Je veux voir tous ces enculés à quatre pattes, et alors J'fais tourner la gaga à tous mes niaggas Je l'aime mi amor, lâche léquipe galactique Davidson présente c'est une mise à mort Je suis cale dans mon bendo, rien qu'on chasse le seille-o Fuck le proc et ses porcs Je suis de cette ville où on fait dans ces bails et si t'es pas d'accord On te dit mange tes morts Oooh no ! On a rappé, ils ont fait comme nous mais c'est rien Oh no ! Du gros son lourd pour vous mettre bien Oooh no ! Me parle pas de la concu', moi j'm'en gniagne On va les prendre en deuboukéhi x2 Les suceurs font la queue, ils auront que dalle Roule un gros joint d'beuh, on fait rien d'mal Les bitchs font la queue, y'a tous mes gars Bisou aux haineux, ils veulent nous voir mal Laisse moi faire négro, j'vais faire en sorte que toutes ces djandjou fassent bouger leurs fesses plates Ici c'est réel, ça ne joue pas J'm'inquiète pas, fais l'taffe, mets de la beuh dans la chicha et Hakuna Matata Y'a l'cerveau de quelques potes sur la Lune Chez nous quand on veut passer à la Une Casque intégral d'T-Max dans la rue Dehors il fait froid, poto, prends un pull Chauffe le couteau, gros, tu connais l'bail Me chauffe pas, salope, si t'assumes pas l'boy La belle vie se résume à la carte black pour que mon fils se promène chez moi en pocket bike T'en veux à mes fesses mais j'te connais pas T'en veux à mon cul mais tu m'connais pas Ce soir qui mène la danse ? J'veux voir l'chorégraphe Fume de la bonne tu seras plus fort que Superman J'me sens, j'me sens, j'me sens super léger J'me sens, j'me sens... Une meuf qui pose autour de tout ça d'gars On a jamais vu ça, mais c'est quoi ça ? J'suis pas une rappeuse ni une gangsta Progressive R'n'B, j'suis là pour ça Certains diront Mais c'est qui celle-là ? Elle s'prend pour un bonhomme mais c'est pas ça Tu niques l'éthique j'm'en bats d'vos critiques Allez stop, j'vous montre de quoi j'suis capable Mallaury enchantée, oui j'viens d'arriver Et j'compte bien m'imposer, qui pourra me stopper ? Celui là n'est pas encore né, donc imagine la suite Davidson présente La Dictature et Hache-P dis-leur de quoi on est capable On vient bratatatata ces enflures et achever toute cette bande de misérables Big Daddy Jok, Jok'Air Ma bite dans sa chatte et ma tête dans ma money Mes yeux sont rivés vers le sommet Ton MC préféré est XXX XXX vitre sans teint fils de pute me reconnait Seigneur, j'ai pêché car j'étais paumé Avec elle, défoncés sous ce pommier Pardonne moi si j'ai croqué la pomme Mais Eve est trop bonne et cambrée comme un poney Big Daddy Jok' est dans ta maison J'fume ta conso' sur ton balcon J'prends soin d'ta meuf quand t'es en prison J'étends mes caleçons dans ton salon J'fais la vaisselle pour les grandes occasions Si j'engrosse ta femme, espèce de pauvre con Tu reconnaîtras le fiston Oooh no ! On a rappé, ils ont fait comme nous mais c'est rien Oh no ! Du gros son lourd pour vous mettre bien Oooh no ! Me parle pas de la concu', moi j'm'en gniagne On va les prendre en deuboukéhi x2 Les suceurs font la queue, ils auront que dalle Roule un gros joint d'beuh, on fait rien d'mal Les bitchs font la queue, y'a tous mes gars Bisou aux haineux, ils veulent nous voir mal Les suceurs font la queue Roule un gros joint d'beuh Les bitchs font la queue Bisou aux haineux</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ce soir j'tourne dans la ville, accompagné d'mes gars J'suis dans mon délire, ce soir je rentre pas Faut qu'on pète quelques copines, d'la cons' et des teilles-bav On s'est compris ce soir j'vais m'mettre sous tchapalo Tchapalo, tchapalo, tchapalo, tchapalo Remballez vos diabolos, diabolos, diabolos, diabolos, dia... J'suis dans la Lune ou dans mon ghetto Mon ghetto, mon ghetto, mon ghetto, mon ghetto Gros j'suis sous tchapalo, j'bois pas d'eau Tchapalo, tchapalo, tchapalo J'suis dans mon tieks, fuck ton brassard Y'a qu'des numéros dix Toujours ce même clochard Qui se joue les numéros six Pour tous ces fils de bâtard J'ai un pe-pom sous mon lit Gros j'vise le 4x4 Donc j'm'en bats les couilles d'être en i Musicalement j'suis trop loin J'suis pas là pour la déco Ils s'demandent tous, on est sous tchapalo Ils sont tous à la ramasse Avec des points d'té-cô Ta sur j'peux lui faire ses fesses Deux-trois mixtapes Écouler des kilos Tout ça dans l'même mois Et ouais je sais, que je n'sais pas rapper Mais ton rappeur ne rappe pas mieux que moi Une prod' d'Ekynoxxx pour m'branler Deux-trois flows pour les faire bander Un tube pour leur mettre une branlée Tu veux d'la gue-dro bah t'as qu'à demander Trois bouteilles pour s'fonceder Ma paranoïa pour les condés J'veux des sous jusqu'à plus pouvoir en compter You might also like J'suis fucked up tous les soirs Et je fais plein de fois la guerre à mon foie J'ai dit à Jack et Daniel De ne pas me faire cracher trop vite ce soir, ça va de soi Merde, j'ai fumé mon bénèf Aussi vite que mon pote XXX se zehef J'suis mignon, j'accoste une go trop moche Avec un gros boule à la Nicki Minaj La foncedé elle est bonne, le son il est bon Je ne danse pas je move Ma lean m'a fait tellement dodo Que j'ai sûrement loupé beaucoup d'flouze J'entends que l'alcool c'est de l'eau J'suis passé au sirop, solo j'pense être un salop Apprécié des salopes, j'plane dans les airs Quand t'es foncédé gros Tu ne danses pas tu moves Ça représente ma vie quand tes potos m'envient Et la folie m'emmerde Surtout parce que je vis ce que t'appelles platine Et tes rappeurs m'emmerdent J'ai rôdé un peu tout Paris Le super-tupperware rempli d'beaucoup d'herbe C'est vrai que le temps c'est d'l'argent Et de l'argent j'en perds quand j'apprécie tes fesses J'suis sous tchapalo Comme Zox', j'ai tout dans la tête pas besoin d'feuille, pas d'stylo De la rue j'suis un poète comme tonton Melopheelo Toi tu n'intéresses personne comme les cours de philo Et tu veux me teste négro ? Hein négro ? Parce que t'as bu deux-trois verres Tu fais bleh', tu t'sens chaud Dans le club tu t'affiches Tout l'monde sait qu't'es qu'un faux J'baise ta sur la nympho, juste pour l'info Et j'te refroidis comme mon tchapalo dans mon seau Mes négros te trouvent drôle, négro sors de ce rôle Viens pas m'test quand en fait ta feu-meu te contrôle Cette michto tu la déposes chez moi en Merco Et j'la baise, elle retourne chez ta mère en métro Bébé, je sais qu't'aimes quand j'innove Fucked up on s'fait un Drunk in love J'bois la pisse d'Iblis comme les mecs de Three Six Défoncé j'ai plus combien font 7 6 Mais je sais qu'elle aime baiser sur du DMX 5</t>
+          <t>Ce soir j'tourne dans la ville, accompagné d'mes gars J'suis dans mon délire, ce soir je rentre pas Faut qu'on pète quelques copines, d'la cons' et des teilles-bav On s'est compris ce soir j'vais m'mettre sous tchapalo Tchapalo, tchapalo, tchapalo, tchapalo Remballez vos diabolos, diabolos, diabolos, diabolos, dia... J'suis dans la Lune ou dans mon ghetto Mon ghetto, mon ghetto, mon ghetto, mon ghetto Gros j'suis sous tchapalo, j'bois pas d'eau Tchapalo, tchapalo, tchapalo J'suis dans mon tieks, fuck ton brassard Y'a qu'des numéros dix Toujours ce même clochard Qui se joue les numéros six Pour tous ces fils de bâtard J'ai un pe-pom sous mon lit Gros j'vise le 4x4 Donc j'm'en bats les couilles d'être en i Musicalement j'suis trop loin J'suis pas là pour la déco Ils s'demandent tous, on est sous tchapalo Ils sont tous à la ramasse Avec des points d'té-cô Ta sur j'peux lui faire ses fesses Deux-trois mixtapes Écouler des kilos Tout ça dans l'même mois Et ouais je sais, que je n'sais pas rapper Mais ton rappeur ne rappe pas mieux que moi Une prod' d'Ekynoxxx pour m'branler Deux-trois flows pour les faire bander Un tube pour leur mettre une branlée Tu veux d'la gue-dro bah t'as qu'à demander Trois bouteilles pour s'fonceder Ma paranoïa pour les condés J'veux des sous jusqu'à plus pouvoir en compter J'suis fucked up tous les soirs Et je fais plein de fois la guerre à mon foie J'ai dit à Jack et Daniel De ne pas me faire cracher trop vite ce soir, ça va de soi Merde, j'ai fumé mon bénèf Aussi vite que mon pote XXX se zehef J'suis mignon, j'accoste une go trop moche Avec un gros boule à la Nicki Minaj La foncedé elle est bonne, le son il est bon Je ne danse pas je move Ma lean m'a fait tellement dodo Que j'ai sûrement loupé beaucoup d'flouze J'entends que l'alcool c'est de l'eau J'suis passé au sirop, solo j'pense être un salop Apprécié des salopes, j'plane dans les airs Quand t'es foncédé gros Tu ne danses pas tu moves Ça représente ma vie quand tes potos m'envient Et la folie m'emmerde Surtout parce que je vis ce que t'appelles platine Et tes rappeurs m'emmerdent J'ai rôdé un peu tout Paris Le super-tupperware rempli d'beaucoup d'herbe C'est vrai que le temps c'est d'l'argent Et de l'argent j'en perds quand j'apprécie tes fesses J'suis sous tchapalo Comme Zox', j'ai tout dans la tête pas besoin d'feuille, pas d'stylo De la rue j'suis un poète comme tonton Melopheelo Toi tu n'intéresses personne comme les cours de philo Et tu veux me teste négro ? Hein négro ? Parce que t'as bu deux-trois verres Tu fais bleh', tu t'sens chaud Dans le club tu t'affiches Tout l'monde sait qu't'es qu'un faux J'baise ta sur la nympho, juste pour l'info Et j'te refroidis comme mon tchapalo dans mon seau Mes négros te trouvent drôle, négro sors de ce rôle Viens pas m'test quand en fait ta feu-meu te contrôle Cette michto tu la déposes chez moi en Merco Et j'la baise, elle retourne chez ta mère en métro Bébé, je sais qu't'aimes quand j'innove Fucked up on s'fait un Drunk in love J'bois la pisse d'Iblis comme les mecs de Three Six Défoncé j'ai plus combien font 7 6 Mais je sais qu'elle aime baiser sur du DMX 5</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove J'm'en fous d'ta vie, quand on baise ensemble C'est mieux que le cinéma J'suis gentil dans l'fond mais sévère en surface Pour pas qu't'imagines jusqu'au mariage On s'met tellement bien J'ai oublié qu'on a dépassé le troisième quart d'heure Je suis pas venu pour toi, toi t'es gentille Tu mérites qu'un d'ces putains d'lover Attention, ma belle j'suis franc Comme si j'avais tisé Jack D J'emmerde tous tes problèmes de cur En c'moment j'suis à la recherche d'un tard-pé Quand j'suis fonce-dé j't'appelle, miskina J'crois qu'tu connais mon numéro par cur T'as vu la dégaine, tu t'es fiée Je ne suis pas qu'un beau parleur You might also like Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove Attache ta ceinture ce soir car tu roules avec moi Si t'as peur du noir t'inquiète bébé, moi je veillerai sur toi L'amour tu n'y crois plus car des ex t'ont fait perdre la foi Et plus j'te baise et plus tu m'aimes Et ces mots tu me les sors à chaque fois J'ai des nouvelles sucreries te faire goûter J'ai des nouvelles huiles, de la nouvelle weed Pour te faire passer des bons moments, tu sais qu'j'suis doué On sent l'instant passionnément sous les draps qu'on va souiller S'il te plaît bébé, t'attache pas aux liens qu'on a noués Car si nous voir ensemble pour la vie est ton souhait Sache que mon cur n'est pas à prendre mais ma bite est à louer Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove J'te dirai sûrement des mots d'amour juste pour te... Un conseil ma chérie, évite les mecs comme moi J'suis un gamin ne t'attache pas Tu vas souffrir J'te répète ne t'attache pas T'as des envies de mourir J'préfère te dire, j'ai plus de vice que toutes ces bitches T'as beau pleurer des rivières En toute sincérité j'm'en fiche J'ai le truc qu'ils ont pas ma chérie Qui pourra te faire tomber love Fais gaffe ma chérie tu peux tomber love Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove4</t>
+          <t>Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove J'm'en fous d'ta vie, quand on baise ensemble C'est mieux que le cinéma J'suis gentil dans l'fond mais sévère en surface Pour pas qu't'imagines jusqu'au mariage On s'met tellement bien J'ai oublié qu'on a dépassé le troisième quart d'heure Je suis pas venu pour toi, toi t'es gentille Tu mérites qu'un d'ces putains d'lover Attention, ma belle j'suis franc Comme si j'avais tisé Jack D J'emmerde tous tes problèmes de cur En c'moment j'suis à la recherche d'un tard-pé Quand j'suis fonce-dé j't'appelle, miskina J'crois qu'tu connais mon numéro par cur T'as vu la dégaine, tu t'es fiée Je ne suis pas qu'un beau parleur Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove Attache ta ceinture ce soir car tu roules avec moi Si t'as peur du noir t'inquiète bébé, moi je veillerai sur toi L'amour tu n'y crois plus car des ex t'ont fait perdre la foi Et plus j'te baise et plus tu m'aimes Et ces mots tu me les sors à chaque fois J'ai des nouvelles sucreries te faire goûter J'ai des nouvelles huiles, de la nouvelle weed Pour te faire passer des bons moments, tu sais qu'j'suis doué On sent l'instant passionnément sous les draps qu'on va souiller S'il te plaît bébé, t'attache pas aux liens qu'on a noués Car si nous voir ensemble pour la vie est ton souhait Sache que mon cur n'est pas à prendre mais ma bite est à louer Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove J'te dirai sûrement des mots d'amour juste pour te... Un conseil ma chérie, évite les mecs comme moi J'suis un gamin ne t'attache pas Tu vas souffrir J'te répète ne t'attache pas T'as des envies de mourir J'préfère te dire, j'ai plus de vice que toutes ces bitches T'as beau pleurer des rivières En toute sincérité j'm'en fiche J'ai le truc qu'ils ont pas ma chérie Qui pourra te faire tomber love Fais gaffe ma chérie tu peux tomber love Si t'as peur du noir n'aies plus d'inquiétudes J'illuminerai tes nuits de ma présence On fera l'amour sous le clair de Lune Avant qu'le soleil se lève et qu'les oiseaux chantent Yeah, yeah Attention ma belle, le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove T'es bonne, bien roulée comme mon bédo Tu m'trouves bon j'fonds dans ta bouche comme un bonbon Laissons nos corps parler sans s'dire un mot On s'mélange comme mon Coca et mon bourbon Yeah, yeah Attention ma belle le négro peut t'faire tomber love Dans l'son comme au pieu Cocotte, je sais qu't'aimes quand j'innove4</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>J't'allume ta mère, petit, juste parce que j'ai la flemme de pousser Fuck les gens qui me veulent du mal, j'ai pas besoin d'alcool pour me booster Du prolifique, mets Kalina sur nous ça va rapporter Tu forces trop sur la street, rien que ça suce, les plans comme ça c'est bourbier La MZ se résume à beuh, tise, nerfs et a des bombées Miss, j'suis pas ton mec, j'crois qu'il a pas ce zizi qui pourrait te contenter Content d'avoir fait ta connaissance, j'suis pas venu pour rester b-b-b-bander L'oseille dans mon crâne, mes poches de gent-ar, j'espère voir tous tes potos écroués J'suis pas venu pour prendre ce que j'ai le droit de prendre Plutôt pour prendre ce que j'ai pas le droit de prendre Mimi t'es bonne et moi j'suis poli, quand je dis fais doucement en me suçant j'suis poli Ça dépend pour qui je suis un mauvais colis On est dirigés par des alcooliques Te prends pas la tête, sur moi j'ai plus de côte que tes fesses torticolis Dans les boîtes Dans les putains d'blocks, dans les putains de bats La 'zique est bad comme cette putain de dope qu'on vi-ser en bas Dans les boîtes Dans les putains d'blocks, dans les putains de bats La 'zique est bad comme cette putain de dope qu'on vi-ser en bas Brrr ! J'm'en bats les couilles, besoin de personne KDBZik, besoin de personne J'm'en bats les couilles, besoin de personne Davidson Presents, besoin de personne Brrr ! J'm'en bats les couilles, besoin de personne KDBZik, besoin de personne J'm'en bats les couilles, besoin de personne Davidson Presents, besoin de personne You might also like Postichés au ssage- Pa Entourés de bâcheliers et de SEGPA Tu veux savoir d'où nous vient cette inspi Sur la vie de mon flow, moi-même je sais pas MZ volume 3 tah le magma L'album sera pire que le magma Tu donnes ton boule mais tu fais pas un sous, j'crois que ton producteur te matte mal Mon flow aurait besoin d'un psychiatre, déterminés comme les p'tits du 24 MZ clique, en bas de ton bât depuis Lune De Fiel toutes ces putes pètent un câble J'vais reprendre le pilon ou j'vais en faire tapiner si on explose pas tous dans les charts En attendant l'album, on les effraie tous comme cette pute qui pue de la chatte La Zipette est pée-cou, les plaquettes sont pées-cou Les potos sous écrou car les bigo sont sur écoute Putain comment j'me marre quand j'vois tous ces rappeurs s'entretuer pendant que dans mon tier-quar on s'est serré les coudes Tu vas blaguer sonne-per, vendre du rêve à sonne-per Tout le tier-quar sait que tu roules en loc' Tu fais peur à sonne-per, tu vas tirer sur sonne-per Ma parole, tu peux ranger ton Glock Les concurrents veulent mes phases et mes flows Tirer sur mon bédo, être dans le block, appréciés dans le ghetto Baiser les mêmes gos, traîner dans ma bande Pratiquer un gang-bang dans le bendo J'ai la plume à Rimbaud, j'défouraille comme Rambo Bratatata j'te fais une passoir dans le dos J'ai ce qu'on appelle le bang bang flow Jok'Air est venu mettre un terme au bal des faux, négro Brrr ! 'Bats les couilles, besoin de personne Aucun de ces négros ne m'impressionne J'suis venu ramasser les grosses sommes, ils se demandent qui nous sommes, les euros s'additionnent Aucun de ces pelos je n'affectionne, l'ange de la mort en Smith Wesson Faire du sale c'est mon job, moi c'est Malekal John dit le fils du King de Boulogne MZ est dans le building, j'sens la haine en eux Parce qu'on est ces négros qui niquent le rap jeu Ces jeunes négros qui rappent comme eux mais en mieux Une pute à chaque porte parisien.n.e J'l'a prends en leu-leu comme une chien.n.e Cette salope trouve ma queue aussi bonne que ma beuh Parce que les deux la défonce en moins de deux 5</t>
+          <t>J't'allume ta mère, petit, juste parce que j'ai la flemme de pousser Fuck les gens qui me veulent du mal, j'ai pas besoin d'alcool pour me booster Du prolifique, mets Kalina sur nous ça va rapporter Tu forces trop sur la street, rien que ça suce, les plans comme ça c'est bourbier La MZ se résume à beuh, tise, nerfs et a des bombées Miss, j'suis pas ton mec, j'crois qu'il a pas ce zizi qui pourrait te contenter Content d'avoir fait ta connaissance, j'suis pas venu pour rester b-b-b-bander L'oseille dans mon crâne, mes poches de gent-ar, j'espère voir tous tes potos écroués J'suis pas venu pour prendre ce que j'ai le droit de prendre Plutôt pour prendre ce que j'ai pas le droit de prendre Mimi t'es bonne et moi j'suis poli, quand je dis fais doucement en me suçant j'suis poli Ça dépend pour qui je suis un mauvais colis On est dirigés par des alcooliques Te prends pas la tête, sur moi j'ai plus de côte que tes fesses torticolis Dans les boîtes Dans les putains d'blocks, dans les putains de bats La 'zique est bad comme cette putain de dope qu'on vi-ser en bas Dans les boîtes Dans les putains d'blocks, dans les putains de bats La 'zique est bad comme cette putain de dope qu'on vi-ser en bas Brrr ! J'm'en bats les couilles, besoin de personne KDBZik, besoin de personne J'm'en bats les couilles, besoin de personne Davidson Presents, besoin de personne Brrr ! J'm'en bats les couilles, besoin de personne KDBZik, besoin de personne J'm'en bats les couilles, besoin de personne Davidson Presents, besoin de personne Postichés au ssage- Pa Entourés de bâcheliers et de SEGPA Tu veux savoir d'où nous vient cette inspi Sur la vie de mon flow, moi-même je sais pas MZ volume 3 tah le magma L'album sera pire que le magma Tu donnes ton boule mais tu fais pas un sous, j'crois que ton producteur te matte mal Mon flow aurait besoin d'un psychiatre, déterminés comme les p'tits du 24 MZ clique, en bas de ton bât depuis Lune De Fiel toutes ces putes pètent un câble J'vais reprendre le pilon ou j'vais en faire tapiner si on explose pas tous dans les charts En attendant l'album, on les effraie tous comme cette pute qui pue de la chatte La Zipette est pée-cou, les plaquettes sont pées-cou Les potos sous écrou car les bigo sont sur écoute Putain comment j'me marre quand j'vois tous ces rappeurs s'entretuer pendant que dans mon tier-quar on s'est serré les coudes Tu vas blaguer sonne-per, vendre du rêve à sonne-per Tout le tier-quar sait que tu roules en loc' Tu fais peur à sonne-per, tu vas tirer sur sonne-per Ma parole, tu peux ranger ton Glock Les concurrents veulent mes phases et mes flows Tirer sur mon bédo, être dans le block, appréciés dans le ghetto Baiser les mêmes gos, traîner dans ma bande Pratiquer un gang-bang dans le bendo J'ai la plume à Rimbaud, j'défouraille comme Rambo Bratatata j'te fais une passoir dans le dos J'ai ce qu'on appelle le bang bang flow Jok'Air est venu mettre un terme au bal des faux, négro Brrr ! 'Bats les couilles, besoin de personne Aucun de ces négros ne m'impressionne J'suis venu ramasser les grosses sommes, ils se demandent qui nous sommes, les euros s'additionnent Aucun de ces pelos je n'affectionne, l'ange de la mort en Smith Wesson Faire du sale c'est mon job, moi c'est Malekal John dit le fils du King de Boulogne MZ est dans le building, j'sens la haine en eux Parce qu'on est ces négros qui niquent le rap jeu Ces jeunes négros qui rappent comme eux mais en mieux Une pute à chaque porte parisien.n.e J'l'a prends en leu-leu comme une chien.n.e Cette salope trouve ma queue aussi bonne que ma beuh Parce que les deux la défonce en moins de deux 5</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Aïe aïe aïe j'prends mon pied là, les jambes en l'air Le prix d'une plaquette de 100g aux ieps 'teille de JB XXX Toujours le même, même si j'ai signé tu peux toujours me voir au tieks Défoncé sous tise, on s'en bat les couilles de tes ragots Ce que mes niaggas veulent c'est de la marchandise Après les prises de risque et les charbonnages Ce qu'on aime c'est le jour de paie Gros dièse égale gros sous, sans oublier que ça rime avec grosse peine C'quon aime c'est piner, toutes ces bitches dans le game nous parle pas de nausée Maintenant les tasses-pé veulent se poser... hahaha, osé ! Petite virée sur Bériz avec mes niaggas ou une tasse au tel-hô Faire du gros son comme on en a l'habitude sans sucer le moindre pélo J'aime trop mon équipe, k'air-Jo, R.O.D, Dehmo Davidson, Jeci-Jess, le Binôme, Zo', Melopheelo Les putains de prods d'Ekynoxxx qu'on ne fait que fumer comme des vrais tox J'crois qu'avec le volume 2 ils ont réellement compris qui sont les vrais boss Avant de finir j'tenais à dire que j'aime ce qui nous soutiennent J'aime aussi les meufs biens, on ne va pas aimer que les grosse chiennes You might also like Les gros billets, soirée fonce-dé, les gros fessiers c'est ça qu'on aime On est pas d'accord mais n'appelle pas les policiers non, fais pas ça Du nouveau ter, ça frappe et c'est pas cher Aïe aïe aïe, j'prends mon pied là les jambes en l'air Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Aïe aïe aïe j'prends mon pied là, les jambes en l'air Fume ton calumet de la paix, j'fume ma chicha de la guerre Arrête de nous dire que c'est la hass et bouge ton boule pour faire de l'oseille Tu pues de la chatte, meuf, j'ai la haine En fait tu respectes pas ma dégaine Abracadabra, j'ouvre ma braguette et vois comme elle est magique ma baguette J'fonce dans le tas, j'n'en fais qu'à ma tête Vaut mieux avoir les couilles que v'là les pecs Mes gars vendent des litrons, tu grattes des sticks et ta vie de nerveux on s'en bat les steaks Vous parlez trop, moi je vous aime pas Vos rappeurs falches, moi, j'adhère pas C'est D.E.H, si le rap ne marche pas, j'reprendrais la vente de H Faire la djao ouvrir ta bouche dans tout Paname c'est ça que t'aimes Les femelles que tu convoites en faisant le canard, c'est ça que je gère Elle est bonne, elle est discrète, elle m'fait du bien, c'est elle ma belle Frappe un Bleu, ça fait plaisir mais devant la juge ça coûte très cher, cher, cher Donc si ces bâtards meurent, j'm'en fous, j'leur dirais cheh, cheh, cheh Moi et mes gars en boîte, fonce-dés rien que j'peux dead, dead, dead Elle elle est moche, elle veut mon num, moi j'veux pas d'elle, d'elle, d'elle, non C'est ça qu'on aime ow J'aime les gros claps et les grosses basses Les bonnes passes et les grosses liasses Oui, j'aime aç, les soirées sous Henessy, vodka et herbe grasse Les poufiasses, les pétasses, les chaudasses et les grosses 'tasses Lorsque les schmitts dans nos tièks passent Et que mes négros les caillasssent Smoker de la peuf avec mes reufs Fourrer des teuchs, faire la teuf Les prendre en levrette, entend le claquement de mon bas-ventre contre leurs seufs Fais pas la sainte-nitouche, au fond je sais que c'est ça que t'aimes XXX j'rappe ma vie, violence, money, sexe c'est ça le thème J'rêve de la SACEM à Johnny, que ça rafale au uzi sur la police De marcher comme un PIMP, comme une rockstar Que des putes du showbiz me sucent dans les coulisses Ejaculer sur des cheveux tous lisses4</t>
+          <t>Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Aïe aïe aïe j'prends mon pied là, les jambes en l'air Le prix d'une plaquette de 100g aux ieps 'teille de JB XXX Toujours le même, même si j'ai signé tu peux toujours me voir au tieks Défoncé sous tise, on s'en bat les couilles de tes ragots Ce que mes niaggas veulent c'est de la marchandise Après les prises de risque et les charbonnages Ce qu'on aime c'est le jour de paie Gros dièse égale gros sous, sans oublier que ça rime avec grosse peine C'quon aime c'est piner, toutes ces bitches dans le game nous parle pas de nausée Maintenant les tasses-pé veulent se poser... hahaha, osé ! Petite virée sur Bériz avec mes niaggas ou une tasse au tel-hô Faire du gros son comme on en a l'habitude sans sucer le moindre pélo J'aime trop mon équipe, k'air-Jo, R.O.D, Dehmo Davidson, Jeci-Jess, le Binôme, Zo', Melopheelo Les putains de prods d'Ekynoxxx qu'on ne fait que fumer comme des vrais tox J'crois qu'avec le volume 2 ils ont réellement compris qui sont les vrais boss Avant de finir j'tenais à dire que j'aime ce qui nous soutiennent J'aime aussi les meufs biens, on ne va pas aimer que les grosse chiennes Les gros billets, soirée fonce-dé, les gros fessiers c'est ça qu'on aime On est pas d'accord mais n'appelle pas les policiers non, fais pas ça Du nouveau ter, ça frappe et c'est pas cher Aïe aïe aïe, j'prends mon pied là les jambes en l'air Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Meuf, cash, Franco Ferre, frappe, teille-bav Aïe aïe aïe j'prends mon pied là, les jambes en l'air Fume ton calumet de la paix, j'fume ma chicha de la guerre Arrête de nous dire que c'est la hass et bouge ton boule pour faire de l'oseille Tu pues de la chatte, meuf, j'ai la haine En fait tu respectes pas ma dégaine Abracadabra, j'ouvre ma braguette et vois comme elle est magique ma baguette J'fonce dans le tas, j'n'en fais qu'à ma tête Vaut mieux avoir les couilles que v'là les pecs Mes gars vendent des litrons, tu grattes des sticks et ta vie de nerveux on s'en bat les steaks Vous parlez trop, moi je vous aime pas Vos rappeurs falches, moi, j'adhère pas C'est D.E.H, si le rap ne marche pas, j'reprendrais la vente de H Faire la djao ouvrir ta bouche dans tout Paname c'est ça que t'aimes Les femelles que tu convoites en faisant le canard, c'est ça que je gère Elle est bonne, elle est discrète, elle m'fait du bien, c'est elle ma belle Frappe un Bleu, ça fait plaisir mais devant la juge ça coûte très cher, cher, cher Donc si ces bâtards meurent, j'm'en fous, j'leur dirais cheh, cheh, cheh Moi et mes gars en boîte, fonce-dés rien que j'peux dead, dead, dead Elle elle est moche, elle veut mon num, moi j'veux pas d'elle, d'elle, d'elle, non C'est ça qu'on aime ow J'aime les gros claps et les grosses basses Les bonnes passes et les grosses liasses Oui, j'aime aç, les soirées sous Henessy, vodka et herbe grasse Les poufiasses, les pétasses, les chaudasses et les grosses 'tasses Lorsque les schmitts dans nos tièks passent Et que mes négros les caillasssent Smoker de la peuf avec mes reufs Fourrer des teuchs, faire la teuf Les prendre en levrette, entend le claquement de mon bas-ventre contre leurs seufs Fais pas la sainte-nitouche, au fond je sais que c'est ça que t'aimes XXX j'rappe ma vie, violence, money, sexe c'est ça le thème J'rêve de la SACEM à Johnny, que ça rafale au uzi sur la police De marcher comme un PIMP, comme une rockstar Que des putes du showbiz me sucent dans les coulisses Ejaculer sur des cheveux tous lisses4</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kalina, Kalina, t'as fait de nous des cannibales On s'mange les uns les autres, ici l'instinct d'survie est animal Kalina, Kalina, ne vois-tu pas comment ça va mal ? Dans mon ghetto l'ambiance est triste comme dans une cathédrale Kalina, Kalina, j't'ai couru après partout dans la capitale T'avoir sur mes côtes, pour moi, est devenu vital Même si une fin brutale est inévitable Kalina, Kalina Kalina m'impose des dilemmes délicats J'ai laissé l'illégal au profit de ma force lyricale Je suis tombé pour Kalina, ce soir c'est bon j'le dédicace Tes histoires on les connaît pas Même moi dans ma tête j'ferais pleurer un télépathe Y'a pas d'biff' nous appelez pas Bien que j'ai plus d'cardio J'ai plus l'temps de faire les bras Kalina, Kalina Kalina, Kalina, Kalina, Kalina Fuck les insignes et les clés de bras T'es chaud, raconte Mais faut qu'ça s'finisse à la Jacques Mesrine, Mesrine Comme Tony Montana meurs, meurs à la Jacques Mesrine, Mesrine Comme Manny qui meurt, meurs à la Jacques Mesrine, Mesrine Comme Malcolm X meurs, meurs à la Jacques Mesrine, Mesrine Et là j'serai impressionné You might also like Toi Kalina, toi Kalina À force de t'vouloir, j'ai fait pleurer Mama À chaque fois qu'j't'ai conquis, oui J'ai vu qu'du mal autour de moi, autour de moi La jalousie, la poisse, les stups et leur malinois Poto m'raconte pas ta vie Moi aussi j'dois rendre des comptes à la fin du mois Pas question d'mourir à la Jacques Mesrine Car Maman compte fort sur son bébé chéri J'suis toujours à la recherche d'un plan B Fais belek pour Kalina, ça peut te plomber Tes histoires on les connaît pas Même moi dans ma tête j'ferais pleurer un télépathe Y'a pas d'biff' nous appelez pas Bien que j'ai plus d'cardio J'ai plus l'temps de faire les bras Kalina, Kalina Kalina, Kalina, Kalina, Kalina Fuck les insignes et les clés de bras T'es chaud, raconte Mais faut qu'ça s'finisse à la Jacques Mesrine, Mesrine Comme Tony Montana meurs, meurs à la Jacques Mesrine, Mesrine Comme Manny qui meurt, meurs à la Jacques Mesrine, Mesrine Comme Malcolm X meurs, meurs à la Jacques Mesrine, Mesrine Et là j'serai impressionné Quand t'es vrai, mon gars, tu ne parles pas, tu prouves Quand t'es chaud, mon pote, tu ne parles pas, tu bouges Les gangsters se fondent dans la masse comme des bolosses Les bolosses s'y fondent comme des gangsters J'ai tourné, j'ai tourné J'ai vu des carrures de lion avec les yeuks d'un hamster Kalina, Kalina Faut qu'tu leur apprennes à te faire Ma mimi, j'pourrais pas te promettre la Lune Mais j'suis partant pour bien chauffer c't hiver Coucou, moi c'est la concu' C'est fabuleux comment tous vos sons puent C'est pas que j'en ai rien à foutre Mais on a coupé le son en entendant ta réput' Tes histoires on les connaît pas Même moi dans ma tête j'ferais pleurer un télépathe Y'a pas d'biff' nous appelez pas Bien que j'ai plus d'cardio J'ai plus l'temps de faire les bras Kalina, Kalina Kalina, Kalina, Kalina, Kalina Fuck les insignes et les clés de bras T'es chaud, raconte Mais faut qu'ça s'finisse à la Jacques Mesrine, Mesrine Comme Tony Montana meurs, meurs à la Jacques Mesrine, Mesrine Comme Manny qui meurt, meurs à la Jacques Mesrine, Mesrine Comme Malcolm X meurs, meurs à la Jacques Mesrine, Mesrine Et là j'serai impressionné3</t>
+          <t>Kalina, Kalina, t'as fait de nous des cannibales On s'mange les uns les autres, ici l'instinct d'survie est animal Kalina, Kalina, ne vois-tu pas comment ça va mal ? Dans mon ghetto l'ambiance est triste comme dans une cathédrale Kalina, Kalina, j't'ai couru après partout dans la capitale T'avoir sur mes côtes, pour moi, est devenu vital Même si une fin brutale est inévitable Kalina, Kalina Kalina m'impose des dilemmes délicats J'ai laissé l'illégal au profit de ma force lyricale Je suis tombé pour Kalina, ce soir c'est bon j'le dédicace Tes histoires on les connaît pas Même moi dans ma tête j'ferais pleurer un télépathe Y'a pas d'biff' nous appelez pas Bien que j'ai plus d'cardio J'ai plus l'temps de faire les bras Kalina, Kalina Kalina, Kalina, Kalina, Kalina Fuck les insignes et les clés de bras T'es chaud, raconte Mais faut qu'ça s'finisse à la Jacques Mesrine, Mesrine Comme Tony Montana meurs, meurs à la Jacques Mesrine, Mesrine Comme Manny qui meurt, meurs à la Jacques Mesrine, Mesrine Comme Malcolm X meurs, meurs à la Jacques Mesrine, Mesrine Et là j'serai impressionné Toi Kalina, toi Kalina À force de t'vouloir, j'ai fait pleurer Mama À chaque fois qu'j't'ai conquis, oui J'ai vu qu'du mal autour de moi, autour de moi La jalousie, la poisse, les stups et leur malinois Poto m'raconte pas ta vie Moi aussi j'dois rendre des comptes à la fin du mois Pas question d'mourir à la Jacques Mesrine Car Maman compte fort sur son bébé chéri J'suis toujours à la recherche d'un plan B Fais belek pour Kalina, ça peut te plomber Tes histoires on les connaît pas Même moi dans ma tête j'ferais pleurer un télépathe Y'a pas d'biff' nous appelez pas Bien que j'ai plus d'cardio J'ai plus l'temps de faire les bras Kalina, Kalina Kalina, Kalina, Kalina, Kalina Fuck les insignes et les clés de bras T'es chaud, raconte Mais faut qu'ça s'finisse à la Jacques Mesrine, Mesrine Comme Tony Montana meurs, meurs à la Jacques Mesrine, Mesrine Comme Manny qui meurt, meurs à la Jacques Mesrine, Mesrine Comme Malcolm X meurs, meurs à la Jacques Mesrine, Mesrine Et là j'serai impressionné Quand t'es vrai, mon gars, tu ne parles pas, tu prouves Quand t'es chaud, mon pote, tu ne parles pas, tu bouges Les gangsters se fondent dans la masse comme des bolosses Les bolosses s'y fondent comme des gangsters J'ai tourné, j'ai tourné J'ai vu des carrures de lion avec les yeuks d'un hamster Kalina, Kalina Faut qu'tu leur apprennes à te faire Ma mimi, j'pourrais pas te promettre la Lune Mais j'suis partant pour bien chauffer c't hiver Coucou, moi c'est la concu' C'est fabuleux comment tous vos sons puent C'est pas que j'en ai rien à foutre Mais on a coupé le son en entendant ta réput' Tes histoires on les connaît pas Même moi dans ma tête j'ferais pleurer un télépathe Y'a pas d'biff' nous appelez pas Bien que j'ai plus d'cardio J'ai plus l'temps de faire les bras Kalina, Kalina Kalina, Kalina, Kalina, Kalina Fuck les insignes et les clés de bras T'es chaud, raconte Mais faut qu'ça s'finisse à la Jacques Mesrine, Mesrine Comme Tony Montana meurs, meurs à la Jacques Mesrine, Mesrine Comme Manny qui meurt, meurs à la Jacques Mesrine, Mesrine Comme Malcolm X meurs, meurs à la Jacques Mesrine, Mesrine Et là j'serai impressionné3</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hmm, hmm, hmm, hmm Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl Hey, hey, hey, hey Je marche dans la ville, je me sens comme Johnny Les bonbonnes sont calées, je suis bien loin de Tony Ferme ta gueule, je vais rester poli On sait que t'as rien vendu, donc arrête pauvre tho-my Tu m'parles de ta fe-meu, j'te parle de chiffres Le rap français va s'la prendre dans les fesses L'objectif c'est faire du A, demande à Chich Marlo y'a de la djandjou, donc on va se flex Fais du papier, arrête de jacter, t'as la bouche pâteuse T'compare pas, j'suis dans la ville en showcase Je prends ton salaire en moins de deux Je suis un vrai négro, fuck les Bounty Chéri coco, bouge ton booty MZ clique, c't'année on contrôle La Dictature, Vladimir Poutine J'ai les meilleurs ze-dou du tier-quar Hmm brasse comme Lidl Je suis plus convoité qu'Eden Hazard Hmm brasse comme Lidl Les boloss se plaignent de tes bouts c'est trop lége T'es pas prêt, tu t'embrouilles pour des poules Hmm brasse comme Lidl, hmm brasse comme Lidl Rap Game, je lui sperme en pleine gueule Nous on bosse pour être les leaders Alors comme ça tu ne danses pas Attends que je sorte le Desert Eagle Négro, clic-clac paw, et tu bouges comme Kevin Lyttle Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl You might also like D'abord, j'en ai ras le bol que ces bouffons me haïssent T'es pas le boss, parce que t'as pas le khalis Brasse comme, brasse comme Sebastien Vettel et sa putain de Ferrari Approche-toi bébé, n'aie pas peur Tu veux mon num' ou l'argent du beurre ? J'ai du cur, bitch, prends ma bite et lâche mon portefeuille Faut que je sois partout comme Apple Que je brasse comme Lidl Comme ça je pourrais pas dire que je m'ennuie J'ai pris le mic, baisé les MCs, fait des bébés Ils ont les mêmes flows que moi, mais je les avais en 2010 T'es pas méchant, t'es gentil dans le fond Mais bon, reste toi-même, t'es bof, t'es ce qu'on appelle bouffon Je suis dans le bendo, je mélange coca'n'bourbon Bitch, ton entreprise et la mienne vont faire fusion J'ai les meilleurs ze-dou du tier-quar Hmm brasse comme Lidl Je suis plus convoité qu'Eden Hazard Hmm brasse comme Lidl Les boloss se plaignent de tes bouts c'est trop lége T'es pas prêt, tu t'embrouilles pour des poules Hmm brasse comme Lidl, hmm brasse comme Lidl Rap Game, je lui sperme en pleine gueule Nous on bosse pour être les leaders Alors comme ça tu ne danses pas Attends que je sorte le Desert Eagle Négro, clic-clac paw, et tu bouges comme Kevin Lyttle Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl Elle me trouve craquant comme un Pringles Sucré comme un Skittles J'leur donne toujours c'qu'elles veulent Elles m'croquent comme la pomme de Apple Aiment ma verge entre leurs lèvres Je ne pense qu'à être le leader Bitch, ma clique augmente le level Ta mère nous kiffe comme les Beatles Je me sens comme Kobe au Staples À la grande époque des Lakers Quand j'fume et tise ma liqueur J'suis dans la bouche des haters Ce sont des usurpateurs Ces rappeurs sont des acteurs Attends que j'sorte le Desert Eagle Qu'ils dansent comme les Village People On brasse comme Lidl J'ai les meilleurs ze-dou du tier-quar Hmm brasse comme Lidl Je suis plus convoité qu'Eden Hazard Hmm brasse comme Lidl Les boloss se plaignent de tes bouts c'est trop lége T'es pas prêt, tu t'embrouilles pour des poules Hmm brasse comme Lidl, hmm brasse comme Lidl Rap Game, je lui sperme en pleine gueule Nous on bosse pour être les leaders Alors comme ça tu ne danses pas Attends que je sorte le Desert Eagle Négro, clic-clac paw, et tu bouges comme Kevin Lyttle Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl3</t>
+          <t>Hmm, hmm, hmm, hmm Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl Hey, hey, hey, hey Je marche dans la ville, je me sens comme Johnny Les bonbonnes sont calées, je suis bien loin de Tony Ferme ta gueule, je vais rester poli On sait que t'as rien vendu, donc arrête pauvre tho-my Tu m'parles de ta fe-meu, j'te parle de chiffres Le rap français va s'la prendre dans les fesses L'objectif c'est faire du A, demande à Chich Marlo y'a de la djandjou, donc on va se flex Fais du papier, arrête de jacter, t'as la bouche pâteuse T'compare pas, j'suis dans la ville en showcase Je prends ton salaire en moins de deux Je suis un vrai négro, fuck les Bounty Chéri coco, bouge ton booty MZ clique, c't'année on contrôle La Dictature, Vladimir Poutine J'ai les meilleurs ze-dou du tier-quar Hmm brasse comme Lidl Je suis plus convoité qu'Eden Hazard Hmm brasse comme Lidl Les boloss se plaignent de tes bouts c'est trop lége T'es pas prêt, tu t'embrouilles pour des poules Hmm brasse comme Lidl, hmm brasse comme Lidl Rap Game, je lui sperme en pleine gueule Nous on bosse pour être les leaders Alors comme ça tu ne danses pas Attends que je sorte le Desert Eagle Négro, clic-clac paw, et tu bouges comme Kevin Lyttle Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl D'abord, j'en ai ras le bol que ces bouffons me haïssent T'es pas le boss, parce que t'as pas le khalis Brasse comme, brasse comme Sebastien Vettel et sa putain de Ferrari Approche-toi bébé, n'aie pas peur Tu veux mon num' ou l'argent du beurre ? J'ai du cur, bitch, prends ma bite et lâche mon portefeuille Faut que je sois partout comme Apple Que je brasse comme Lidl Comme ça je pourrais pas dire que je m'ennuie J'ai pris le mic, baisé les MCs, fait des bébés Ils ont les mêmes flows que moi, mais je les avais en 2010 T'es pas méchant, t'es gentil dans le fond Mais bon, reste toi-même, t'es bof, t'es ce qu'on appelle bouffon Je suis dans le bendo, je mélange coca'n'bourbon Bitch, ton entreprise et la mienne vont faire fusion J'ai les meilleurs ze-dou du tier-quar Hmm brasse comme Lidl Je suis plus convoité qu'Eden Hazard Hmm brasse comme Lidl Les boloss se plaignent de tes bouts c'est trop lége T'es pas prêt, tu t'embrouilles pour des poules Hmm brasse comme Lidl, hmm brasse comme Lidl Rap Game, je lui sperme en pleine gueule Nous on bosse pour être les leaders Alors comme ça tu ne danses pas Attends que je sorte le Desert Eagle Négro, clic-clac paw, et tu bouges comme Kevin Lyttle Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl Elle me trouve craquant comme un Pringles Sucré comme un Skittles J'leur donne toujours c'qu'elles veulent Elles m'croquent comme la pomme de Apple Aiment ma verge entre leurs lèvres Je ne pense qu'à être le leader Bitch, ma clique augmente le level Ta mère nous kiffe comme les Beatles Je me sens comme Kobe au Staples À la grande époque des Lakers Quand j'fume et tise ma liqueur J'suis dans la bouche des haters Ce sont des usurpateurs Ces rappeurs sont des acteurs Attends que j'sorte le Desert Eagle Qu'ils dansent comme les Village People On brasse comme Lidl J'ai les meilleurs ze-dou du tier-quar Hmm brasse comme Lidl Je suis plus convoité qu'Eden Hazard Hmm brasse comme Lidl Les boloss se plaignent de tes bouts c'est trop lége T'es pas prêt, tu t'embrouilles pour des poules Hmm brasse comme Lidl, hmm brasse comme Lidl Rap Game, je lui sperme en pleine gueule Nous on bosse pour être les leaders Alors comme ça tu ne danses pas Attends que je sorte le Desert Eagle Négro, clic-clac paw, et tu bouges comme Kevin Lyttle Hmm brasse comme Lidl, hmm brasse comme Lidl Hmm brasse comme Lidl, hmm brasse comme Lidl3</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata Tout l'monde est Big Daddy, Big Daddy Jok' Chaque jour de la semaine, c'est le week-end L'occasion de sortir des bouteilles Donc j'appelle Luc Bélaire J'en commande une vingtaine Sous rosé la vie est plus belle Et on se shoot, on shoot Ça fait bang bang Du Madison Square Garden jusqu'à Clairefontaine Hey, bratatata J'suis le meilleur dans ce game Je roule avec mon boys band Pour ceux qui soutiennent sachez que Big Daddy vous aime Fonce-dé dans la Benz, je zoom zoom zang Comme Joey Starr et Kool Shen Je me shoot, je suis ouh, comme Kurt Cobain Et je fais le Space Moutain De Chevaleret à Avenue Montaigne Je suis classique comme le Wu-Tang You might also like On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata Un shot, j'te shoot Je te choure ta fouffe Elle kiff, le truc, moi-même, j'lui bouffe Rappeur t'es drogué, arrête de jacter En plus ton produit t'étouffe Approche, t'inquiète, j'ai de la bonne En un tour d'magie, tiens pouf Ça fait bratatata, on a du bon teh' Ramène les tei-teilles, wesh les tatas Passe à la télé, suis-je toujours raté ? Je suis plus fort que Neymar, j'ai tué Superman Je fais que du sale, j'en ai marre Je suis fonce-dé comme Gucci Mane On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata J'arrive il arrive Je suis frais il est frais Comme d'hab' comme d'hab' Tu souffres tu souffres J'esquive il esquive Les flèches les flèches Comme Jon Sn' comme Jon Sn' Chaque jour chaque jour Elle est lourde t'es lourde Elle est belle t'es belle Pokéball Pokéball Je la chope je te chope Je suis chic chic Je suis cher cher Je suis chaud chaud Je suis choc choc On se baisse On se baisse, on se baisse on se tait On se baisse, on se baisse chut On se baisse tout le monde On se baisse, on se baisse on se tait On se baisse, on se baisse chut Il faut que tu chuchotes, les murs ont des oreilles Après il faudra s'mettre à couvert Joue la discret, comme 007 Et tu bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata</t>
+          <t>On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata Tout l'monde est Big Daddy, Big Daddy Jok' Chaque jour de la semaine, c'est le week-end L'occasion de sortir des bouteilles Donc j'appelle Luc Bélaire J'en commande une vingtaine Sous rosé la vie est plus belle Et on se shoot, on shoot Ça fait bang bang Du Madison Square Garden jusqu'à Clairefontaine Hey, bratatata J'suis le meilleur dans ce game Je roule avec mon boys band Pour ceux qui soutiennent sachez que Big Daddy vous aime Fonce-dé dans la Benz, je zoom zoom zang Comme Joey Starr et Kool Shen Je me shoot, je suis ouh, comme Kurt Cobain Et je fais le Space Moutain De Chevaleret à Avenue Montaigne Je suis classique comme le Wu-Tang On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata Un shot, j'te shoot Je te choure ta fouffe Elle kiff, le truc, moi-même, j'lui bouffe Rappeur t'es drogué, arrête de jacter En plus ton produit t'étouffe Approche, t'inquiète, j'ai de la bonne En un tour d'magie, tiens pouf Ça fait bratatata, on a du bon teh' Ramène les tei-teilles, wesh les tatas Passe à la télé, suis-je toujours raté ? Je suis plus fort que Neymar, j'ai tué Superman Je fais que du sale, j'en ai marre Je suis fonce-dé comme Gucci Mane On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata J'arrive il arrive Je suis frais il est frais Comme d'hab' comme d'hab' Tu souffres tu souffres J'esquive il esquive Les flèches les flèches Comme Jon Sn' comme Jon Sn' Chaque jour chaque jour Elle est lourde t'es lourde Elle est belle t'es belle Pokéball Pokéball Je la chope je te chope Je suis chic chic Je suis cher cher Je suis chaud chaud Je suis choc choc On se baisse On se baisse, on se baisse on se tait On se baisse, on se baisse chut On se baisse tout le monde On se baisse, on se baisse on se tait On se baisse, on se baisse chut Il faut que tu chuchotes, les murs ont des oreilles Après il faudra s'mettre à couvert Joue la discret, comme 007 Et tu bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata On shoot, on s'shoot On shoot, on shoot On shoot, on s'shoot On shoot, on shoot Et ça fait bratatata hey Bratatata hey, bratatata Bratatata hey, bratatata hey, bratatata</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tu sais que je suis bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon Mes potes m'appellent Big Daddy Jok', elle m'appelle Arlequin Je glisse sur sa langue, je mets du sucre, instant coquin Elle ne veut pas l'dire mais je suis son remontant à chaque chagrin Bonbon sur bonbon, elle ne veut jamais être a jeun Elle me cache à ses frangins, ne me partage pas avec ses copines Parle de moi parfois à quelques copains, mais pas trop pour garder de la salive Toutes les bonnes choses ont une fin, bonbon n'a plus de goût et me laisse tomber Elle s'en mettra d'autres sous les papilles de quoi bien pomper Enlève l'emballage et avale tendrement ce bonbon Nan, tu n'es pas si sage, tant mieux car je suis un mauvais garçon Ne me fais pas de mal, je t'en prie ne mets pas les dents Ne mets pas les dents, je t'en prie ne mets pas les dents Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon You might also like Oh ! Une lollipop, espérons que t'as la bouche propre Je veux te voir lécher le bonbon mais je veux pas qu'tu croques Si t'en as pas, disons que t'as pas de bol Et sans cette drogue, je sais que tu deviens folle T'inquiète ma biche, c'est moi qui vais gérer Je sais que tu pourras pas t'en passer, j'ai le goût de ton bonbon préféré Et je pense aux trucs de fou qu'on pourrait faire Je te jure que personne pourra te faire taire Enlève l'emballage et avale tendrement ce bonbon Nan, tu n'es pas si sage, tant mieux car je suis un mauvais garçon Ne me fais pas de mal, je t'en prie ne mets pas les dents Ne mets pas les dents, je t'en prie ne mets pas les dents Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon On s'envoie en l'air mais on atterrit pas, ma sucrerie ne se périme pas Goûte-la, ne la devine pas et si tu n'aimes pas, j'te mérite pas Je laisse Armstrong faire le premier pas Je serai ton dernier rempart, une de plus tu seras pour ma part Et je sais que tes copines t'envient, je m'en fous de ton avis C'est puissant, pas fait à la va-vite, donc tu peux remercier sisi, sisi C'est pas mon genre d'être ache-mé, à ce qu'il parait tu aimes quand je suis chant-mé C'est comme ça qu'on arrive à vous charmer, vous brancher puis vous débrancher Sans le savoir elle aime que je lui mythonne Lui rendre une sincère illusion en retour des sois-disant sentiments censés qu'elle me donne Oui, j'en fais pas mal mais jamais des tonnes Contre la maladie d'amour en ce siècle ses gâteries demeurent comme seul antidote Elle me dit que je suis beau et que je sais parler C'est ma princesse quand mon berlingot fait la poutre sous son palais Téléphone de Monsieur sonne, Mamzelle' dit de pas y aller Accro à ce bonbon, non non elle ne veut plus me laisser prendre l'air ! Enlève l'emballage et avale tendrement ce bonbon Nan, tu n'es pas si sage, tant mieux car je suis un mauvais garçon Ne me fais pas de mal, je t'en prie ne mets pas les dents Ne mets pas les dents, je t'en prie ne mets pas les dents Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon5</t>
+          <t>Tu sais que je suis bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon Mes potes m'appellent Big Daddy Jok', elle m'appelle Arlequin Je glisse sur sa langue, je mets du sucre, instant coquin Elle ne veut pas l'dire mais je suis son remontant à chaque chagrin Bonbon sur bonbon, elle ne veut jamais être a jeun Elle me cache à ses frangins, ne me partage pas avec ses copines Parle de moi parfois à quelques copains, mais pas trop pour garder de la salive Toutes les bonnes choses ont une fin, bonbon n'a plus de goût et me laisse tomber Elle s'en mettra d'autres sous les papilles de quoi bien pomper Enlève l'emballage et avale tendrement ce bonbon Nan, tu n'es pas si sage, tant mieux car je suis un mauvais garçon Ne me fais pas de mal, je t'en prie ne mets pas les dents Ne mets pas les dents, je t'en prie ne mets pas les dents Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Oh ! Une lollipop, espérons que t'as la bouche propre Je veux te voir lécher le bonbon mais je veux pas qu'tu croques Si t'en as pas, disons que t'as pas de bol Et sans cette drogue, je sais que tu deviens folle T'inquiète ma biche, c'est moi qui vais gérer Je sais que tu pourras pas t'en passer, j'ai le goût de ton bonbon préféré Et je pense aux trucs de fou qu'on pourrait faire Je te jure que personne pourra te faire taire Enlève l'emballage et avale tendrement ce bonbon Nan, tu n'es pas si sage, tant mieux car je suis un mauvais garçon Ne me fais pas de mal, je t'en prie ne mets pas les dents Ne mets pas les dents, je t'en prie ne mets pas les dents Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon On s'envoie en l'air mais on atterrit pas, ma sucrerie ne se périme pas Goûte-la, ne la devine pas et si tu n'aimes pas, j'te mérite pas Je laisse Armstrong faire le premier pas Je serai ton dernier rempart, une de plus tu seras pour ma part Et je sais que tes copines t'envient, je m'en fous de ton avis C'est puissant, pas fait à la va-vite, donc tu peux remercier sisi, sisi C'est pas mon genre d'être ache-mé, à ce qu'il parait tu aimes quand je suis chant-mé C'est comme ça qu'on arrive à vous charmer, vous brancher puis vous débrancher Sans le savoir elle aime que je lui mythonne Lui rendre une sincère illusion en retour des sois-disant sentiments censés qu'elle me donne Oui, j'en fais pas mal mais jamais des tonnes Contre la maladie d'amour en ce siècle ses gâteries demeurent comme seul antidote Elle me dit que je suis beau et que je sais parler C'est ma princesse quand mon berlingot fait la poutre sous son palais Téléphone de Monsieur sonne, Mamzelle' dit de pas y aller Accro à ce bonbon, non non elle ne veut plus me laisser prendre l'air ! Enlève l'emballage et avale tendrement ce bonbon Nan, tu n'es pas si sage, tant mieux car je suis un mauvais garçon Ne me fais pas de mal, je t'en prie ne mets pas les dents Ne mets pas les dents, je t'en prie ne mets pas les dents Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon Tu sais que je suis bon, bon, bon, bon, bon, bon, bon, bon5</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sur l'chemin d'l'école j'ai vendu mon shit Au tieks j'me fait courser par la BAC Au final j'ai eu mon bac Mais fuck la fac j'veux vendre du shit OG Kush et Afghan sont comme sous mon cardigan Ma clique est dans le bâtiment, j'tire comme un taliban Ouvre grand ta bouche que j'puisse y rentrer mon gland Bitch avale ma descendance comme un putain d'aliment Cheche hood, c'est mon block Tous les jours, on s'fucked up On chante en faisant d'la monnaie Chez nous tu tiens pas une journée comme mon maudit paquet d'clopes Moi cest Jok'Air, Jok Pololo, Big Daddy Jok', j'fais du bon job ils font des blowjobs J'ai les meilleures phases, les meilleurs flow et d'la bonne drogue Une menace pour le rap game j'flingue à la O'Dog Nos musiques sont incroyables Depuis bébé, oui on est pas nouveaux Les rappeurs sont des tueurs qui n'ont même pas un Flash-Ball Maintenant j'me nique la santé sous tchapalo, faut qu'j'arrête Mais ferme ta gueule elle est bonne ma white widow Envoie le Bel Air qu'on se fucked up Les profs nous auraient bien vus locked up Nos gos sont vierges au niveau botox Comme le patron de ton papa je suis fucked up Comme Nicolas je suis fucked up Et puis comme Marine je suis fucked up Et puis comme François je suis fucked up Oui merci je suis Français et bien fucked up You might also like D.E.H.M.O, enchanté, méchamment dans le délire enfantin Et puis mes copines sont mimis même sans le fond d'teint J'attends celle qu'a le mérite de s'faire enfanter J'suis pas nouveau dans le game, je glandais Occupé sur Paris, je vendais Le tout c'est pas de rapper, il faut l'faire Le temps m'a forgé m'a fait perdre des faux frères, khey Si tu fais pas la guerre c'est qu'tu veux pas la paix Tu pleures pour des connes c'est qu't'en vaux pas la peine Les deuxièmes sont beaucoup trop fiers quand ils perdent Viens à ma table c'est la te-boî qui paye J'm'en fous d'ton épopée, j'm'en fous d'ton épopée Faut qu'j'fasse du papier à trente piges j'suis pépère À trente piges j'suis pépère, avec trois-quatre coupés J'me levais chaque matin pour aller courir après l'flouze S'tu veux on a d'la dure, on a d'la douce Le salaire net de ton daron dans une Grey Goose J'm'appelle Ange-Patrick et j'crois bien qu'je les baise tous On est venus on a frappé ils sont sur le té-cô On est dans c'rap de merde mais pas là pour la déco Demande au poto Jok' toutes ces bitchs ont reconnu nos têtes et veulent qu'on les ster-co Fais pas l'dur, ta daronne te mettait au coin la mienne me mettait au mitard Et des coups d'ceintures, viens pas faire l'barjo les vrais fous sont à l'hôpital Écoute bien c'que j'dis ta daronne te mettait au coin la mienne me mettait au mitard Fais pas l'barjo, les vrais fous sont à l'hôpital 3</t>
+          <t>Sur l'chemin d'l'école j'ai vendu mon shit Au tieks j'me fait courser par la BAC Au final j'ai eu mon bac Mais fuck la fac j'veux vendre du shit OG Kush et Afghan sont comme sous mon cardigan Ma clique est dans le bâtiment, j'tire comme un taliban Ouvre grand ta bouche que j'puisse y rentrer mon gland Bitch avale ma descendance comme un putain d'aliment Cheche hood, c'est mon block Tous les jours, on s'fucked up On chante en faisant d'la monnaie Chez nous tu tiens pas une journée comme mon maudit paquet d'clopes Moi cest Jok'Air, Jok Pololo, Big Daddy Jok', j'fais du bon job ils font des blowjobs J'ai les meilleures phases, les meilleurs flow et d'la bonne drogue Une menace pour le rap game j'flingue à la O'Dog Nos musiques sont incroyables Depuis bébé, oui on est pas nouveaux Les rappeurs sont des tueurs qui n'ont même pas un Flash-Ball Maintenant j'me nique la santé sous tchapalo, faut qu'j'arrête Mais ferme ta gueule elle est bonne ma white widow Envoie le Bel Air qu'on se fucked up Les profs nous auraient bien vus locked up Nos gos sont vierges au niveau botox Comme le patron de ton papa je suis fucked up Comme Nicolas je suis fucked up Et puis comme Marine je suis fucked up Et puis comme François je suis fucked up Oui merci je suis Français et bien fucked up D.E.H.M.O, enchanté, méchamment dans le délire enfantin Et puis mes copines sont mimis même sans le fond d'teint J'attends celle qu'a le mérite de s'faire enfanter J'suis pas nouveau dans le game, je glandais Occupé sur Paris, je vendais Le tout c'est pas de rapper, il faut l'faire Le temps m'a forgé m'a fait perdre des faux frères, khey Si tu fais pas la guerre c'est qu'tu veux pas la paix Tu pleures pour des connes c'est qu't'en vaux pas la peine Les deuxièmes sont beaucoup trop fiers quand ils perdent Viens à ma table c'est la te-boî qui paye J'm'en fous d'ton épopée, j'm'en fous d'ton épopée Faut qu'j'fasse du papier à trente piges j'suis pépère À trente piges j'suis pépère, avec trois-quatre coupés J'me levais chaque matin pour aller courir après l'flouze S'tu veux on a d'la dure, on a d'la douce Le salaire net de ton daron dans une Grey Goose J'm'appelle Ange-Patrick et j'crois bien qu'je les baise tous On est venus on a frappé ils sont sur le té-cô On est dans c'rap de merde mais pas là pour la déco Demande au poto Jok' toutes ces bitchs ont reconnu nos têtes et veulent qu'on les ster-co Fais pas l'dur, ta daronne te mettait au coin la mienne me mettait au mitard Et des coups d'ceintures, viens pas faire l'barjo les vrais fous sont à l'hôpital Écoute bien c'que j'dis ta daronne te mettait au coin la mienne me mettait au mitard Fais pas l'barjo, les vrais fous sont à l'hôpital 3</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nique les rappeurs, nique les hackeurs Tu veux nous tester mais j'espère qu't'as pas peur Faîtes du papier, arrête de m'envier Ceux qui ont la côte chez nous c'est pas les pompiers Wesh ma gueule, ferme ta gueule Tu rages sur nous mais rien que tes potes nous sucent la queue J'pense qu'à faire du biff, la drogue m'a quèn Faut qu'j'kèn Nicki avant que les flics m'atteignent Avant qu'les flics t'atteignent Arrête la drogue si t'es cramé comme une frite McCain J'ai arrêté la vente de H, j'peux le jurer sur la vie d'ta mère Et j'sais que rapper, j'suis pas diplômé Dans la street, des bêtises on a grave donné Perchés, wAllah on était grave paumés Mais j'vous demande pas d'me pardonner Du foot j'en faisais pas peu et j'ai pas eu la sélection des bons Bleus J'ai pas eu mon bac, j'connais trop les Baqueux On n'est jamais plus mal servis que par les vards-cre On est d'accord, toujours au taquet Si j'suis dans la merde, on sait qui peut me backer Qui peut me braquer, j'dois mettre le paquet Et j'me souviens de mon 3.5.7. claqué J'suis un bonhomme comme Bacos Paname, vamos, Blackos Locos Trop de tes-pu à té-cô, juste un crick-crick et tu vois moins d'bad boy Pour ceux qui maîtrisent les bons bords On est la goutte qui fait que les vases débordent Sérieux, sérieux pas de baltringue à bord Vous êtes même pas plus forts que les Bratisla Boys You might also like Qu'est-ce qu'on va faire ? On n'sait que rapper hé hé hé hé Vendre de la dope et des putains d'CDs hé hé hé hé Non, mais qui a l'plus de flow ? MZ Music oh Désolé les gars, la MZ met les gaz Posés dans la cave, c'qu'on fait est illégal Non, mais qui a l'plus de flow ? MZ Music oh Renoi, costaud Smarté Côté passager gros tard-pé Jactez, j'ai plus l'time IB d'la street pour vous tarter Des flows d'attardé Pour mes mothafuckin dards-blé Fuck les dècs, t'inquiète on les baise Personne nous empêchera de faire rentrer un tas d'blé Tête de mort sur le polo MZ sur la piscaroro Wesh, le talent paye pas, la preuve j'ai toujours pas pété mon disque roro Davidson Presents KDBZik Brand new, signature Wesh les concurrents j'vous vois plus Enfin si en miniature Les gos s'font per-cou dans les jeuk comme la Zipette que mes gavas bibi sur Bérize Des 100 G d'bé-do s'vendent comme des p'tits pains Ah ouais ma gueule mes niaggas prennent des risques On arrive dans ce milieu d'merde pour tout quer-ni Pour ça, vous inquiétez pas, j'ai ramené toute ma clique On va baiser l'rap game, lui faire une sextape Puis finir par lui pisser d'ssus à la R.Kelly Prends nous comme ton meilleur yencli qui stoppe Hardcore comme ta sur de 15 piges en cloque Tu fais peur à personne, t'as fait ci, t'as fait ça Ici personne te croit fdp crève t'es qu'un floco Ouais t'es qu'un floco, Hache-P d'la MZ, mothafucka Les scarlas mettent la cagoule et les gants et vont à la recherche du ffre-co Shoot dans le mille à la Mike Bibby Coupe le shit en détail, on te le bibi Davidson aka Diddy, Jok'Air aka Biggy J'écoute leurs sons, leurs piques ne font que des guillis Ça, Papa me l'avait dit, Maman me l'avait dit Fils, attention la rue fait des gens des bandits On est faits pour la monnaie, les guns on a brandi Passé des nuits en garde-à-v' ou des nuits dans des booty On a taffé, bossé, j'espère qu'ça va payer Aligner les MCs un par un pour les balayer MZ Music, Davidson Presents, KDBZik On dégaine tellement de mots, tellement de flow, qu'on nous croit calibrés d'Uzi Ta salope suce mon zizi La concurrence se suicide Comme la fin du monde, on arrive et c'est peut-être un signe Ici, les gueules et les boules on bousille Rafales lyricales, les prods d'Ekynoxxx on fusille De l'autre côté de la rue, le mauvais il nous guette J'traîne à Chevaleret, j'm'en bats les couilles de leur game Maintenant, dîtes-moi qui a l'plus de... Aimé par les vrais, haï par les faux 2</t>
+          <t>Nique les rappeurs, nique les hackeurs Tu veux nous tester mais j'espère qu't'as pas peur Faîtes du papier, arrête de m'envier Ceux qui ont la côte chez nous c'est pas les pompiers Wesh ma gueule, ferme ta gueule Tu rages sur nous mais rien que tes potes nous sucent la queue J'pense qu'à faire du biff, la drogue m'a quèn Faut qu'j'kèn Nicki avant que les flics m'atteignent Avant qu'les flics t'atteignent Arrête la drogue si t'es cramé comme une frite McCain J'ai arrêté la vente de H, j'peux le jurer sur la vie d'ta mère Et j'sais que rapper, j'suis pas diplômé Dans la street, des bêtises on a grave donné Perchés, wAllah on était grave paumés Mais j'vous demande pas d'me pardonner Du foot j'en faisais pas peu et j'ai pas eu la sélection des bons Bleus J'ai pas eu mon bac, j'connais trop les Baqueux On n'est jamais plus mal servis que par les vards-cre On est d'accord, toujours au taquet Si j'suis dans la merde, on sait qui peut me backer Qui peut me braquer, j'dois mettre le paquet Et j'me souviens de mon 3.5.7. claqué J'suis un bonhomme comme Bacos Paname, vamos, Blackos Locos Trop de tes-pu à té-cô, juste un crick-crick et tu vois moins d'bad boy Pour ceux qui maîtrisent les bons bords On est la goutte qui fait que les vases débordent Sérieux, sérieux pas de baltringue à bord Vous êtes même pas plus forts que les Bratisla Boys Qu'est-ce qu'on va faire ? On n'sait que rapper hé hé hé hé Vendre de la dope et des putains d'CDs hé hé hé hé Non, mais qui a l'plus de flow ? MZ Music oh Désolé les gars, la MZ met les gaz Posés dans la cave, c'qu'on fait est illégal Non, mais qui a l'plus de flow ? MZ Music oh Renoi, costaud Smarté Côté passager gros tard-pé Jactez, j'ai plus l'time IB d'la street pour vous tarter Des flows d'attardé Pour mes mothafuckin dards-blé Fuck les dècs, t'inquiète on les baise Personne nous empêchera de faire rentrer un tas d'blé Tête de mort sur le polo MZ sur la piscaroro Wesh, le talent paye pas, la preuve j'ai toujours pas pété mon disque roro Davidson Presents KDBZik Brand new, signature Wesh les concurrents j'vous vois plus Enfin si en miniature Les gos s'font per-cou dans les jeuk comme la Zipette que mes gavas bibi sur Bérize Des 100 G d'bé-do s'vendent comme des p'tits pains Ah ouais ma gueule mes niaggas prennent des risques On arrive dans ce milieu d'merde pour tout quer-ni Pour ça, vous inquiétez pas, j'ai ramené toute ma clique On va baiser l'rap game, lui faire une sextape Puis finir par lui pisser d'ssus à la R.Kelly Prends nous comme ton meilleur yencli qui stoppe Hardcore comme ta sur de 15 piges en cloque Tu fais peur à personne, t'as fait ci, t'as fait ça Ici personne te croit fdp crève t'es qu'un floco Ouais t'es qu'un floco, Hache-P d'la MZ, mothafucka Les scarlas mettent la cagoule et les gants et vont à la recherche du ffre-co Shoot dans le mille à la Mike Bibby Coupe le shit en détail, on te le bibi Davidson aka Diddy, Jok'Air aka Biggy J'écoute leurs sons, leurs piques ne font que des guillis Ça, Papa me l'avait dit, Maman me l'avait dit Fils, attention la rue fait des gens des bandits On est faits pour la monnaie, les guns on a brandi Passé des nuits en garde-à-v' ou des nuits dans des booty On a taffé, bossé, j'espère qu'ça va payer Aligner les MCs un par un pour les balayer MZ Music, Davidson Presents, KDBZik On dégaine tellement de mots, tellement de flow, qu'on nous croit calibrés d'Uzi Ta salope suce mon zizi La concurrence se suicide Comme la fin du monde, on arrive et c'est peut-être un signe Ici, les gueules et les boules on bousille Rafales lyricales, les prods d'Ekynoxxx on fusille De l'autre côté de la rue, le mauvais il nous guette J'traîne à Chevaleret, j'm'en bats les couilles de leur game Maintenant, dîtes-moi qui a l'plus de... Aimé par les vrais, haï par les faux 2</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La haine tourne autour de moi comme la BAC autour d'un terrain J'ai des stigmates dans le dos et les reins perforés par des coups de surin Un pour tous, tous pour... Un sur tous, tous sur un J'ai mon propre sang sur les mains, j'ai serré celle de mon futur assassin Tel est mon destin, hier et comme aujourd'hui Et j'bosse pour qu'aujourd'hui ne soit pas comme demain Sortir ma tête de l'anus, quitter mon taudis, sur nous le mal a déteint J'me perds dans la merde, dans des paires de gros seins À la longue ça me fera du mal, mais là ça me fait du bien J'avale la pisse du Diable, j'me renferme dans un joint J'écris mes couplets et j'travaille mes refrains J'rappe pour les miens, pour mettre fin à ma faim Ici les coeurs saignent, les négros sont malsains J'ai pris la file de gauche sans appuyer sur le frein skurrr Money time, on kill le game d'un alley-oop Tellement la merde nous tourne autour, on l'a prise en hula hoop La haine tourne autour de moi, tourne autour de moi Mes ennemis tournent autour de moi, tournent autour de moi L'mauvais oeil tourne autour de moi, tourne autour de moi Peu importe ce qui me tourne autour tant que l'amour des miens tourne autour de moi La drogue tourne autour de moi, l'alcool tourne autour de moi Les 'tasses tournent autour de moi, le Diable tourne autour de moi La merde tourne autour de moi, tourne autour de moi Peu importe ce qui me tourne autour tant que l'amour des miens tourne autour de moi You might also like Toujours Jo, Pims autour de moi Même les inspecteurs par moment Ma protection autour de moi La seule à qui j'accorde ma main À la recherche d'une p'tite femme mimi Qui se contenterait d'un panini Que je sois pauvre ou que j'ai le milli Et qui me ferait 6 ou 7 mini-moi Fais péter le Jack D hein hein Arrêtez de jacter hein hein Rien que je matte des tards-pé hein hein Je vous en prie, faîtes du papier Tant qu'autour de moi j'ai ma family XXXX Détendez-vous, je souhaite le bonheur mes gavas tout autour de moi J'vois des fréros, des tits-pe, des grands-frères... et des fils de pute Des euros, pocheton de beuh, des loss-bo, et des kils de stup À la recherche de money, autour de moi personne de blindé Pépère, on survit, ici c'est le taff, l'indé Sûrement quelques tes-traî qui aimerait me voir buguer Le ness-bi dans la te-tê Porte l'oeil, on va t'aveugler On prend le bifton tranquille et on se casse Prenons le bifton et larguons ces 'tasses</t>
+          <t>La haine tourne autour de moi comme la BAC autour d'un terrain J'ai des stigmates dans le dos et les reins perforés par des coups de surin Un pour tous, tous pour... Un sur tous, tous sur un J'ai mon propre sang sur les mains, j'ai serré celle de mon futur assassin Tel est mon destin, hier et comme aujourd'hui Et j'bosse pour qu'aujourd'hui ne soit pas comme demain Sortir ma tête de l'anus, quitter mon taudis, sur nous le mal a déteint J'me perds dans la merde, dans des paires de gros seins À la longue ça me fera du mal, mais là ça me fait du bien J'avale la pisse du Diable, j'me renferme dans un joint J'écris mes couplets et j'travaille mes refrains J'rappe pour les miens, pour mettre fin à ma faim Ici les coeurs saignent, les négros sont malsains J'ai pris la file de gauche sans appuyer sur le frein skurrr Money time, on kill le game d'un alley-oop Tellement la merde nous tourne autour, on l'a prise en hula hoop La haine tourne autour de moi, tourne autour de moi Mes ennemis tournent autour de moi, tournent autour de moi L'mauvais oeil tourne autour de moi, tourne autour de moi Peu importe ce qui me tourne autour tant que l'amour des miens tourne autour de moi La drogue tourne autour de moi, l'alcool tourne autour de moi Les 'tasses tournent autour de moi, le Diable tourne autour de moi La merde tourne autour de moi, tourne autour de moi Peu importe ce qui me tourne autour tant que l'amour des miens tourne autour de moi Toujours Jo, Pims autour de moi Même les inspecteurs par moment Ma protection autour de moi La seule à qui j'accorde ma main À la recherche d'une p'tite femme mimi Qui se contenterait d'un panini Que je sois pauvre ou que j'ai le milli Et qui me ferait 6 ou 7 mini-moi Fais péter le Jack D hein hein Arrêtez de jacter hein hein Rien que je matte des tards-pé hein hein Je vous en prie, faîtes du papier Tant qu'autour de moi j'ai ma family XXXX Détendez-vous, je souhaite le bonheur mes gavas tout autour de moi J'vois des fréros, des tits-pe, des grands-frères... et des fils de pute Des euros, pocheton de beuh, des loss-bo, et des kils de stup À la recherche de money, autour de moi personne de blindé Pépère, on survit, ici c'est le taff, l'indé Sûrement quelques tes-traî qui aimerait me voir buguer Le ness-bi dans la te-tê Porte l'oeil, on va t'aveugler On prend le bifton tranquille et on se casse Prenons le bifton et larguons ces 'tasses</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Comme les Témoins d'Jéhovah, j'ai besoin d'y croire J'ai besoin d'y croire Ça peut partir en coups d'batte en plein samedi soir En plein samedi soir Dédicace à mes OG's Mes gars ne savent même pas, négro, que c'est des OG's Parlent pas mal négro, mais quand y'a haja sors les outils Miskine, nous c'est pas qu'la MZ Music C'est pas d'la musique pour les mythos, c'est d'la MZ C'est pas d'la musique pour les boufonnes, c'est d'la MZ Joint, verre d'tchapalo, bitch et c'est mon happy birthday Miskine nous c'est pas qu'la MZ Music nigga Ils ont sucé, j'les ai laissés Ils ont damé, ça m'a lésé Me voilà de retour des damnés Seigneur voulez-vous les aider ? Si j'y vais fort c'est pour ma bande Si j'y vais fort c'est pour mon gang On charbonne ça fait des années Pour ces maudits billets d'banque Spéciale dédicace à Davidson Aujourd'hui nos sons circulent au dehors d'la zone J'ai vendu plus de dope que de CD Jusqu'ici j'travaille dur pour changer la donne J'leur fais la guerre sans treillis kaki Bitch, monte sur la bite du Big Daddy Fais-moi cracher, vas-y bébé Que j'retourne m'occuper de mes ennemis Comme les négros qui m'entourent, j'suis un OG Comme la variété d'ma weed, j'suis un OG Ma mafia s'est juré l'Omertà Pour ça qu'on reste toujours muet devant l'OPJ Foutou, sauce graine, arôme Maggi Un gangster d'amour, fuck les négros fragiles Chevalier du Zodiaque sans talon d'Achille Les putes attendent, les salopes parlent et Jok'Air agit, tu piges ? You might also like Love, oui j'le dis tous mes OG Love, oui j'le dis à tous mes OG's Teste mon poto pour voir les outils On est pas des voyous Disons plutôt des hommes avertis Bisous à toutes ces femelles OG's Bisous à toutes ces femelles OG's Mon OG t'a trompée, je sais que c'est pas joli Surtout quand tu vomis, pour accueillir l'arrivée d'son fils La musique est bonne comme la coke que tu sniffes Négro, j'dors mal quand j'fais pas rentrer d'biff' Tchapalo dans l'verre, jusqu'à en devenir ivre Les djandjus passer à la casserole demande à Jean-Yves Pet, zippet, amné Sors le biff' et mes gars vont t'la ramener Nos stories de merde se termineront jamais Mais par rapport à ces clochards on est armés J'prépare les pochetons, shakes la codéine Atiékké, poisson braisé en guise de protéine Jeci Jess lean, Marlo lean Pendant qu'ce rappeur camé fait disparaître sa ligne On n'a jamais été sages Étant petits cette pute de maîtresse ne nous a jamais donné d'image Eh, j'suis avec Yaks au 'ssage, on cherche le cash 2</t>
+          <t>Comme les Témoins d'Jéhovah, j'ai besoin d'y croire J'ai besoin d'y croire Ça peut partir en coups d'batte en plein samedi soir En plein samedi soir Dédicace à mes OG's Mes gars ne savent même pas, négro, que c'est des OG's Parlent pas mal négro, mais quand y'a haja sors les outils Miskine, nous c'est pas qu'la MZ Music C'est pas d'la musique pour les mythos, c'est d'la MZ C'est pas d'la musique pour les boufonnes, c'est d'la MZ Joint, verre d'tchapalo, bitch et c'est mon happy birthday Miskine nous c'est pas qu'la MZ Music nigga Ils ont sucé, j'les ai laissés Ils ont damé, ça m'a lésé Me voilà de retour des damnés Seigneur voulez-vous les aider ? Si j'y vais fort c'est pour ma bande Si j'y vais fort c'est pour mon gang On charbonne ça fait des années Pour ces maudits billets d'banque Spéciale dédicace à Davidson Aujourd'hui nos sons circulent au dehors d'la zone J'ai vendu plus de dope que de CD Jusqu'ici j'travaille dur pour changer la donne J'leur fais la guerre sans treillis kaki Bitch, monte sur la bite du Big Daddy Fais-moi cracher, vas-y bébé Que j'retourne m'occuper de mes ennemis Comme les négros qui m'entourent, j'suis un OG Comme la variété d'ma weed, j'suis un OG Ma mafia s'est juré l'Omertà Pour ça qu'on reste toujours muet devant l'OPJ Foutou, sauce graine, arôme Maggi Un gangster d'amour, fuck les négros fragiles Chevalier du Zodiaque sans talon d'Achille Les putes attendent, les salopes parlent et Jok'Air agit, tu piges ? Love, oui j'le dis tous mes OG Love, oui j'le dis à tous mes OG's Teste mon poto pour voir les outils On est pas des voyous Disons plutôt des hommes avertis Bisous à toutes ces femelles OG's Bisous à toutes ces femelles OG's Mon OG t'a trompée, je sais que c'est pas joli Surtout quand tu vomis, pour accueillir l'arrivée d'son fils La musique est bonne comme la coke que tu sniffes Négro, j'dors mal quand j'fais pas rentrer d'biff' Tchapalo dans l'verre, jusqu'à en devenir ivre Les djandjus passer à la casserole demande à Jean-Yves Pet, zippet, amné Sors le biff' et mes gars vont t'la ramener Nos stories de merde se termineront jamais Mais par rapport à ces clochards on est armés J'prépare les pochetons, shakes la codéine Atiékké, poisson braisé en guise de protéine Jeci Jess lean, Marlo lean Pendant qu'ce rappeur camé fait disparaître sa ligne On n'a jamais été sages Étant petits cette pute de maîtresse ne nous a jamais donné d'image Eh, j'suis avec Yaks au 'ssage, on cherche le cash 2</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh J'suis dans le block ma vie n'est pas un jeu Parce que je viens d'Che-Che dans la vie j'sais ce que je veux Comme 113 j'suis jeune et ambitieux, parfois vicieux J'les prend en vrette-le et je les tiens par les cheveux J'ai de la bonne dope pour ceux qui en veulent Dans ton bendo tour vient au concert on va foutre le feu Twerk on te jette des billets On sait déjà que ça va s'finir à l'hôtel Fume sur mon joint je t'allume de mon briquet Je sort le biff dit moi tu veux combien de bouteilles Ton idole se retrouve par terre On se mélange pas, je n'avance qu'avec mes part'naires On nous raboul le seill-o, pour trois milles deux t'as un kilo Elle me trouve craquant comme un Oreo N'attend pas comme un shamallow Je suis comme Steph Curry en NBA Sur le terrain comme Yaya Touré On est doués, que Dieu soit loué Il veulent nous voir échouer, on est pas là pour jouer You might also like J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh T'inquiete la white je m'en suis débarrassé J'en ai repris j'étais pas rassasié Je prends des sous mais j'en ai pas assez Le deuxième album va les fracasser Ma queue joue de l'harmonie comme les Bone Thugs Ces rappeurs avancent en avalant des grosses teubs Cette salope trouve ma queue aussi bonne que ma beuh Parce que les deux la défoncent en moins de deux Oh mon dieu, ces MCs sont remplis de jalousie Comme eux, j'fais du rap mais en mieux J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh Haha, ça cétait un petit truc comme ça qu'on vous a donné Wesh Marlo c'est comment, t'es flex ou quoi ? D-e-h, wesh Jeci-Jess c'est comment, han, Chich, Mallaury Quand on dit bonne musique là, c'est ça là Eh, grosse dédicace à tous mes négros de Babi Le vieux père cheikh c'est comment, on dit quoi ? Eh, Francisco, tu continues de te faire sucer ou quoi ? Eh, mon gars Ali Jo J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh Eh, dés qu'on revient, eh, on va partir en Ferrari On va péter les bonnes dandjous là-bas, crois moi Yeah, yeah, rock'n'Roll</t>
+          <t>J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh J'suis dans le block ma vie n'est pas un jeu Parce que je viens d'Che-Che dans la vie j'sais ce que je veux Comme 113 j'suis jeune et ambitieux, parfois vicieux J'les prend en vrette-le et je les tiens par les cheveux J'ai de la bonne dope pour ceux qui en veulent Dans ton bendo tour vient au concert on va foutre le feu Twerk on te jette des billets On sait déjà que ça va s'finir à l'hôtel Fume sur mon joint je t'allume de mon briquet Je sort le biff dit moi tu veux combien de bouteilles Ton idole se retrouve par terre On se mélange pas, je n'avance qu'avec mes part'naires On nous raboul le seill-o, pour trois milles deux t'as un kilo Elle me trouve craquant comme un Oreo N'attend pas comme un shamallow Je suis comme Steph Curry en NBA Sur le terrain comme Yaya Touré On est doués, que Dieu soit loué Il veulent nous voir échouer, on est pas là pour jouer J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh T'inquiete la white je m'en suis débarrassé J'en ai repris j'étais pas rassasié Je prends des sous mais j'en ai pas assez Le deuxième album va les fracasser Ma queue joue de l'harmonie comme les Bone Thugs Ces rappeurs avancent en avalant des grosses teubs Cette salope trouve ma queue aussi bonne que ma beuh Parce que les deux la défoncent en moins de deux Oh mon dieu, ces MCs sont remplis de jalousie Comme eux, j'fais du rap mais en mieux J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh Haha, ça cétait un petit truc comme ça qu'on vous a donné Wesh Marlo c'est comment, t'es flex ou quoi ? D-e-h, wesh Jeci-Jess c'est comment, han, Chich, Mallaury Quand on dit bonne musique là, c'est ça là Eh, grosse dédicace à tous mes négros de Babi Le vieux père cheikh c'est comment, on dit quoi ? Eh, Francisco, tu continues de te faire sucer ou quoi ? Eh, mon gars Ali Jo J'suis dans l'block je suis pisté par les bleus Y'a de la bonne dope pour ceux qui en veulent J'suis dans l'block je me roule un gros joint de beuh Y'a de la bonne dope pour celles qui en veulent J'vais finir riche pour l'instant je prépare un coup détat Ta sur fera du twerk et ta mère fera du mapouka J'suis dans l'block je suis pisté par les bleus J'suis dans l'block je me roule un gros joint de beuh Eh, dés qu'on revient, eh, on va partir en Ferrari On va péter les bonnes dandjous là-bas, crois moi Yeah, yeah, rock'n'Roll</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>I still remember The way that you'd smile When you'd feel the ocean breeze And when you were mine We were talking crazy Like forever was here Not a worry in the world With nothing to fear But now things are awkward Like hey how you been? When I used to hold you Like it'd never end All of a sudden We're not even friends And I'm tired Tell me how did we get here Tell me how did we get here Paralyzed by the fear Tell me how did we get here And how do we rewind Can we go back to the day by the sea I'm not ready to call that a memory There's a tension in the air And I know you can see Every second passing Is slowly killing me You might also likeBut now things are awkward Like hey how you been? When I used to hold you Like it'd never end All of a sudden We're not even friends And I'm tired Tell me how did we get here Tell me how did we get here Paralyzed by the fear Tell me how did we get here And how do we rewind I am pretending like I'm not losing my mind Every time you come into my life I need to have you Right next to my side For all time Tell me how did we get here Tell me how did we get here Paralyzed by the fear Tell me how did we get here And how do we rewind</t>
+          <t>I still remember The way that you'd smile When you'd feel the ocean breeze And when you were mine We were talking crazy Like forever was here Not a worry in the world With nothing to fear But now things are awkward Like hey how you been? When I used to hold you Like it'd never end All of a sudden We're not even friends And I'm tired Tell me how did we get here Tell me how did we get here Paralyzed by the fear Tell me how did we get here And how do we rewind Can we go back to the day by the sea I'm not ready to call that a memory There's a tension in the air And I know you can see Every second passing Is slowly killing me But now things are awkward Like hey how you been? When I used to hold you Like it'd never end All of a sudden We're not even friends And I'm tired Tell me how did we get here Tell me how did we get here Paralyzed by the fear Tell me how did we get here And how do we rewind I am pretending like I'm not losing my mind Every time you come into my life I need to have you Right next to my side For all time Tell me how did we get here Tell me how did we get here Paralyzed by the fear Tell me how did we get here And how do we rewind</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherches un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait Mon négro j'ai trop souffert, charbonné dans ma street Du bureau de la principal jusqu'au bureau de la SPIP Tout ce que je sais faire c'est de la musique Comme Claude Dubois j'aurai voulu être un artiste Mais je vends peu de disque, je fume beaucoup de shit La vie est triste pour mes OG's Trop noir et talentueux pour leurs playlists Les grands médias me voient comme l'Antéchrist Donc je cherche à booster ma carrière Toi tu cherches un mec qui ressemble à ton père Combien de bouteille t'as jeté à la mer ? Pour ne pas finir seul comme ta mère Je m'en souviens comme si c'était hier Nos chemins se sont croisés nous étions du-per Je t'ai recouvert de mon manteau ce soir d'hiver Tu m'as suivi chez moi et t'as éteint la lumière You might also like Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherche un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait J'suis le négro de tes rêves il parait C'est quoi ces conneries qui te permettent de dire qu'on est pareil Ma vie se résume à faire des hits et vendre des barrettes Et je veux perdre mon putain de temps sur des Rolex Tu parlais de biff, j'étais le négro qu'il te fallait Dans ces histoires, je fais parti des mecs qu'il fallait Dans ton lit je suis le négro qu'il fallait Je suis là où j'aurait dû être Comme ma bite qui se fait croquer comme la pomme d'Apple Je mélange cette merde et je devient lent comme une turtle C'est pas normal la façon dont tu me plais girl J'ai le flow qu'il te fallait, le style que tu voulais Et dans cette arme j'ai mis la balle qui te fallait Les vrais négros font vrais choses comme dit Jok'Air Tout ça pour perdre mon putain de temps sur des Rolex Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherches un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait Hey, hey J'ai vu maman se casser le dos pour aller taffer Toujours pareil j'ai les nerfs, ça doit changer Je ferait tout pour, c'est les sous qu'il me faut Les fous-rires, les sourires, la bonne humeur, le confort Je veux voir le cash money couler à flot Cette paire de Nike qu'il me fallait, j'étais prêt à la voler Cétait pas lécole qu'il me fallait, j'avais besoin de me défouler Je voulais graille, j'avais la dalle Alors comme un grand je me suis servis Pour venir me déranger à table il a fallut ces maudits poulets Pour ta meuf il faut le bon coup de teub Pour un four il te faut de la bonne dope T'aurait grave kiffer être ghetto, bah fallait grandir dans le bendo Petit frère veut faire des lovés, bah écoute faut se lever tôt Le temps passe trop vite donc le rap français je me doit de le XXX Ecoute-moi petite bitch, t'as vraiment cru que c'était toi qu'il me fallait C'est ma grosse liasse et ma teille-bou qu'il me fallait Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherche un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait1</t>
+          <t>Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherches un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait Mon négro j'ai trop souffert, charbonné dans ma street Du bureau de la principal jusqu'au bureau de la SPIP Tout ce que je sais faire c'est de la musique Comme Claude Dubois j'aurai voulu être un artiste Mais je vends peu de disque, je fume beaucoup de shit La vie est triste pour mes OG's Trop noir et talentueux pour leurs playlists Les grands médias me voient comme l'Antéchrist Donc je cherche à booster ma carrière Toi tu cherches un mec qui ressemble à ton père Combien de bouteille t'as jeté à la mer ? Pour ne pas finir seul comme ta mère Je m'en souviens comme si c'était hier Nos chemins se sont croisés nous étions du-per Je t'ai recouvert de mon manteau ce soir d'hiver Tu m'as suivi chez moi et t'as éteint la lumière Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherche un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait J'suis le négro de tes rêves il parait C'est quoi ces conneries qui te permettent de dire qu'on est pareil Ma vie se résume à faire des hits et vendre des barrettes Et je veux perdre mon putain de temps sur des Rolex Tu parlais de biff, j'étais le négro qu'il te fallait Dans ces histoires, je fais parti des mecs qu'il fallait Dans ton lit je suis le négro qu'il fallait Je suis là où j'aurait dû être Comme ma bite qui se fait croquer comme la pomme d'Apple Je mélange cette merde et je devient lent comme une turtle C'est pas normal la façon dont tu me plais girl J'ai le flow qu'il te fallait, le style que tu voulais Et dans cette arme j'ai mis la balle qui te fallait Les vrais négros font vrais choses comme dit Jok'Air Tout ça pour perdre mon putain de temps sur des Rolex Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherches un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait Hey, hey J'ai vu maman se casser le dos pour aller taffer Toujours pareil j'ai les nerfs, ça doit changer Je ferait tout pour, c'est les sous qu'il me faut Les fous-rires, les sourires, la bonne humeur, le confort Je veux voir le cash money couler à flot Cette paire de Nike qu'il me fallait, j'étais prêt à la voler Cétait pas lécole qu'il me fallait, j'avais besoin de me défouler Je voulais graille, j'avais la dalle Alors comme un grand je me suis servis Pour venir me déranger à table il a fallut ces maudits poulets Pour ta meuf il faut le bon coup de teub Pour un four il te faut de la bonne dope T'aurait grave kiffer être ghetto, bah fallait grandir dans le bendo Petit frère veut faire des lovés, bah écoute faut se lever tôt Le temps passe trop vite donc le rap français je me doit de le XXX Ecoute-moi petite bitch, t'as vraiment cru que c'était toi qu'il me fallait C'est ma grosse liasse et ma teille-bou qu'il me fallait Tu cherches enfin de la vraie musique T'as trouvé les artistes qu'il te fallait Tu cherches de la bonne dope T'as trouvé les dealers qu'il te fallait Tu cherche un mec qui ressemble à ton père T'as trouvé le négro qu'il te fallait Et vu que ton père trompe ta mère T'as trouvé le mec qu'il te fallait Toi t'es la meuf qu'il me fallait, si t'es prête à prendre les armes pour moi mon bébé, tu seras la femme qu'il me fallait Ça c'est la dose qu'il me fallait J'ai fumé 3 grammes et je me suis évadé C'est tout ce qu'il me fallait1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>J'mène la vie d'un gangster J'rêve d'être une rockstar Ne m'compare pas à ces acteurs Qui méritent des Oscars Ô Marine si tu savais Tout le bien que tu m'as fait J'mixe codéine, prométhazine Et quand mon mélange fait effet J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny Yeah yeah yeah yeah J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny Sous Jack Hennessy, j'traîne dans la té-ci Y'a quelque chose en moi de Tennessee Du 'sky dans la vessie, du 'sky plein la vessie Sprite, codéine, prométhazine Clopes, feuilles et je roule ma weed Riz, viande de buf, sauce dakatine Seules les bitches font gaffe à leur ligne Les baqueux du coin veulent qu'je pourrissent en taule Et des négros veulent me voir mort dans mon hall J'veux le salaire d'un joueur de football Et vivre la vie d'une star de rock'n'roll Ô Marie si jamais tu t'ennuies Appelle-moi même au milieu de la nuit Mets ta petite tenue la plus coquine Tu twerk'ras sur moi défoncée sous lean You might also like J'suis dans la caisse en baraude dans la capitale J'croise des bouchons sur mon chemin j'pète un câble Tousni roule un gros pétard Bon j'prends la voie d'bus, impeccable Jack et Daniel vont m'défoncer J'écarte la concu' et j'me fais chier D'toutes façons j'vais leur mettre la fessée Et pas la peine de venir m'les lécher J'marche dans la ville Tout l'monde me zieute, comme un gros bolide J'claque le bénèf' comme au Monopoly Putain j'suis trop frais, j'me sens comme Johnny Bitch twerk, négro sens-toi comme Johnny Calcine ton joint d'beuh À la recherche de bonnes feuilles On continue les bails on s'en nian qu'il y ait pleins d'bleus Si t'as mère c'est la plus belle, bah j'suis plus beau que elle J'fume ma zeb elle est est bonne comme si j'la découvrais J'suis tellement cool, la foule me pull up des éclairs Et si j'coule c'est avec des petites pétasses des sirènes 1,70 et je promène ma dope Gaulé comme un stick mais c'est pas l'cas d'ma go Fuck l'État, je fais plaisir à la France Tant qu'il donne mon oseille du même teint que ma peau Moi j'dissimule mes dingueries comme l'État Minutieusement, on applique la vendetta Ta rue c'est ta mère, ta mère c'est une pétasse Ouais, ouais ta mère c'est une pétasse J'suis frais comme Johnny, intouchable comme Johnny Et quand j'me lève c'est pour pécho ma money J'suis frais comme le week-end... t'es pété comme jeudi 3</t>
+          <t>J'mène la vie d'un gangster J'rêve d'être une rockstar Ne m'compare pas à ces acteurs Qui méritent des Oscars Ô Marine si tu savais Tout le bien que tu m'as fait J'mixe codéine, prométhazine Et quand mon mélange fait effet J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny Yeah yeah yeah yeah J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny J'me sens comme Johnny Sous Jack Hennessy, j'traîne dans la té-ci Y'a quelque chose en moi de Tennessee Du 'sky dans la vessie, du 'sky plein la vessie Sprite, codéine, prométhazine Clopes, feuilles et je roule ma weed Riz, viande de buf, sauce dakatine Seules les bitches font gaffe à leur ligne Les baqueux du coin veulent qu'je pourrissent en taule Et des négros veulent me voir mort dans mon hall J'veux le salaire d'un joueur de football Et vivre la vie d'une star de rock'n'roll Ô Marie si jamais tu t'ennuies Appelle-moi même au milieu de la nuit Mets ta petite tenue la plus coquine Tu twerk'ras sur moi défoncée sous lean J'suis dans la caisse en baraude dans la capitale J'croise des bouchons sur mon chemin j'pète un câble Tousni roule un gros pétard Bon j'prends la voie d'bus, impeccable Jack et Daniel vont m'défoncer J'écarte la concu' et j'me fais chier D'toutes façons j'vais leur mettre la fessée Et pas la peine de venir m'les lécher J'marche dans la ville Tout l'monde me zieute, comme un gros bolide J'claque le bénèf' comme au Monopoly Putain j'suis trop frais, j'me sens comme Johnny Bitch twerk, négro sens-toi comme Johnny Calcine ton joint d'beuh À la recherche de bonnes feuilles On continue les bails on s'en nian qu'il y ait pleins d'bleus Si t'as mère c'est la plus belle, bah j'suis plus beau que elle J'fume ma zeb elle est est bonne comme si j'la découvrais J'suis tellement cool, la foule me pull up des éclairs Et si j'coule c'est avec des petites pétasses des sirènes 1,70 et je promène ma dope Gaulé comme un stick mais c'est pas l'cas d'ma go Fuck l'État, je fais plaisir à la France Tant qu'il donne mon oseille du même teint que ma peau Moi j'dissimule mes dingueries comme l'État Minutieusement, on applique la vendetta Ta rue c'est ta mère, ta mère c'est une pétasse Ouais, ouais ta mère c'est une pétasse J'suis frais comme Johnny, intouchable comme Johnny Et quand j'me lève c'est pour pécho ma money J'suis frais comme le week-end... t'es pété comme jeudi 3</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jen vois tellement qui font du lourd Hashtag PèseCommeUnCafard Les petits sont plus teubés que nous miskine à cause de nous Je suis né en tant que bâtard Jaime les meufs et alors ? Tu préfères tenjailler sur lpif à Zlatan ? Bisous à mon ex Pour nos retrouvailles jsuis dispo sur Shazam Jsuis un génie dans cette connerie Jsuis pas dopé, enfoiré, juste un peu drogué Jsuis sur le coup comme un vampire Chacun son coup comme un crevard moi jfais pas croquer Jai la côte mais disons quelle me sert à rien Comme un dces putains de point dcôté Un Jack pour les alcoolos ridicules et vaincus Pourtant tes parti pour boycotter Oops, oops, j'ai détaillé de la grosse caille Tu connais la story mon gars, on a grandi sans papas Vous êtes folles de moi mais comme vous je fais caca Jmen sors pas mal mon gars même sans dealer dla coca Trouve-nous dans le ghetto complètement défoncés Cest chez nous quton papa vient dépenser Nos flingues pourront vous apprendre à danser Ce soir on ira bien pioncer Ma MZ Music va les faire danser Nos flingues vont les faire danser Chicha dla rre-guè, codéine on est défoncés Ce soir on ira bien pioncer You might also like Des biftons ou le placard Trop déter on coupe le 100g comme des quatre-quarts Lhabit nfait pas le moine poto fais belek Tu sais pas tout cquon peut tcacher sous un trois-quarts Tu cours après les meufs, on court après le seille-o Les shtars nous courent après, que des gros bâtards Ici ya pas de Ne-Yo Mala, javais raison ces bâtards ne sont pas prêts Wesh, les puristes veulent des messages Moi jvends dla drogue et puis jcasse mes puces Le game dans lcul, jviens lui casser les couilles Comme ce chard-clo dans lbus Suce pas la bite, paye pour le feat Fuck tous ces pelos qui veulent taper lincruste Aucune fierté slurp slurp Les rappeurs sbouchent la chatte cunnilingus Jsuis avec les Sages Po ou posé au ssage-Pa On prépare les dingueries en direct du labo Vrais négros, oh, oh Fuck tous ces couillons qui séclaircissent la peau Ta meuf joue la bitch jsuis navré jvais la défoncer Ce soir elle va bien pioncer Comme Will Smith, jsuis un bad boy Comme Shurikn, jsuis un bad boy Jrôde sur Beriz avec mes bad boys Jfinis la nuit avec une bad bitch Mes négros sont vrais comme mon Gucci Ma djanju est vraie comme mon Louis V Sauf ses seins sont faux comme ton Fendi, comme ton Fendi Jaime le bédo jrappe défoncé Jaime les djanjus qui me font bander Jaime mon tard-pé qui les fait danser Verre de lean pour me faire pioncer Négro tas mal choisi Comme ces tasses qui veulent me déplumer Vendeur de cocaïne MD, ecstasy, jsuis dans ta soirée La pute roule en Mercedes-Benz À 250 coupé sport Quson papa lui a offert Avec un appart Avenue Foch Le siège chauffant réchauffe sa shneck Jme roule des pet jsuis copilote Grâce à la boîte automatique Elle roule main droite dans mon froc Et on a fait ltour de la ville Baiser lreste de la nuit Elle a squirt quand elle a joui Elle a trempé son intérieur cuir Jlai pris sur lcapot Elle mouillait tellement quelle arrosait les jantes Chevaleret Street, pimp Jai flow dRochdi quand jme trouve entre ses jambes Jai dla lean sur moi, jai dla drogue sur moi, jsuis trop hanw Jai du biff sur moi, des capotes sur moi jsuis trop On roule sur lautoroute et on ne parle pas damour Le soleil se lève, commence à griller les feux rouges Direction le bloc elle mdépose à Che-che Hood 3</t>
+          <t>Jen vois tellement qui font du lourd Hashtag PèseCommeUnCafard Les petits sont plus teubés que nous miskine à cause de nous Je suis né en tant que bâtard Jaime les meufs et alors ? Tu préfères tenjailler sur lpif à Zlatan ? Bisous à mon ex Pour nos retrouvailles jsuis dispo sur Shazam Jsuis un génie dans cette connerie Jsuis pas dopé, enfoiré, juste un peu drogué Jsuis sur le coup comme un vampire Chacun son coup comme un crevard moi jfais pas croquer Jai la côte mais disons quelle me sert à rien Comme un dces putains de point dcôté Un Jack pour les alcoolos ridicules et vaincus Pourtant tes parti pour boycotter Oops, oops, j'ai détaillé de la grosse caille Tu connais la story mon gars, on a grandi sans papas Vous êtes folles de moi mais comme vous je fais caca Jmen sors pas mal mon gars même sans dealer dla coca Trouve-nous dans le ghetto complètement défoncés Cest chez nous quton papa vient dépenser Nos flingues pourront vous apprendre à danser Ce soir on ira bien pioncer Ma MZ Music va les faire danser Nos flingues vont les faire danser Chicha dla rre-guè, codéine on est défoncés Ce soir on ira bien pioncer Des biftons ou le placard Trop déter on coupe le 100g comme des quatre-quarts Lhabit nfait pas le moine poto fais belek Tu sais pas tout cquon peut tcacher sous un trois-quarts Tu cours après les meufs, on court après le seille-o Les shtars nous courent après, que des gros bâtards Ici ya pas de Ne-Yo Mala, javais raison ces bâtards ne sont pas prêts Wesh, les puristes veulent des messages Moi jvends dla drogue et puis jcasse mes puces Le game dans lcul, jviens lui casser les couilles Comme ce chard-clo dans lbus Suce pas la bite, paye pour le feat Fuck tous ces pelos qui veulent taper lincruste Aucune fierté slurp slurp Les rappeurs sbouchent la chatte cunnilingus Jsuis avec les Sages Po ou posé au ssage-Pa On prépare les dingueries en direct du labo Vrais négros, oh, oh Fuck tous ces couillons qui séclaircissent la peau Ta meuf joue la bitch jsuis navré jvais la défoncer Ce soir elle va bien pioncer Comme Will Smith, jsuis un bad boy Comme Shurikn, jsuis un bad boy Jrôde sur Beriz avec mes bad boys Jfinis la nuit avec une bad bitch Mes négros sont vrais comme mon Gucci Ma djanju est vraie comme mon Louis V Sauf ses seins sont faux comme ton Fendi, comme ton Fendi Jaime le bédo jrappe défoncé Jaime les djanjus qui me font bander Jaime mon tard-pé qui les fait danser Verre de lean pour me faire pioncer Négro tas mal choisi Comme ces tasses qui veulent me déplumer Vendeur de cocaïne MD, ecstasy, jsuis dans ta soirée La pute roule en Mercedes-Benz À 250 coupé sport Quson papa lui a offert Avec un appart Avenue Foch Le siège chauffant réchauffe sa shneck Jme roule des pet jsuis copilote Grâce à la boîte automatique Elle roule main droite dans mon froc Et on a fait ltour de la ville Baiser lreste de la nuit Elle a squirt quand elle a joui Elle a trempé son intérieur cuir Jlai pris sur lcapot Elle mouillait tellement quelle arrosait les jantes Chevaleret Street, pimp Jai flow dRochdi quand jme trouve entre ses jambes Jai dla lean sur moi, jai dla drogue sur moi, jsuis trop hanw Jai du biff sur moi, des capotes sur moi jsuis trop On roule sur lautoroute et on ne parle pas damour Le soleil se lève, commence à griller les feux rouges Direction le bloc elle mdépose à Che-che Hood 3</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jok'Air, Big Daddy Jok Je tire comme un taliban Sur ma dope made in Afghanistan Plus j'tire et plus je noircis ce papier blanc Et j'plane comme un pélican Toi tu joues avec le feu, mais quand Ça t'brûle, tu t'tournes vers la Mecque ou le Vatican Je contrôle le jeu, même quand la balle est dans mon camp Et j'ai confiance en mon clan Mes parents m'ont eu dans les problèmes Je connais les scènes de ménage des tours HLM Si je traînais tard la nuit, ce n'était pas juste pour tuer l'ennui Mais pour fuir les 'blèmes familiaux Chercher des euros, mais j'ai trouvé pas mal d'ennemis J'bois du Belaire, j'fume du pollen Et les souvenirs lointains me reviennent À l'école, en maths, je n'ai jamais résolu de problèmes J'bois du Belaire, j'fume du pollen J'ai toujours baigné dans les problèmes, mais pas d'problèmes Maintenant j'vais régler mes 'blèmes sans problème You might also like Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen J'ai tellement de trucs à faire, de problèmes à régler Que jamais j'pourrais dire que j'm'ennuie Donne de l'importance à une merde Et de ton monde il s'prendra pour le nombril J'en ai tellement chié, j'ai pas ton temps mon bébé Je bosse pour que Kalina me câline Y'a eu beaucoup de choses depuis le Big Deal Beaucoup d'crimes et beaucoup d'weed Et déjà que j'suis boycotté, tous ces fous attendent de moi que je change leur monde Et si j't'ai fait du mal, comme on dit, c'est d'bonne guerre Enfoiré, passe l'éponge Parfois j'suis posé, j'me demande que feraient à ma place tous ces négros fragiles Leur plan aurait pété, pété devant toutes ces sex machines J'bois du Belaire, j'fume du pollen Et les souvenirs lointains me reviennent À l'école, en maths, je n'ai jamais résolu de problèmes J'bois du Belaire, j'fume du pollen J'ai toujours baigné dans les problèmes, mais pas d'problèmes Maintenant j'vais régler mes 'blèmes sans problème Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen J'bois du Belaire, j'vend du pollen Roule un royal la chatte a Ségolène Pourquoi se casser le dos pour ce maudis salaire ? Moi j'ai de la came pour passer l'été au soleil Les huissiers menaçants est ce que tu voit le dé ? C'était grave chaud pour payer ce putain de loyer Papa était en taule petit j'occupais ce 9 mètres carrés avec maman dans ce putain d'foyer L'école j'y ai jamais cru la daronne en a eu mal J'dois résoudre trop d'problèmes, où est passé ce putain d'prof de maths ? Les plus fiers diront que tout va bien et pleureront à huis-clos Quand t'es biens les gens sont là, ils repartent quand débarquent ces fichus blèmes-pro J'bois du Belaire, j'fume du pollen Et les souvenirs lointains me reviennent À l'école, en maths, je n'ai jamais résolu de problèmes J'bois du Belaire, j'fume du pollen J'ai toujours baigné dans les problèmes, mais pas d'problèmes Maintenant j'vais régler mes 'blèmes sans problème Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen</t>
+          <t>Jok'Air, Big Daddy Jok Je tire comme un taliban Sur ma dope made in Afghanistan Plus j'tire et plus je noircis ce papier blanc Et j'plane comme un pélican Toi tu joues avec le feu, mais quand Ça t'brûle, tu t'tournes vers la Mecque ou le Vatican Je contrôle le jeu, même quand la balle est dans mon camp Et j'ai confiance en mon clan Mes parents m'ont eu dans les problèmes Je connais les scènes de ménage des tours HLM Si je traînais tard la nuit, ce n'était pas juste pour tuer l'ennui Mais pour fuir les 'blèmes familiaux Chercher des euros, mais j'ai trouvé pas mal d'ennemis J'bois du Belaire, j'fume du pollen Et les souvenirs lointains me reviennent À l'école, en maths, je n'ai jamais résolu de problèmes J'bois du Belaire, j'fume du pollen J'ai toujours baigné dans les problèmes, mais pas d'problèmes Maintenant j'vais régler mes 'blèmes sans problème Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen J'ai tellement de trucs à faire, de problèmes à régler Que jamais j'pourrais dire que j'm'ennuie Donne de l'importance à une merde Et de ton monde il s'prendra pour le nombril J'en ai tellement chié, j'ai pas ton temps mon bébé Je bosse pour que Kalina me câline Y'a eu beaucoup de choses depuis le Big Deal Beaucoup d'crimes et beaucoup d'weed Et déjà que j'suis boycotté, tous ces fous attendent de moi que je change leur monde Et si j't'ai fait du mal, comme on dit, c'est d'bonne guerre Enfoiré, passe l'éponge Parfois j'suis posé, j'me demande que feraient à ma place tous ces négros fragiles Leur plan aurait pété, pété devant toutes ces sex machines J'bois du Belaire, j'fume du pollen Et les souvenirs lointains me reviennent À l'école, en maths, je n'ai jamais résolu de problèmes J'bois du Belaire, j'fume du pollen J'ai toujours baigné dans les problèmes, mais pas d'problèmes Maintenant j'vais régler mes 'blèmes sans problème Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen J'bois du Belaire, j'vend du pollen Roule un royal la chatte a Ségolène Pourquoi se casser le dos pour ce maudis salaire ? Moi j'ai de la came pour passer l'été au soleil Les huissiers menaçants est ce que tu voit le dé ? C'était grave chaud pour payer ce putain de loyer Papa était en taule petit j'occupais ce 9 mètres carrés avec maman dans ce putain d'foyer L'école j'y ai jamais cru la daronne en a eu mal J'dois résoudre trop d'problèmes, où est passé ce putain d'prof de maths ? Les plus fiers diront que tout va bien et pleureront à huis-clos Quand t'es biens les gens sont là, ils repartent quand débarquent ces fichus blèmes-pro J'bois du Belaire, j'fume du pollen Et les souvenirs lointains me reviennent À l'école, en maths, je n'ai jamais résolu de problèmes J'bois du Belaire, j'fume du pollen J'ai toujours baigné dans les problèmes, mais pas d'problèmes Maintenant j'vais régler mes 'blèmes sans problème Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen Mes parents m'ont eu dans les problèmes Sur le bitume j'écris des poèmes J'bois du Belaire, j'fume du pollen</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé Elle va pas m'avoir je la connais par cur Elle peut me prendre dans ses bras non ça me fait pas peur Crois moi qu'on est dans la street depuis le landeau Les histoires de merde, les bons délires, les bédos Le bédodo m'a rendu barge Mais bon on aime la vente car on aime le cash Des balles perdues pour des histoires de fou Maman t'inquiète donc bébé ne deviendra pas fou La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé You might also like Toi mon bébé qui m'a vu grandir depuis ma naissance Qui m'as doté, m'as fait prendre la route de la vie à contre-sens J'ai mis le doigt dans la prise, je me douche à l'essence Je suis une tête brûlée Mais tu fus la plus proche et la plus franche pour manipuler Oui dans tes bras les nuits sont longues Tellement longues, j'en perds mes mots et même mon ombre Et le mot que j'arrive pas à te dire Trop d'questions sans réponse car tes nuits sont sombres comme mon avenir Je bosse pour partir et ne plus jamais revenir Que l'instant présent ne soit qu'un maudit souvenir La haine me tourne autour et elle ne veut plus ralentir Je donne l'impression que je vais bien alors que ça va de pire en pire Petit à petit t'es en train de manéantir T'as pris le dessus sur moi daprès ce que les gens disent Tu m'as vu grandir, je ne veux pas que tu me voit vieillir Mais tu ne me quittera jamais daprès ce que la légende dit La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé Tu me connais mieux que ma mère Tu me connais mieux que moi même, mieux que ma gonzesse Faut que je me tire de ton emprise Passe à un gangster trop gentil, ça n'attire que des emmerdes Et pour être honnête, je sens tellement ton parfum que j'attire ses gonzesse au lit, si toi tu kiffe, moi ça me fatigue Comme faire le tour de Paris pour vendre de la weed Je les entends te glorifier comme s'ils avaient pas de mères Et je les entends te chanter comme s'ils aimaient la merde Et j'ai grandi chez toi, maintenant je vais quitter la son-mai All eyes on me, j'ai pris le micro je vais te montrer comment dézoner La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé2</t>
+          <t>La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé Elle va pas m'avoir je la connais par cur Elle peut me prendre dans ses bras non ça me fait pas peur Crois moi qu'on est dans la street depuis le landeau Les histoires de merde, les bons délires, les bédos Le bédodo m'a rendu barge Mais bon on aime la vente car on aime le cash Des balles perdues pour des histoires de fou Maman t'inquiète donc bébé ne deviendra pas fou La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé Toi mon bébé qui m'a vu grandir depuis ma naissance Qui m'as doté, m'as fait prendre la route de la vie à contre-sens J'ai mis le doigt dans la prise, je me douche à l'essence Je suis une tête brûlée Mais tu fus la plus proche et la plus franche pour manipuler Oui dans tes bras les nuits sont longues Tellement longues, j'en perds mes mots et même mon ombre Et le mot que j'arrive pas à te dire Trop d'questions sans réponse car tes nuits sont sombres comme mon avenir Je bosse pour partir et ne plus jamais revenir Que l'instant présent ne soit qu'un maudit souvenir La haine me tourne autour et elle ne veut plus ralentir Je donne l'impression que je vais bien alors que ça va de pire en pire Petit à petit t'es en train de manéantir T'as pris le dessus sur moi daprès ce que les gens disent Tu m'as vu grandir, je ne veux pas que tu me voit vieillir Mais tu ne me quittera jamais daprès ce que la légende dit La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé Tu me connais mieux que ma mère Tu me connais mieux que moi même, mieux que ma gonzesse Faut que je me tire de ton emprise Passe à un gangster trop gentil, ça n'attire que des emmerdes Et pour être honnête, je sens tellement ton parfum que j'attire ses gonzesse au lit, si toi tu kiffe, moi ça me fatigue Comme faire le tour de Paris pour vendre de la weed Je les entends te glorifier comme s'ils avaient pas de mères Et je les entends te chanter comme s'ils aimaient la merde Et j'ai grandi chez toi, maintenant je vais quitter la son-mai All eyes on me, j'ai pris le micro je vais te montrer comment dézoner La jalousie d'tes tours de béton L'hypocrisie de tes coins sombres Je travaille fort pour te quitter mon bébé Je ferai l'effort, je te connais par cur J'dédie ces mots, toi mon ghetto Car dans tes bras les nuits sont longues Je t'ai dans la peau mais j'travaille fort pour te quitter mon bébé2</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé, faisons pas l'amour Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour J'ai style pas l'time Girl t'auras pas mes lovés Parle pas d'amour, chérie j'vais innover J'suis crever dès l'matin j'me suis sauvé T'a rêvé nan, j'suis mauvais Toujours les mêmes histoires Toujours les mêmes cris À toi de voir j'vais pas changer d'avis Parle-moi de, parle-moi de Parle-moi de, parle-moi de Parle-moi de biff yeah Au fond j'sais qu'tu kiffes yeah Parle moi de, parle moi de Parle-moi comme une bitch yeah Tu seras ma biche yeah Parle-moi de sexe Parle-moi de drogue Parle-moi chiffre yeah Avances-moi des litres yeah Parle moi de, parle-moi de Me parle pas de taf yeah Parle-moi de liasses ouais Parle-moi de, parle-moi de, parle-moi de You might also like Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Baby baby, prends l'temps d'apprécier Lady lady, nan sois pas pressée J'crois qu'tu t'la pètes Hoo mon bébé j'crois qu'tu la pètes Hoo j'suis faché Mayday mayday, arrête de me faire chier Lady lady, arrête de te vexer Oui j'me la pète hoo mon bébé Oui j'me la pète hoo sois pas fachée Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Pour mes négros qui traînent dans les blocks Prêt à sortir le glock ou les poings pour leurs potes Parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Pour mes sistas droites, fières et fortes Pour les mamans et futures mères de nos gosses Parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Pour mes salopes qui twerk Mes bitchs, mes putes, mes chiennes et mes exs Ne parlons pas d'amour , parlons pas d'amour Parlons juste sexe, drogue et monnaie Davidson, Zoxea et Melopheelo On a d'la route à faire J'compte sur vous, mes négros Ne parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Hache, sers un verre pour la famille Chich, tire une taf pour tous nos ennemis Ne parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Dehmo, fais tourner la chicha Marlo, roule nous un joint de Hiya Ne parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie1</t>
+          <t>Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé, faisons pas l'amour Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour J'ai style pas l'time Girl t'auras pas mes lovés Parle pas d'amour, chérie j'vais innover J'suis crever dès l'matin j'me suis sauvé T'a rêvé nan, j'suis mauvais Toujours les mêmes histoires Toujours les mêmes cris À toi de voir j'vais pas changer d'avis Parle-moi de, parle-moi de Parle-moi de, parle-moi de Parle-moi de biff yeah Au fond j'sais qu'tu kiffes yeah Parle moi de, parle moi de Parle-moi comme une bitch yeah Tu seras ma biche yeah Parle-moi de sexe Parle-moi de drogue Parle-moi chiffre yeah Avances-moi des litres yeah Parle moi de, parle-moi de Me parle pas de taf yeah Parle-moi de liasses ouais Parle-moi de, parle-moi de, parle-moi de Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Baby baby, prends l'temps d'apprécier Lady lady, nan sois pas pressée J'crois qu'tu t'la pètes Hoo mon bébé j'crois qu'tu la pètes Hoo j'suis faché Mayday mayday, arrête de me faire chier Lady lady, arrête de te vexer Oui j'me la pète hoo mon bébé Oui j'me la pète hoo sois pas fachée Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Hooo, parlons pas d'amour Parlons sexe, drogue, money Ho bébé parlons pas d'amour Hooo, parlons pas d'amour Prends-moi, serre-moi, sens-moi, baise-moi Non bébé faisons pas l'amour Pour mes négros qui traînent dans les blocks Prêt à sortir le glock ou les poings pour leurs potes Parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Pour mes sistas droites, fières et fortes Pour les mamans et futures mères de nos gosses Parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Pour mes salopes qui twerk Mes bitchs, mes putes, mes chiennes et mes exs Ne parlons pas d'amour , parlons pas d'amour Parlons juste sexe, drogue et monnaie Davidson, Zoxea et Melopheelo On a d'la route à faire J'compte sur vous, mes négros Ne parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Hache, sers un verre pour la famille Chich, tire une taf pour tous nos ennemis Ne parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie Dehmo, fais tourner la chicha Marlo, roule nous un joint de Hiya Ne parlons pas d'amour, parlons pas d'amour Parlons juste sexe, drogue et monnaie1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Je ny arrive plus, donc jenchaîne les spliffs Ma musique fait la diff mais le succès mesquive Davidson a une fille, Chich vient davoir un fils La famille sagrandit et faut quon la nourrisse Avant qules fruits pourrissent Tant qua dla vie ya dlespoir Seul le travail paye et seul largent donne le pouvoir Jbosse pour manger comme un roi Lmauvais il me regarde La jalousie tourne autour de moi Pourtant jdonne tout cque jai Jperds pour tous ceux qujaime Mais sous ma veste mon cur saigne Autour dmoi Satan fait des siennes Et je nvois toujours pas détoile filante dans le ciel Non, je ny arrive plus, non, je ny arrive plus Non, je ny arrive plus, non, je ny arrive plus Ouais, je narrive plus à dormir Pourtant jai tourné, jai roulé cette nuit Jai fumé, jai tisé, jai baisé cette nuit Jai bossé cette nuit La mélodie quje vous fais aujourdhui Jlai bossée cette nuit Car je narrive plus à dormir You might also like Jarrive pas à dormir, pourtant jsuis fatigué Et si le sommeil sachetait, bah jaurais mon ticket Jarrive pas à dormir, pourtant jdois mlever tôt Des problèmes qui me rongent la tête Mais jai lmental plus dur que lbéton Pourtant ce soir la voisine fait pas dbruit La prise de somnifères portera-t-elle ses fruits ? Jme demande si les keufs vont venir Tu peux mdire cque tu veux, mais jarrive pas à dormir Non, je ny arrive plus, non, je ny arrive plus Non, je ny arrive plus, non, je ny arrive plus Ouais, je narrive plus à dormir Pourtant jai tourné, jai roulé cette nuit Jai fumé, jai tisé, jai baisé cette nuit Jai bossé cette nuit La mélodie quje vous fais aujourdhui Jlai bossée cette nuit Car je narrive plus à dormir Tu crois que tes libre quand tu vas devant les cons Tenrichis les riches quand tappauvris ton compte Léconomie manque quand on tsort du décor La grandeur des racistes dans les livres décole Passe et vis tes rêves ou dors et gratte des pièces Vends ce quils veulent fumer Toi lavenir prends le gun, la voiture et la belle Cest toujours dangereux dans le monde des mange-pierre Négro, jsuis hanw Ça ma fait du bien de fumer toute cette merde Négro, jsuis hanw Jsais pas ça fait combien dtemps jai pas fait drêve Non, je ny arrive plus, non, je ny arrive plus Non, je ny arrive plus, non, je ny arrive plus Ouais, je narrive plus à dormir Pourtant jai tourné, jai roulé cette nuit Jai fumé, jai tisé, jai baisé cette nuit Jai bossé cette nuit La mélodie quje vous fais aujourdhui Jlai bossée cette nuit Car je narrive plus à dormir1</t>
+          <t>Je ny arrive plus, donc jenchaîne les spliffs Ma musique fait la diff mais le succès mesquive Davidson a une fille, Chich vient davoir un fils La famille sagrandit et faut quon la nourrisse Avant qules fruits pourrissent Tant qua dla vie ya dlespoir Seul le travail paye et seul largent donne le pouvoir Jbosse pour manger comme un roi Lmauvais il me regarde La jalousie tourne autour de moi Pourtant jdonne tout cque jai Jperds pour tous ceux qujaime Mais sous ma veste mon cur saigne Autour dmoi Satan fait des siennes Et je nvois toujours pas détoile filante dans le ciel Non, je ny arrive plus, non, je ny arrive plus Non, je ny arrive plus, non, je ny arrive plus Ouais, je narrive plus à dormir Pourtant jai tourné, jai roulé cette nuit Jai fumé, jai tisé, jai baisé cette nuit Jai bossé cette nuit La mélodie quje vous fais aujourdhui Jlai bossée cette nuit Car je narrive plus à dormir Jarrive pas à dormir, pourtant jsuis fatigué Et si le sommeil sachetait, bah jaurais mon ticket Jarrive pas à dormir, pourtant jdois mlever tôt Des problèmes qui me rongent la tête Mais jai lmental plus dur que lbéton Pourtant ce soir la voisine fait pas dbruit La prise de somnifères portera-t-elle ses fruits ? Jme demande si les keufs vont venir Tu peux mdire cque tu veux, mais jarrive pas à dormir Non, je ny arrive plus, non, je ny arrive plus Non, je ny arrive plus, non, je ny arrive plus Ouais, je narrive plus à dormir Pourtant jai tourné, jai roulé cette nuit Jai fumé, jai tisé, jai baisé cette nuit Jai bossé cette nuit La mélodie quje vous fais aujourdhui Jlai bossée cette nuit Car je narrive plus à dormir Tu crois que tes libre quand tu vas devant les cons Tenrichis les riches quand tappauvris ton compte Léconomie manque quand on tsort du décor La grandeur des racistes dans les livres décole Passe et vis tes rêves ou dors et gratte des pièces Vends ce quils veulent fumer Toi lavenir prends le gun, la voiture et la belle Cest toujours dangereux dans le monde des mange-pierre Négro, jsuis hanw Ça ma fait du bien de fumer toute cette merde Négro, jsuis hanw Jsais pas ça fait combien dtemps jai pas fait drêve Non, je ny arrive plus, non, je ny arrive plus Non, je ny arrive plus, non, je ny arrive plus Ouais, je narrive plus à dormir Pourtant jai tourné, jai roulé cette nuit Jai fumé, jai tisé, jai baisé cette nuit Jai bossé cette nuit La mélodie quje vous fais aujourdhui Jlai bossée cette nuit Car je narrive plus à dormir1</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dans le ghetto Un Noir tue un autre Noir dans le ghetto Un Noir tue un autre Noir dans le ghetto Un Noir tue un autre Noir dans le ghetto Les embrouilles s'font en silence J'ai entendu du bruit dans le bando Posé das la street Encore la galère d'un autre négro L'avenir appartient aux bébés Pas ces jeunes qui meurent tôt Lumière sur le ghetto Un ange il est mort donc adios Woin, woin, les daronnes en pleurs Les gars ruminent la vengeance en chur Malgré leur peur Une story de rotte-ca, de ness-bi, de respect Pour l'coupable t'es mort, comme un jacteur Qu'est-c'tu veux que j'te plaigne ? J'te connais pas moi mon ambiance est bonne J'ai lu ton histoire dans les faits divers En petits caractères, ils s'intéressaient plus à Chris Brown Même les bastos que tu voulais gérer diront Paix à son âme, il est mort comme un bon pote Qu'est-c'tu veux que j'te plaigne ? J'te connais pas moi mon ambiance est bonne You might also like Au fond de ma rue, un Noir tu un autre Noir Boom, skurt, paw paw, oui, il a eu le temps de rien voir Une mère verse des larmes Son fils est recouvert d'un drap blanc sur l'trottoir Nos vies sont des tragédies Tout le monde y laisse son âme à la fin de l'histoire Va tèj ton gun ce soir c'est fun L'ambiance est bonne et j'n'ai pas envie d'run On a tous des bons Glock Dans les caves des blocks de nos cités HLM Block contre block, sortent les Glocks Et dialoguent dans le langage du bang bang Dans leurs cours d'Histoire ils nous disent pas Comment ils ont pillé le peuple Noir Dans l'journal ce soir Ils n'parleront sûrement pas de la mort de ce jeune Noir Leur mépris envers moi et les miens A fait de moi ce Noir aux idées noires Noir c'est noir, il n'y a plus d'espoir Pourtant j'continue d'y croire J'vis dans le ghetto depuis l'époque de la Nintendo Ouais les fantômes d'anciens morts d'overdose Ici les khos protègent leur dos, leur bande et leur bando Pour te buter les négros cadreront leur péno Pour te shooter les négros n'feront pas de air ball Tues par le bang bang, meurs par le bang bang négro C'est la même merde de Paname à Harlem De Compton à Marseille, aux quatre coins d'la Planète Merde, c'fils de pute me dois du biff' Plus d'nouvelle j'vais lui niquer sa... mère J'lui ai poussé quelques litres Plus d'nouvelles, oh putain ça m'fout les nerfs Ou peut-être qu'il a une galère ? Ouais peut-être qu'il a une galère ? S'il me l'a mise, obligé de le laisser parterre J'viens d'recevoir un coup d'fil Me disant qu'c'fils de pute s'pavane En gros gamos dans les rues d'Paris Plus d'drogue, plus d'sous nan ça m'fait pas rire C'négro est toujours sur messagerie C'négro est toujours sur messagerie Il m'a niqué, obligé de lui faire une dinguerie J'crois bien qu'j'vais lui faire une dinguerie, j'vais l'buter Va tèj ton gun ce soir c'est fun2</t>
+          <t>Dans le ghetto Un Noir tue un autre Noir dans le ghetto Un Noir tue un autre Noir dans le ghetto Un Noir tue un autre Noir dans le ghetto Les embrouilles s'font en silence J'ai entendu du bruit dans le bando Posé das la street Encore la galère d'un autre négro L'avenir appartient aux bébés Pas ces jeunes qui meurent tôt Lumière sur le ghetto Un ange il est mort donc adios Woin, woin, les daronnes en pleurs Les gars ruminent la vengeance en chur Malgré leur peur Une story de rotte-ca, de ness-bi, de respect Pour l'coupable t'es mort, comme un jacteur Qu'est-c'tu veux que j'te plaigne ? J'te connais pas moi mon ambiance est bonne J'ai lu ton histoire dans les faits divers En petits caractères, ils s'intéressaient plus à Chris Brown Même les bastos que tu voulais gérer diront Paix à son âme, il est mort comme un bon pote Qu'est-c'tu veux que j'te plaigne ? J'te connais pas moi mon ambiance est bonne Au fond de ma rue, un Noir tu un autre Noir Boom, skurt, paw paw, oui, il a eu le temps de rien voir Une mère verse des larmes Son fils est recouvert d'un drap blanc sur l'trottoir Nos vies sont des tragédies Tout le monde y laisse son âme à la fin de l'histoire Va tèj ton gun ce soir c'est fun L'ambiance est bonne et j'n'ai pas envie d'run On a tous des bons Glock Dans les caves des blocks de nos cités HLM Block contre block, sortent les Glocks Et dialoguent dans le langage du bang bang Dans leurs cours d'Histoire ils nous disent pas Comment ils ont pillé le peuple Noir Dans l'journal ce soir Ils n'parleront sûrement pas de la mort de ce jeune Noir Leur mépris envers moi et les miens A fait de moi ce Noir aux idées noires Noir c'est noir, il n'y a plus d'espoir Pourtant j'continue d'y croire J'vis dans le ghetto depuis l'époque de la Nintendo Ouais les fantômes d'anciens morts d'overdose Ici les khos protègent leur dos, leur bande et leur bando Pour te buter les négros cadreront leur péno Pour te shooter les négros n'feront pas de air ball Tues par le bang bang, meurs par le bang bang négro C'est la même merde de Paname à Harlem De Compton à Marseille, aux quatre coins d'la Planète Merde, c'fils de pute me dois du biff' Plus d'nouvelle j'vais lui niquer sa... mère J'lui ai poussé quelques litres Plus d'nouvelles, oh putain ça m'fout les nerfs Ou peut-être qu'il a une galère ? Ouais peut-être qu'il a une galère ? S'il me l'a mise, obligé de le laisser parterre J'viens d'recevoir un coup d'fil Me disant qu'c'fils de pute s'pavane En gros gamos dans les rues d'Paris Plus d'drogue, plus d'sous nan ça m'fait pas rire C'négro est toujours sur messagerie C'négro est toujours sur messagerie Il m'a niqué, obligé de lui faire une dinguerie J'crois bien qu'j'vais lui faire une dinguerie, j'vais l'buter Va tèj ton gun ce soir c'est fun2</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je bosse pour qu'demain ne soit pas comme hier Je cherche le respect depuis la traite négrière Je fais la guerre pour le nerf de la guerre Je sors d'ma tanière seulement pour la faire J'suis venu mettre fin à leurs carrières Ramasser cette bande d'MC à la petite cuillère Trouer est leur corps comme du gruyère Les domicilier à vie à la Salpêtrière Zoxea assure mes arrières Il m'a sorti de l'ombre pour me mettre sur l'chemin d'la lumière Dans c'game j'n'ai peur de sonne-per Tant que la chair de ma chair continue ses prières Oh, j'dois voir la vie en violet, jaune et vert Oh, mettre bien la mif avant qu'on m'enterre Oh, Davidson gère ce biz' comme un gangster Sur la route de l'enfer les chiens aboyèrent Car leurs salopes mouillèrent à la vue de Jok'Air You might also like D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Salam rheyou j'suis chez moi dans le 1.3 À l'aise dans le treizième comme la MZ dans le 8.3 Un dernier mille-feuilles de skuff Parce que j'suis fucked up devant l'D j'multiplie mon bénèf' huit fois Si j'pète un Qatari j'fini ma soirée sur Saint Trop' Et pour rentrer j'fais les fils J'avais pas un en sortant du domicile J'rentrais dormir avec des gros bénéfices J'ai bicrave des dix, j'ai tapé des temps-pleins J'sors de garde-à-vue j'dois refaire mes lacets ouais j'suis comme Franklin On va fumer, tiser, baiser dans une suite au Balladins J'sors de l'aspé Center Parks, j'ai fait rentrer des sommes astronomiques en billets de vingt Charbonner monter au braquos on a pas trop le choix J'ai le meilleur flow de mon secteur à des années lumières du 6.3 Si j'sors c'est pour faire un lliet-bi, ma mère n'est plus là, paix à son âme Ce baqueu se prend pour l'kahlouch dans Training Day, il rentre dans le quartier, main sur son arme D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi J'suis toujours vulgaire bien sûr pétasse parce que me l'apprit la vie khey J'ai la gaule tous les sbah mais bon j'obtiens pas tous les penaltys Si c'est pas pour gagner sa mère, j'm'en bats les cléoui d'être finaliste Nous ont prit trop pour des voyous à croire qu'il n'y a pas d'police Dis-moi d'où tu sors, j'te dirais où tu sors J'suis pas trop skinny disons qu'j'suis canivore J'suis comme ma putain d'beuh zeubi j'suis putain d'fort J'mets une douille au rap avec un peura de roquefort D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi4</t>
+          <t>D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je bosse pour qu'demain ne soit pas comme hier Je cherche le respect depuis la traite négrière Je fais la guerre pour le nerf de la guerre Je sors d'ma tanière seulement pour la faire J'suis venu mettre fin à leurs carrières Ramasser cette bande d'MC à la petite cuillère Trouer est leur corps comme du gruyère Les domicilier à vie à la Salpêtrière Zoxea assure mes arrières Il m'a sorti de l'ombre pour me mettre sur l'chemin d'la lumière Dans c'game j'n'ai peur de sonne-per Tant que la chair de ma chair continue ses prières Oh, j'dois voir la vie en violet, jaune et vert Oh, mettre bien la mif avant qu'on m'enterre Oh, Davidson gère ce biz' comme un gangster Sur la route de l'enfer les chiens aboyèrent Car leurs salopes mouillèrent à la vue de Jok'Air D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Salam rheyou j'suis chez moi dans le 1.3 À l'aise dans le treizième comme la MZ dans le 8.3 Un dernier mille-feuilles de skuff Parce que j'suis fucked up devant l'D j'multiplie mon bénèf' huit fois Si j'pète un Qatari j'fini ma soirée sur Saint Trop' Et pour rentrer j'fais les fils J'avais pas un en sortant du domicile J'rentrais dormir avec des gros bénéfices J'ai bicrave des dix, j'ai tapé des temps-pleins J'sors de garde-à-vue j'dois refaire mes lacets ouais j'suis comme Franklin On va fumer, tiser, baiser dans une suite au Balladins J'sors de l'aspé Center Parks, j'ai fait rentrer des sommes astronomiques en billets de vingt Charbonner monter au braquos on a pas trop le choix J'ai le meilleur flow de mon secteur à des années lumières du 6.3 Si j'sors c'est pour faire un lliet-bi, ma mère n'est plus là, paix à son âme Ce baqueu se prend pour l'kahlouch dans Training Day, il rentre dans le quartier, main sur son arme D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi J'suis toujours vulgaire bien sûr pétasse parce que me l'apprit la vie khey J'ai la gaule tous les sbah mais bon j'obtiens pas tous les penaltys Si c'est pas pour gagner sa mère, j'm'en bats les cléoui d'être finaliste Nous ont prit trop pour des voyous à croire qu'il n'y a pas d'police Dis-moi d'où tu sors, j'te dirais où tu sors J'suis pas trop skinny disons qu'j'suis canivore J'suis comme ma putain d'beuh zeubi j'suis putain d'fort J'mets une douille au rap avec un peura de roquefort D'où je viens la monnaie nous a tous rendus perchés J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Posés dans l'quartier, d'la came dans un sachet J'espère qu'le Tout-Puissant nous pardonnera nos pêchés Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi Je sors je rentre avec des lliets-bi4</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Y'a d'la djantra dans la pièce Dédicace à mes djandjous Du nord au sud, de l'est à l'ouest Celles qui en ont dans la tête Et qui pèsent sur chaque paire de fesses Celles qui mapaisent quand j'suis flex Han yeah, han yeah J'suis dans le bloc, avec 2-3 potes On fume de la ganja, man ganja, ganja Putain d'époque, j'ai pas les locks Faut pas m'prendre pour un rasta-man J'vois des djantras qu'ont l'air pas mal Pour les djandjous, y'a pas d'gentleman Habillées en falsch, dis-leur qu'elles s'arrachent On va m'prendre pour un hagraman Yo, c'est quoi ces djandjous ? On vas pas faire joujou, où sont tes bijoux ? Tu veux des bisous ? Cousine, arrête Tissage, casquette T'es sortie sans baskets ? T'es claquée en claquette Bataradé, t'as raté Djandjous, foutez-moi la paix, arrêtez de mappeler Y'a même des djandjous qui se mettent à rapper P'tite coquine, j'te ramène mon gars J'te taquine, il te touchera pas You might also like C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? Djandjou djandjou Djandjou djandjou C'est qui la djandjou ? L'argent est sale, tant pis, nous le faisons À cause d'une putain, tu t'fais sauter le caisson Donc évitez les questions La street casse les couilles Vu qu'j'la squatte toutes les saisons Qui ramasse le savon ? Hein ? Dites-moi c'est qui la djantra Qui ne craint pas la prison ? Hein ? Fais causette avec les gendarmes J'fais dans la blanche Mon peuple n'est plus dans l'coton Mc t'es pété comme le dernier pocheton Tu cherches un hlel, moi j'ai trouvé des cochonnes Naturellement, j'ai fait le cochon Qui ramasse le savon ? Hein ? Dites-moi c'est qui les toutous ? Fuck tous les canards, les donats Les compagnies, les coins-coins Et nique la grand-mère à Picsou Ma djandjou, ta djandjou Ne jouent pas dans la même cour La tienne en ballerines Et la mienne en Jimmy Choo La mienne est relou, la tienne est chelou Elle schlingue de la schneck à la che-bou Donc qu'elle évite de me faire les yeux doux Pour 25 000 euros, je n'la baise pas debout Qui s'ressemble, s'assemble Vous formez un beau couple Mais tous les deux n'êtes pas l'bienvenue chez nous Ouais, j'aime trop ma djandjou, j'aime trop ma djandjou Un peu comme ma dope, elle m'fait turn up J'la fume tous les jours Ma djandjou est allergique aux faux négros Un coup d'langue et j'valide son ticket d'métro Eh mais c'est qui la djandjou ? Si c'est pas toi, c'est qui ? Bitch Personne ne va t'courir après Crois-moi, djandjou, on est pas dans Hitch De tess' en tess', t'as une fiche De ta réput' tu t'en fiches Où est ton papa ? J'suis sur tu pourrais ken pour un Filet-O-Fish En plus j'entends ton blaze partout Et qu't'enchaînerais même les partouzes Tu joues la meuf Gucci, Louboutin, Zanotti Ta gueule, on sait qu't'as pas d'flouse Tu veux t'poser avec qui ? Faire la clean avec qui ? T'marier avec qui ? Tu vas blaguer personne ici T'auras que des coups d'zizis, bitch Flex, négro, flex Flex, négro, flex, wooh C'est qui la djantra ? Paw paw paw J'aime trop les djantras qui me sucent Et qui ne jactent pas Paw paw paw Ta sur la djantra ta sur la djantra Ta mère la djantra ta mère la djantra La vie d'ma mère je l'ai baisée, c'était au camtar Flex, demande aux djantras comment je donne ça Elle veut plus m'cher-la, j'lui donne des orgasmes Ma bite est laise-ba Le frère jumeau de l'anaconda Je baise ta mère avec du flow Négro, je crois qu'je suis ton papa Aaah, c'est qui la djantra ? J'vais faire un film Marlo et ses 13 djantras Le synopsis c'est Marlo qui baise 13 djantras Aaah, je sais qu'j'suis fou J'ai les haters qui m'courent derrière Ils sont plus nombreux qu'les foufs x21</t>
+          <t>Y'a d'la djantra dans la pièce Dédicace à mes djandjous Du nord au sud, de l'est à l'ouest Celles qui en ont dans la tête Et qui pèsent sur chaque paire de fesses Celles qui mapaisent quand j'suis flex Han yeah, han yeah J'suis dans le bloc, avec 2-3 potes On fume de la ganja, man ganja, ganja Putain d'époque, j'ai pas les locks Faut pas m'prendre pour un rasta-man J'vois des djantras qu'ont l'air pas mal Pour les djandjous, y'a pas d'gentleman Habillées en falsch, dis-leur qu'elles s'arrachent On va m'prendre pour un hagraman Yo, c'est quoi ces djandjous ? On vas pas faire joujou, où sont tes bijoux ? Tu veux des bisous ? Cousine, arrête Tissage, casquette T'es sortie sans baskets ? T'es claquée en claquette Bataradé, t'as raté Djandjous, foutez-moi la paix, arrêtez de mappeler Y'a même des djandjous qui se mettent à rapper P'tite coquine, j'te ramène mon gars J'te taquine, il te touchera pas C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? C'est qui la djandjou ? Djandjou djandjou Djandjou djandjou C'est qui la djandjou ? L'argent est sale, tant pis, nous le faisons À cause d'une putain, tu t'fais sauter le caisson Donc évitez les questions La street casse les couilles Vu qu'j'la squatte toutes les saisons Qui ramasse le savon ? Hein ? Dites-moi c'est qui la djantra Qui ne craint pas la prison ? Hein ? Fais causette avec les gendarmes J'fais dans la blanche Mon peuple n'est plus dans l'coton Mc t'es pété comme le dernier pocheton Tu cherches un hlel, moi j'ai trouvé des cochonnes Naturellement, j'ai fait le cochon Qui ramasse le savon ? Hein ? Dites-moi c'est qui les toutous ? Fuck tous les canards, les donats Les compagnies, les coins-coins Et nique la grand-mère à Picsou Ma djandjou, ta djandjou Ne jouent pas dans la même cour La tienne en ballerines Et la mienne en Jimmy Choo La mienne est relou, la tienne est chelou Elle schlingue de la schneck à la che-bou Donc qu'elle évite de me faire les yeux doux Pour 25 000 euros, je n'la baise pas debout Qui s'ressemble, s'assemble Vous formez un beau couple Mais tous les deux n'êtes pas l'bienvenue chez nous Ouais, j'aime trop ma djandjou, j'aime trop ma djandjou Un peu comme ma dope, elle m'fait turn up J'la fume tous les jours Ma djandjou est allergique aux faux négros Un coup d'langue et j'valide son ticket d'métro Eh mais c'est qui la djandjou ? Si c'est pas toi, c'est qui ? Bitch Personne ne va t'courir après Crois-moi, djandjou, on est pas dans Hitch De tess' en tess', t'as une fiche De ta réput' tu t'en fiches Où est ton papa ? J'suis sur tu pourrais ken pour un Filet-O-Fish En plus j'entends ton blaze partout Et qu't'enchaînerais même les partouzes Tu joues la meuf Gucci, Louboutin, Zanotti Ta gueule, on sait qu't'as pas d'flouse Tu veux t'poser avec qui ? Faire la clean avec qui ? T'marier avec qui ? Tu vas blaguer personne ici T'auras que des coups d'zizis, bitch Flex, négro, flex Flex, négro, flex, wooh C'est qui la djantra ? Paw paw paw J'aime trop les djantras qui me sucent Et qui ne jactent pas Paw paw paw Ta sur la djantra ta sur la djantra Ta mère la djantra ta mère la djantra La vie d'ma mère je l'ai baisée, c'était au camtar Flex, demande aux djantras comment je donne ça Elle veut plus m'cher-la, j'lui donne des orgasmes Ma bite est laise-ba Le frère jumeau de l'anaconda Je baise ta mère avec du flow Négro, je crois qu'je suis ton papa Aaah, c'est qui la djantra ? J'vais faire un film Marlo et ses 13 djantras Le synopsis c'est Marlo qui baise 13 djantras Aaah, je sais qu'j'suis fou J'ai les haters qui m'courent derrière Ils sont plus nombreux qu'les foufs x21</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>On a le Bang Bang flow en étant fonces-dé Nous compare pas, arrête tes tises-bê Pour tous les frères déters qui se dé- Brouillent tout en niquant ces chiens de kissdés Le soir posé devant le lice-Dé Toujours les mêmes pour m'assister Les plus rodaves se croient les plus discrets T'es bétom, t'as cru quoi ? Le biz c'est risqué Wesh igo, fous-toi dans l'crâne que j'vois tous tes rappeurs préférés en Lego Wesh bigo-moi si y'a des bonnes affaires des tal à prendre et des go Aucun de mes niagas que tu pourras douiller Sale bitch, fait pas la meuf en or t'as la chatte rouillée Je compte faire des classiques comme Gohou Michel tah Tu m'as mouillé Eeeuh... Qui connait Boukman Dutty ? Non, vous c'est plutôt les booties Faire les boutiques avec des tasses-pé sans taro et les rincer comme des abrutis Gratter des clopes et des oints-j toute la journée Se moquer de ce con qui se croit jnouné Écouter ces petits bourgeois qui font les mecs ghettos alors que j'ai envie de les racketter Eeeuh... A fait moi c'est Dehmo, j'apprécie ton derrière bien bombé Il y'a moyen de le faire sans passer par quatre chemins ? Non ? Au moins j'ai demandé Des vrais ou des faux je m'en bats les... Fais pas ta pince, bâtard, achète mon CD Histoire que j'achète ma Lambo, je fais monter des tasses-pé Et si il y'a moyen je les fais tourner Tchuss You might also like On les tue ! Pas là pour se faire des potos Faut des thunes ! On se doit de se lever tôt On vit-ser... Tous ces shlagues dans le ghetto J'ai les couilles... Aromatisées au bédo On les tue ! Pas là pour se faire des potos Faut des thunes ! On se doit de se lever tôt On vit-ser... Tous ces shlagues dans le ghetto J'ai les couilles... Aromatisées au bédo On est fucked up dans le tiekson Fucked up dans le tiekson On est fucked up dans le tiekson Fucked up dans le tiekson Fucked up dans le tiekson Parle à mon cul, ma tête est fucked up C'est Jok'Air, k'Air-Jo, Jok'Air, MZ, ok Hahaha, yeah La fête est finie avant même de vini Avant même de vidi vos clicks seront déjà vici Pour mes MCs apologie de la sapologie Je vous confectionne des tombes chez Prada, Louis et Gucci Comme dit Ekynoxxx cesse de raconter des bullshits Des flows, des phases de fou malade j'en ai jusqu'à l'infini Pour me faire tomber love, bébé, ce n'est pas facile Faut que tu sois une chienne au lit et une fée du logis Non, négro, ce n'est pas la peine de nous pomper J'me suis pas levé du bon pied Arrêtez d'envier et aller faire du papier Ces putes ont la chatte en feu, appelez les pompiers Là c'est Pololo, quoi de neuf Di'Moulo ? On bosse dur pour que la hass cesse de nous follow Polo Ralph Lau' de la casquette au polo Sur nos bites les MCs laissent du Labello Biatch, twerk, twerk ! Bouge tes fesses et paye ta chatte Ou je débarque calibré pour braquer ton papa pour qu'il file la monnaie, demande à Shaks On a zoné, on a erré, on a traîné tôt Qu'est ce qu'on va faire ? On ne sait que rapper, représenter notre ghetto Cheche Hood MC tu peux même pas gérer ta meuf et tu t'engages à me test me Quand je vois toutes ces tapettes qui rappent, eh bah oui j'te cache pas que ça me blesse me Tu m'as vu dans le speed, j'm'en bats les glaoui, je prends pas de la cess me Leur flow c'est du semi, nous c'est d'la frappe, tu peux qu'aimer mon ami C'est la course pour l'oseille, mes Chinois te le diront mon négro faut se lever tôt Les trois quart sont perdus, préfèrent se concentrer mais que sur des gros dos Nous c'est braquo, guedro, escroc, mytho Nous c'est les maudits God bless you, je suis plus dedans, laisse me Pas là pour se faire des potos On veut rafler tous les titres comme Kobe MZ Music volume Crack Doucement ou tu tombes dedans comme Tobby Tu peux nous voir dans le ghetto Pas comme ces putains de rappeurs thos-my Je n'aperçois que des arnaques Fermez vos gueules et lâchez nous le cro-mi Fucked up dans le tiekson Fuck les réponses à tes questions Laissez passer les mauvais garçons Davidson Presents est dans la maison On est fucked up dans le tiekson Fuck les réponses à tes questions Laissez passer les mauvais garçons Kdbzik est dans la putain de maison 2</t>
+          <t>On a le Bang Bang flow en étant fonces-dé Nous compare pas, arrête tes tises-bê Pour tous les frères déters qui se dé- Brouillent tout en niquant ces chiens de kissdés Le soir posé devant le lice-Dé Toujours les mêmes pour m'assister Les plus rodaves se croient les plus discrets T'es bétom, t'as cru quoi ? Le biz c'est risqué Wesh igo, fous-toi dans l'crâne que j'vois tous tes rappeurs préférés en Lego Wesh bigo-moi si y'a des bonnes affaires des tal à prendre et des go Aucun de mes niagas que tu pourras douiller Sale bitch, fait pas la meuf en or t'as la chatte rouillée Je compte faire des classiques comme Gohou Michel tah Tu m'as mouillé Eeeuh... Qui connait Boukman Dutty ? Non, vous c'est plutôt les booties Faire les boutiques avec des tasses-pé sans taro et les rincer comme des abrutis Gratter des clopes et des oints-j toute la journée Se moquer de ce con qui se croit jnouné Écouter ces petits bourgeois qui font les mecs ghettos alors que j'ai envie de les racketter Eeeuh... A fait moi c'est Dehmo, j'apprécie ton derrière bien bombé Il y'a moyen de le faire sans passer par quatre chemins ? Non ? Au moins j'ai demandé Des vrais ou des faux je m'en bats les... Fais pas ta pince, bâtard, achète mon CD Histoire que j'achète ma Lambo, je fais monter des tasses-pé Et si il y'a moyen je les fais tourner Tchuss On les tue ! Pas là pour se faire des potos Faut des thunes ! On se doit de se lever tôt On vit-ser... Tous ces shlagues dans le ghetto J'ai les couilles... Aromatisées au bédo On les tue ! Pas là pour se faire des potos Faut des thunes ! On se doit de se lever tôt On vit-ser... Tous ces shlagues dans le ghetto J'ai les couilles... Aromatisées au bédo On est fucked up dans le tiekson Fucked up dans le tiekson On est fucked up dans le tiekson Fucked up dans le tiekson Fucked up dans le tiekson Parle à mon cul, ma tête est fucked up C'est Jok'Air, k'Air-Jo, Jok'Air, MZ, ok Hahaha, yeah La fête est finie avant même de vini Avant même de vidi vos clicks seront déjà vici Pour mes MCs apologie de la sapologie Je vous confectionne des tombes chez Prada, Louis et Gucci Comme dit Ekynoxxx cesse de raconter des bullshits Des flows, des phases de fou malade j'en ai jusqu'à l'infini Pour me faire tomber love, bébé, ce n'est pas facile Faut que tu sois une chienne au lit et une fée du logis Non, négro, ce n'est pas la peine de nous pomper J'me suis pas levé du bon pied Arrêtez d'envier et aller faire du papier Ces putes ont la chatte en feu, appelez les pompiers Là c'est Pololo, quoi de neuf Di'Moulo ? On bosse dur pour que la hass cesse de nous follow Polo Ralph Lau' de la casquette au polo Sur nos bites les MCs laissent du Labello Biatch, twerk, twerk ! Bouge tes fesses et paye ta chatte Ou je débarque calibré pour braquer ton papa pour qu'il file la monnaie, demande à Shaks On a zoné, on a erré, on a traîné tôt Qu'est ce qu'on va faire ? On ne sait que rapper, représenter notre ghetto Cheche Hood MC tu peux même pas gérer ta meuf et tu t'engages à me test me Quand je vois toutes ces tapettes qui rappent, eh bah oui j'te cache pas que ça me blesse me Tu m'as vu dans le speed, j'm'en bats les glaoui, je prends pas de la cess me Leur flow c'est du semi, nous c'est d'la frappe, tu peux qu'aimer mon ami C'est la course pour l'oseille, mes Chinois te le diront mon négro faut se lever tôt Les trois quart sont perdus, préfèrent se concentrer mais que sur des gros dos Nous c'est braquo, guedro, escroc, mytho Nous c'est les maudits God bless you, je suis plus dedans, laisse me Pas là pour se faire des potos On veut rafler tous les titres comme Kobe MZ Music volume Crack Doucement ou tu tombes dedans comme Tobby Tu peux nous voir dans le ghetto Pas comme ces putains de rappeurs thos-my Je n'aperçois que des arnaques Fermez vos gueules et lâchez nous le cro-mi Fucked up dans le tiekson Fuck les réponses à tes questions Laissez passer les mauvais garçons Davidson Presents est dans la maison On est fucked up dans le tiekson Fuck les réponses à tes questions Laissez passer les mauvais garçons Kdbzik est dans la putain de maison 2</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>J'ai autant d'ennemis qu'un gang member d'la West Side J'ai vendu d'la haya, Judas a vendu Issa J'ai grandi dans les halls sales, ces fourmilières de métissages J'barode dans la ville comme Joe en rêvant de Paradis, pas d'Vanessa Pour mes OG's, pour ma mafia L'école Davidson Presents Mes frères d'armes sont mes frères de sang Pas d'faux négros dans ma bande J'vis dans une pièce de théâtre et j'me défonce à chaque entracte Ma vie est une tragédie faut que j'parte avant la fin du spectacle Et ils nous fixent comme Mona Lisa, Lisa, Lisa Que Dieu me protège du mauvais il Iscariote a vendu Issa Je vends cette dope qu'il neige ou qu'il pleuve Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Que Dieu me protège du mauvais il Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Je vends cette dope qu'il neige ou qu'il pleuve You might also like Ça fait 10 piges qu'on vit ça Force à nous, ça aide la mifa J'fais ça fissa, le fils a vu ça sur mon visage Sans devoir même lui parler T'hallucinerais si j'te disais qu'on bosse sans baisser les bras Avancer sans savoir même où aller La musique est sombre elle vient du ghetto Rage pas poto il est tôt Je protège mes bros même si c'est chaud De loin les woulo j'les entends Fuck celui qu'est pas content Et ils nous fixent comme Mona Lisa, Lisa, Lisa Que Dieu me protège du mauvais il Iscariote a vendu Issa Je vends cette dope qu'il neige ou qu'il pleuve Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Que Dieu me protège du mauvais il Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Je vends cette dope qu'il neige ou qu'il pleuve Dis pas d'conneries j'suis pas un mythe, j'suis un hit Coup d'couteau dans ta fesse gauche, fais pas de piques J'ai d'l'ambition, j'mourrai pas pour une fille Et j'partage mon cur comme un steak frite Si t'as d'l'argent dis-toi qu'Paris sera magique J'sais pas si ça fait l'bonheur mais c'est putain d'pratique Comme Mona Lisa rien qu'ça guette ma clique Sors l'mauvais il et les oreilles des briques J'sais pas comment vivre, j'sais comment n'pas mourir J'suis en forme mais je frappe comme le shit ramoli On rappe comme des OG's, eux comme des indics Le mec cagoulé c'est mon pote canonnier La mentale est négro, le cur est métisse J'suis pas nouveau connu comme prince de la ville, bitch Maintenant poto, ramène ma money Eh, dans l'carré VIP quand j'suis dans le club Tu peux m'sucer la bite, t'auras même pas une clope Maintenant que j'ai grimpé, ces putes veulent gratter Tu peux m'sucer la bite, gros, t'auras même pas une clope Ces putes de rageux ont la gorge nouée Ces rappeurs thos-my ont les poches trouées Faire des sous dans la street, je suis trop doué Bitch, c'est pas ton cul qui va m'amadouer Anh, ils font que parler, ils font que parler Ces putes parlent de rer-ti, gros, ils ont même pas un glock Et ils nous fixent comme Mona Lisa, Lisa, Lisa Que Dieu me protège du mauvais il Iscariote a vendu Issa Je vends cette dope qu'il neige ou qu'il pleuve Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Que Dieu me protège du mauvais il Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Je vends cette dope qu'il neige ou qu'il pleuve4</t>
+          <t>J'ai autant d'ennemis qu'un gang member d'la West Side J'ai vendu d'la haya, Judas a vendu Issa J'ai grandi dans les halls sales, ces fourmilières de métissages J'barode dans la ville comme Joe en rêvant de Paradis, pas d'Vanessa Pour mes OG's, pour ma mafia L'école Davidson Presents Mes frères d'armes sont mes frères de sang Pas d'faux négros dans ma bande J'vis dans une pièce de théâtre et j'me défonce à chaque entracte Ma vie est une tragédie faut que j'parte avant la fin du spectacle Et ils nous fixent comme Mona Lisa, Lisa, Lisa Que Dieu me protège du mauvais il Iscariote a vendu Issa Je vends cette dope qu'il neige ou qu'il pleuve Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Que Dieu me protège du mauvais il Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Je vends cette dope qu'il neige ou qu'il pleuve Ça fait 10 piges qu'on vit ça Force à nous, ça aide la mifa J'fais ça fissa, le fils a vu ça sur mon visage Sans devoir même lui parler T'hallucinerais si j'te disais qu'on bosse sans baisser les bras Avancer sans savoir même où aller La musique est sombre elle vient du ghetto Rage pas poto il est tôt Je protège mes bros même si c'est chaud De loin les woulo j'les entends Fuck celui qu'est pas content Et ils nous fixent comme Mona Lisa, Lisa, Lisa Que Dieu me protège du mauvais il Iscariote a vendu Issa Je vends cette dope qu'il neige ou qu'il pleuve Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Que Dieu me protège du mauvais il Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Je vends cette dope qu'il neige ou qu'il pleuve Dis pas d'conneries j'suis pas un mythe, j'suis un hit Coup d'couteau dans ta fesse gauche, fais pas de piques J'ai d'l'ambition, j'mourrai pas pour une fille Et j'partage mon cur comme un steak frite Si t'as d'l'argent dis-toi qu'Paris sera magique J'sais pas si ça fait l'bonheur mais c'est putain d'pratique Comme Mona Lisa rien qu'ça guette ma clique Sors l'mauvais il et les oreilles des briques J'sais pas comment vivre, j'sais comment n'pas mourir J'suis en forme mais je frappe comme le shit ramoli On rappe comme des OG's, eux comme des indics Le mec cagoulé c'est mon pote canonnier La mentale est négro, le cur est métisse J'suis pas nouveau connu comme prince de la ville, bitch Maintenant poto, ramène ma money Eh, dans l'carré VIP quand j'suis dans le club Tu peux m'sucer la bite, t'auras même pas une clope Maintenant que j'ai grimpé, ces putes veulent gratter Tu peux m'sucer la bite, gros, t'auras même pas une clope Ces putes de rageux ont la gorge nouée Ces rappeurs thos-my ont les poches trouées Faire des sous dans la street, je suis trop doué Bitch, c'est pas ton cul qui va m'amadouer Anh, ils font que parler, ils font que parler Ces putes parlent de rer-ti, gros, ils ont même pas un glock Et ils nous fixent comme Mona Lisa, Lisa, Lisa Que Dieu me protège du mauvais il Iscariote a vendu Issa Je vends cette dope qu'il neige ou qu'il pleuve Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Que Dieu me protège du mauvais il Pas de nouvelles recrues dans mon club T'es pas le bienvenu dans mon club Mon club en carré VIP dans le club Je vends cette dope qu'il neige ou qu'il pleuve4</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Toujours ces mêmes soirées Toujours ces mêmes réveils Jai la gueule de bois, argh cest toujours pareil Toujours ces mêmes ients-cli Toujours ces mêmes appels Toujours dans le quartier Maman dit quon fait dla peine Et comme un con le lendemain jvais recommencer Un nouveau problème pour venir me récompenser Pour mfaire changer davis il est trop tard Jveux mévader un petit moment Bon les gars, moi jme barre Jai du mal à rêver, jveux mchanger les idées Viens on prend un vol quest-cten dis ? À nous le soleil dété, détente et farniente Viens on prend un vol quest-cten dis ? Tu msuis ou pas-pas ? Prends tes affaires-faires Jtattends en bas-bas Tu msuis ou pas-pas ? Prends tes affaires-faires Jtattends en bas-bas You might also like Été, automne, printemps, hiver, jsuis dans le bendo Ça va finir par mrendre fou dtraîner quavec des dinguos Jdois fuir sur la pollution pour voir si lherbe est plus verte ailleurs Effriter la faute de ma connerie tel un flâneur Même ma meuf je dois la changer Il doit exister des pétasses sur cette Terre jen suis sûr Qui prendraient soin dmoi Qui ferait chavirer mon cur Rendrait mes mains moites Si elles existent quelles restent loin dmoi Mévader Mévader Mévader Seul à la maison le soir jme pose des questions Suis-je con ou suis-je la cible dune malédiction ? Jmets toutes mes forces dans la chanson Jrame à contre-courant pour ne pas toucher lfond Mon téléphone ne répond plus Bébé mon cur ne répond plus La jalousie ne mignore plus Oui jcavale jour et nuit car la route est longue</t>
+          <t>Toujours ces mêmes soirées Toujours ces mêmes réveils Jai la gueule de bois, argh cest toujours pareil Toujours ces mêmes ients-cli Toujours ces mêmes appels Toujours dans le quartier Maman dit quon fait dla peine Et comme un con le lendemain jvais recommencer Un nouveau problème pour venir me récompenser Pour mfaire changer davis il est trop tard Jveux mévader un petit moment Bon les gars, moi jme barre Jai du mal à rêver, jveux mchanger les idées Viens on prend un vol quest-cten dis ? À nous le soleil dété, détente et farniente Viens on prend un vol quest-cten dis ? Tu msuis ou pas-pas ? Prends tes affaires-faires Jtattends en bas-bas Tu msuis ou pas-pas ? Prends tes affaires-faires Jtattends en bas-bas Été, automne, printemps, hiver, jsuis dans le bendo Ça va finir par mrendre fou dtraîner quavec des dinguos Jdois fuir sur la pollution pour voir si lherbe est plus verte ailleurs Effriter la faute de ma connerie tel un flâneur Même ma meuf je dois la changer Il doit exister des pétasses sur cette Terre jen suis sûr Qui prendraient soin dmoi Qui ferait chavirer mon cur Rendrait mes mains moites Si elles existent quelles restent loin dmoi Mévader Mévader Mévader Seul à la maison le soir jme pose des questions Suis-je con ou suis-je la cible dune malédiction ? Jmets toutes mes forces dans la chanson Jrame à contre-courant pour ne pas toucher lfond Mon téléphone ne répond plus Bébé mon cur ne répond plus La jalousie ne mignore plus Oui jcavale jour et nuit car la route est longue</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Assis au fond d'un bus comme Tracy Chapman Ou attaché au dos d'Maman par un bout de pagne J'ai vu mon passé mourir à Paname Le temps d'partir en fumée jusqu'au filtre comme une Pall Mal Paris Sud ma compagne Le négro part en campagne Impossible de perdre, j'ai rien à perdre, dans tous les cas j'gagne Gentleman, j'donne de l'amour même aux femmes de gendarme Et si elle veut du champagne, Big Daddy prend du champagne Un chat allergique aux poils de chatte A chaque échec Big Daddy retombe toujours sur ses pattes Ils savent qu'j'suis meilleur qu'eux mais j'suis boudé par les charts Ils font blehni d'perdre la mémoire comme Jacques Chirac Joue pas sur mon terrain, le parquet est rempli d'échardes J'pénètre dans la raquette, ils s'écartent comme si j'étais Shak' Le gros manitou arrive et les p'tites souris s'échappent L'hiver arrive, j'leur prépare des barbelés en guise d'écharpe J'transite de chatte en chatte J'retombe toujours sur mes pattes Oh no ! J'risque de perdre la vie bêtement J'suis déjà mort 6 fois Et j'essaie d'garder la foi Oh no ! Je n'compte pas mourir maintenant Quand j'suis pas là, ces négros dansent Je n'leur laisserai plus d'vacances Ces négros me verront constamment J'erre tard la nuit comme un chat errant Ne t'attache pas, je n'ai plus d'sentiments You might also like J'suis ce jeune négro des cités Déterminé depuis tit-peu A faire d'l'oseille dans l'tier-quar XXX te dira qu'on a tout baisé Acharné sur les ients-cli, les mauvais payeurs Pas l'temps d'être travailleur pour c'SMIC avec des liasses qui pouvaient nous apaiser Maintenant j'suis dans l'peu-ra, j'déboule avec ma clique de négros MZ clique, fuck ta clique ma gueule tu connais le réseau J'ai d'autres potes dans la street pour en avoir dans ce milieu Si tu fuck les suceurs de bite, oui bienvenue dans la maison Et les temps passent, tu joues le même gars Qui s'comporte comme des pétasses Rien qu'ça jacte à jouer les XXX et on m'a dit Arrête de rêver ! Aujourd'hui tu me té-ma à la télé, à la radio J'suis en concert, en poster pourtant j'ai même pas eu le brevet On fait du lourd man, on fait du lourd ils le savent On s'amuse toute l'année, on s'défonce mais on taffe On fait du lourd man, on fait du lourd ils le savent A chaque sortie le rap français se mange des baffes J'transite de chatte en chatte J'retombe toujours sur mes pattes Oh no ! J'risque de perdre la vie bêtement J'suis déjà mort 6 fois Et j'essaie d'garder la foi Oh no ! Je n'compte pas mourir maintenant Quand j'suis pas là, ces négros dansent Je n'leur laisserai plus d'vacances Ces négros me verront constamment J'erre tard la nuit comme un chat errant Ne t'attache pas, je n'ai plus d'sentiments C'est tous les jours qu'on baise la lice-po Y'a jamais d'jours d'repos Y'a trop d'façons d'le faire On court pas après les meufs, mais après les euros Le peu d'mes jours heureux se passe avec mes khos Sous bonne dope, sous bonne dose On est dans l'hood, fais pas l'chaud on est casse-couilles J'ai pas l'temps pour pécho sur des sites de rencontres Chacun joue son rôle, pétasse j'te chope avec ma Pokéball j'sais pas quand Ces mecs sont vieux, ces mecs posent comme des p'tits de 17 ans Ces mecs mentent mauvais syndrôme tah les Peter Pan pan, pan On t'allume ta race, on disparaît, réapparaît Où tu nous attend pas comme ton cauchemar à la bonne heure et quand, quand Le chat n'est pas là les souris font des dabs Clé de bras dans leur race et j'joue mon rôle de guillotineur Maman reste à l'écart comme elle parle Me rappelle pas tes bonnes paroles J'vais tous les fumer pour le bonheur Épaulé par les billets pas-là pour les putes Faites du parapente sans parapente et j'offre un twerk pour ton cerceuil J'transite de chatte en chatte J'retombe toujours sur mes pattes Oh no ! J'risque de perdre la vie bêtement J'suis déjà mort 6 fois Et j'essaie d'garder la foi Oh no ! Je n'compte pas mourir bêtement Quand j'suis pas là, ces négros dansent Je n'leur laisserai plus d'vacances Ces négros me verront constamment J'erre tard la nuit comme un chat errant Ne t'attache pas, je n'ai plus d'sentiments5</t>
+          <t>Assis au fond d'un bus comme Tracy Chapman Ou attaché au dos d'Maman par un bout de pagne J'ai vu mon passé mourir à Paname Le temps d'partir en fumée jusqu'au filtre comme une Pall Mal Paris Sud ma compagne Le négro part en campagne Impossible de perdre, j'ai rien à perdre, dans tous les cas j'gagne Gentleman, j'donne de l'amour même aux femmes de gendarme Et si elle veut du champagne, Big Daddy prend du champagne Un chat allergique aux poils de chatte A chaque échec Big Daddy retombe toujours sur ses pattes Ils savent qu'j'suis meilleur qu'eux mais j'suis boudé par les charts Ils font blehni d'perdre la mémoire comme Jacques Chirac Joue pas sur mon terrain, le parquet est rempli d'échardes J'pénètre dans la raquette, ils s'écartent comme si j'étais Shak' Le gros manitou arrive et les p'tites souris s'échappent L'hiver arrive, j'leur prépare des barbelés en guise d'écharpe J'transite de chatte en chatte J'retombe toujours sur mes pattes Oh no ! J'risque de perdre la vie bêtement J'suis déjà mort 6 fois Et j'essaie d'garder la foi Oh no ! Je n'compte pas mourir maintenant Quand j'suis pas là, ces négros dansent Je n'leur laisserai plus d'vacances Ces négros me verront constamment J'erre tard la nuit comme un chat errant Ne t'attache pas, je n'ai plus d'sentiments J'suis ce jeune négro des cités Déterminé depuis tit-peu A faire d'l'oseille dans l'tier-quar XXX te dira qu'on a tout baisé Acharné sur les ients-cli, les mauvais payeurs Pas l'temps d'être travailleur pour c'SMIC avec des liasses qui pouvaient nous apaiser Maintenant j'suis dans l'peu-ra, j'déboule avec ma clique de négros MZ clique, fuck ta clique ma gueule tu connais le réseau J'ai d'autres potes dans la street pour en avoir dans ce milieu Si tu fuck les suceurs de bite, oui bienvenue dans la maison Et les temps passent, tu joues le même gars Qui s'comporte comme des pétasses Rien qu'ça jacte à jouer les XXX et on m'a dit Arrête de rêver ! Aujourd'hui tu me té-ma à la télé, à la radio J'suis en concert, en poster pourtant j'ai même pas eu le brevet On fait du lourd man, on fait du lourd ils le savent On s'amuse toute l'année, on s'défonce mais on taffe On fait du lourd man, on fait du lourd ils le savent A chaque sortie le rap français se mange des baffes J'transite de chatte en chatte J'retombe toujours sur mes pattes Oh no ! J'risque de perdre la vie bêtement J'suis déjà mort 6 fois Et j'essaie d'garder la foi Oh no ! Je n'compte pas mourir maintenant Quand j'suis pas là, ces négros dansent Je n'leur laisserai plus d'vacances Ces négros me verront constamment J'erre tard la nuit comme un chat errant Ne t'attache pas, je n'ai plus d'sentiments C'est tous les jours qu'on baise la lice-po Y'a jamais d'jours d'repos Y'a trop d'façons d'le faire On court pas après les meufs, mais après les euros Le peu d'mes jours heureux se passe avec mes khos Sous bonne dope, sous bonne dose On est dans l'hood, fais pas l'chaud on est casse-couilles J'ai pas l'temps pour pécho sur des sites de rencontres Chacun joue son rôle, pétasse j'te chope avec ma Pokéball j'sais pas quand Ces mecs sont vieux, ces mecs posent comme des p'tits de 17 ans Ces mecs mentent mauvais syndrôme tah les Peter Pan pan, pan On t'allume ta race, on disparaît, réapparaît Où tu nous attend pas comme ton cauchemar à la bonne heure et quand, quand Le chat n'est pas là les souris font des dabs Clé de bras dans leur race et j'joue mon rôle de guillotineur Maman reste à l'écart comme elle parle Me rappelle pas tes bonnes paroles J'vais tous les fumer pour le bonheur Épaulé par les billets pas-là pour les putes Faites du parapente sans parapente et j'offre un twerk pour ton cerceuil J'transite de chatte en chatte J'retombe toujours sur mes pattes Oh no ! J'risque de perdre la vie bêtement J'suis déjà mort 6 fois Et j'essaie d'garder la foi Oh no ! Je n'compte pas mourir bêtement Quand j'suis pas là, ces négros dansent Je n'leur laisserai plus d'vacances Ces négros me verront constamment J'erre tard la nuit comme un chat errant Ne t'attache pas, je n'ai plus d'sentiments5</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ma chambre a la forme d'une cage Le soleil passe son bras par la fenêtre Les chasseurs à ma porte Comme les petits soldats Qui veulent me prendre Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement oublier Et puis je fume De la weed, de la wax, de la tise, de la 'tasse toute la nuit, je suis fucked up Marie-Jeanne m'excite, me fait jouir, elle me nuit oh oui, c'n'est qu'une salope On s'la fait tourner dans les caisses, dans les fêtes, entre potes, dans le block Attends, pull up, pull up, pull up, pull up Ôte ta bouche de mon pét', tu n'as pas l'air d'avoir la bouche propre J'me défonce comme ODB Après quelques taffs, j'me prends pour Edith Transforme la coke en crack, j'consomme la weed qui se transforme en huile Elle mouille tellement qu'elle laisse des flaques Je sors d'mon insomnie avec c'qui sort de sa chatte Sous mes lunettes, j'ai les yeux d'un asiat' Parle à mon cul, ma tête est sous wax You might also like Parle à mon cul, ma tête est fonce-dé Mec, j'suis high, mec, j'suis die J'gère dans un nuage de fumée Rien qu'je plane, rien qu'je plane Après quelques taffes, j'me prends pour Edith Piaf Je ne veux pas travailler Je n'veux pas déjeuner Je veux juste fumer ma wax Dans le rap, j'suis comme Walter White Et ma weed se transforme en wax Dans le rap, j'suis comme Walter White Et ma weed se transforme en wax Dans le rap, j'suis comme Walter White Dans le rap, j'suis comme Walter White Dans le rap, j'suis comme Walter White Et ma weed se transforme en wax 99 de THC, le goût d'ma chicha relevé Ta mère veut pas t'voir traîner avec nous Cette pétasse nous trouve mal-élevés J'emprunte une gova, je roule tout doux Fuck les yeux bleus, les miens sont rouges Parle pas trop là, j'm'en bats les couilles Mets Rihanna, cette pute chante cool Ouais ouais, j'imagine une bombe, une sex machine J'lui dirai Sois cool avec moi, bébé, ce soir, j'suis fragile J'ai faim, j'mérite un tajine, j'ai l'esprit évasif C'est dans ce genre d'état que j'te vomis des putains d'classiques Plus de wax, plus de dollars Trop d'poucaves donc trop de taulards Roule un oinj', P-PD ton cerveau s'mange des coups d'teau-mar Tu t'grattes les veines toute la journée, tous mes négros sont défoncés C'est pas ta mère qui va payer mon loyer Ici ça kicke, pas l'temps d'pioncer Savoir sur quoi investir, pour refaire rentrer un max J'ai vu des scars-la s'battre pour un stick Qu'est-ce qu'ils feront pour d'la wax ? Oui d'la wax, que des gros niaks Pas Breaking Bad, ici c'est Breaking Dab 170 pilons sur la table, en Benibla Toujours frais, comme d'hab' On a la meilleure zeb à des kilomètres On sort les meilleurs flows, les meilleurs mixtapes Le Rap Game a à chiquer, il m'file de la dope, de la caille, de la merde qui leur pètent la tête Ils sucent des bites, on lèche des feuilles à rouler Lâche mes mains pour pouvoir me l'allumer Bébé, j'suis trop... Bébé, j'suis trop... J'suis trop fucked up pour pouvoir te fumer Codéine dans mon Sprite, wax dans ma clope électronique Négro, j'ai la tête dans mes Nike, dans mes veines du DHE 510 J'vomis la gloire d'Edith Piaf, fumer et rien m'foutre dans l'pif J'veux faire du biff, Marie-Jeanne est jouisive Rien qu'elle kiffe quand j'la bifle 3</t>
+          <t>Ma chambre a la forme d'une cage Le soleil passe son bras par la fenêtre Les chasseurs à ma porte Comme les petits soldats Qui veulent me prendre Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement oublier Et puis je fume De la weed, de la wax, de la tise, de la 'tasse toute la nuit, je suis fucked up Marie-Jeanne m'excite, me fait jouir, elle me nuit oh oui, c'n'est qu'une salope On s'la fait tourner dans les caisses, dans les fêtes, entre potes, dans le block Attends, pull up, pull up, pull up, pull up Ôte ta bouche de mon pét', tu n'as pas l'air d'avoir la bouche propre J'me défonce comme ODB Après quelques taffs, j'me prends pour Edith Transforme la coke en crack, j'consomme la weed qui se transforme en huile Elle mouille tellement qu'elle laisse des flaques Je sors d'mon insomnie avec c'qui sort de sa chatte Sous mes lunettes, j'ai les yeux d'un asiat' Parle à mon cul, ma tête est sous wax Parle à mon cul, ma tête est fonce-dé Mec, j'suis high, mec, j'suis die J'gère dans un nuage de fumée Rien qu'je plane, rien qu'je plane Après quelques taffes, j'me prends pour Edith Piaf Je ne veux pas travailler Je n'veux pas déjeuner Je veux juste fumer ma wax Dans le rap, j'suis comme Walter White Et ma weed se transforme en wax Dans le rap, j'suis comme Walter White Et ma weed se transforme en wax Dans le rap, j'suis comme Walter White Dans le rap, j'suis comme Walter White Dans le rap, j'suis comme Walter White Et ma weed se transforme en wax 99 de THC, le goût d'ma chicha relevé Ta mère veut pas t'voir traîner avec nous Cette pétasse nous trouve mal-élevés J'emprunte une gova, je roule tout doux Fuck les yeux bleus, les miens sont rouges Parle pas trop là, j'm'en bats les couilles Mets Rihanna, cette pute chante cool Ouais ouais, j'imagine une bombe, une sex machine J'lui dirai Sois cool avec moi, bébé, ce soir, j'suis fragile J'ai faim, j'mérite un tajine, j'ai l'esprit évasif C'est dans ce genre d'état que j'te vomis des putains d'classiques Plus de wax, plus de dollars Trop d'poucaves donc trop de taulards Roule un oinj', P-PD ton cerveau s'mange des coups d'teau-mar Tu t'grattes les veines toute la journée, tous mes négros sont défoncés C'est pas ta mère qui va payer mon loyer Ici ça kicke, pas l'temps d'pioncer Savoir sur quoi investir, pour refaire rentrer un max J'ai vu des scars-la s'battre pour un stick Qu'est-ce qu'ils feront pour d'la wax ? Oui d'la wax, que des gros niaks Pas Breaking Bad, ici c'est Breaking Dab 170 pilons sur la table, en Benibla Toujours frais, comme d'hab' On a la meilleure zeb à des kilomètres On sort les meilleurs flows, les meilleurs mixtapes Le Rap Game a à chiquer, il m'file de la dope, de la caille, de la merde qui leur pètent la tête Ils sucent des bites, on lèche des feuilles à rouler Lâche mes mains pour pouvoir me l'allumer Bébé, j'suis trop... Bébé, j'suis trop... J'suis trop fucked up pour pouvoir te fumer Codéine dans mon Sprite, wax dans ma clope électronique Négro, j'ai la tête dans mes Nike, dans mes veines du DHE 510 J'vomis la gloire d'Edith Piaf, fumer et rien m'foutre dans l'pif J'veux faire du biff, Marie-Jeanne est jouisive Rien qu'elle kiffe quand j'la bifle 3</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Suis-je aveugle ? J'en vois aucun qui fait le poids On avance, que d'la ppe-fra à chaque pas Besoin de personne donc on ne se mélange pas Une mixtape et tout ton quartier plane J'représente tous mes fêlés Si y'a des plans faut m'affairer Pour du Gucci, Fendi, Franco Ferre Ces p'tits clochards faut les aider J'suis un genre d'enfoiré, j'ai vu trop de putes défiler J'ai vu trop de potes déférés, qui veut teste veut se faire fourrer Dans ma tête j'ai serré sur eux, j'suis mort dans la série Arrêtez votre ciné, ça va pas passer comme Makélélé Le terrain est miné, les Bleus s'en sont mêlés Ça sent le boloss, voyou personne va tirer Tes pseudos-rappeurs c'est des... tchip Dois-je me répéter ? Qui nous a sur le dos veut se faire baiser Poto t'es comme ta meuf, pire t'es grave pété J'compte rentrer partout j'ai la PTT Flow, propreté Pour les mecs de tess, les mecs déters du 13 Qui détestent pas les tête-à-tête, pas besoin de Jack J'sais que c'est la hass mais ferme tes fesses Déstresse, fais de l'oseille arrête de planter là D.E.H.M.O, entre la polygamie et la polyamide J'suis bien là Entre le flow de ses amis et le port du qamis J'suis bien là T'aimes trop les filles faciles, construis ta vie de famille J'suis bien là On espère pour toi le paradis You might also like Suis-je aveugle ? J'en vois aucun qui fait le poids On avance, que d'la ppe-fra à chaque fois Besoin de sonne-per donc on ne se mélange pas Une mixtape et tout ton quartier plane Wesh, wesh, wesh, wesh, wesh, wesh On envoie de la fraîche Wesh, wesh, wesh, wesh, wesh, wesh On est pas venus pour ouer-j Wesh, wesh, wesh, wesh, wesh, wesh On envoie de la fraîche Wesh, wesh, wesh, wesh, wesh, wesh On les laisse en dèche On envoie de la fraîche, négro C'est k'air-Jo, Jok'Air, ok Quoi de neuf négro ? Quoi de huit biatch ? Le Jok n'a pas le temps pour les enfantillages Attache ton tissage que je te prenne en doggystyle Ce soir ça va être hard, j'vais faire couler ton maquillage Elle me griffe le visage, m'agrippe comme un grillage En elle j'vois la XXX d'une sage femme et d'une fille sage Et pour pas faire de gaspillage, tout le monde on flingue Dans le rap on est l'équipe pas loin de la Triade Cesse de faire le têtu, je sais que mes textes tuent, j'fais pleurer ton tonton Car j'ai baisé ta tata, tout au long de cet été en tétant ses pointus tétons T'es qu'un double zéro comme la tête à Toto, t'as rien dans la tê-te Si tu veux t'entêter, si testes tu veux tenter, j'suis posé sur la rue d'Patay Viens ici, prépare mon sizzurp Ho's down, g'z up Parle à mon cul ma tête est fucked up Désolé les mecs, j'rappe ap pour les fils de p... Tellement les rappeurs sucent, ils confondent le beat et nos grosses teubs On les entasse à l'arrière du pick-up Même les plus thugs on va en faire des pin-ups Rappons peu, rappons bien J'aime pas voir des putes à me faire de la pub hein Pas touche à mon calumet entre tes chicots j'aperçois coincés des poils pubiens Repeuplons cet art urbain Des vrais mecs comme moi, pas de larbins J'ai pas craché mon dévolu dans ce game En me masturbant j'en ai perturbé plus d'un J'les connais tes gars de la street Ils sont pas méchants, bons qu'à gratter des sticks Ridicules à sec, payent à Louis Vi, Fendi en disant merci aux Assédics Quand ils prennent le mic, parlent cess, bibi, mon détecteur de mythos fait bip Ils ouvrent leur bouche que pour sucer des bites Pile à l'heure, comme d'hab à ma pause pipi Le monde est stone, disaient les Psy 4, mes yeux voient que mon époque en arrive à l'OD là On parle de turfu, passé quant à présent j'crains de ne pas assez craindre l'au-delà Quand certains ont les yeux plus gros que le ventre et que ce fut leur pire peine Bah j'crains d'avoir des ambitions trop balaises pour mon maudit Big Ben</t>
+          <t>Suis-je aveugle ? J'en vois aucun qui fait le poids On avance, que d'la ppe-fra à chaque pas Besoin de personne donc on ne se mélange pas Une mixtape et tout ton quartier plane J'représente tous mes fêlés Si y'a des plans faut m'affairer Pour du Gucci, Fendi, Franco Ferre Ces p'tits clochards faut les aider J'suis un genre d'enfoiré, j'ai vu trop de putes défiler J'ai vu trop de potes déférés, qui veut teste veut se faire fourrer Dans ma tête j'ai serré sur eux, j'suis mort dans la série Arrêtez votre ciné, ça va pas passer comme Makélélé Le terrain est miné, les Bleus s'en sont mêlés Ça sent le boloss, voyou personne va tirer Tes pseudos-rappeurs c'est des... tchip Dois-je me répéter ? Qui nous a sur le dos veut se faire baiser Poto t'es comme ta meuf, pire t'es grave pété J'compte rentrer partout j'ai la PTT Flow, propreté Pour les mecs de tess, les mecs déters du 13 Qui détestent pas les tête-à-tête, pas besoin de Jack J'sais que c'est la hass mais ferme tes fesses Déstresse, fais de l'oseille arrête de planter là D.E.H.M.O, entre la polygamie et la polyamide J'suis bien là Entre le flow de ses amis et le port du qamis J'suis bien là T'aimes trop les filles faciles, construis ta vie de famille J'suis bien là On espère pour toi le paradis Suis-je aveugle ? J'en vois aucun qui fait le poids On avance, que d'la ppe-fra à chaque fois Besoin de sonne-per donc on ne se mélange pas Une mixtape et tout ton quartier plane Wesh, wesh, wesh, wesh, wesh, wesh On envoie de la fraîche Wesh, wesh, wesh, wesh, wesh, wesh On est pas venus pour ouer-j Wesh, wesh, wesh, wesh, wesh, wesh On envoie de la fraîche Wesh, wesh, wesh, wesh, wesh, wesh On les laisse en dèche On envoie de la fraîche, négro C'est k'air-Jo, Jok'Air, ok Quoi de neuf négro ? Quoi de huit biatch ? Le Jok n'a pas le temps pour les enfantillages Attache ton tissage que je te prenne en doggystyle Ce soir ça va être hard, j'vais faire couler ton maquillage Elle me griffe le visage, m'agrippe comme un grillage En elle j'vois la XXX d'une sage femme et d'une fille sage Et pour pas faire de gaspillage, tout le monde on flingue Dans le rap on est l'équipe pas loin de la Triade Cesse de faire le têtu, je sais que mes textes tuent, j'fais pleurer ton tonton Car j'ai baisé ta tata, tout au long de cet été en tétant ses pointus tétons T'es qu'un double zéro comme la tête à Toto, t'as rien dans la tê-te Si tu veux t'entêter, si testes tu veux tenter, j'suis posé sur la rue d'Patay Viens ici, prépare mon sizzurp Ho's down, g'z up Parle à mon cul ma tête est fucked up Désolé les mecs, j'rappe ap pour les fils de p... Tellement les rappeurs sucent, ils confondent le beat et nos grosses teubs On les entasse à l'arrière du pick-up Même les plus thugs on va en faire des pin-ups Rappons peu, rappons bien J'aime pas voir des putes à me faire de la pub hein Pas touche à mon calumet entre tes chicots j'aperçois coincés des poils pubiens Repeuplons cet art urbain Des vrais mecs comme moi, pas de larbins J'ai pas craché mon dévolu dans ce game En me masturbant j'en ai perturbé plus d'un J'les connais tes gars de la street Ils sont pas méchants, bons qu'à gratter des sticks Ridicules à sec, payent à Louis Vi, Fendi en disant merci aux Assédics Quand ils prennent le mic, parlent cess, bibi, mon détecteur de mythos fait bip Ils ouvrent leur bouche que pour sucer des bites Pile à l'heure, comme d'hab à ma pause pipi Le monde est stone, disaient les Psy 4, mes yeux voient que mon époque en arrive à l'OD là On parle de turfu, passé quant à présent j'crains de ne pas assez craindre l'au-delà Quand certains ont les yeux plus gros que le ventre et que ce fut leur pire peine Bah j'crains d'avoir des ambitions trop balaises pour mon maudit Big Ben</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'ai vendu d'la... pour blinder le frigo Maman l'a su elle a voulu m'péter les chicots Oui j'ai fait l'con La poisse a fait sonner mon bigo Le jour où l'succès m'appelle, j'y go Au fait moi c'est Hache-P d'la MZ, enchanté J'suis ce hors-la-loi qui s'est mis à chanter Combien d'fois j'ai vu le daron tomber ? Et combien d'fois, pour des kilos on a du marchander ? Le temps passe trop vite, faut pas qu'je stagne J'veux pas terminer comme ces anciens qu'ont raté leur vie Gros j'ai l'mental en acier Aucun problème sur cette Terre m'fera sauter dans l'vide Péter le jackpot, ouais foutre la mif à se-l'ai S'barrer loin me donnerait grave la gaule Faut qu'je bouge du hall Maman n'a pas fait six mille bornes Pour qu'son bébé finisse en taule x2 J'veux faire des sous, m'barrer d'ici Avec les miens, loin des soucis J'veux voir ma mère et son sourire Faut qu'on soit bien, ouais You might also like Love you, on se l'était dit Mais t'as mis trop d'mes frères dans la folie T'as fait pleurer Maman, m'a fait admirer des alcooliques J'te déclare ma flamme t'es qu'un pute comme mon ex Et encore je suis poli Oui merci j'veux sortir de la jungle Tout en étant fier d'être un gorille On s'fait vieux et les délires s'font rares dans nos halls Enfoiré, ton pote il est mort, mais t'as pas les dragon balls On t'envoie les soins à l'hôpital en promo parce que t'es impoli Même si j'ai quitté la street, fuck la police x2 J'suis un fils de pauvre, un enfant à problèmes Qu'aimerait voir sa Maman l'sourire aux lèvres Moi qu'ait toujours trouvé l'moyen de la mettre en colère Des tribunaux aux convocations du collège Des barrettes dans mon jean aux plaquettes sous mon lit Elle m'a vu rentrer en sang à la maison Car dans la ville son fils chéri s'est beaucoup d'ennemis J'bosse pour qu'un jour elle dise adieu à ses collègues Si ça marche pas bah j'irai braquer colette x2</t>
+          <t>J'ai vendu d'la... pour blinder le frigo Maman l'a su elle a voulu m'péter les chicots Oui j'ai fait l'con La poisse a fait sonner mon bigo Le jour où l'succès m'appelle, j'y go Au fait moi c'est Hache-P d'la MZ, enchanté J'suis ce hors-la-loi qui s'est mis à chanter Combien d'fois j'ai vu le daron tomber ? Et combien d'fois, pour des kilos on a du marchander ? Le temps passe trop vite, faut pas qu'je stagne J'veux pas terminer comme ces anciens qu'ont raté leur vie Gros j'ai l'mental en acier Aucun problème sur cette Terre m'fera sauter dans l'vide Péter le jackpot, ouais foutre la mif à se-l'ai S'barrer loin me donnerait grave la gaule Faut qu'je bouge du hall Maman n'a pas fait six mille bornes Pour qu'son bébé finisse en taule x2 J'veux faire des sous, m'barrer d'ici Avec les miens, loin des soucis J'veux voir ma mère et son sourire Faut qu'on soit bien, ouais Love you, on se l'était dit Mais t'as mis trop d'mes frères dans la folie T'as fait pleurer Maman, m'a fait admirer des alcooliques J'te déclare ma flamme t'es qu'un pute comme mon ex Et encore je suis poli Oui merci j'veux sortir de la jungle Tout en étant fier d'être un gorille On s'fait vieux et les délires s'font rares dans nos halls Enfoiré, ton pote il est mort, mais t'as pas les dragon balls On t'envoie les soins à l'hôpital en promo parce que t'es impoli Même si j'ai quitté la street, fuck la police x2 J'suis un fils de pauvre, un enfant à problèmes Qu'aimerait voir sa Maman l'sourire aux lèvres Moi qu'ait toujours trouvé l'moyen de la mettre en colère Des tribunaux aux convocations du collège Des barrettes dans mon jean aux plaquettes sous mon lit Elle m'a vu rentrer en sang à la maison Car dans la ville son fils chéri s'est beaucoup d'ennemis J'bosse pour qu'un jour elle dise adieu à ses collègues Si ça marche pas bah j'irai braquer colette x2</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ils nous zyeutent au carré VIP Ma liasse et le boule de ma p'tite La qualité d'mon shit Pourtant ma vie est triste Avec mes apôtres j'roule la nuit comme un crips J'n'ai pas la foi mais la passion du Christ Ça devient dangereux des envieux dans la street Même mon Dieu le père n'reconnaît plus ses fils Y a trop d'haineux dans l'hood De jaloux dans l'hall De traîtres parmi nous De poids sur mes épaules Ça sent le vaudou dans la tour car ces chiens feraient tout pour Qu'il n'y ait plus d'issue de secours Mon ciel est noir et ma rivière est pourpre Elles n'ont d'yeux que pour le carré VIP Ne voient pas tous mes problèmes J'en ai chié des diarrhées Pour passer de l'ombre à la lumière Mais j'ai visé le sommet Et j'ai vu personne quand je manquais de sommeil C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood J'ai visé le sommet Comme tous les cons je foutais la merde dans le hood Et quand y avait la police je me cachait dans mon ghetto J'étais douillet sur mon bédo je la coupais comme un crevard Et l'excuse c'est de la frappe et je fais pas d'chrome D.E.H.M.O. je fais pas l'ancien mais putain démo À tous mes putains de plans c'était fuck les héros Et on s'est cassés la gueule entre chiens errants Et ces enfoirés me préfèrent assis Elles n'ont d'yeux que pour l'carré VIP Ces renois m'ont dit d'arrêter le rap Mais m'ont jamais dit d'arrêter le shit Et pour gratter ma pièce j'ai dû manquer de sommeil J'ai trouvé le réconfort dans les bras d'une pute quand mon moral manquait de sommeil Elles n'ont d'yeux que pour le carré VIP Ne voient pas tous mes problèmes J'en ai chié des diarrhées Pour passer de l'ombre à la lumière Mais j'ai visé le sommet Et j'ai vu personne quand je manquais de sommeil C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood J'ai visé le sommet Roule juste en loc' et ces envieux auront la haine Toujours ces même clochards qui la ramènent C'est vrai qu'le succès te rapport'ra des chiennes Ainsi qu'des hyènes qui s'ront prêts à foutre la merde Un p'tit glock pour au cas où ça pète Les plus fragiles du tieks font vite monter la tête S'tu veux être le prince de la ville faut les faut les faut les Faut les refroidir sur ma vie Elles n'ont d'yeux que pour le carré VIP Ne voient pas tous mes problèmes J'en ai chié des diarrhées Pour passer de l'ombre à la lumière Mais j'ai visé le sommet Et j'ai vu personne quand je manquais de sommeil C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood J'ai visé le sommetYou might also like2</t>
+          <t>Ils nous zyeutent au carré VIP Ma liasse et le boule de ma p'tite La qualité d'mon shit Pourtant ma vie est triste Avec mes apôtres j'roule la nuit comme un crips J'n'ai pas la foi mais la passion du Christ Ça devient dangereux des envieux dans la street Même mon Dieu le père n'reconnaît plus ses fils Y a trop d'haineux dans l'hood De jaloux dans l'hall De traîtres parmi nous De poids sur mes épaules Ça sent le vaudou dans la tour car ces chiens feraient tout pour Qu'il n'y ait plus d'issue de secours Mon ciel est noir et ma rivière est pourpre Elles n'ont d'yeux que pour le carré VIP Ne voient pas tous mes problèmes J'en ai chié des diarrhées Pour passer de l'ombre à la lumière Mais j'ai visé le sommet Et j'ai vu personne quand je manquais de sommeil C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood J'ai visé le sommet Comme tous les cons je foutais la merde dans le hood Et quand y avait la police je me cachait dans mon ghetto J'étais douillet sur mon bédo je la coupais comme un crevard Et l'excuse c'est de la frappe et je fais pas d'chrome D.E.H.M.O. je fais pas l'ancien mais putain démo À tous mes putains de plans c'était fuck les héros Et on s'est cassés la gueule entre chiens errants Et ces enfoirés me préfèrent assis Elles n'ont d'yeux que pour l'carré VIP Ces renois m'ont dit d'arrêter le rap Mais m'ont jamais dit d'arrêter le shit Et pour gratter ma pièce j'ai dû manquer de sommeil J'ai trouvé le réconfort dans les bras d'une pute quand mon moral manquait de sommeil Elles n'ont d'yeux que pour le carré VIP Ne voient pas tous mes problèmes J'en ai chié des diarrhées Pour passer de l'ombre à la lumière Mais j'ai visé le sommet Et j'ai vu personne quand je manquais de sommeil C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood J'ai visé le sommet Roule juste en loc' et ces envieux auront la haine Toujours ces même clochards qui la ramènent C'est vrai qu'le succès te rapport'ra des chiennes Ainsi qu'des hyènes qui s'ront prêts à foutre la merde Un p'tit glock pour au cas où ça pète Les plus fragiles du tieks font vite monter la tête S'tu veux être le prince de la ville faut les faut les faut les Faut les refroidir sur ma vie Elles n'ont d'yeux que pour le carré VIP Ne voient pas tous mes problèmes J'en ai chié des diarrhées Pour passer de l'ombre à la lumière Mais j'ai visé le sommet Et j'ai vu personne quand je manquais de sommeil C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood C'est rempli de haineux dans le hood J'ai visé le sommet2</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Je me branle sur l'instrumentale Je me balade sur l'instrumentale Je vous vois tous à copier essayer de faire comme nous aucune fierté vous êtes lamentables Big up à tous nos frérots, nous f'ra qu'charbonner gros, j'ai v'la le mental C'est bien beau de crier le zobla du poto sur tous les toits mais gros est-ce-que t'envoies le mandat ? Au tier-quar entouré de bouteilles gros j'suis hanw Ça roule des gros sbar les potos sont tous hanw La dope à n'importe quelle heure même les petits vendent Le bizz et la monnaie dans le sang Devant des billets mes négros sont tous hanw Ta meuf joue la chienne ici on va la hanw Tu ne fais que jacter gros va sucer des glands hanw On est doué trop de putes veulent nous voir échoué Tu veux un putain de son ramène une putain de prod, 3 ivoiriens et l'tour est joué hanw Parlez, parlez vous allez tous finir le bec cloué On à des flow en stock arrêtez de me les pé-pom, demander deux, trois pour aller les louer hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw You might also like Cette pute m'appelle plus par mon prénom cette pute m'appelle Arlequin à force de m'pomper comme un bonbon J'sors de la douche j'suis trop propre j'suis trop hanw J'rentre dans la bouche j'suis fucked up j'suis trop hanw J'me vois dans mon bloc une sse-lia dans ma poche et un glock dans mon froc, mon négro j'suis trop hanw Je traîne tard la nuit j'barrode comme la bac tu m'as vu dans ta ville T'as reconnu la plaque j'suis plus connu que le maire Pololo se propage comme le crack et le DAS J'suis partout comme le diable Faut-il que je mette des claques ou des kicks à ta clique de wack pour que la fumée qu'ils claquent Clap cap lorsque je suis dans la place J'viens foutre ma merde comme au fond de la classe Ça parle sur moi, ça complote sur moi, tu sors pas d'chez moi On me jalouse renoi, tellement j'suis fier renoi J'transforme le bitume en patinoire De la zep de la tise j'suis trop hanw Des capotes des bitches j'suis trop hanw De l'alcool de la drogue et des sexes dans la brech' C'est hardcore ma salope est trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw J'parle pas avec les bleus, ces p'tits bouffons se comportent comme des enfants Viens pas brailler ta vie, on s'en bat les couilles comme celle de Pierre-Fanfan Les tocards que tu vois passer à la télé se donne un histoire de bad boys Verse une larme de Jack ils ont même pas le vécu des Bratisla-boys Un gros derrière qui parle d'un coup mes enfoirés ont la tremblote Bouge tes fesses bitch J'arrive avec une bande de bâtards qui se la pètent comme des tasses-pé Quand y'a heja tu joues très bien le rôle de Casper J'suis entre la beuh et le sizzurp La fumée, garde ta main dans mon froc J'espère que t'atteindras ce niveau dans le business Où le comité parle tout le temps pour flop L'impression d'avoir deux vies d'un coup j'suis là ce soir à perpette Viens pas manquer de respect si t'as une sur gros Tu connais le son Lune de fiel ? Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw2</t>
+          <t>Je me branle sur l'instrumentale Je me balade sur l'instrumentale Je vous vois tous à copier essayer de faire comme nous aucune fierté vous êtes lamentables Big up à tous nos frérots, nous f'ra qu'charbonner gros, j'ai v'la le mental C'est bien beau de crier le zobla du poto sur tous les toits mais gros est-ce-que t'envoies le mandat ? Au tier-quar entouré de bouteilles gros j'suis hanw Ça roule des gros sbar les potos sont tous hanw La dope à n'importe quelle heure même les petits vendent Le bizz et la monnaie dans le sang Devant des billets mes négros sont tous hanw Ta meuf joue la chienne ici on va la hanw Tu ne fais que jacter gros va sucer des glands hanw On est doué trop de putes veulent nous voir échoué Tu veux un putain de son ramène une putain de prod, 3 ivoiriens et l'tour est joué hanw Parlez, parlez vous allez tous finir le bec cloué On à des flow en stock arrêtez de me les pé-pom, demander deux, trois pour aller les louer hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Cette pute m'appelle plus par mon prénom cette pute m'appelle Arlequin à force de m'pomper comme un bonbon J'sors de la douche j'suis trop propre j'suis trop hanw J'rentre dans la bouche j'suis fucked up j'suis trop hanw J'me vois dans mon bloc une sse-lia dans ma poche et un glock dans mon froc, mon négro j'suis trop hanw Je traîne tard la nuit j'barrode comme la bac tu m'as vu dans ta ville T'as reconnu la plaque j'suis plus connu que le maire Pololo se propage comme le crack et le DAS J'suis partout comme le diable Faut-il que je mette des claques ou des kicks à ta clique de wack pour que la fumée qu'ils claquent Clap cap lorsque je suis dans la place J'viens foutre ma merde comme au fond de la classe Ça parle sur moi, ça complote sur moi, tu sors pas d'chez moi On me jalouse renoi, tellement j'suis fier renoi J'transforme le bitume en patinoire De la zep de la tise j'suis trop hanw Des capotes des bitches j'suis trop hanw De l'alcool de la drogue et des sexes dans la brech' C'est hardcore ma salope est trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw J'parle pas avec les bleus, ces p'tits bouffons se comportent comme des enfants Viens pas brailler ta vie, on s'en bat les couilles comme celle de Pierre-Fanfan Les tocards que tu vois passer à la télé se donne un histoire de bad boys Verse une larme de Jack ils ont même pas le vécu des Bratisla-boys Un gros derrière qui parle d'un coup mes enfoirés ont la tremblote Bouge tes fesses bitch J'arrive avec une bande de bâtards qui se la pètent comme des tasses-pé Quand y'a heja tu joues très bien le rôle de Casper J'suis entre la beuh et le sizzurp La fumée, garde ta main dans mon froc J'espère que t'atteindras ce niveau dans le business Où le comité parle tout le temps pour flop L'impression d'avoir deux vies d'un coup j'suis là ce soir à perpette Viens pas manquer de respect si t'as une sur gros Tu connais le son Lune de fiel ? Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw Négro j'suis trop hanw J'ai leurs yeux sur moi leurs canons sur moi les lumières sur moi j'suis trop hanw Çà parle sur moi ça complote sur moi ça enquête sur moi j'suis trop hanw J'ai ma weed sur moi et mon biff sur moi et ta pute sur moi j'suis trop hanw2</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Viens on fait connaissance, bébé J'suis bon esprit Je n'ai pas envie de te déposer sur le périph, bébé En plus tu rigoles tellement quand j'suis en rayon blagues, bébé Y'a du Belaire, de la white widow, bébé Et j't'invite in my home J'tise mon alcool, fume de la bonne Pense comme un boss, t'embrasse comme un homme et jouis comme un porc Oui j'suis dans mon bloc, toi on t'connaît ap On barode comme des cops, ici c'est vrai, c'est pas le hip-hop Toujours avec mon pote parrain d'la mort, toujours à jeun mais cet enfoiré tire C'est vrai qu'on a fait plus d'argent sale que de propre Mais t'as vu fallait qu'on brille Hey poto, j't'invite in my home Là où mes OG's fument leur dope Où nos meufs sont bonnes et nos blocs sont beaux S'il y a un souci, on y go Pas d'match retour ici car on maîtrise L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre You might also like Ah ouais ouais ouais, bienvenue chez nous Là où ta daronne vient récupérer des substances cheloues Là où les keufs t'mettent des coups de gazeuse en guise de chedou Fais doucement avec les niaks, tu vas finir chétou Ici elles font les meufs sérieuses et font les tasses-pé chez toi Chez toi elles font les meufs puis j'te dis même pas c'qu'elles font chez moi Son iPhone contre un ze-dou Tu sais, p'tit haineux on s'en tape, tant que Maman prie pour nous Hey poto, j't'invite in my home Là où mes OG's fument leur dope Où nos meufs sont bonnes et nos blocs sont beaux S'il y a un souci, on y go Pas d'match retour ici car on maîtrise L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre J'ai grandi dans l'bloc Deux niggas, deux négros, j'suis pas hip-hop Nique les rappeurs, pas là pour me faire des potes Me mélanger ferait baisser ma côte Bande de salopes, vous allez finir comme Willy La Lope Remontez vos frocs Toi tu suces pour des feats donc bois pas dans mon Yop Bienvenue dans ma zone Où les mamans sont des lionnes et les enfants sont des hommes Les dealers distribuent comme Chris Paul Les junkies jumpent comme Kriss Kross J'n'ai pas d'icône, j'n'ai pas d'idole Moi j'bosse pour prendre la place du boss Hey poto, j't'invite in my home Là où mes OG's fument leur dope Où nos meufs sont bonnes et nos blocs sont beaux S'il y a un souci, on y go Pas d'match retour ici car on maîtrise L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre</t>
+          <t>Viens on fait connaissance, bébé J'suis bon esprit Je n'ai pas envie de te déposer sur le périph, bébé En plus tu rigoles tellement quand j'suis en rayon blagues, bébé Y'a du Belaire, de la white widow, bébé Et j't'invite in my home J'tise mon alcool, fume de la bonne Pense comme un boss, t'embrasse comme un homme et jouis comme un porc Oui j'suis dans mon bloc, toi on t'connaît ap On barode comme des cops, ici c'est vrai, c'est pas le hip-hop Toujours avec mon pote parrain d'la mort, toujours à jeun mais cet enfoiré tire C'est vrai qu'on a fait plus d'argent sale que de propre Mais t'as vu fallait qu'on brille Hey poto, j't'invite in my home Là où mes OG's fument leur dope Où nos meufs sont bonnes et nos blocs sont beaux S'il y a un souci, on y go Pas d'match retour ici car on maîtrise L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre Ah ouais ouais ouais, bienvenue chez nous Là où ta daronne vient récupérer des substances cheloues Là où les keufs t'mettent des coups de gazeuse en guise de chedou Fais doucement avec les niaks, tu vas finir chétou Ici elles font les meufs sérieuses et font les tasses-pé chez toi Chez toi elles font les meufs puis j'te dis même pas c'qu'elles font chez moi Son iPhone contre un ze-dou Tu sais, p'tit haineux on s'en tape, tant que Maman prie pour nous Hey poto, j't'invite in my home Là où mes OG's fument leur dope Où nos meufs sont bonnes et nos blocs sont beaux S'il y a un souci, on y go Pas d'match retour ici car on maîtrise L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre J'ai grandi dans l'bloc Deux niggas, deux négros, j'suis pas hip-hop Nique les rappeurs, pas là pour me faire des potes Me mélanger ferait baisser ma côte Bande de salopes, vous allez finir comme Willy La Lope Remontez vos frocs Toi tu suces pour des feats donc bois pas dans mon Yop Bienvenue dans ma zone Où les mamans sont des lionnes et les enfants sont des hommes Les dealers distribuent comme Chris Paul Les junkies jumpent comme Kriss Kross J'n'ai pas d'icône, j'n'ai pas d'idole Moi j'bosse pour prendre la place du boss Hey poto, j't'invite in my home Là où mes OG's fument leur dope Où nos meufs sont bonnes et nos blocs sont beaux S'il y a un souci, on y go Pas d'match retour ici car on maîtrise L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre L'art de la guerre, l'art de la... L'art de la guerre, l'art de la guerre</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Yeah, yeah Yeah, yeah Yeah, yeah Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé À bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur Terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé L'système, l'État nous escroquent Voilà c'qui pousse petite soeur à faire escort Petit-frère lui importe et exporte toutes sortes de choses On rêve d'autres choses, c'est dur mais faut qu'on s'en sorte Bonheur s'trouve derrière cette porte Et moi j'ai pas les clefs, les miens sont paniqués J'avance bouteille d'essence, un pochon blanc et un briquet Comme Johnny Halliday, le feu j'vais allumer, allumer Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé À bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur Terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé You might also like On est tous allumés Toujours posés dans l'block avec nos bouteilles et nos calumets Pourtant j'ai pris le relais J'dois ramener les sous à la maison car Maman est fatiguée Mais toi t'as pas idée Tout l'mal qu'on serait prêts à faire à autrui pour de simples billets Triste réalité On a grandi dans la de-mer, dis-moi comment la quitter J'ai voulu que des frères mais j'ai eu trop d'potes On apprend d'ses erreurs, nous on a touché l'pactole Regarder l'entourage péter un plomb à force d'allumer trop d'cônes Disons qu'le ssite-gro déconne On apprécie la paix quand on est dans la violence En nous s'installe la haine quand on est en manque d'argent Toute ma vie j'ai vu maman prier Dieu comme si elle parlait dans l'vent Toujours Joh, Pims autour de moi et j'te garantis qu'c'est d'jà pas mal Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé A bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé J'ai l'impression qu'on est devenu dingue C'est le cerveau d'nos parents qui maintenant trinque À cette allure on a des chances d'être foutus Le mode d'emploi d'nos vies, c'est devenu YouTube Le manque de force, la haine depuis, nous caressent Qu'est-ce que tu crois toi? C'est la hass, j'me détruis et on m'dit Arrête Arrête, arrête Putain, ils nous allègent pas Obligé d'me justifier pour pas subir les messes basses Nos cerveaux sont complètements retournés J'pense à nos gosses et toutes les prochaines fournées Je tourne autour, on tourne autour de moi-même Et j'me dis... Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé À bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé Pour tous ceux qui sont du-per Aux gens libres et ceux qui ont pris du ferme Allumé, allumé, allumé, allumé Yaye boy, Bava La propagande a commencé On s'dirige vers la Blackhouse Bava Adams au mic' pour les miens3</t>
+          <t>Yeah, yeah Yeah, yeah Yeah, yeah Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé À bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur Terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé L'système, l'État nous escroquent Voilà c'qui pousse petite soeur à faire escort Petit-frère lui importe et exporte toutes sortes de choses On rêve d'autres choses, c'est dur mais faut qu'on s'en sorte Bonheur s'trouve derrière cette porte Et moi j'ai pas les clefs, les miens sont paniqués J'avance bouteille d'essence, un pochon blanc et un briquet Comme Johnny Halliday, le feu j'vais allumer, allumer Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé À bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur Terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé On est tous allumés Toujours posés dans l'block avec nos bouteilles et nos calumets Pourtant j'ai pris le relais J'dois ramener les sous à la maison car Maman est fatiguée Mais toi t'as pas idée Tout l'mal qu'on serait prêts à faire à autrui pour de simples billets Triste réalité On a grandi dans la de-mer, dis-moi comment la quitter J'ai voulu que des frères mais j'ai eu trop d'potes On apprend d'ses erreurs, nous on a touché l'pactole Regarder l'entourage péter un plomb à force d'allumer trop d'cônes Disons qu'le ssite-gro déconne On apprécie la paix quand on est dans la violence En nous s'installe la haine quand on est en manque d'argent Toute ma vie j'ai vu maman prier Dieu comme si elle parlait dans l'vent Toujours Joh, Pims autour de moi et j'te garantis qu'c'est d'jà pas mal Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé A bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé J'ai l'impression qu'on est devenu dingue C'est le cerveau d'nos parents qui maintenant trinque À cette allure on a des chances d'être foutus Le mode d'emploi d'nos vies, c'est devenu YouTube Le manque de force, la haine depuis, nous caressent Qu'est-ce que tu crois toi? C'est la hass, j'me détruis et on m'dit Arrête Arrête, arrête Putain, ils nous allègent pas Obligé d'me justifier pour pas subir les messes basses Nos cerveaux sont complètements retournés J'pense à nos gosses et toutes les prochaines fournées Je tourne autour, on tourne autour de moi-même Et j'me dis... Allumé, allumé, allumé Dans mon cerveau j'suis trop allumé Allumé, allumé, allumé À bout portant on m'a allumé Je n'pense pas à m'éteindre mais à réduire le feu Dans mon cerveau j'suis trop allumé J'vais redescendre sur terre tout en pensant aux cieux Dans mon cerveau j'suis trop allumé Pour tous ceux qui sont du-per Aux gens libres et ceux qui ont pris du ferme Allumé, allumé, allumé, allumé Yaye boy, Bava La propagande a commencé On s'dirige vers la Blackhouse Bava Adams au mic' pour les miens3</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Attention, attention, attention Attention, attention, attention Attention, attention, attention Attention, attention, attention J'arrive comme les napolitains Qui sont venus hagar tous les petits Africains Trop classe pour demander du pain Fais pas l'con, on est pas des 'ricains J'ai baisé, baisé Davidson Presents a.k.a. Diddy Diddy En doggy, doggy Tu vas enculer qui avec ton petit zizi ? Les boules de Roland-Garros Chich au microphone avec un gros gamos Le prix des armes à la hausse C'est pas grave, négro on t'arrose Ta tchaga, tchaga qui vient me demander un verre de tchapa, tchapa-lo J'ai l'pouvoir d'achat Donc naturellement je fais le pacha, pacha, yo J'arrive comme un Abidjanais Machette à la main dans les rues d'Adjamé Si on sort les trucs ces petites putes vont chialer J'ai un éléphant sur le torse, vrai négro à jamais Avec Chich, on est dans le bendo Jack et Daniel se sont déjà faits descendre Tous mes négros sont fonce-dé au bédo On est fucked up de janvier à décembre Du biff sur l'té-cô C'est bon là, j'peux m'amuser, ramène des gos C'est pas qu'j'suis flé-gon Pas d'ma faute si j'vois des rappeurs en Lego Ta meuf joue la bitch dans la tess' Les tits-pe lui font ses fesses En grande santé donc on est flex Wesh tu connais l'adresse You might also like Les meufs, je les aime bonnes et connes Quand la beuh est sèche et quand le pilon colle Quand la tête d'un ripoux se transforme en punching-ball La voix du négro sort du block Chaque jour que Dieu fait, j'suis dans la drogue et l'alcool J'fais des mathématiques, ce n'est pas grâce à l'école J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album Tout le monde est Big Daddy Supporté que par des Big Daddy Même ma pute est Big Daddy Moi-même j'suis Big Daddy J'arrive avec deux-trois putains Les jaloux m'guettent car j'ai tout le butin La flemme de mettre des coups de surin Et paw, paw, paw, deux-trois négros en moins J'suis complètement flex Un verre de Jack et elle présente sa schnek pute J'ai mal à la tête J'pose comme un dog pour pas connaître l'échec J'débarque avec trop de style A Chevaleret, c'est la terre hostile Je fume de la Marlo Kush On fait l'deux-deux quand ça voit les keufs J'sais qu'tu m'envies T'es une mauvaise personne mais j'te souhaite une longue vie J'sais qu't'as du vice T'es comme toutes ces petites connes qui méritent des coups d'gifles Tiens, Gamin écoute J'arrive comme ton beau-daron J'baise ta mère et participe à ton éducation C'est jamais moi qui ai commencé J'suis toujours dans la finition J'tire pas en l'air et j'tire pas à té-cô Et quand j'm'emmerde, j'suis sous white widow On s'en bat les couilles de toi et tes histoires palpitantes Fous-les toi dans l'cul à en attraper un point d'té-cô On est pas dans les oin, oin, oin, oin On bosse et on frappe plus que ton oin, oin, oin, oinj J'préfère être perché et être loin, loin, loin, loin Que courir après ton cul comme un coin, coin, coin, coin bitch Comme Chich, j'ai pas dormi de la noche Fuck ton trône en toc, j'vais m'poser sur une autre chaise Même à 1 euro vos albums paraissent trop chers Arrête avec tes meufs biens gros chien, grosse chienne Bitch Les meufs, je les aime bonnes et connes Quand la beuh est sèche et quand le pilon colle Quand la tête d'un ripoux se transforme en punching-ball La voix du négro sort du block Chaque jour que Dieu fait, j'suis dans la drogue et l'alcool J'fais des mathématiques, ce n'est pas grâce à l'école J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album Tout le monde est Big Daddy Supporté que par des Big Daddy Même ma pute est Big Daddy Moi-même j'suis l'Big Daddy</t>
+          <t>Attention, attention, attention Attention, attention, attention Attention, attention, attention Attention, attention, attention J'arrive comme les napolitains Qui sont venus hagar tous les petits Africains Trop classe pour demander du pain Fais pas l'con, on est pas des 'ricains J'ai baisé, baisé Davidson Presents a.k.a. Diddy Diddy En doggy, doggy Tu vas enculer qui avec ton petit zizi ? Les boules de Roland-Garros Chich au microphone avec un gros gamos Le prix des armes à la hausse C'est pas grave, négro on t'arrose Ta tchaga, tchaga qui vient me demander un verre de tchapa, tchapa-lo J'ai l'pouvoir d'achat Donc naturellement je fais le pacha, pacha, yo J'arrive comme un Abidjanais Machette à la main dans les rues d'Adjamé Si on sort les trucs ces petites putes vont chialer J'ai un éléphant sur le torse, vrai négro à jamais Avec Chich, on est dans le bendo Jack et Daniel se sont déjà faits descendre Tous mes négros sont fonce-dé au bédo On est fucked up de janvier à décembre Du biff sur l'té-cô C'est bon là, j'peux m'amuser, ramène des gos C'est pas qu'j'suis flé-gon Pas d'ma faute si j'vois des rappeurs en Lego Ta meuf joue la bitch dans la tess' Les tits-pe lui font ses fesses En grande santé donc on est flex Wesh tu connais l'adresse Les meufs, je les aime bonnes et connes Quand la beuh est sèche et quand le pilon colle Quand la tête d'un ripoux se transforme en punching-ball La voix du négro sort du block Chaque jour que Dieu fait, j'suis dans la drogue et l'alcool J'fais des mathématiques, ce n'est pas grâce à l'école J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album Tout le monde est Big Daddy Supporté que par des Big Daddy Même ma pute est Big Daddy Moi-même j'suis Big Daddy J'arrive avec deux-trois putains Les jaloux m'guettent car j'ai tout le butin La flemme de mettre des coups de surin Et paw, paw, paw, deux-trois négros en moins J'suis complètement flex Un verre de Jack et elle présente sa schnek pute J'ai mal à la tête J'pose comme un dog pour pas connaître l'échec J'débarque avec trop de style A Chevaleret, c'est la terre hostile Je fume de la Marlo Kush On fait l'deux-deux quand ça voit les keufs J'sais qu'tu m'envies T'es une mauvaise personne mais j'te souhaite une longue vie J'sais qu't'as du vice T'es comme toutes ces petites connes qui méritent des coups d'gifles Tiens, Gamin écoute J'arrive comme ton beau-daron J'baise ta mère et participe à ton éducation C'est jamais moi qui ai commencé J'suis toujours dans la finition J'tire pas en l'air et j'tire pas à té-cô Et quand j'm'emmerde, j'suis sous white widow On s'en bat les couilles de toi et tes histoires palpitantes Fous-les toi dans l'cul à en attraper un point d'té-cô On est pas dans les oin, oin, oin, oin On bosse et on frappe plus que ton oin, oin, oin, oinj J'préfère être perché et être loin, loin, loin, loin Que courir après ton cul comme un coin, coin, coin, coin bitch Comme Chich, j'ai pas dormi de la noche Fuck ton trône en toc, j'vais m'poser sur une autre chaise Même à 1 euro vos albums paraissent trop chers Arrête avec tes meufs biens gros chien, grosse chienne Bitch Les meufs, je les aime bonnes et connes Quand la beuh est sèche et quand le pilon colle Quand la tête d'un ripoux se transforme en punching-ball La voix du négro sort du block Chaque jour que Dieu fait, j'suis dans la drogue et l'alcool J'fais des mathématiques, ce n'est pas grâce à l'école J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album J'arrive en Big Daddy Jok' Chich volume 2, c'est le nouvel album Tout le monde est Big Daddy Supporté que par des Big Daddy Même ma pute est Big Daddy Moi-même j'suis l'Big Daddy</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Non, les kisdés sont à l'affût Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme J'suis posé dans l'block Où la weed est trop bonne Suis la fumée blanche qui sort de ma bouche Négro, tu t'croirais à Kingston Biatch suis le son de ma voix Vas-y rentre dans la chambre On va fumer, tiser, baiser toute la nuit bitch Laisse tes sentiments devant la porte Non négro j'ai tout essayé yeah yeah Dans quelle merde j'ai pas chié ? yeah yeah yeah yeah Mais la rue m'a charmé Avant qu'j'me mette à chanter J'espère qu'un jour ça va payer yeah yeah yeah yeah J'ai le poids d'la mif' sur les épaules Faut qu'je sorte Maman du ghetto, j'ai les crocs Et j'ai pas d'plan B Non négro j'ai tout essayé, yeah Dans quelle merde j'ai pas chié ? yeah yeah yeah yeah You might also like Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme C'est la course pour les lovés Pas l'temps d'aller lover On bauraude toute la nuit On s'couche en voyant l'soleil se lever On s'la pète comme ces tasses-pé Si tu nous veux t'as qu'à casquer Si t'as des plans fais des passes-dé J'me lève à l'heure que j'veux Parano j'dors chez ma tasse-pé du moment Quand j'me dis que j'veux j'ves-qui les bleus Imprévisible comme ce baqueux On est arrivés et maintenant Tu vas nous sentir comme un litron d'beuh J'roule en Smart automatique J'suis fonce-dé dans ma conduite Ou au quartier avec les flics Les bolosses et les indics Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme Fallait qu'j'le dise J'ai envie d'quitter la street Pendant qu'toi tu forces avec cette bande de baltringues Qui font les tueurs derrière toi Ô Mimi, vas-y viens on s'finit Viens on s'fait la guerre pour mieux s'faire l'amour Peut-être que ce sera l'une des dernières fois Et m'fait pas perdre mon time Kalina m'attire plus que toutes les histoires de guns Rappées par tous tes khatais Tous les soirs hookah d'la guerre la beuh est bonne Donc normal que je plane Codéine dans l'sang J'ai fumé, tisé, pas baisé Alors où est ma wife ? J'représente mes locos Pas la vida loca Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme1</t>
+          <t>Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Non, les kisdés sont à l'affût Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme J'suis posé dans l'block Où la weed est trop bonne Suis la fumée blanche qui sort de ma bouche Négro, tu t'croirais à Kingston Biatch suis le son de ma voix Vas-y rentre dans la chambre On va fumer, tiser, baiser toute la nuit bitch Laisse tes sentiments devant la porte Non négro j'ai tout essayé yeah yeah Dans quelle merde j'ai pas chié ? yeah yeah yeah yeah Mais la rue m'a charmé Avant qu'j'me mette à chanter J'espère qu'un jour ça va payer yeah yeah yeah yeah J'ai le poids d'la mif' sur les épaules Faut qu'je sorte Maman du ghetto, j'ai les crocs Et j'ai pas d'plan B Non négro j'ai tout essayé, yeah Dans quelle merde j'ai pas chié ? yeah yeah yeah yeah Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme C'est la course pour les lovés Pas l'temps d'aller lover On bauraude toute la nuit On s'couche en voyant l'soleil se lever On s'la pète comme ces tasses-pé Si tu nous veux t'as qu'à casquer Si t'as des plans fais des passes-dé J'me lève à l'heure que j'veux Parano j'dors chez ma tasse-pé du moment Quand j'me dis que j'veux j'ves-qui les bleus Imprévisible comme ce baqueux On est arrivés et maintenant Tu vas nous sentir comme un litron d'beuh J'roule en Smart automatique J'suis fonce-dé dans ma conduite Ou au quartier avec les flics Les bolosses et les indics Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme Fallait qu'j'le dise J'ai envie d'quitter la street Pendant qu'toi tu forces avec cette bande de baltringues Qui font les tueurs derrière toi Ô Mimi, vas-y viens on s'finit Viens on s'fait la guerre pour mieux s'faire l'amour Peut-être que ce sera l'une des dernières fois Et m'fait pas perdre mon time Kalina m'attire plus que toutes les histoires de guns Rappées par tous tes khatais Tous les soirs hookah d'la guerre la beuh est bonne Donc normal que je plane Codéine dans l'sang J'ai fumé, tisé, pas baisé Alors où est ma wife ? J'représente mes locos Pas la vida loca Les kisdés sont à l'affût Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Des verres, des joints d'weed et mes négros n'ont pas d'wifi Tiekson, ness-bi, rotte-ca ça s'fait mer-fu Pépère, au calme1</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>On aime les fesses, fesses, fesses, fesses, fesses, fesses, fesses han Fesses, fesses, fesses, fesses, fesses, fesses, fesses han Fesses, fesses, fesses, fesses, fesses, fesses, fesses han Fesses, fesses, fesses, fesses, fesses, fesses, fesses han Dans son legging, dans son Levi's, dans sa jupe ou mini-short Elle est chiante Elle excite mes potes et les p'tis michtos l'escortent Elle est chaude J'lui ferai bien l'remake de la tape à Kardashian Ce soir les Shakira des blocs s'transforment en J-Lo des Champs J'aime trop tes fesses, fesses, fesses, fesses, han C'est bien beau mais faut qu'on baise, baise, baise, baise, baise han Et les meufs trop skinny j'aime pas ça, j'trouve ça trop lèg' Si t'as pas le boule à Nicki Minaj XXX, j'suis désolé ma belle on va t'tèj J'sais pas moi, fais un truc pour me gonfler ce ul-c Et j'veux aussi de jolies cuisses pour me remplir ce fut' Et dis-le moi rect-di si tu t'sens incapable J'suis désolé ma belle si mes vrais gars te calculent ap' J'men bats les couilles d'ton âge Mais tant qu'j'opère au kilo S'te plait ne parle pas d'Paris Hilton, ça m'dit rien moi j'veux J-Lo Les talons c'est d'la triche, celles qu'en portent comptent pour du beurre Crois-moi que j'aurais pas le temps de chanter Black Yellow devant le boule à Amber... Rose You might also like Comme tous les mecs j'aime les fesses, fesses, fesses han Flasques ou bien fermes Plus c'est balèse, plus ça m'fait de l'effet J'aime les booty shake lorque le boule se baisse, baisse, baisse han Puis se relève, rien qu'je peux dead pour mes Fatou Minaj Rien à foutre que tu sois vilaine tant que t'as le boule qui faut, j'm'en fous Pour pas voir ton visage, j'envisage la levrette pour te la foutre dans l'trou J'me les cure avec vos gos toutes skinny Parle moi d'chez Rocky, Kelly Star, ou Pinky Telles les pêches j'en ai tapé des mûres et des pas mûres Si on te calcule pas c'est que t'es toute plate comme un mur Comprends-moi, j'viens du bled du mapuka XXX sur toutes les bobaraban, ne m'demande pas pourquoi J'aime les grosses basses et les tailles basses Amateur de big ass Et les grosses liasses et les p'tites 'tasses Munies d'un boule qui tabasse Tous les soirs j'reve de Melancia dans Vai C'est l'une des seules qui m'aille et je le dit sans faille1</t>
+          <t>On aime les fesses, fesses, fesses, fesses, fesses, fesses, fesses han Fesses, fesses, fesses, fesses, fesses, fesses, fesses han Fesses, fesses, fesses, fesses, fesses, fesses, fesses han Fesses, fesses, fesses, fesses, fesses, fesses, fesses han Dans son legging, dans son Levi's, dans sa jupe ou mini-short Elle est chiante Elle excite mes potes et les p'tis michtos l'escortent Elle est chaude J'lui ferai bien l'remake de la tape à Kardashian Ce soir les Shakira des blocs s'transforment en J-Lo des Champs J'aime trop tes fesses, fesses, fesses, fesses, han C'est bien beau mais faut qu'on baise, baise, baise, baise, baise han Et les meufs trop skinny j'aime pas ça, j'trouve ça trop lèg' Si t'as pas le boule à Nicki Minaj XXX, j'suis désolé ma belle on va t'tèj J'sais pas moi, fais un truc pour me gonfler ce ul-c Et j'veux aussi de jolies cuisses pour me remplir ce fut' Et dis-le moi rect-di si tu t'sens incapable J'suis désolé ma belle si mes vrais gars te calculent ap' J'men bats les couilles d'ton âge Mais tant qu'j'opère au kilo S'te plait ne parle pas d'Paris Hilton, ça m'dit rien moi j'veux J-Lo Les talons c'est d'la triche, celles qu'en portent comptent pour du beurre Crois-moi que j'aurais pas le temps de chanter Black Yellow devant le boule à Amber... Rose Comme tous les mecs j'aime les fesses, fesses, fesses han Flasques ou bien fermes Plus c'est balèse, plus ça m'fait de l'effet J'aime les booty shake lorque le boule se baisse, baisse, baisse han Puis se relève, rien qu'je peux dead pour mes Fatou Minaj Rien à foutre que tu sois vilaine tant que t'as le boule qui faut, j'm'en fous Pour pas voir ton visage, j'envisage la levrette pour te la foutre dans l'trou J'me les cure avec vos gos toutes skinny Parle moi d'chez Rocky, Kelly Star, ou Pinky Telles les pêches j'en ai tapé des mûres et des pas mûres Si on te calcule pas c'est que t'es toute plate comme un mur Comprends-moi, j'viens du bled du mapuka XXX sur toutes les bobaraban, ne m'demande pas pourquoi J'aime les grosses basses et les tailles basses Amateur de big ass Et les grosses liasses et les p'tites 'tasses Munies d'un boule qui tabasse Tous les soirs j'reve de Melancia dans Vai C'est l'une des seules qui m'aille et je le dit sans faille1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tu parles de comploter contre ma MZ Music Ma paire de Nike te le dit, nigga Just do it Si tu viens au contact de ma clique, c'est que t'es juste stupide Tu pues la mouise, ton rap de merde nuit juste à mon ouïe On n'est pas que des rappeurs et ça les vrais le savent Et si on rappe c'est qu'on le fait bien, ça effraie tes shab Ta tasse m'a connu dur, mais toi dis moi tu m'connais d'où ? On n'a rien pris à César donc rendez-nous ce qui est à Mamadou Tu peux faire du sroul, du vaudou, voir un marabout Contrairement à vous, on lèche pas d'couilles donc on mourra debout MZ Music le nom de ma clique hein Ici y'a pas de suceurs, on croque les beats comme des pits hein On peaufine notre réseau, le ghetto fait notre promo Les dèks nous prennent en photo, MZ Click no homo Jok'air, Hache-p, Dehmo, tu reconnais le pedigree Je fais pas du rap français, je fais du rap de fils d'immigrés x2 MZ Music Mafia On effrite, roule, fume ta click comme de la sensimillia Ici, ça kill quand ça kick Qu'ils viennent même à six milliards Ou qu'ils restent mignons Ca sent pas bon pour eux ici car il y a la... You might also like MZ Music MZ MZ MZ MZ MZ MZ Music Music Music Music Music Music Le Bal des MCs, la relève des tocards J'te jure quand tu les écoutes, leur compte en banque il carbure au crack Sur 12 y'en a un qui parle bien, sur 12 y'en a un qui rappe bien Sur 12, autrement dit, on va dire que y'en a 11 qui sucent bien Laisse-nous faire, t'as pas à t'en faire, on a la main ferme La chronique ça défraie, chacun son feu chacun son Enfer Et je compte plaire comme le gros boule d'une tchaga D'une main de fer, je vais te les gifler parle pas de garre-ba Bériz ça gébou, ça s'étouffe vu que ça t'écoute Je sais que les djao c'est pas nous Ouais beaucoup de chattes s'épanouissent Tout le monde est chaud, reste cool T'en nique un, il en reste encore T'oublies la pote-ca t'as fait le con, tire à blanc, la mort te cogne Le rap c'est de la branlette, on voit la merde en Blu-Ray Un truc de fils de pute comme voir son meilleur pote en bleu khey Un renoi qui a chaud, c'est ça un visage pâle J'ai pas racketté ton fils alors, sale pute, dévisage pas x2 Ah ouais, ouais, ouais Je savais pas que dans le game il y avait autant de boloss Trop de fils de pute se mettent à sucer des bites Veulent nous barrer la route car pour eux on est trop dangerous Oui, dangerous Dans tous les cas dans peu de temps vont s'retrouver en string à 4 ttes-pa Ils vont s'la prendre profonde dans ce game, les gavas, je crois qu'ils ne captent pas On compte faire des gros dégâts Ils peuvent pas dire qu'on dérange pas On va pas se mentir le rap c'est de la compète, on s'mélange pas Mz sic-Mu, crois-moi que certains vont chômer On s'en bat les couilles, pas besoin de votre avis pour savoir qu'on est chants-mé Vous allez sentir la tate-pa, nigga Personne peut dire qu'on kick pas, nigga Arrêtez de paniquer, c'est ris-Pa, nigga On n'est pas dans le game, on joue pas, nigga Hey, dis leur Dehmo, on sucera pas pour ter-mon Si ça marche pas, j'continuerai à vendre de la daube ou j'irai taffer comme tout le monde Mais bon on est les bests, trop lourds à la pesée Les boycotteurs, niquez vos mères, allez tous vous faire baiser Y a trop de rappeurs, on va les balayer Je suis dans mon lire-dé, le reste, moi, je m'en bats les yeuks x2 MZ Music MZ MZ MZ MZ MZ MZ Music Music Music Music Music Music</t>
+          <t>Tu parles de comploter contre ma MZ Music Ma paire de Nike te le dit, nigga Just do it Si tu viens au contact de ma clique, c'est que t'es juste stupide Tu pues la mouise, ton rap de merde nuit juste à mon ouïe On n'est pas que des rappeurs et ça les vrais le savent Et si on rappe c'est qu'on le fait bien, ça effraie tes shab Ta tasse m'a connu dur, mais toi dis moi tu m'connais d'où ? On n'a rien pris à César donc rendez-nous ce qui est à Mamadou Tu peux faire du sroul, du vaudou, voir un marabout Contrairement à vous, on lèche pas d'couilles donc on mourra debout MZ Music le nom de ma clique hein Ici y'a pas de suceurs, on croque les beats comme des pits hein On peaufine notre réseau, le ghetto fait notre promo Les dèks nous prennent en photo, MZ Click no homo Jok'air, Hache-p, Dehmo, tu reconnais le pedigree Je fais pas du rap français, je fais du rap de fils d'immigrés x2 MZ Music Mafia On effrite, roule, fume ta click comme de la sensimillia Ici, ça kill quand ça kick Qu'ils viennent même à six milliards Ou qu'ils restent mignons Ca sent pas bon pour eux ici car il y a la... MZ Music MZ MZ MZ MZ MZ MZ Music Music Music Music Music Music Le Bal des MCs, la relève des tocards J'te jure quand tu les écoutes, leur compte en banque il carbure au crack Sur 12 y'en a un qui parle bien, sur 12 y'en a un qui rappe bien Sur 12, autrement dit, on va dire que y'en a 11 qui sucent bien Laisse-nous faire, t'as pas à t'en faire, on a la main ferme La chronique ça défraie, chacun son feu chacun son Enfer Et je compte plaire comme le gros boule d'une tchaga D'une main de fer, je vais te les gifler parle pas de garre-ba Bériz ça gébou, ça s'étouffe vu que ça t'écoute Je sais que les djao c'est pas nous Ouais beaucoup de chattes s'épanouissent Tout le monde est chaud, reste cool T'en nique un, il en reste encore T'oublies la pote-ca t'as fait le con, tire à blanc, la mort te cogne Le rap c'est de la branlette, on voit la merde en Blu-Ray Un truc de fils de pute comme voir son meilleur pote en bleu khey Un renoi qui a chaud, c'est ça un visage pâle J'ai pas racketté ton fils alors, sale pute, dévisage pas x2 Ah ouais, ouais, ouais Je savais pas que dans le game il y avait autant de boloss Trop de fils de pute se mettent à sucer des bites Veulent nous barrer la route car pour eux on est trop dangerous Oui, dangerous Dans tous les cas dans peu de temps vont s'retrouver en string à 4 ttes-pa Ils vont s'la prendre profonde dans ce game, les gavas, je crois qu'ils ne captent pas On compte faire des gros dégâts Ils peuvent pas dire qu'on dérange pas On va pas se mentir le rap c'est de la compète, on s'mélange pas Mz sic-Mu, crois-moi que certains vont chômer On s'en bat les couilles, pas besoin de votre avis pour savoir qu'on est chants-mé Vous allez sentir la tate-pa, nigga Personne peut dire qu'on kick pas, nigga Arrêtez de paniquer, c'est ris-Pa, nigga On n'est pas dans le game, on joue pas, nigga Hey, dis leur Dehmo, on sucera pas pour ter-mon Si ça marche pas, j'continuerai à vendre de la daube ou j'irai taffer comme tout le monde Mais bon on est les bests, trop lourds à la pesée Les boycotteurs, niquez vos mères, allez tous vous faire baiser Y a trop de rappeurs, on va les balayer Je suis dans mon lire-dé, le reste, moi, je m'en bats les yeuks x2 MZ Music MZ MZ MZ MZ MZ MZ Music Music Music Music Music Music</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'peux mourir pour mes négros comme j'peux tuer pour mes négros J'roule avec mes négros j'fais de la musique pour mes négros J'guette les secondes, les minutes et les heures qui passent Assis au fond de la classe, la Terre tourne mais je reste à ma place J'reste à ma place pendant qu'le binôme arrive donc faites de la place J'reste à ma place pendant qu'Jeci Jess arrive donc faites de la place J'reste à ma place pendant qu'la MZ arrive donc faites de la place Davidson Present, Davi-Davidson Present Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Aujourd'hui sera pareil qu'hier Comme demain j'trouverais pas l'temps de faire mes prières Pourtant j'ai rien à faire c'est les mêmes images qui sans cesse viennent, partent, reviennent Toujours les mêmes scènes, la routine m'a comme emporté dans le courant de sa rivière J'rentre à l'heure où maman part au taff Un jour si Dieu veut j'pourrais lui dire n'compte plus sur les aides de la CAF Viens on s'casse, fait tes bagages maman Viens on déménage maintenant Avant qu'la vraie vie m'rattrape et m'frappe en plein dans les dents Rien j'cogite, prend les minutes, j'roule un joint d'shit Ma tension chute, et le temps passe plus vite J'baise que des putes, les relations sérieuses j'évite Dans ma piaule seule la solitude a obtenu son permis de visite L'amour m'esquive, m'évite J'n'aime que moi et les mecs de ma clique avec qui je fais de la musique, du ness-bi, avec qui j'ai traîné dans la street Si j'atteinds pas les sommets tu peux être sûr que j'essaierai Comme R.O.C.H j'descends un flash et j'repense à toutes les tass' que j'ai serré You might also like J'peux mourir pour mes négros comme j'peux tuer pour mes négros J'roule avec mes négros j'fais de la musique pour mes négros J'guette les secondes, les minutes et les heures qui passent Assis au fond de la classe, la Terre tourne mais je reste à ma place J'reste à ma place pendant qu'le binôme arrive donc faites de la place J'reste à ma place pendant qu'Jeci Jess arrive donc faites de la place J'reste à ma place pendant qu'la MZ arrive donc faites de la place Davidson Present, Davi-Davidson Present Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Encore un réveil à la bourre Ce week-end tous bourrés Et j'repense à mon parcours blindé car après un ballon rond j'courais Les jours défilent et se ressemblent, demande à Jok' Petit on était toujours ensemble, du gazon ou une graine de star Le blé divise, on sait qu'faire des sous Des mauvaises ondes diffusent Gava, tu parts le temps, contraint s'cacher, car les balles dans le dos fusent Pour le flouz Quitte à faire des guet-guets, aux mecs honnêtes Ça s'était avant, maintenant on est beaucoup plus fière de c'qu'on est Souvent sonné, par les coups du daron Car j'ai trop décollé, les G.A.V Mais y'avait pas que ça, les rêves du Barça Pour lui je niaks, je baise à tout va Respecte , Camer ça passe pas Souvent comparé, à un mec carré, barré, qui est prêt à se barrer Sache que c'est des tarés Mais ça y est mon cerveau est taillé, j'suis prêt, au sage-pa calé Souvent contre les lois La juge m'a dit Barres toi et tiens toi à carreau A cause de ce que l'on mélange au garo A la barre devant la daronne, égaré J'peux mourir pour mes négros comme j'peux tuer pour mes négros J'roule avec mes négros j'fais de la musique pour mes négros J'guette les secondes, les minutes et les heures qui passent Assis au fond de la classe, la Terre tourne mais je reste à ma place J'reste à ma place pendant qu'le binôme arrive donc faites de la place J'reste à ma place pendant qu'Jeci Jess arrive donc faites de la place J'reste à ma place pendant qu'la MZ arrive donc faites de la place Davidson Present, Davi-Davidson Present Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis</t>
+          <t>J'peux mourir pour mes négros comme j'peux tuer pour mes négros J'roule avec mes négros j'fais de la musique pour mes négros J'guette les secondes, les minutes et les heures qui passent Assis au fond de la classe, la Terre tourne mais je reste à ma place J'reste à ma place pendant qu'le binôme arrive donc faites de la place J'reste à ma place pendant qu'Jeci Jess arrive donc faites de la place J'reste à ma place pendant qu'la MZ arrive donc faites de la place Davidson Present, Davi-Davidson Present Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Aujourd'hui sera pareil qu'hier Comme demain j'trouverais pas l'temps de faire mes prières Pourtant j'ai rien à faire c'est les mêmes images qui sans cesse viennent, partent, reviennent Toujours les mêmes scènes, la routine m'a comme emporté dans le courant de sa rivière J'rentre à l'heure où maman part au taff Un jour si Dieu veut j'pourrais lui dire n'compte plus sur les aides de la CAF Viens on s'casse, fait tes bagages maman Viens on déménage maintenant Avant qu'la vraie vie m'rattrape et m'frappe en plein dans les dents Rien j'cogite, prend les minutes, j'roule un joint d'shit Ma tension chute, et le temps passe plus vite J'baise que des putes, les relations sérieuses j'évite Dans ma piaule seule la solitude a obtenu son permis de visite L'amour m'esquive, m'évite J'n'aime que moi et les mecs de ma clique avec qui je fais de la musique, du ness-bi, avec qui j'ai traîné dans la street Si j'atteinds pas les sommets tu peux être sûr que j'essaierai Comme R.O.C.H j'descends un flash et j'repense à toutes les tass' que j'ai serré J'peux mourir pour mes négros comme j'peux tuer pour mes négros J'roule avec mes négros j'fais de la musique pour mes négros J'guette les secondes, les minutes et les heures qui passent Assis au fond de la classe, la Terre tourne mais je reste à ma place J'reste à ma place pendant qu'le binôme arrive donc faites de la place J'reste à ma place pendant qu'Jeci Jess arrive donc faites de la place J'reste à ma place pendant qu'la MZ arrive donc faites de la place Davidson Present, Davi-Davidson Present Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Encore un réveil à la bourre Ce week-end tous bourrés Et j'repense à mon parcours blindé car après un ballon rond j'courais Les jours défilent et se ressemblent, demande à Jok' Petit on était toujours ensemble, du gazon ou une graine de star Le blé divise, on sait qu'faire des sous Des mauvaises ondes diffusent Gava, tu parts le temps, contraint s'cacher, car les balles dans le dos fusent Pour le flouz Quitte à faire des guet-guets, aux mecs honnêtes Ça s'était avant, maintenant on est beaucoup plus fière de c'qu'on est Souvent sonné, par les coups du daron Car j'ai trop décollé, les G.A.V Mais y'avait pas que ça, les rêves du Barça Pour lui je niaks, je baise à tout va Respecte , Camer ça passe pas Souvent comparé, à un mec carré, barré, qui est prêt à se barrer Sache que c'est des tarés Mais ça y est mon cerveau est taillé, j'suis prêt, au sage-pa calé Souvent contre les lois La juge m'a dit Barres toi et tiens toi à carreau A cause de ce que l'on mélange au garo A la barre devant la daronne, égaré J'peux mourir pour mes négros comme j'peux tuer pour mes négros J'roule avec mes négros j'fais de la musique pour mes négros J'guette les secondes, les minutes et les heures qui passent Assis au fond de la classe, la Terre tourne mais je reste à ma place J'reste à ma place pendant qu'le binôme arrive donc faites de la place J'reste à ma place pendant qu'Jeci Jess arrive donc faites de la place J'reste à ma place pendant qu'la MZ arrive donc faites de la place Davidson Present, Davi-Davidson Present Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis Que Dieu nous protège de nos amis, on s'occupe de nos ennemis</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MZ Music est dans le bendo J'fais mon cash sans fiche de paye j'paye pas les impôts Viens m'voir on a d'la bonne dope Si j'te bute j'passe de Pololo à John Doe Comme Craig Mack j'suis un bad boy Comme Diddy et Biggie j'suis un bad boy J'aime les meufs qui manient les uzis autant qu'les zizis Sois ma Lil' Kim j'serai ton bad boy Numéro 13 de Paname à Chi-Town J'contrôle la raquette sur l'terrain comme Noah XXX J'suis international j'vous en XXX Ouais négro j'suis un bad boy Comme Diddy et Biggie j'suis un bad boy Mon taga vient du Maroc, ma tchaga vient du Maroc Comme French Montana j'suis un bad boy Chaque soir elle m'attend patiemment sous les draps comme Pénélope J'traîne avec mes potes j'fais d'la moula j'traîne dans mon block Deux-trois balles dans mon glock, deux-trois joints j'suis fucked up Cette pute est tombée love du négro parce que j'suis un... Bad boy, bad boy, bad boy Mes négros d'Black Ink sont des bad boy, bad boy, bad boy MZ Clique sont des bad boy, bad boy, bad boy Davidson Present KDB Zik, bad boy, bad boy, bad boy You might also like Que peux-tu m'apprendre que je n'connais pas ? Tous les soirs j'suis fucked up dans un sale état J'me dis que toutes ces putes me méritent pas Flé-gon comme un d'ces cons qui bosse pour l'État J'suis plus fort que vous j'vous baise et puis y'a rien Vrais négros qui enculent tous les frères aryens Click click parle, click click blabla, paw on perd un terrien J'ai grandi peu à peu avant d'savoir que les cons c'est les bleus J'ai vendu trop d'de-mer avant d'savoir que l'mieux c'est la beuh Cet acteur vient d'apprendre que les gentils sont souvent nerveux Elle vient d'flipper cette frimeuse et c'est maintenant qu'elle joue pas ma queue Nous c'est MZ Clique, fuck ta clique Nous appelle pas si y'a pas de rlic Wesh les rappeurs que j'écoutait XXX de laisser la place aux tits-pe ça y est, c'est bon, vous êtes finis Aucune langue de pute mais certains d'mes gars font des cunis Pour les frères enfermés qu'on a XXX T'as baisé deux-trois meufs, tiré deux-trois XXX deux-trois grammes ça y'est tu crois qu't'as tout XXX J'suis toujours dans le bloc avec les potes le voisinage en a assez Bloc sur bloc on ne pense qu'à brasser Les mauvais payeurs finissent par se faire tabasser Les poulets en purée XXX Converti pour Doumsi, Doomam's et Zézé Une meuf discrète sur l'té-cô pour m'apaiser Des barres ils voyent le buzz et me parlent de s'caser Des je t'aime des je t'aime pour toutes les baiser 3</t>
+          <t>MZ Music est dans le bendo J'fais mon cash sans fiche de paye j'paye pas les impôts Viens m'voir on a d'la bonne dope Si j'te bute j'passe de Pololo à John Doe Comme Craig Mack j'suis un bad boy Comme Diddy et Biggie j'suis un bad boy J'aime les meufs qui manient les uzis autant qu'les zizis Sois ma Lil' Kim j'serai ton bad boy Numéro 13 de Paname à Chi-Town J'contrôle la raquette sur l'terrain comme Noah XXX J'suis international j'vous en XXX Ouais négro j'suis un bad boy Comme Diddy et Biggie j'suis un bad boy Mon taga vient du Maroc, ma tchaga vient du Maroc Comme French Montana j'suis un bad boy Chaque soir elle m'attend patiemment sous les draps comme Pénélope J'traîne avec mes potes j'fais d'la moula j'traîne dans mon block Deux-trois balles dans mon glock, deux-trois joints j'suis fucked up Cette pute est tombée love du négro parce que j'suis un... Bad boy, bad boy, bad boy Mes négros d'Black Ink sont des bad boy, bad boy, bad boy MZ Clique sont des bad boy, bad boy, bad boy Davidson Present KDB Zik, bad boy, bad boy, bad boy Que peux-tu m'apprendre que je n'connais pas ? Tous les soirs j'suis fucked up dans un sale état J'me dis que toutes ces putes me méritent pas Flé-gon comme un d'ces cons qui bosse pour l'État J'suis plus fort que vous j'vous baise et puis y'a rien Vrais négros qui enculent tous les frères aryens Click click parle, click click blabla, paw on perd un terrien J'ai grandi peu à peu avant d'savoir que les cons c'est les bleus J'ai vendu trop d'de-mer avant d'savoir que l'mieux c'est la beuh Cet acteur vient d'apprendre que les gentils sont souvent nerveux Elle vient d'flipper cette frimeuse et c'est maintenant qu'elle joue pas ma queue Nous c'est MZ Clique, fuck ta clique Nous appelle pas si y'a pas de rlic Wesh les rappeurs que j'écoutait XXX de laisser la place aux tits-pe ça y est, c'est bon, vous êtes finis Aucune langue de pute mais certains d'mes gars font des cunis Pour les frères enfermés qu'on a XXX T'as baisé deux-trois meufs, tiré deux-trois XXX deux-trois grammes ça y'est tu crois qu't'as tout XXX J'suis toujours dans le bloc avec les potes le voisinage en a assez Bloc sur bloc on ne pense qu'à brasser Les mauvais payeurs finissent par se faire tabasser Les poulets en purée XXX Converti pour Doumsi, Doomam's et Zézé Une meuf discrète sur l'té-cô pour m'apaiser Des barres ils voyent le buzz et me parlent de s'caser Des je t'aime des je t'aime pour toutes les baiser 3</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ça suce pour un stick, hein petit shlag Tu veux des kils, viens j'ai des contacts Faire du papier à tout-va Mes bitches sont posés dans le bat', t'inquiète pas Qu'est-ce que j'vais faire ? J'vais tout niquer Devenir aisé comme P. Diddy Tu m'dois des affaires, marche broliqué Ou tu vas t'faire buter comme Kennedy Si les keufs viennent me cher-cher J'suis pas là, j'suis chez ma bitch Ces négros parlent tous de fer Qu'ils essaient déjà d'se prendre un Heetch J'ai ce petit flow qui les foudroie Dans ma te-tê, un gros foutoir Bitch, twerk, fais-le pour moi Et sache que j'ai même pas un euro pour toi Yeah, yeah Viens pas les mains vides, ramène les bouteilles Qu'on s'défonce jusqu'à ce que nos jambes en aient marre J'suis trop bien pour poser mon cul plus de dix minutes, donc p'tit remballe ton plan cinéma J'suis pas ordinaire gros j'suis pas normal Yeux rouges j'me pavane sur Panama, yeux rouges j'me pavane sur Panama Comme Lil Jay j'm'l'a raconte comme une pétasse You might also like Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys J'ai laissé mon flingue et mon t-shirt Dans la chambre de ta petite sur J'ai dû m'enfuir comme un voleur Car tes parents sont arrivés avant l'heure Tu n'vas rien faire t'es qu'un voyeur T'es l'syndicat, j'suis l'employeur Ma secrétaire est grave bonne en tailleur Comme Cookie Lyon dans Empire Teste pas ma clique Si t'es une pute comme ta mère, négro c'est génétique J'effrite mon stick J'suis flex et j'suis funky comme Alliance Ethnik J'veux être le prince de la ville Avoir la château du Louvre comme nouveau domicile MC prie pour ta vie La Dictature dans les bacs c'est le 22 avril Viens pas les mains vides, ramène les bouteilles Qu'on s'défonce jusqu'à ce que nos jambes en aient marre J'suis trop bien pour poser mon cul plus de dix minutes, donc p'tit remballe ton plan cinéma J'suis pas ordinaire gros j'suis pas normal, j'suis pas ordinaire gros j'suis pas normal Yeux rouges j'me pavane sur Panama Comme Lil Jay j'm'l'a raconte comme une pétasse Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys J'fume de la bonne comme Khalifa T'occupes pas de ma gueule enfoiré, fait Kalina Ta tête n'en vaut pas la peine j'garde mes balles Et j'lui donne si elle bouge son cul de haut en bas Et si on s'connait pas poto c'est Koh Lanta Quand tu bouges du rrain-te tu veux pas qu'j'garde ta place J'te le répète poto on s'connait pas On va niquer des mères dans l'genre polygame Dis pas de connerie j'suis pas un mythe j'suis un hit Arrache ta meuf c'est un coton-tige Meurs plus vite histoire qu'on t'enterre J'suis comme XXX gros j'suis pas gentil Qu'est ce que tu crois j'm'en bats les couilles, j'aurais toujours de l'inspi pour dire d'la merde à quarante piges La bouteille est black, le liquide a la couleur de ta chatte J'te le garantis y a pas de petite bite Viens pas les mains vides, ramène les bouteilles Qu'on s'défonce jusqu'à ce que nos jambes en aient marre J'suis trop bien pour poser mon cul plus de dix minutes, donc p'tit remballe ton plan cinéma J'suis pas ordinaire gros j'suis pas normal, j'suis pas ordinaire gros j'suis pas normal Yeux rouges j'me pavane sur Panama Comme Lil Jay j'm'l'a raconte comme une pétasse Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Comme Lil Jay, j'm'l'a raconte comme une pétasse...1</t>
+          <t>Ça suce pour un stick, hein petit shlag Tu veux des kils, viens j'ai des contacts Faire du papier à tout-va Mes bitches sont posés dans le bat', t'inquiète pas Qu'est-ce que j'vais faire ? J'vais tout niquer Devenir aisé comme P. Diddy Tu m'dois des affaires, marche broliqué Ou tu vas t'faire buter comme Kennedy Si les keufs viennent me cher-cher J'suis pas là, j'suis chez ma bitch Ces négros parlent tous de fer Qu'ils essaient déjà d'se prendre un Heetch J'ai ce petit flow qui les foudroie Dans ma te-tê, un gros foutoir Bitch, twerk, fais-le pour moi Et sache que j'ai même pas un euro pour toi Yeah, yeah Viens pas les mains vides, ramène les bouteilles Qu'on s'défonce jusqu'à ce que nos jambes en aient marre J'suis trop bien pour poser mon cul plus de dix minutes, donc p'tit remballe ton plan cinéma J'suis pas ordinaire gros j'suis pas normal Yeux rouges j'me pavane sur Panama, yeux rouges j'me pavane sur Panama Comme Lil Jay j'm'l'a raconte comme une pétasse Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys J'ai laissé mon flingue et mon t-shirt Dans la chambre de ta petite sur J'ai dû m'enfuir comme un voleur Car tes parents sont arrivés avant l'heure Tu n'vas rien faire t'es qu'un voyeur T'es l'syndicat, j'suis l'employeur Ma secrétaire est grave bonne en tailleur Comme Cookie Lyon dans Empire Teste pas ma clique Si t'es une pute comme ta mère, négro c'est génétique J'effrite mon stick J'suis flex et j'suis funky comme Alliance Ethnik J'veux être le prince de la ville Avoir la château du Louvre comme nouveau domicile MC prie pour ta vie La Dictature dans les bacs c'est le 22 avril Viens pas les mains vides, ramène les bouteilles Qu'on s'défonce jusqu'à ce que nos jambes en aient marre J'suis trop bien pour poser mon cul plus de dix minutes, donc p'tit remballe ton plan cinéma J'suis pas ordinaire gros j'suis pas normal, j'suis pas ordinaire gros j'suis pas normal Yeux rouges j'me pavane sur Panama Comme Lil Jay j'm'l'a raconte comme une pétasse Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys J'fume de la bonne comme Khalifa T'occupes pas de ma gueule enfoiré, fait Kalina Ta tête n'en vaut pas la peine j'garde mes balles Et j'lui donne si elle bouge son cul de haut en bas Et si on s'connait pas poto c'est Koh Lanta Quand tu bouges du rrain-te tu veux pas qu'j'garde ta place J'te le répète poto on s'connait pas On va niquer des mères dans l'genre polygame Dis pas de connerie j'suis pas un mythe j'suis un hit Arrache ta meuf c'est un coton-tige Meurs plus vite histoire qu'on t'enterre J'suis comme XXX gros j'suis pas gentil Qu'est ce que tu crois j'm'en bats les couilles, j'aurais toujours de l'inspi pour dire d'la merde à quarante piges La bouteille est black, le liquide a la couleur de ta chatte J'te le garantis y a pas de petite bite Viens pas les mains vides, ramène les bouteilles Qu'on s'défonce jusqu'à ce que nos jambes en aient marre J'suis trop bien pour poser mon cul plus de dix minutes, donc p'tit remballe ton plan cinéma J'suis pas ordinaire gros j'suis pas normal, j'suis pas ordinaire gros j'suis pas normal Yeux rouges j'me pavane sur Panama Comme Lil Jay j'm'l'a raconte comme une pétasse Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Black Bottle Boys, Black Bottle Boys Comme Lil Jay, j'm'l'a raconte comme une pétasse...1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Je viens du ghetto negro je suis pas hip hop Je veux faire plus de thunes qu'une chanteuse de pop Bonne est ma pute bonne est ma dope Je fume des joints comme tu fumes des clopes Je suis défoncé a l'heure du coq T'es dans le block aux heure de pointe Le soir je bouffe la chatte d'olivia pope Au dessus dès lois je n'ai aucune crainte Mz clique a generations Big daddy jok est dans ta maison Je range tes meubles je fume ta puff Je prend soin de ta meuf quand tu es en prison J'ai dans mes calcons dans ton salon Je fais la vaiselle pour les grandes occasions Si j'enceinte ta femme espece de pauvre con Tu vas rien faire a part connaitre le fiston Elle a pris rdv chez black ink le 9 fevrier pour se faire tatouer mon nom Sous son minou maintenant elle redoute le fin de ton incarcération L'album arrive donc faites attention J'ai préparé les minutions Bratatatat allons moussailons Niquer le rap game notre missionYou might also like</t>
+          <t>Je viens du ghetto negro je suis pas hip hop Je veux faire plus de thunes qu'une chanteuse de pop Bonne est ma pute bonne est ma dope Je fume des joints comme tu fumes des clopes Je suis défoncé a l'heure du coq T'es dans le block aux heure de pointe Le soir je bouffe la chatte d'olivia pope Au dessus dès lois je n'ai aucune crainte Mz clique a generations Big daddy jok est dans ta maison Je range tes meubles je fume ta puff Je prend soin de ta meuf quand tu es en prison J'ai dans mes calcons dans ton salon Je fais la vaiselle pour les grandes occasions Si j'enceinte ta femme espece de pauvre con Tu vas rien faire a part connaitre le fiston Elle a pris rdv chez black ink le 9 fevrier pour se faire tatouer mon nom Sous son minou maintenant elle redoute le fin de ton incarcération L'album arrive donc faites attention J'ai préparé les minutions Bratatatat allons moussailons Niquer le rap game notre mission</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jimpose mon style, flow, phases, tout Comme si jsortais lpremier mot Et puis jme nique la santé, jbois Comme si jattendais ma mort Ma beuh elle est bonne Comme si cétait lpremier jour Et jla savoure Comme si cétait ldernier jour Ferme ta gueule toi, tu nferais rien Même si jte tendais ma joue Et dois-je avoir peur de la concu ? Cocotte si tes bonne viens on scalcule Cest si droit comme une règle je reste tordu Ordure, oh merde, poto jtire, jtire Et jme sens comme Johnny Quand je suis sous prométhazine Jla ramène dans lbendo enfoiré Jpromène même pas ta zine Jvis ma vie comme les OGs Ça srésume ma gueule à prendre que des risques Jtourne dans la ville je surveille comme la Tour Eiffel Ouais, bonne est ma weed, jtire, poto jtire, poto jtire Enfoiré si tes du mauvais côté, poto jtire Jperds souvent patience, trop speed dans ma vie Il est vrai que oui, jai souvent cette aisance de bannir des abrutis Qui me tiennent, qui me tiennent, me détiennent Et finissent par mralentir Jai pas le temps de madoucir Que tu jactes à gauche, que tu jactes à droite Moi jpréfère men abstenir Quand je me lasse, elle magace Je débarrasse, et je fais la place Très perspicace, beaucoup daudace Un brin coriace, une grosse carapace Beaucoup de gens mdisent Mallaury Quest-ctu voudrais faire de ta vie ? Jleur réponds tout simplement Jme prends pas la tête et je vis linstant présent Cesse donc de jacter, essaye donc de mrattraper Qui peut marrêter ? Essaye donc de mrattraper Le temps t'es compté, dis-moi toi où tu en es Je te cherche, je te cherche Et pourtant je ne te trouve pas Moi perso je pense que Dans leurs têtes ils nsont pas prêts Moi javance, moi javance On repousse toujours nos limites Quoiquon dise, quoiquon fasse Faut quon parle de nous Désolée, désolée si ce soir je te rends fou Cesse donc de jacter, cesse donc de jacter Cesse donc de jacter, essaye donc de mrattraper Cesse alors de jacter, cesse alors de jacter Essaye donc de mrattraper Cesse alors de jacter, cesse alors de jacter Essaye donc de mrattraper Cesse alors de jacter, cesse alors de jacter Essaye donc de mrattraper H.A.C.H est de la partie Wesh on dit quoi Mallaury ? Sur lterrain ça bibi Et sache que les condés ont mal aux reins Davidson Presents est dans la maison Encore plus fort pour la prochaine saison Jvais faire encore plus de sous dans crap de merde Montrer à toutes ces putes que javais raison Jsuis pas là pour jacter, on va tous te fumer Beaucoup de gens mdisent Ange-Patrick Quest-ctu voudrais faire de ta vie ? Jsais pas mais jvais tout niquerYou might also like1</t>
+          <t>Jimpose mon style, flow, phases, tout Comme si jsortais lpremier mot Et puis jme nique la santé, jbois Comme si jattendais ma mort Ma beuh elle est bonne Comme si cétait lpremier jour Et jla savoure Comme si cétait ldernier jour Ferme ta gueule toi, tu nferais rien Même si jte tendais ma joue Et dois-je avoir peur de la concu ? Cocotte si tes bonne viens on scalcule Cest si droit comme une règle je reste tordu Ordure, oh merde, poto jtire, jtire Et jme sens comme Johnny Quand je suis sous prométhazine Jla ramène dans lbendo enfoiré Jpromène même pas ta zine Jvis ma vie comme les OGs Ça srésume ma gueule à prendre que des risques Jtourne dans la ville je surveille comme la Tour Eiffel Ouais, bonne est ma weed, jtire, poto jtire, poto jtire Enfoiré si tes du mauvais côté, poto jtire Jperds souvent patience, trop speed dans ma vie Il est vrai que oui, jai souvent cette aisance de bannir des abrutis Qui me tiennent, qui me tiennent, me détiennent Et finissent par mralentir Jai pas le temps de madoucir Que tu jactes à gauche, que tu jactes à droite Moi jpréfère men abstenir Quand je me lasse, elle magace Je débarrasse, et je fais la place Très perspicace, beaucoup daudace Un brin coriace, une grosse carapace Beaucoup de gens mdisent Mallaury Quest-ctu voudrais faire de ta vie ? Jleur réponds tout simplement Jme prends pas la tête et je vis linstant présent Cesse donc de jacter, essaye donc de mrattraper Qui peut marrêter ? Essaye donc de mrattraper Le temps t'es compté, dis-moi toi où tu en es Je te cherche, je te cherche Et pourtant je ne te trouve pas Moi perso je pense que Dans leurs têtes ils nsont pas prêts Moi javance, moi javance On repousse toujours nos limites Quoiquon dise, quoiquon fasse Faut quon parle de nous Désolée, désolée si ce soir je te rends fou Cesse donc de jacter, cesse donc de jacter Cesse donc de jacter, essaye donc de mrattraper Cesse alors de jacter, cesse alors de jacter Essaye donc de mrattraper Cesse alors de jacter, cesse alors de jacter Essaye donc de mrattraper Cesse alors de jacter, cesse alors de jacter Essaye donc de mrattraper H.A.C.H est de la partie Wesh on dit quoi Mallaury ? Sur lterrain ça bibi Et sache que les condés ont mal aux reins Davidson Presents est dans la maison Encore plus fort pour la prochaine saison Jvais faire encore plus de sous dans crap de merde Montrer à toutes ces putes que javais raison Jsuis pas là pour jacter, on va tous te fumer Beaucoup de gens mdisent Ange-Patrick Quest-ctu voudrais faire de ta vie ? Jsais pas mais jvais tout niquer1</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Candlelight and all things bright Come into our room Candlelight and all things bright Come into our room Now and now the winter glows See the leaves beneath the trees Come into our room See the leaves beneath the trees Come into our room Now and now the winter glows Now and now the winter glows It's wonderful No, it's wonderful with you Snug as bugs inside your love Come into our room Snug as bugs inside your love Come into our room Now and now the winter glows Now and now the winter glows Now and now the winter glows You might also likeIt's wonderful No, it's wonderful with you Fingerbobs has wolfed the lot Come into our room Fingerbobs has wolfed the lot Come into our room Now and now the winter glows Now and now the winter glows Now and now the winter glows It's wonderful No, it's wonderful with you Come into your room Come into your room Come into your room Come into your room Come into your room Come into your room</t>
+          <t>Candlelight and all things bright Come into our room Candlelight and all things bright Come into our room Now and now the winter glows See the leaves beneath the trees Come into our room See the leaves beneath the trees Come into our room Now and now the winter glows Now and now the winter glows It's wonderful No, it's wonderful with you Snug as bugs inside your love Come into our room Snug as bugs inside your love Come into our room Now and now the winter glows Now and now the winter glows Now and now the winter glows It's wonderful No, it's wonderful with you Fingerbobs has wolfed the lot Come into our room Fingerbobs has wolfed the lot Come into our room Now and now the winter glows Now and now the winter glows Now and now the winter glows It's wonderful No, it's wonderful with you Come into your room Come into your room Come into your room Come into your room Come into your room Come into your room</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Intro Corona messing everything up Just wanna hang out man How long has it been five months damn Im going crazy ha-ha Hey corona take this as a message Chorus Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Verse 1 The whole world on lockdown Trump doesn't care One hundred thousand people died Trump doesn't care Seems to me that hes against America but isn't he the president of america? You might also likeChorus Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Verse 2 Corona why you gotta pull up Gotta stay six feet away from everyone Cough and you can say your ass is done I feel like i turned one hundred and eighty Stuck up quarantining That's not even the worst part People just don't care at all don't need mask It's just a hoax that's all What the heck That's even worse than this whole rona So just shut up and wear your damn mask</t>
+          <t>Intro Corona messing everything up Just wanna hang out man How long has it been five months damn Im going crazy ha-ha Hey corona take this as a message Chorus Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Verse 1 The whole world on lockdown Trump doesn't care One hundred thousand people died Trump doesn't care Seems to me that hes against America but isn't he the president of america? Chorus Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Corona finna be messing up Cant even do simple dap up Staying in this house all day what Im finna do Watch another Netflix show man i watched them all Might as well buy hulu and watch all the shows Verse 2 Corona why you gotta pull up Gotta stay six feet away from everyone Cough and you can say your ass is done I feel like i turned one hundred and eighty Stuck up quarantining That's not even the worst part People just don't care at all don't need mask It's just a hoax that's all What the heck That's even worse than this whole rona So just shut up and wear your damn mask</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant Ça bicrave dur sur le boulevard, j'redémarre Ça bicrave dur sur le boulevard, en attendant les keufs dans mon plumard Pas l'temps d'aller faire les gosse-bo J'ai d'la came il me faut des loss-bo Tu veux qu'on t'arrange, pas d'blèmes, si tu nous la mets pour toi se sera l'hosto H.A.C.H.E-P, y'a du haschich à choper Sur la vie d'ma mère, y'a et les kissdé font chanter Sort ton joint d'shit, mets toi azeulai Pour les frères en taule et les autres en bracelets Oui ce soir froissons les Si l'poto vous a poucave massez le Paraît qu'depuis qu'je rap j'ai la côte et les surs des haineux ne font que m'harceler Mafé, poulet, coq On s'met dans l'rap et la drogue Tous les dix semaines, nouveau bigo ce-pu Joint de peu-fra qu'mes gavas calcinent Vie facile, y'a qu'le peura, les billets, les bitches, la bonne qui nous fascinent Fuck la lice-po, fuck la C'est grâce à l'argent sale qu'ma paire de nike air est toujours pe-pro You might also like La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant Salaam les frères, j'm'appelle Dehmo Le petit con là dans mafia zeutré J'fais pas crari j'en ai bien fait kiffer Celles qui m'ont senti ont vu mon effet Vendeur de c'qui permet d'canaliser T'as vu le crime s'est fait banaliser Analyser il le faut, c'est cru, sinon il faut que tapprennes à viser Ici la folie est illimitée Silencieusement tu t'fais éliminer Finis tes envies de Kylie Minogue Wallaye tu penses plus aux préliminaires Khey c'est Chevaleret t'es prêt ma gueule On surveille les caisses de près Bien sûr que ça rentabilise des prêts Sinon on t'fait connaitre la force de Popeye Ici c'est la guerre pour la paix Sérieux m'oblige pas à pointer ta mère On est pas fan des mecs dans la merde Crapuleux tu nous vends la mèche J'ai la solution comme Que des punchlines comme le gros poto Jok Paire de , swag et m'pavane comme J-Lo Pas d'apéro, stop les mitos Tu veux mailler? Y'a pas de C'est cheum, c'est trop tard y'a pas de demi tour Tu veux sucer? Mets pas les chicos La street a picole, des bécanes des petites qui font plus les petites Des bêtises baptisées par des bites de négro dédicace à Pimousse, frère La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant Ça bicrave dur sur l'avenue, déjà vu Ça bicrave dur sur l'avenue, les keufs guettent les allés-venus Les cartes étudiantes n'font pas d'réductions au menu La dope s'consomme à emporter, pas d'chrome si t'es un inconnu On s'shoote à la beuh ils veulent shooter nos beuj' Ne m'parle pas d'eux, on est pas dans leur jeu On est seulement des mecs qui se soucient du buzz Les tass' montent au parlu un ze-dou dans la teuch' 22, 22, v'là les bleus, on s'disperse en moins de deux comme des J'viens perturber l'rap comme mes classes de la primaire au lycée M'installer comme Mouhamar à l'élysée Mz Music se propage dans ta ville telle une épidémie d'MST J'viens parfumer l'game, foutre ma merde Laisser mon emprunte comme aux WC Ouais, j'viens foutre ma merde comme aux WC J'te fais jouir en bandant mou, bébé c'est juste l'effet THC Après nous j'pense pas voir se relever ta relève On hausse le level, on les laisse à terre avec notre sperme sur les lèvres La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant</t>
+          <t>La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant Ça bicrave dur sur le boulevard, j'redémarre Ça bicrave dur sur le boulevard, en attendant les keufs dans mon plumard Pas l'temps d'aller faire les gosse-bo J'ai d'la came il me faut des loss-bo Tu veux qu'on t'arrange, pas d'blèmes, si tu nous la mets pour toi se sera l'hosto H.A.C.H.E-P, y'a du haschich à choper Sur la vie d'ma mère, y'a et les kissdé font chanter Sort ton joint d'shit, mets toi azeulai Pour les frères en taule et les autres en bracelets Oui ce soir froissons les Si l'poto vous a poucave massez le Paraît qu'depuis qu'je rap j'ai la côte et les surs des haineux ne font que m'harceler Mafé, poulet, coq On s'met dans l'rap et la drogue Tous les dix semaines, nouveau bigo ce-pu Joint de peu-fra qu'mes gavas calcinent Vie facile, y'a qu'le peura, les billets, les bitches, la bonne qui nous fascinent Fuck la lice-po, fuck la C'est grâce à l'argent sale qu'ma paire de nike air est toujours pe-pro La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant Salaam les frères, j'm'appelle Dehmo Le petit con là dans mafia zeutré J'fais pas crari j'en ai bien fait kiffer Celles qui m'ont senti ont vu mon effet Vendeur de c'qui permet d'canaliser T'as vu le crime s'est fait banaliser Analyser il le faut, c'est cru, sinon il faut que tapprennes à viser Ici la folie est illimitée Silencieusement tu t'fais éliminer Finis tes envies de Kylie Minogue Wallaye tu penses plus aux préliminaires Khey c'est Chevaleret t'es prêt ma gueule On surveille les caisses de près Bien sûr que ça rentabilise des prêts Sinon on t'fait connaitre la force de Popeye Ici c'est la guerre pour la paix Sérieux m'oblige pas à pointer ta mère On est pas fan des mecs dans la merde Crapuleux tu nous vends la mèche J'ai la solution comme Que des punchlines comme le gros poto Jok Paire de , swag et m'pavane comme J-Lo Pas d'apéro, stop les mitos Tu veux mailler? Y'a pas de C'est cheum, c'est trop tard y'a pas de demi tour Tu veux sucer? Mets pas les chicos La street a picole, des bécanes des petites qui font plus les petites Des bêtises baptisées par des bites de négro dédicace à Pimousse, frère La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant Ça bicrave dur sur l'avenue, déjà vu Ça bicrave dur sur l'avenue, les keufs guettent les allés-venus Les cartes étudiantes n'font pas d'réductions au menu La dope s'consomme à emporter, pas d'chrome si t'es un inconnu On s'shoote à la beuh ils veulent shooter nos beuj' Ne m'parle pas d'eux, on est pas dans leur jeu On est seulement des mecs qui se soucient du buzz Les tass' montent au parlu un ze-dou dans la teuch' 22, 22, v'là les bleus, on s'disperse en moins de deux comme des J'viens perturber l'rap comme mes classes de la primaire au lycée M'installer comme Mouhamar à l'élysée Mz Music se propage dans ta ville telle une épidémie d'MST J'viens parfumer l'game, foutre ma merde Laisser mon emprunte comme aux WC Ouais, j'viens foutre ma merde comme aux WC J'te fais jouir en bandant mou, bébé c'est juste l'effet THC Après nous j'pense pas voir se relever ta relève On hausse le level, on les laisse à terre avec notre sperme sur les lèvres La street, avec ou sans toi ça perdure Toi t'as cru savoir mais devant l'OPJ t'étais perdu Les balles diront qu'ya Dadis qui a la tête dure dans les affaires si vendre certaines sont hyper dures Alcool, grosse conne, mito, bédo, braquo A chaque loss-bo, grosse fiotte, Même sur un tapis d'prières les mecs pensent à leur seille-o Zéro, on goûtera tous à l'enfer, pour l'instant</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wesh les rappeurs bien ou quoi ? Moi je pète la forme, c'est quoi le boulot ? Tête de mort sur le t-shirt MZ Music remballe ton polo Ecoutez bande de rigolos je suis trop loin pour vous niveau flow Allez allez parlez ça nous touche pas on s'en gniagne fou temps qu'on fait kiffer les frelos Wesh la miss on te trouve canon, on veut juste baisser ton pantalon Eh sale conne fait pas la be-bom, n'oublie pas que t'as plus rien sans tes talons Bref on veut brasser, percer sans sucer, je sais qu'y a de la place On veut de la viande de grosses sseuf, toi prends les os chien de la casse Chope le Street CD, vas y met le son à fond dans le sse-cai Des banlieues en province, de sse-Sui en Belgique passant par la capitale et mon Zeutrei Fuck les poulets, un slogan que j'arrêterai jamais de crier Si j'échoue dans ce milieu de putain je crois que je ferai cuistot pour mieux me les griller Je viens dédicacer tous les frères qui soutiennent et les surs qui soutiennent Mes gars sûrs, mes gos sûrs, qui nous donnent la gnaque, les autres qui boycottent allez vous faire enculer Qu'est-ce que tu vas dire après ça ? Que je sais pas rapper, hin espèce de lope-sa Les gars on est dans les temps On avance tranquillement, je sais qu'on va casser des dents Met du son, y'aura du sang Toujours posé dans le hall, et rien que ça bi-bi-bi-bi... bicrave Les gars on est dans les temps Je sais qu'on va casser des dents Met du son, y'aura du sang You might also like Devant le bloc comme gras du bide dans Boyz N the Hood On bosse comme des boss pour ne pas être les boss de la loose Des negros nous jalousent, dites leurs qu'ils viennent tous Tous se faire fumer par des amateurs de drogues douces MZ click, Cheche Street le nom du dojo Trop de rappeurs saouls comme les racoleurs de Château d'eau Croise nous avec des petites beaucoup plus bonnes que la plus bonne de tes potos Les cuisses de ma 'tass pèsent 50 kilos sur chaque Jojo Jordan Hey Yo, j'ai juste peur de très haut Je risque une sentence plus lourde que celle d'un pointeur sous le préau Négro, je suis entre le mal et le bien comme un fléau Je brandis les armes pour du seille-o, donc je ne parle pas d'amour à la Ne-Yo Je parle pas d'amour à la Ne-Yo, je parle d'amour à la Rocco Sex Rap et Yayo MZ bouge en harmonie tel les Bone thugs Laisse les s'entre sucer si ces rappeurs kiffent grave les bonnes teubs Calcule pas ces bâtards, y a que si je me noie dans le sky qu'ils me diront cool ou quoi ? Ça fait cinq, six piges qu'on attend nos couilles en or Les choses se passent à fond, car trop de rage dans le corps Je me demande vraiment qui encule l'État, chargeur dans l'cul Quand il tousse encore Sur le terrain ça fait pas de sport, si y'a les bleus on sera tous en formes Nhar sheitan chez les gays, la tête dans le cul ce n'est pas une métaphore Si t'aimes bien ta fille apprends lui la salat Parce que nous on a disquetté trop de meufs bien converties en salopes Avant Fleury, tu sais pas tout ce qui germe dans nos te-tê Si nos yenclis savaient comment l'on faisait les crevards sur notre détail Ils verraient bien qu'il y a pépin, je suis un pirate du bitume pour le butin Donc qu'ils me cassent pas les couilles, je maille pas pour le claquer chez une putain Je trouve que c'est déroutant, de charbonner tout le temps Entre ma galère et ma poisse, mon gars ma chance est plus dedans Le grand méchant est mimi, c'est chez vous qu'il fait méchant T'as qu'à voler même ta grand-mère, mais chez t'es qu'un pigeon</t>
+          <t>Wesh les rappeurs bien ou quoi ? Moi je pète la forme, c'est quoi le boulot ? Tête de mort sur le t-shirt MZ Music remballe ton polo Ecoutez bande de rigolos je suis trop loin pour vous niveau flow Allez allez parlez ça nous touche pas on s'en gniagne fou temps qu'on fait kiffer les frelos Wesh la miss on te trouve canon, on veut juste baisser ton pantalon Eh sale conne fait pas la be-bom, n'oublie pas que t'as plus rien sans tes talons Bref on veut brasser, percer sans sucer, je sais qu'y a de la place On veut de la viande de grosses sseuf, toi prends les os chien de la casse Chope le Street CD, vas y met le son à fond dans le sse-cai Des banlieues en province, de sse-Sui en Belgique passant par la capitale et mon Zeutrei Fuck les poulets, un slogan que j'arrêterai jamais de crier Si j'échoue dans ce milieu de putain je crois que je ferai cuistot pour mieux me les griller Je viens dédicacer tous les frères qui soutiennent et les surs qui soutiennent Mes gars sûrs, mes gos sûrs, qui nous donnent la gnaque, les autres qui boycottent allez vous faire enculer Qu'est-ce que tu vas dire après ça ? Que je sais pas rapper, hin espèce de lope-sa Les gars on est dans les temps On avance tranquillement, je sais qu'on va casser des dents Met du son, y'aura du sang Toujours posé dans le hall, et rien que ça bi-bi-bi-bi... bicrave Les gars on est dans les temps Je sais qu'on va casser des dents Met du son, y'aura du sang Devant le bloc comme gras du bide dans Boyz N the Hood On bosse comme des boss pour ne pas être les boss de la loose Des negros nous jalousent, dites leurs qu'ils viennent tous Tous se faire fumer par des amateurs de drogues douces MZ click, Cheche Street le nom du dojo Trop de rappeurs saouls comme les racoleurs de Château d'eau Croise nous avec des petites beaucoup plus bonnes que la plus bonne de tes potos Les cuisses de ma 'tass pèsent 50 kilos sur chaque Jojo Jordan Hey Yo, j'ai juste peur de très haut Je risque une sentence plus lourde que celle d'un pointeur sous le préau Négro, je suis entre le mal et le bien comme un fléau Je brandis les armes pour du seille-o, donc je ne parle pas d'amour à la Ne-Yo Je parle pas d'amour à la Ne-Yo, je parle d'amour à la Rocco Sex Rap et Yayo MZ bouge en harmonie tel les Bone thugs Laisse les s'entre sucer si ces rappeurs kiffent grave les bonnes teubs Calcule pas ces bâtards, y a que si je me noie dans le sky qu'ils me diront cool ou quoi ? Ça fait cinq, six piges qu'on attend nos couilles en or Les choses se passent à fond, car trop de rage dans le corps Je me demande vraiment qui encule l'État, chargeur dans l'cul Quand il tousse encore Sur le terrain ça fait pas de sport, si y'a les bleus on sera tous en formes Nhar sheitan chez les gays, la tête dans le cul ce n'est pas une métaphore Si t'aimes bien ta fille apprends lui la salat Parce que nous on a disquetté trop de meufs bien converties en salopes Avant Fleury, tu sais pas tout ce qui germe dans nos te-tê Si nos yenclis savaient comment l'on faisait les crevards sur notre détail Ils verraient bien qu'il y a pépin, je suis un pirate du bitume pour le butin Donc qu'ils me cassent pas les couilles, je maille pas pour le claquer chez une putain Je trouve que c'est déroutant, de charbonner tout le temps Entre ma galère et ma poisse, mon gars ma chance est plus dedans Le grand méchant est mimi, c'est chez vous qu'il fait méchant T'as qu'à voler même ta grand-mère, mais chez t'es qu'un pigeon</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vous savez, chez nous il y a pas de fans. Qui aurait cru que vous seriez autant à nous accueillir, à nous donner envie d'évoluer, à nous suivre à travers les réseaux ? On se croise dans la rue, on se voit dans les concerts, on voit vos messages, ça nous booste à mort. Vous savez même pas, on vient du trou du cul de Paris nous. Après toutes ces années, les mouvements MZ s'agrandissent. C'est fou. Mais on est des bosseurs. On bosse pour nous, on bosse pour nos familles. On bosse pour vous. C'est de la musique, c'est ça qui nous a unis. Et quelque part, c'est une affaire de familleYou might also like</t>
+          <t>Vous savez, chez nous il y a pas de fans. Qui aurait cru que vous seriez autant à nous accueillir, à nous donner envie d'évoluer, à nous suivre à travers les réseaux ? On se croise dans la rue, on se voit dans les concerts, on voit vos messages, ça nous booste à mort. Vous savez même pas, on vient du trou du cul de Paris nous. Après toutes ces années, les mouvements MZ s'agrandissent. C'est fou. Mais on est des bosseurs. On bosse pour nous, on bosse pour nos familles. On bosse pour vous. C'est de la musique, c'est ça qui nous a unis. Et quelque part, c'est une affaire de famille</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ouais, j'ai des faux comptes et je sais tout c'que tu fais Au tél', tu dis qu'tu vas dormir et tu finis en soirée Avec tes potos que j'déteste, tes potos qui m'fanent T'es incapable de prendre ma défense quand ils parlent sur oi-m Mais tu vas retourner l'history comme à ton habitude C'est moi la parano et le problème c'est mon attitude Tu crois qu'sans toi, j'suis du-per et que j'ai peur d'la solitude C'est toi qui tire sur le bédo et moi qui prend de l'altitude Ouais, ouais J'savais pas qu'ton style de meuf c'était les sseuses-cra T'as bien caché ton jeu, j'ai kiffé quoi chez toi ? À 2.20 dans le GLE, j'fais la belle, j'me dis que j'mérite mieux Et tu rodes en bas de chez moi, ouais, tu rodes en bas de chez moi Allez, casse-toi de là, vas-y, casse-toi de là Et je crois qu't'as pas compris les bails, moi, j'ai plus envie d'te voir Allez, casse-toi de là, vas-y, casse-toi de là Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire, yeah You might also like Tu voulais ta libertad, t'es C.E.L.I.B, tu sauras qu'j'suis titulaire ou rien comme Karim B T'étais en période d'essai, t'as relâché les effort et t'as voulu me tester, t'es pris à ton propre piège Je t'avais dit qu'avec moi c'est une fois, faut pas se louper Te fatigue pas à rappeler, la ligne, elle est coupée Tu veux revenir après ce que t'as fait mais c'est quel toupet ? Tu fais l'millionnaire, on sait tous que c'est un loc' ton coupé T'es posé dans ton bend' et tu ne dors plus T'es posé devant le parc et tu ne comptes plus À moi, tu n'fais que penser, tu dis m'zapper mais ton comportement n'est pas censé Et tu rodes en bas de chez moi, ouais, tu rodes en bas de chez moi Allez, casse-toi de là, vas-y, casse-toi de là Et je crois qu't'as pas compris les bails, moi, j'ai plus envie d'te voir Allez, casse-toi de là, vas-y, casse-toi de là Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire, yeah Broyée dans un cauchemar, j'ai bu la tasse mais J'me console en me disant que tu fréquentes des tasse-pé Pour moi t'es plus personne, là, tu m'exaspères Arrête ton baratin, limite la casse, frère Broyée dans un cauchemar, j'ai bu la tasse mais J'me console en me disant que tu fréquentes des tasse-pé Pour moi t'es plus personne, là, tu m'exaspères Arrête ton baratin, limite la casse, frère Et tu rodes en bas de chez moi, ouais, tu rodes en bas de chez moi Allez, casse-toi de là, vas-y, casse-toi de là Et je crois qu't'as pas compris les bails, moi, j'ai plus envie d'te voir Allez, casse-toi de là, vas-y, casse-toi de là Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire, yeah</t>
+          <t>Ouais, j'ai des faux comptes et je sais tout c'que tu fais Au tél', tu dis qu'tu vas dormir et tu finis en soirée Avec tes potos que j'déteste, tes potos qui m'fanent T'es incapable de prendre ma défense quand ils parlent sur oi-m Mais tu vas retourner l'history comme à ton habitude C'est moi la parano et le problème c'est mon attitude Tu crois qu'sans toi, j'suis du-per et que j'ai peur d'la solitude C'est toi qui tire sur le bédo et moi qui prend de l'altitude Ouais, ouais J'savais pas qu'ton style de meuf c'était les sseuses-cra T'as bien caché ton jeu, j'ai kiffé quoi chez toi ? À 2.20 dans le GLE, j'fais la belle, j'me dis que j'mérite mieux Et tu rodes en bas de chez moi, ouais, tu rodes en bas de chez moi Allez, casse-toi de là, vas-y, casse-toi de là Et je crois qu't'as pas compris les bails, moi, j'ai plus envie d'te voir Allez, casse-toi de là, vas-y, casse-toi de là Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire, yeah Tu voulais ta libertad, t'es C.E.L.I.B, tu sauras qu'j'suis titulaire ou rien comme Karim B T'étais en période d'essai, t'as relâché les effort et t'as voulu me tester, t'es pris à ton propre piège Je t'avais dit qu'avec moi c'est une fois, faut pas se louper Te fatigue pas à rappeler, la ligne, elle est coupée Tu veux revenir après ce que t'as fait mais c'est quel toupet ? Tu fais l'millionnaire, on sait tous que c'est un loc' ton coupé T'es posé dans ton bend' et tu ne dors plus T'es posé devant le parc et tu ne comptes plus À moi, tu n'fais que penser, tu dis m'zapper mais ton comportement n'est pas censé Et tu rodes en bas de chez moi, ouais, tu rodes en bas de chez moi Allez, casse-toi de là, vas-y, casse-toi de là Et je crois qu't'as pas compris les bails, moi, j'ai plus envie d'te voir Allez, casse-toi de là, vas-y, casse-toi de là Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire, yeah Broyée dans un cauchemar, j'ai bu la tasse mais J'me console en me disant que tu fréquentes des tasse-pé Pour moi t'es plus personne, là, tu m'exaspères Arrête ton baratin, limite la casse, frère Broyée dans un cauchemar, j'ai bu la tasse mais J'me console en me disant que tu fréquentes des tasse-pé Pour moi t'es plus personne, là, tu m'exaspères Arrête ton baratin, limite la casse, frère Et tu rodes en bas de chez moi, ouais, tu rodes en bas de chez moi Allez, casse-toi de là, vas-y, casse-toi de là Et je crois qu't'as pas compris les bails, moi, j'ai plus envie d'te voir Allez, casse-toi de là, vas-y, casse-toi de là Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire Toi et moi c'est pas le même délire T'es pas comme les autres, toi t'es pire, yeah</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Y'a des choses que j'peux pas dire La vérité me force à te mentir Lié à vie pour le meilleur et le pire Je sais que tu souffres quand je dois partir Maman, ne regarde pas en bas Ne regarde pas en bas, je veux que tu sois fière de moi Donc ne regarde pas en bas Y'a des choses que j'peux pas dire La vérité me force à te mentir Une des menaces pour la société comme O-Dog Les baqueux veulent nous mettre au trou comme au golf J'suis dans le hall, j'suis sur Google Dans mon ghetto ou dans une teuch J'fonce vers la taule ou bien un linceul Vu que j'ai la gaule, ouvre-moi ta gueule J'aime les gros culs et les grosses hanches Les négresses, les beurettes et les Blanches Ce game est aussi vrai qu'une bande de trans Je vais même pas rentrer dans leur danse J'traîne où j'habite, j'peux te dire que je chie où je mange Dans ma rue, j'ai vu le diable avec une gueule d'ange Oh non, Maman, y'a des choses que j'peux pas dire La vérité me force à te mentir, en bas ça va de pire en pire Comment te dire qu'on a investi sur nous grâce à la dope Nous c'est la MZ, nous compare pas aux autres You might also like Y'a de ces blazes que je peux pas dire Que celles les poucaves peuvent contredire Y'a cette oseille qui pourrait t'offrir Mais y'a que les morts qui ne peuvent pas mentir Followez-moi quand c'est la paix, quand vient la guerre tes couilles ne veulent pas follow back Tu fais le nerveux, tu ne vaux pas grand chose comme la droite d'un gaucher ou ton père et ses blagues Vos redoutés de tess kiffent le Bois de Boubou La transac se fait mieux avec une... XXX Ça sniffe de la white dans les quartiers de bobos Dans nos ghettos ça se lache parle pas de bobos Pourquoi vos soi-disant sauveurs ignorent la Corée du Nord Pourquoi le continent le plus pauvre est celui qui contient le plus d'or Quand l'Homme pose des questions, ça mène toujours aux problèmes Quand l'Homme s'auto-questionne ça pousse toujours au progrès Qui est qui ? Tu sais même pas le minimum de ce qu'il se passe dans ma tête mec Qui contrôle la drogue ? Y'a des blazes que j'peux pas dire La vérité me force à mentir comme tous ces hommes politiques Des conflits montés, ils nous prennent pour des cons Wesh, mon continent ne fait que ralentir Mais où va l'argent du diamant ? Suis-je le seul à trouver qu'il y a un hic ? Y'a des choses qu'ils ne peuvent pas nous dire Pourquoi le mot misère rime avec Afrique Bref, élevé par la daronne, grosse absence du daron J'veux qu'elle soit fière de moi donc j'évite d'aller derrière les barreaux Y'a des choses que j'peux pas vous dire Comme comment je fais pour avoir ma pare de Kike Comme t'aurais pu me voir dans un sale état, demande au poto Yass fonce-dé sur Paname 1</t>
+          <t>Y'a des choses que j'peux pas dire La vérité me force à te mentir Lié à vie pour le meilleur et le pire Je sais que tu souffres quand je dois partir Maman, ne regarde pas en bas Ne regarde pas en bas, je veux que tu sois fière de moi Donc ne regarde pas en bas Y'a des choses que j'peux pas dire La vérité me force à te mentir Une des menaces pour la société comme O-Dog Les baqueux veulent nous mettre au trou comme au golf J'suis dans le hall, j'suis sur Google Dans mon ghetto ou dans une teuch J'fonce vers la taule ou bien un linceul Vu que j'ai la gaule, ouvre-moi ta gueule J'aime les gros culs et les grosses hanches Les négresses, les beurettes et les Blanches Ce game est aussi vrai qu'une bande de trans Je vais même pas rentrer dans leur danse J'traîne où j'habite, j'peux te dire que je chie où je mange Dans ma rue, j'ai vu le diable avec une gueule d'ange Oh non, Maman, y'a des choses que j'peux pas dire La vérité me force à te mentir, en bas ça va de pire en pire Comment te dire qu'on a investi sur nous grâce à la dope Nous c'est la MZ, nous compare pas aux autres Y'a de ces blazes que je peux pas dire Que celles les poucaves peuvent contredire Y'a cette oseille qui pourrait t'offrir Mais y'a que les morts qui ne peuvent pas mentir Followez-moi quand c'est la paix, quand vient la guerre tes couilles ne veulent pas follow back Tu fais le nerveux, tu ne vaux pas grand chose comme la droite d'un gaucher ou ton père et ses blagues Vos redoutés de tess kiffent le Bois de Boubou La transac se fait mieux avec une... XXX Ça sniffe de la white dans les quartiers de bobos Dans nos ghettos ça se lache parle pas de bobos Pourquoi vos soi-disant sauveurs ignorent la Corée du Nord Pourquoi le continent le plus pauvre est celui qui contient le plus d'or Quand l'Homme pose des questions, ça mène toujours aux problèmes Quand l'Homme s'auto-questionne ça pousse toujours au progrès Qui est qui ? Tu sais même pas le minimum de ce qu'il se passe dans ma tête mec Qui contrôle la drogue ? Y'a des blazes que j'peux pas dire La vérité me force à mentir comme tous ces hommes politiques Des conflits montés, ils nous prennent pour des cons Wesh, mon continent ne fait que ralentir Mais où va l'argent du diamant ? Suis-je le seul à trouver qu'il y a un hic ? Y'a des choses qu'ils ne peuvent pas nous dire Pourquoi le mot misère rime avec Afrique Bref, élevé par la daronne, grosse absence du daron J'veux qu'elle soit fière de moi donc j'évite d'aller derrière les barreaux Y'a des choses que j'peux pas vous dire Comme comment je fais pour avoir ma pare de Kike Comme t'aurais pu me voir dans un sale état, demande au poto Yass fonce-dé sur Paname 1</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ecoutez, bande d'enfoirés de négros, c'est Marlo qui vous parle, bande de putains de négros. Vous êtes là, vos seules discussions c'est parler des autres, les envier. Hé ferme ta gueule, va faire du papier, va faire du chiffre, sale bon à rien va. T'es là t'enquêtes sur la vie de tout le monde. Tu veux savoir qui fait quoi, qui vend quoi, qui taffe dans quoi. Mais arrache-toi, niagga, fais ce que t'as à faire ! J'ai vu des gens poser des mathus en boîte ils dorment sur des lits sans couverture. Limite à 5 dans le même lit. C'est Marlo, pétasse va ! Je les vois en hess d'argent On est pas de blindés Faut le minimum, ta vie nique le contingent Fais ce que tu as à faire Gères le business Moi et l'oseille on est marié ,restes célibataire Je n'aime pas les clochards Oh non je n'aime pas les clochards, les gratteurs, les gratteuses, les pigeons Négros! Fermes tes fesses et va au bon-char D-E-H-M-O bébé Les femmes aiment les hommes qui ont du bénef Belleck poto restes poli ! J'suis pas ton père j'te balaye XXX Deux,trois,quatre refrés, je sais qu'on est frais Viseur de billets, tireur d'élite Renoi t'es pas prêt, quand tu portes du fake et que tu t'la pète, mauvais délire Doucement miss tu ne vaux qu'l'Etaphotel Petit à petit les petites ne veulent que de l'oseille Eenie, Miney, Mo maintenant ça finit dans les mollets D-E-H-M-O bébé Accompagné de gros cavus ça m'plait Pélo si les chtars sont chauds met boulette Fais du papier sinon va t'faire piner You might also like Fais ton papier niaga, cesse de nous épier Fraies toi un chemin dans ce business sans t'éparpiller Pas d'taff bien fais ne finissant jamais par payer Boose ou crève non habillé sur la chaussée, par la défaite épilée Espérons que la zik paye, que j'dise adios au plan bourbier Jusqu'à présent y'a que quand l'argent paye qu'j'réussissais à flairer l'bon billet Crois pas que je m'en plaigne, me retrouvant dans mon propre guépier Beaucoup d'mon savoir s'imprègne de mes erreurs commises à la conquête de c'papier Donc il me faut les mains pleines, fuck les fouilles vides et l'envie au fonctionnement similaire aux feux rouges de ma ville Qui comprennent qu'il y a du papier à se faire, on s'invite tah la bibi, de faire affaire je fus toujours ravi Papier, papier, papier, papier Papier, papier, papier, papier Papier, papier, papier, papier Je les vois en hess d'argent Papier, papier, papier, papier Je les vois en hess d'argent Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Papier, papier, papier, papier Papier, papier, papier, papier Arrêtez de m'envier Allez plutôt faire des billets On a fait rentrer tous les crois moi qu'on a plus le temps de dégoupiller Un maximum de papier, dans la foulée Haineux, on sait qu'tu banderas comme un taureau si tu vois mon équipe couler J'suis dans le block, ma gow passe après depuis qu'j'suis tombé love des lovés On bibi ce que l'on veut où l'on veut et on saute par la fenêtre si les porcs veulent nous lever Pépère, sur le ter-ter Pour les billets de couleur on est déter Posé à la avec mes niagas on veut cette vue sur la mer Et toutes ces bitchs, j'en ai rien à foutre, elle passe après Tous ces billets mauves, si elle se barre, j'm'en bats les couilles, j'en baise une autre Et j'en place une, pour tous mes frelots, qui sans sucer, font rentrer des loves Si tu fais pas d'papiers, j'm'en bats les couilles, t'es pas des notres Faites du papier, arrêtez d'envier MZ on est plus fort qu'les meilleurs rappeurs d'ton quartier Négro stop les, avant où t'étais Vérifies dans quoi tu te lances parce que tu n'auras pas pieds Le but est de palper, faire bouger les tarpés Si tu veux nous voir on est posé chaque soir fucked up sur la rue Patay Davidson a.k.a Suge Knight Pololo a.k.a 2Pac On arrive dans l'game à la Death Row Jures sur leur face comme dans un bukkake Elle m'attrape par la nuque, me plaque contre le mur V'là que j'deviens tout dur Elle baisse mon fut, me suce comme une hanw J'vais la fumer comme ma verdure J'veux mourir pour mes négros Comme J'peux tuer pour mes négros Comme et Marlo Notre caravane passe, les chiwawas aboient Rien qu'ils nous envient au lieu de faire de la mula Pour ça qu'pour eux j'ai moins d'respect qu'une pute qui taffe au Bois Papier, papier, papier, papier Papier, papier, papier, papier Papier, papier, papier, papier Je les vois en hess d'argent Papier, papier, papier, papier Je les vois en hess d'argent Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Papier, papier, papier, papier Papier, papier, papier, papier</t>
+          <t>Ecoutez, bande d'enfoirés de négros, c'est Marlo qui vous parle, bande de putains de négros. Vous êtes là, vos seules discussions c'est parler des autres, les envier. Hé ferme ta gueule, va faire du papier, va faire du chiffre, sale bon à rien va. T'es là t'enquêtes sur la vie de tout le monde. Tu veux savoir qui fait quoi, qui vend quoi, qui taffe dans quoi. Mais arrache-toi, niagga, fais ce que t'as à faire ! J'ai vu des gens poser des mathus en boîte ils dorment sur des lits sans couverture. Limite à 5 dans le même lit. C'est Marlo, pétasse va ! Je les vois en hess d'argent On est pas de blindés Faut le minimum, ta vie nique le contingent Fais ce que tu as à faire Gères le business Moi et l'oseille on est marié ,restes célibataire Je n'aime pas les clochards Oh non je n'aime pas les clochards, les gratteurs, les gratteuses, les pigeons Négros! Fermes tes fesses et va au bon-char D-E-H-M-O bébé Les femmes aiment les hommes qui ont du bénef Belleck poto restes poli ! J'suis pas ton père j'te balaye XXX Deux,trois,quatre refrés, je sais qu'on est frais Viseur de billets, tireur d'élite Renoi t'es pas prêt, quand tu portes du fake et que tu t'la pète, mauvais délire Doucement miss tu ne vaux qu'l'Etaphotel Petit à petit les petites ne veulent que de l'oseille Eenie, Miney, Mo maintenant ça finit dans les mollets D-E-H-M-O bébé Accompagné de gros cavus ça m'plait Pélo si les chtars sont chauds met boulette Fais du papier sinon va t'faire piner Fais ton papier niaga, cesse de nous épier Fraies toi un chemin dans ce business sans t'éparpiller Pas d'taff bien fais ne finissant jamais par payer Boose ou crève non habillé sur la chaussée, par la défaite épilée Espérons que la zik paye, que j'dise adios au plan bourbier Jusqu'à présent y'a que quand l'argent paye qu'j'réussissais à flairer l'bon billet Crois pas que je m'en plaigne, me retrouvant dans mon propre guépier Beaucoup d'mon savoir s'imprègne de mes erreurs commises à la conquête de c'papier Donc il me faut les mains pleines, fuck les fouilles vides et l'envie au fonctionnement similaire aux feux rouges de ma ville Qui comprennent qu'il y a du papier à se faire, on s'invite tah la bibi, de faire affaire je fus toujours ravi Papier, papier, papier, papier Papier, papier, papier, papier Papier, papier, papier, papier Je les vois en hess d'argent Papier, papier, papier, papier Je les vois en hess d'argent Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Papier, papier, papier, papier Papier, papier, papier, papier Arrêtez de m'envier Allez plutôt faire des billets On a fait rentrer tous les crois moi qu'on a plus le temps de dégoupiller Un maximum de papier, dans la foulée Haineux, on sait qu'tu banderas comme un taureau si tu vois mon équipe couler J'suis dans le block, ma gow passe après depuis qu'j'suis tombé love des lovés On bibi ce que l'on veut où l'on veut et on saute par la fenêtre si les porcs veulent nous lever Pépère, sur le ter-ter Pour les billets de couleur on est déter Posé à la avec mes niagas on veut cette vue sur la mer Et toutes ces bitchs, j'en ai rien à foutre, elle passe après Tous ces billets mauves, si elle se barre, j'm'en bats les couilles, j'en baise une autre Et j'en place une, pour tous mes frelots, qui sans sucer, font rentrer des loves Si tu fais pas d'papiers, j'm'en bats les couilles, t'es pas des notres Faites du papier, arrêtez d'envier MZ on est plus fort qu'les meilleurs rappeurs d'ton quartier Négro stop les, avant où t'étais Vérifies dans quoi tu te lances parce que tu n'auras pas pieds Le but est de palper, faire bouger les tarpés Si tu veux nous voir on est posé chaque soir fucked up sur la rue Patay Davidson a.k.a Suge Knight Pololo a.k.a 2Pac On arrive dans l'game à la Death Row Jures sur leur face comme dans un bukkake Elle m'attrape par la nuque, me plaque contre le mur V'là que j'deviens tout dur Elle baisse mon fut, me suce comme une hanw J'vais la fumer comme ma verdure J'veux mourir pour mes négros Comme J'peux tuer pour mes négros Comme et Marlo Notre caravane passe, les chiwawas aboient Rien qu'ils nous envient au lieu de faire de la mula Pour ça qu'pour eux j'ai moins d'respect qu'une pute qui taffe au Bois Papier, papier, papier, papier Papier, papier, papier, papier Papier, papier, papier, papier Je les vois en hess d'argent Papier, papier, papier, papier Je les vois en hess d'argent Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Faites du papier, arrêtez d'envier Papier, papier, papier, papier Papier, papier, papier, papier</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Catchin Feelins Catchin Feelins Oh Catchin Feelins Catchin Feelins Oh, Oh Catchin Feelins Catchin Feelins Oh Catchin Feelins Catchin Feelins Oh, Oh And I say No babe Aint no joce babe Bobe Say I suck Were just angry Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say No babe Aint no joce babe Bobe Say I suck Were just angry Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say You might also like Pressure Pleasure Whether Weather When it rains, it pours Its all fair in love and war Acrimony for matrimony Rather sip Rosé with all my homies If its love there, struggling to show me How long can I go being so lowey Fate fights faith You see blank I dont blink I need you You cant think Names Dante Alighieri Well, hello Beatrice Glorious lady of my mind Queen of virtue waiting My salvation And I say No babe No babe Aint no joce babe Aint no joce Bobe Say I suck Were just angry Were just angry babe, angry babe Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say No babe la-da Aint no joce babe la-da-de-da Bobe Say I suck Were just angry Yeah Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say Hey, you look familiar Ive seen ya in the mirror Ive been in your liver Pediatric and poison got mixed up Well forget that Tell me whats ya name Wait, dont tell me K? Catchin Feelins See, I already know But I swore I swore we met before Oh, you know Beatrice Yall besties? Why it always seem like God testin me son? Cant let these two get the best of me Plus, this one seems more comforting I mean who could blame me For settlin for less I want summer, not somber Even though Beatrice could love me longer She gone now And in the meantime I need someone to love me harder And I say No babe No babe Aint no joce babe No Bobe Say I suck Were just angry Dont get it confused babe You the truth babe Bob for the apple For the apple An acquired taste And I say No babe No babe Aint no joce babe No joce babe Bobe Say I suck Were just angry Were just angry babe, angry babe Dont get it confused babe You the truth babe Yeah Bob for the apple An acquired taste Oh And I say I cant choose And know I wont Lifes fine Live in the moment Risks and surprise Car crash on Mulholland Drive Its all one big dream Or so it seems Im on Juice Wrld livin my lucid dream Abhaya Mudra</t>
+          <t>Catchin Feelins Catchin Feelins Oh Catchin Feelins Catchin Feelins Oh, Oh Catchin Feelins Catchin Feelins Oh Catchin Feelins Catchin Feelins Oh, Oh And I say No babe Aint no joce babe Bobe Say I suck Were just angry Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say No babe Aint no joce babe Bobe Say I suck Were just angry Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say Pressure Pleasure Whether Weather When it rains, it pours Its all fair in love and war Acrimony for matrimony Rather sip Rosé with all my homies If its love there, struggling to show me How long can I go being so lowey Fate fights faith You see blank I dont blink I need you You cant think Names Dante Alighieri Well, hello Beatrice Glorious lady of my mind Queen of virtue waiting My salvation And I say No babe No babe Aint no joce babe Aint no joce Bobe Say I suck Were just angry Were just angry babe, angry babe Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say No babe la-da Aint no joce babe la-da-de-da Bobe Say I suck Were just angry Yeah Dont get it confused babe You the truth babe Bob for the apple An acquired taste And I say Hey, you look familiar Ive seen ya in the mirror Ive been in your liver Pediatric and poison got mixed up Well forget that Tell me whats ya name Wait, dont tell me K? Catchin Feelins See, I already know But I swore I swore we met before Oh, you know Beatrice Yall besties? Why it always seem like God testin me son? Cant let these two get the best of me Plus, this one seems more comforting I mean who could blame me For settlin for less I want summer, not somber Even though Beatrice could love me longer She gone now And in the meantime I need someone to love me harder And I say No babe No babe Aint no joce babe No Bobe Say I suck Were just angry Dont get it confused babe You the truth babe Bob for the apple For the apple An acquired taste And I say No babe No babe Aint no joce babe No joce babe Bobe Say I suck Were just angry Were just angry babe, angry babe Dont get it confused babe You the truth babe Yeah Bob for the apple An acquired taste Oh And I say I cant choose And know I wont Lifes fine Live in the moment Risks and surprise Car crash on Mulholland Drive Its all one big dream Or so it seems Im on Juice Wrld livin my lucid dream Abhaya Mudra</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Back to the future Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Trop bon, trop con, trop vrai Nous, on dira pas c'qu'on a pas fait Ouais, on est cramés, seul Dieu pourra nous pardonner Wesh le gang, on dit quoi ? Pas d'feinte, grosse fra-a-appe Ouais, ouais, ouais, que du sale C'est Don Lazer feat le Young Guap Des frères aux assises, j'en ai par centaines Mais ils restent debout et ils gardent la pêche Nous, on vend la mort et on fume la fraise Toi, comme un con, t'écoutes la presse À t'entendre parler, ouais, t'encules tout l'monde Tu fais croire aux p'tits que tu gères les comptes Chez nous, on t'connaît, t'as pas un rond et tu fais des chromes oh my God Moi, j'suis en vie tant qu'mes frères prient pour moi Toi, t'as trahi, tu veux qu'on meurt pour toi You might also like Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Nos curs sont congelés, non, on n'a pas d'amour Donc, quand y a embrouille, tu sais très bien qu'on parle pas Le flow est méga-méga dingue, la frappe est dans la tour T'as r'connu la 2MZ, Moha, Lazer et l'Young Guap Et j'ai perdu mon temps, souvent en manque d'argent Tu m'vois en vrai ou à la télé, j'm'en bats les couilles Conseil d'ami joue pas le fêlé, t'encaisseras pas les douilles Devant la douane ou en GAV, le pilon dans les fouilles À ce qu'il paraît, l'pétard est chargé mais, bon, t'as pas les couilles J'fais un maximum de biff pour investir La vie est dure, elle est cruelle, elle nous fait souffrir Ouais, j'ai cassé l'sablier, fumé l'douanier Et tu t'feras fusiller par tes alliés Seul Dieu peut m'protéger oh my God On vend des kilos, t'en fais des tonnes flow méga dingue Si tu nous veux, augmente la somme bah ouais, bah ouais Moha, j'ai l'flow méga dingue oh, oh Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue3</t>
+          <t>Back to the future Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Trop bon, trop con, trop vrai Nous, on dira pas c'qu'on a pas fait Ouais, on est cramés, seul Dieu pourra nous pardonner Wesh le gang, on dit quoi ? Pas d'feinte, grosse fra-a-appe Ouais, ouais, ouais, que du sale C'est Don Lazer feat le Young Guap Des frères aux assises, j'en ai par centaines Mais ils restent debout et ils gardent la pêche Nous, on vend la mort et on fume la fraise Toi, comme un con, t'écoutes la presse À t'entendre parler, ouais, t'encules tout l'monde Tu fais croire aux p'tits que tu gères les comptes Chez nous, on t'connaît, t'as pas un rond et tu fais des chromes oh my God Moi, j'suis en vie tant qu'mes frères prient pour moi Toi, t'as trahi, tu veux qu'on meurt pour toi Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Nos curs sont congelés, non, on n'a pas d'amour Donc, quand y a embrouille, tu sais très bien qu'on parle pas Le flow est méga-méga dingue, la frappe est dans la tour T'as r'connu la 2MZ, Moha, Lazer et l'Young Guap Et j'ai perdu mon temps, souvent en manque d'argent Tu m'vois en vrai ou à la télé, j'm'en bats les couilles Conseil d'ami joue pas le fêlé, t'encaisseras pas les douilles Devant la douane ou en GAV, le pilon dans les fouilles À ce qu'il paraît, l'pétard est chargé mais, bon, t'as pas les couilles J'fais un maximum de biff pour investir La vie est dure, elle est cruelle, elle nous fait souffrir Ouais, j'ai cassé l'sablier, fumé l'douanier Et tu t'feras fusiller par tes alliés Seul Dieu peut m'protéger oh my God On vend des kilos, t'en fais des tonnes flow méga dingue Si tu nous veux, augmente la somme bah ouais, bah ouais Moha, j'ai l'flow méga dingue oh, oh Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue Lazer Guap, ouh, oh flow méga dingue Moha Guap, ouh, oh flow méga dingue Z double O flow méga dingue Z double O flow méga dingue3</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MJe suppose que pour l'instant tu te sens un peu comme Alice, tombée dans le terrier du lapin blanc N On pourrait dire ça M Je le lis dans ton regard tu as le regard d'un homme prêt a croire tout ce qu'il voit, parce qu'il s'attend à s'éveiller à tout moment...Et paradoxalement, ce n'est pas tout à fait faux Tminit 3alam makayfixik ta7d b3inih , makaytnkhmouch nas f zna9i Koulchi daiha f so9 jwah , mbli bm7ab9o w lihom sa9i Fhad lblad mawatna makayjihomch lbaby blues Makayn gha wlad w lou7 lchari3 nfakh lba9l gha blouz Fhad lblad bghawk tchfar w tzra3 zri3t l9nab Wakha koulchi kayhdar bdin dmagh rah mjenab Fhad lblad chabab mwadar f 3alam iftiradi 3aych f string sharapova galig 9adi 3lik gharadi Koulchi khoti baghi lferrari f lbleu ciel That's what i need , need for speed fl phone Je m'en fou rkabt fga3 l7did Nas 7yatou dayza n3as , nas lakhr candy crush James din wla alaedin lman ghaychbah Fhad lblad bnadm mwdar wakha 3ando GPS Safi surffer 3la l'vague d lbuzz w chri bayn w TPS Mr7ba bikom kamlin f 9lban lfista social club , koulchi louch 7it bnadm khnaz blkdoub wkhaso bain bouche Lf9ih .. Lf9ih likantsnaw barakto dkhal ljam3 bl7ida2 Ach ktsnaw man chromosome matwrch gha fl ifta2 7it 7na lifina l3ib b9ina kan3tiw l césar ga3 dakchi libgha césar Nahdra haz lmanta w l7af , w jar 3lina lizar Larriviste 3al 3ayn kif dima mkhraj lawa2i7 sara Lcravatte jato zaz waw , man bissara lcarbonnara Sakn f wa7d darb makywslich livreur d Pizza Darb gitone f dar laman saka safra 7it mwalfin tandiro hashtag bjanwi f dla7 Yo3azo lmar2 aw yohan m3a 3 sba7 f lmla7 Kayn rjal w kayn les chiens toute la vie dirih khatm bin idik Etrangleur fl3on9 testostérone bin rjlik Mwakla rajl timbland w dessert talamiso Hadi blad l3ragat machi bisso na bisso Frach lmchati wl9foula , darb ldoun 7yad tab3a Blad ljadawil w ljahl ri7t l9tran raha nab3a Khdam , jma3 sarf , jib ldar hello kitty Mardi lwalidin , l ' oum tngar hal3ar lamagoliya chkoun had khaytiy Mounadila féministe , activiste 7ou9o9 linsan Radma philipiniya fdar blkourfi na9sa i7ssan Katchrat f jloud nas bagha dir hiya lifting Charya lwldha dbaba 3la drawch kaydrab f drifting 7bibi , ilove you , money money baghya wa7d L9ito ljomhour 7mar 3in char ghakatla7d Nti fennana moujtahida haz mic wla sextoy Makrhtch nchofk f chi oughniya maghribiya ykon katbha 3chiri tolstoy Ach jab kenza f douar l monica bellucci Ach jab wald l7ouat l John Petrucci L3a9a , hiya nitro dlbachariya lkhdar dyal dollar kay3mi lbassira w niya Bnadmm f majal lfan baghi ydir blasa f l7emmam Baghi ymarki territoire b stoula sayf bnou tammam 7it l fenn dbladi , Kaybi3o bih saboun Kaybi3o bih l7archa Kaybi3o bih tonne w fga3 les spotes ri7t lfarcha Kayn li raj3 bikhfayn john marie weston Kayn li dakhl ltzendi9 wakha dimplomato man Princeton Makatswrch m3ana danya mabghatch dir m3ana selfie Makatbuzzich m3a drawch w li rdkhato rah kaynfi Jani syndrome d stockholm f had l3alam m3a khouti W Siisi ga3ma ra7 , ljamahir rou7i mouti Ma3r tfham klami kayjik katakana huricanna Moshi moshi hadi ta9afa HAHAHA.. Inspiration jatha ménopause bagha lmoughadara taw3iya Ghi tab3a safi lchi blad fiha l7a9 w niya Mni kan7as brassi skhan safi tkab mno l'magma Zar3 mzikt l'morphine f dam Anchid lMehdi 7akma You might also like W3aychin 3icha mahboula Wkharjin 3la 9anon doula Doustouri l curva .... Maymerdni maghribi mayt7atwen 3liya Doc Malade Ga3 Li sawto Metlo9 F Radio Ghir 3laman newsal lGhrad L7achwa tal3at Grad Hablat nas o Bratt Mrad 3arate 3Bad 9arate ch7al kharb9at bLad Stahlkto Chacha o Zero Oscar Ti Tzad Ba3da Lfen 3ad dirolo Sabe3 nCher Zarbiya OJibo L'fanfare Makhzni O Bolici Dahchro li La3bo F sa7a Bureau o Gendarme - Makandiroch Lharage Kandiro Skate F la salle Bach Kolchi Yesma3 Lghadab 7ta tJem3o F 9isem 1 3ad Njibo LOstad Matihemch L3adad Fo9 mamate cocu 3ref gigolo Tzad Sref decore o zwa9 Chri temdagh kri Tbate Chahi sbe3 F 9richlat F bladi t3ich nokate Drabto b le fou Chikh mat 3ali Tesbagh Gheni Tban L7chich wasiLa Lghaya Sobate 7Ta t9reb Tfout 3ad ghatkoun fennan Men Daba Ghanbda ne7seb ch7al Men Tfo tangol fel 3am Berad Meskouta gol khedam Men 11 l 3 Pause DéJ Li 9arak Ra 9arana Mam7taj 7ta chmata f Cortége Manta chibl ma bladek assad Dnoub titgheslo b 5 DH sewlo moul l7emmam Lf9ih 3ando comptable Lm9adem men 84 3ando portable Ana ndwi onta goul law 3lem Ana tenkhwi w dmagh ti chte7 mechta w gdem Kal3ada L'morphine Ghena O ndem Hadchi Li Jadet Bih L9ari7a Lmokhayila Kareha lhadra Kariha Mohimtek Tel9a RRi7a La Montami même pas Tali3a Les neurones Lobna Sari3a Sari3 Lbadiha F'Tarikh badiha Lblad radatna déprime dlam inti7ar dalida kunti 7ar Fariha - Fintidar DariBa BLadi katvoléna kaTle9 morena Chate7li bire TAM TAM o 9ar9eB Li lmagana Toute chose commence par un choix Non , Le choix n'est rien qu'une illusion crée pour séparer ceux qui ont le pouvoir de ceux qui ne l'ont pas L'intellect chi en ligne chi ba3 lmatch jamla L progrès kiban gha f sif w fnidal zemla Ch7al mn morchid chaf l7em hbel wla zombie 3adi sex rah besoin 9bal maykon envie Bnadem mt3sab bzayed w howa gha pion Obsedé bl gucci w ralph 3bid l consomation Mkin la lamba la mnjl la mtr9a Kolchi 3lina la3bha kitsna ysigni saf9a Ta9aft tgayd flbira 3dna mdgouga Mayb9a m3a jm3a gha l7awli w lbouga Calma nidal l clavier kaysali blghwat Machi flmaydan flfrach mora ridowat 3abd lkrim kant 3ando khmasia w morah tarika Khalina mn hashtag Instagram w Retrica Rap flblad ba9i mabdach w rwapa 3tazlo Flfen kolchi ki 7leb nachfo lmo bzazlo Noukhba fl comptoire kat nader fl ibda3 Ta9afa chadouha mkabit darouha tri9 l ichba3 Tinspira mn Bilal wakha ychofk kolchi 7a9ir Ta7ed ma fidél castro bkaro ba3 laffaire Zaman rijal ghir kdbat abril 3ndak doukh Histoire tkhtazlat f sequence d driss roukh Blast la matiere grise 3ndna lmani Nsa l7el maghayjibo la l7ya la 3ilmani Cha3b la sauce swirti ytoub ghi 9ta3 lyas 3lamn ghatsacrifi , ta9wadit bla 9yas Sm3o lmatch ghaytba3 kolchi wla arbitre L'exception gha f tkharbi9 w akbar omelette Thez lmich3al ykhaliwk hors jeu mwre9 Brodcan w matraque virage kolo kitfre9 Parole parole rasmalna loubia 9awm lhdour lkhawia m3a pratique phobia Din w dounia lbkhour wl ma7ia Tfhem tsata nsa lahoma lmsawiaa L9a chi logique w dir rapport bin stora Machi feat d les rappeurs hadi agora Mal7ama del ketba, illégal ki chi fddan dl3chba Jaimerai libérer ton esprit, Neo, mais je ne peux que te montrer la porte, cest à toi quil appartient de la franchir Dmou3 rrobini ga3ma fihoume ghir l'calcaire Koulchi provisoire l'tsunami wejed chambrer L'watania mebyou3a fl marché noir Dayra 7ejra me3doda suppositoire Mabadi2 foug firach el moute mkofra F'dlame taha hssine baghi ytiri l'kofra Lmarde ou ddwa tkhelleto osmose W nta tsouwel wach ghaydouz lik lodo fmaison close Jouj bolate ou ferdeg Nsa lwa9i3 kay7erdek Merhba bik hada zmane fota skhouna w derdeg L3ay9 7adi lfray9 l'chahwa d kerchou mtebbe3 W'flouss le7rame katzid fjou3 ga3ma katchebbe3 Chkoune 3ref dnoub nass sawya che7al Fzmane kayjib khoubza 7ram s'hel mene deghma 7lale Mou7al ghatel9a jwab wakha te3ya mate7fer 7ite lkalakh bine l3ilm ou rassou mrebbi dfer 3la jenb ra7a baghi teb9a ghir merta7 Bel7a9 chkoune li f l khssara lagui rba7 Cagoulé b mika ke7la koulchi 3ami Wmaghatbane lihoume l9wada 7ta ytmezzgou lkhwami Matenssach ila jyabek telfouk Belli nhar ghatmoute machi f papier cadeau ghayghelfouk W'f3ayele li 7akmine sso9 la tajouz Mafihoume ti9a ki lyed limna d'Jamal Debbouz 3tihoume l'benj amma lwa3y demoda 39oule 3amera w khawia b7al chi roda Maghatsalich l'quota Wakha l'mic ytsota Wakha f lmosi9a 7etta mene skate nota Haut parleur dyal Zelzal hada 3elli Khelliha Bisso Na Bisso wfhem belli Te9der tmoute me9toule ila lgiti dwa l'Sida Bel7a9 mou7al ghaymoutou afkar coluche b kssida Li ssghir kay7lem ybraki dar sseka Wga3 ter9ane zen9a kateddi lel7abss machi l'makka Mateb9ach 7adi lli fate l'bare7 la ya3oud W 7lima dyal tighaline kat7eb al sa3oud Jme3 jjehd 3te9 soulaltek illico 9ette3 7bale l'karakiz souweb biha tricot Nsa le9wada lli fl'pissri baghi tnessi biha Wakha zher sseddou 3lih f 9er3a w gelssouk 3liha W ghan3awed ngouleha wakha gelt'ha bmlayen 9ra koulchi bach tefhem lmolekhass ga3ma kayne 9ra koulchi bach tefhem khelli dmaghek Alicanto Machi rkhess mene ferchakha f jib lplanto Kanenta9 w mdade el 7a9 fezzegte bih ponji Ma7ed malak lmoute a 3chiri menni chade congé Ghir fondi 7ite sara7a maghaykerrmouhach Ou fekker ma7edehoume ba9i ma7errmouhach</t>
+          <t>MJe suppose que pour l'instant tu te sens un peu comme Alice, tombée dans le terrier du lapin blanc N On pourrait dire ça M Je le lis dans ton regard tu as le regard d'un homme prêt a croire tout ce qu'il voit, parce qu'il s'attend à s'éveiller à tout moment...Et paradoxalement, ce n'est pas tout à fait faux Tminit 3alam makayfixik ta7d b3inih , makaytnkhmouch nas f zna9i Koulchi daiha f so9 jwah , mbli bm7ab9o w lihom sa9i Fhad lblad mawatna makayjihomch lbaby blues Makayn gha wlad w lou7 lchari3 nfakh lba9l gha blouz Fhad lblad bghawk tchfar w tzra3 zri3t l9nab Wakha koulchi kayhdar bdin dmagh rah mjenab Fhad lblad chabab mwadar f 3alam iftiradi 3aych f string sharapova galig 9adi 3lik gharadi Koulchi khoti baghi lferrari f lbleu ciel That's what i need , need for speed fl phone Je m'en fou rkabt fga3 l7did Nas 7yatou dayza n3as , nas lakhr candy crush James din wla alaedin lman ghaychbah Fhad lblad bnadm mwdar wakha 3ando GPS Safi surffer 3la l'vague d lbuzz w chri bayn w TPS Mr7ba bikom kamlin f 9lban lfista social club , koulchi louch 7it bnadm khnaz blkdoub wkhaso bain bouche Lf9ih .. Lf9ih likantsnaw barakto dkhal ljam3 bl7ida2 Ach ktsnaw man chromosome matwrch gha fl ifta2 7it 7na lifina l3ib b9ina kan3tiw l césar ga3 dakchi libgha césar Nahdra haz lmanta w l7af , w jar 3lina lizar Larriviste 3al 3ayn kif dima mkhraj lawa2i7 sara Lcravatte jato zaz waw , man bissara lcarbonnara Sakn f wa7d darb makywslich livreur d Pizza Darb gitone f dar laman saka safra 7it mwalfin tandiro hashtag bjanwi f dla7 Yo3azo lmar2 aw yohan m3a 3 sba7 f lmla7 Kayn rjal w kayn les chiens toute la vie dirih khatm bin idik Etrangleur fl3on9 testostérone bin rjlik Mwakla rajl timbland w dessert talamiso Hadi blad l3ragat machi bisso na bisso Frach lmchati wl9foula , darb ldoun 7yad tab3a Blad ljadawil w ljahl ri7t l9tran raha nab3a Khdam , jma3 sarf , jib ldar hello kitty Mardi lwalidin , l ' oum tngar hal3ar lamagoliya chkoun had khaytiy Mounadila féministe , activiste 7ou9o9 linsan Radma philipiniya fdar blkourfi na9sa i7ssan Katchrat f jloud nas bagha dir hiya lifting Charya lwldha dbaba 3la drawch kaydrab f drifting 7bibi , ilove you , money money baghya wa7d L9ito ljomhour 7mar 3in char ghakatla7d Nti fennana moujtahida haz mic wla sextoy Makrhtch nchofk f chi oughniya maghribiya ykon katbha 3chiri tolstoy Ach jab kenza f douar l monica bellucci Ach jab wald l7ouat l John Petrucci L3a9a , hiya nitro dlbachariya lkhdar dyal dollar kay3mi lbassira w niya Bnadmm f majal lfan baghi ydir blasa f l7emmam Baghi ymarki territoire b stoula sayf bnou tammam 7it l fenn dbladi , Kaybi3o bih saboun Kaybi3o bih l7archa Kaybi3o bih tonne w fga3 les spotes ri7t lfarcha Kayn li raj3 bikhfayn john marie weston Kayn li dakhl ltzendi9 wakha dimplomato man Princeton Makatswrch m3ana danya mabghatch dir m3ana selfie Makatbuzzich m3a drawch w li rdkhato rah kaynfi Jani syndrome d stockholm f had l3alam m3a khouti W Siisi ga3ma ra7 , ljamahir rou7i mouti Ma3r tfham klami kayjik katakana huricanna Moshi moshi hadi ta9afa HAHAHA.. Inspiration jatha ménopause bagha lmoughadara taw3iya Ghi tab3a safi lchi blad fiha l7a9 w niya Mni kan7as brassi skhan safi tkab mno l'magma Zar3 mzikt l'morphine f dam Anchid lMehdi 7akma W3aychin 3icha mahboula Wkharjin 3la 9anon doula Doustouri l curva .... Maymerdni maghribi mayt7atwen 3liya Doc Malade Ga3 Li sawto Metlo9 F Radio Ghir 3laman newsal lGhrad L7achwa tal3at Grad Hablat nas o Bratt Mrad 3arate 3Bad 9arate ch7al kharb9at bLad Stahlkto Chacha o Zero Oscar Ti Tzad Ba3da Lfen 3ad dirolo Sabe3 nCher Zarbiya OJibo L'fanfare Makhzni O Bolici Dahchro li La3bo F sa7a Bureau o Gendarme - Makandiroch Lharage Kandiro Skate F la salle Bach Kolchi Yesma3 Lghadab 7ta tJem3o F 9isem 1 3ad Njibo LOstad Matihemch L3adad Fo9 mamate cocu 3ref gigolo Tzad Sref decore o zwa9 Chri temdagh kri Tbate Chahi sbe3 F 9richlat F bladi t3ich nokate Drabto b le fou Chikh mat 3ali Tesbagh Gheni Tban L7chich wasiLa Lghaya Sobate 7Ta t9reb Tfout 3ad ghatkoun fennan Men Daba Ghanbda ne7seb ch7al Men Tfo tangol fel 3am Berad Meskouta gol khedam Men 11 l 3 Pause DéJ Li 9arak Ra 9arana Mam7taj 7ta chmata f Cortége Manta chibl ma bladek assad Dnoub titgheslo b 5 DH sewlo moul l7emmam Lf9ih 3ando comptable Lm9adem men 84 3ando portable Ana ndwi onta goul law 3lem Ana tenkhwi w dmagh ti chte7 mechta w gdem Kal3ada L'morphine Ghena O ndem Hadchi Li Jadet Bih L9ari7a Lmokhayila Kareha lhadra Kariha Mohimtek Tel9a RRi7a La Montami même pas Tali3a Les neurones Lobna Sari3a Sari3 Lbadiha F'Tarikh badiha Lblad radatna déprime dlam inti7ar dalida kunti 7ar Fariha - Fintidar DariBa BLadi katvoléna kaTle9 morena Chate7li bire TAM TAM o 9ar9eB Li lmagana Toute chose commence par un choix Non , Le choix n'est rien qu'une illusion crée pour séparer ceux qui ont le pouvoir de ceux qui ne l'ont pas L'intellect chi en ligne chi ba3 lmatch jamla L progrès kiban gha f sif w fnidal zemla Ch7al mn morchid chaf l7em hbel wla zombie 3adi sex rah besoin 9bal maykon envie Bnadem mt3sab bzayed w howa gha pion Obsedé bl gucci w ralph 3bid l consomation Mkin la lamba la mnjl la mtr9a Kolchi 3lina la3bha kitsna ysigni saf9a Ta9aft tgayd flbira 3dna mdgouga Mayb9a m3a jm3a gha l7awli w lbouga Calma nidal l clavier kaysali blghwat Machi flmaydan flfrach mora ridowat 3abd lkrim kant 3ando khmasia w morah tarika Khalina mn hashtag Instagram w Retrica Rap flblad ba9i mabdach w rwapa 3tazlo Flfen kolchi ki 7leb nachfo lmo bzazlo Noukhba fl comptoire kat nader fl ibda3 Ta9afa chadouha mkabit darouha tri9 l ichba3 Tinspira mn Bilal wakha ychofk kolchi 7a9ir Ta7ed ma fidél castro bkaro ba3 laffaire Zaman rijal ghir kdbat abril 3ndak doukh Histoire tkhtazlat f sequence d driss roukh Blast la matiere grise 3ndna lmani Nsa l7el maghayjibo la l7ya la 3ilmani Cha3b la sauce swirti ytoub ghi 9ta3 lyas 3lamn ghatsacrifi , ta9wadit bla 9yas Sm3o lmatch ghaytba3 kolchi wla arbitre L'exception gha f tkharbi9 w akbar omelette Thez lmich3al ykhaliwk hors jeu mwre9 Brodcan w matraque virage kolo kitfre9 Parole parole rasmalna loubia 9awm lhdour lkhawia m3a pratique phobia Din w dounia lbkhour wl ma7ia Tfhem tsata nsa lahoma lmsawiaa L9a chi logique w dir rapport bin stora Machi feat d les rappeurs hadi agora Mal7ama del ketba, illégal ki chi fddan dl3chba Jaimerai libérer ton esprit, Neo, mais je ne peux que te montrer la porte, cest à toi quil appartient de la franchir Dmou3 rrobini ga3ma fihoume ghir l'calcaire Koulchi provisoire l'tsunami wejed chambrer L'watania mebyou3a fl marché noir Dayra 7ejra me3doda suppositoire Mabadi2 foug firach el moute mkofra F'dlame taha hssine baghi ytiri l'kofra Lmarde ou ddwa tkhelleto osmose W nta tsouwel wach ghaydouz lik lodo fmaison close Jouj bolate ou ferdeg Nsa lwa9i3 kay7erdek Merhba bik hada zmane fota skhouna w derdeg L3ay9 7adi lfray9 l'chahwa d kerchou mtebbe3 W'flouss le7rame katzid fjou3 ga3ma katchebbe3 Chkoune 3ref dnoub nass sawya che7al Fzmane kayjib khoubza 7ram s'hel mene deghma 7lale Mou7al ghatel9a jwab wakha te3ya mate7fer 7ite lkalakh bine l3ilm ou rassou mrebbi dfer 3la jenb ra7a baghi teb9a ghir merta7 Bel7a9 chkoune li f l khssara lagui rba7 Cagoulé b mika ke7la koulchi 3ami Wmaghatbane lihoume l9wada 7ta ytmezzgou lkhwami Matenssach ila jyabek telfouk Belli nhar ghatmoute machi f papier cadeau ghayghelfouk W'f3ayele li 7akmine sso9 la tajouz Mafihoume ti9a ki lyed limna d'Jamal Debbouz 3tihoume l'benj amma lwa3y demoda 39oule 3amera w khawia b7al chi roda Maghatsalich l'quota Wakha l'mic ytsota Wakha f lmosi9a 7etta mene skate nota Haut parleur dyal Zelzal hada 3elli Khelliha Bisso Na Bisso wfhem belli Te9der tmoute me9toule ila lgiti dwa l'Sida Bel7a9 mou7al ghaymoutou afkar coluche b kssida Li ssghir kay7lem ybraki dar sseka Wga3 ter9ane zen9a kateddi lel7abss machi l'makka Mateb9ach 7adi lli fate l'bare7 la ya3oud W 7lima dyal tighaline kat7eb al sa3oud Jme3 jjehd 3te9 soulaltek illico 9ette3 7bale l'karakiz souweb biha tricot Nsa le9wada lli fl'pissri baghi tnessi biha Wakha zher sseddou 3lih f 9er3a w gelssouk 3liha W ghan3awed ngouleha wakha gelt'ha bmlayen 9ra koulchi bach tefhem lmolekhass ga3ma kayne 9ra koulchi bach tefhem khelli dmaghek Alicanto Machi rkhess mene ferchakha f jib lplanto Kanenta9 w mdade el 7a9 fezzegte bih ponji Ma7ed malak lmoute a 3chiri menni chade congé Ghir fondi 7ite sara7a maghaykerrmouhach Ou fekker ma7edehoume ba9i ma7errmouhach</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Beat de boul est dans la sono Ta meuf et son putain de boul dans la chambre à Jok Pololo Stylo dans la main droite, et la tête entre deux gros lolos Je vais butter ses négros, mais Melopheelo me dis d'y aller mollo Donc J'arrête et mon ange de gauche pense qu'à les uette tuer Lyrical coup de tête balayette, mon flow te finit d'une balle dans la tête On vient faire jouir les exciser, et faire hurler les muettes Mon cur bat pour la MZ, mais de la rue je suis un poète han Faut faire un max de billet, la fin du monde on y est Dans les cerveaux ça ne tourne pas rond, cours carrément en biais De moins en moins habillé, dans le seul but de briller C'est la culture, du plus en plus court, où est donc l'amour d'hier J'ai prié, pour frère et sur, cousins, cousines et amis proches Jamais crié pour de la tune, mais mec ne touche pas à mes poches Et si l'on pousse les petits reufs frères c'est qu'ils le méritent Davidson Presents KDBZIK l'objectif c'est l'Amérique Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement You might also like Et je me pavane sur Paname, personne ne dit A ou B Je réagirai sur le C pour te passer sous le nez Me parle pas de la conccu qui s'accouple, L'union fait la force On peut même les fumer avec du Yoplait, donc on garde la forme Et juste pour info, jvais te soigner par une nympho Et de fois je me souviens que l'oseille c'est mon grand défaut La street tourne en rond, tout en Détaillant du carré Je représente les Moches qui critiqueront même Maria Carey J'suis en route vers le paradis, j'reviens de l'enfer J'suis différent mais ma mère m'dit qu'j'suis bien le fils de mon père Meilleur compliment du monde, ce soir là j'suis sorti en mode zen bouge de là ! disais-je au pire des gangsters Ils auraient pu m'assassiner les grands frères, regard laser J'suis parti dans la nuit, dans la street vers ma vie Sages poetes de la rue Melopheelo, Zoxea et oim' DanyDan ! Boulogne Billancourt, Panam ! Conss et benef dans le soulier droit, Tailldé dans le souiller gauche Je suis sur Cheche hood comme les mauvaises herbes sous les roches Freestyle chaud c'est pour ZH Pioche la Djaskpot, comme disait Bobby si t'acquiesce, la tête hoche la hein Fumeur jamais essoufflé, voilà que je me mange des croches pattes C'est le jeu je me prends pas la tête, pour ceux j'ai la prose brave Postillonne des punchs stos-gra, je ne veux pas être parmi les stars Laisse les s'entre- masser la prostate Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères SageSMZ De toute manière, tu pourras pas faire autrement Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères SageSMZ De toute manière, tu pourras pas faire autrement Le seigneur guide mes pas , en paix j'peux dormir Ceux qui ne m'aime pas, j'les hais encore pirelà Je Sors le métal, si c'est hardcord tire Des balles lirikal qu'aucun corps ne pourrait amortir Jusqu'à l'amour j'dirais qu'on est les Best rappeur Alive Sages PoMZ direct Point, tiret, ouvrez les guillemets Grand, pro ,sensationnel, opérationnel, fortfatflow ,-Transgenerationel MZ Mezolozo, Dazanizi, Zozoxeazi Deux générations de dingues viens pas faire le fou ici c'est physique La conçue se pisse dessus, pendant qu'on reste zen Ton rappeur va se faire liquider en moins de deux comme un litron d'zeb Soit t'es avec nous, soit t'es contre nous Choisi bien ton camp, si tu n'es pas des notre reviens pas à genoux Dav dit leur qu'on a trimé jusqu'à en perdre le sommeil Mais bon comme disent les sages po après l'orage il y a le Soleil Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Beat de boul est dans la sono Ta meuf et son putain de boul dans la chambre à Jok Pololo Stylo dans la main droite, et la tête entre deux gros lolos Je vais butter ses négros, mais Melopheelo me dis d'y aller mollo Donc J'arrête et mon ange de gauche pense qu'à les uette tuer Lyrical coup de tête balayette, mon flow te finit d'une balle dans la tête On vient faire jouir les exciser, et faire hurler les muettes Mon cur bat pour la MZ, mais de la rue je suis un poète han Faut faire un max de billet, la fin du monde on y est Dans les cerveaux ça ne tourne pas rond, cours carrément en biais De moins en moins habillé, dans le seul but de briller C'est la culture, du plus en plus court, où est donc l'amour d'hier J'ai prié, pour frère et sur, cousins, cousines et amis proches Jamais crié pour de la tune, mais mec ne touche pas à mes poches Et si l'on pousse les petits reufs frères c'est qu'ils le méritent Davidson Presents KDBZIK l'objectif c'est l'Amérique Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Et je me pavane sur Paname, personne ne dit A ou B Je réagirai sur le C pour te passer sous le nez Me parle pas de la conccu qui s'accouple, L'union fait la force On peut même les fumer avec du Yoplait, donc on garde la forme Et juste pour info, jvais te soigner par une nympho Et de fois je me souviens que l'oseille c'est mon grand défaut La street tourne en rond, tout en Détaillant du carré Je représente les Moches qui critiqueront même Maria Carey J'suis en route vers le paradis, j'reviens de l'enfer J'suis différent mais ma mère m'dit qu'j'suis bien le fils de mon père Meilleur compliment du monde, ce soir là j'suis sorti en mode zen bouge de là ! disais-je au pire des gangsters Ils auraient pu m'assassiner les grands frères, regard laser J'suis parti dans la nuit, dans la street vers ma vie Sages poetes de la rue Melopheelo, Zoxea et oim' DanyDan ! Boulogne Billancourt, Panam ! Conss et benef dans le soulier droit, Tailldé dans le souiller gauche Je suis sur Cheche hood comme les mauvaises herbes sous les roches Freestyle chaud c'est pour ZH Pioche la Djaskpot, comme disait Bobby si t'acquiesce, la tête hoche la hein Fumeur jamais essoufflé, voilà que je me mange des croches pattes C'est le jeu je me prends pas la tête, pour ceux j'ai la prose brave Postillonne des punchs stos-gra, je ne veux pas être parmi les stars Laisse les s'entre- masser la prostate Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères SageSMZ De toute manière, tu pourras pas faire autrement Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères SageSMZ De toute manière, tu pourras pas faire autrement Le seigneur guide mes pas , en paix j'peux dormir Ceux qui ne m'aime pas, j'les hais encore pirelà Je Sors le métal, si c'est hardcord tire Des balles lirikal qu'aucun corps ne pourrait amortir Jusqu'à l'amour j'dirais qu'on est les Best rappeur Alive Sages PoMZ direct Point, tiret, ouvrez les guillemets Grand, pro ,sensationnel, opérationnel, fortfatflow ,-Transgenerationel MZ Mezolozo, Dazanizi, Zozoxeazi Deux générations de dingues viens pas faire le fou ici c'est physique La conçue se pisse dessus, pendant qu'on reste zen Ton rappeur va se faire liquider en moins de deux comme un litron d'zeb Soit t'es avec nous, soit t'es contre nous Choisi bien ton camp, si tu n'es pas des notre reviens pas à genoux Dav dit leur qu'on a trimé jusqu'à en perdre le sommeil Mais bon comme disent les sages po après l'orage il y a le Soleil Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Le son est fort et Fat donne ça correctement Décomplexé l'attitude le comportement Tu lèves les bras si tu adhères Sages PoMZ De toute manière, tu pourras pas faire autrement Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>x2 4 mai, Affaire de famille 4 mai, Affaire de famille 4 mai, Affaire de famille 4 mai, Affaire de famille Je pratique de la MZ music, donc je pratique de la OG music Sponso par la weed tête en lai pépère Elle a fait la sirène, msucé dans la piscine Toi-même tu sais comment jbosse quand Khalina mappelle Genre Bip Bip, jai raté lmis-per Toi quest-cquon tenseigne ? Nous cest de gérer lbusiness Sans le fumer là faudrait qutessayes La rue cest la rue, cest rempli de mange-merde Quand un dealer vise la quantité cest souvent dla merde Toi et ton diplôme sachez que jvous emmerde On est même merde et on fume la même merde Quatre plus quatre égal huit On peut plus compter toutes nos conneries Quand on en additionne ltriple six Ça parle de neuf milli, deuros de vers une heure du mat XXX On est posés à la baraque ou dans le bendo Les contrôles de beuh sont révolus comme la Nintendo Tu pues la merde tes toujours dans les come-back Ma belle tas pas tas pas le minimum ma bite elle ne décolle pas Maintenant jles nique pépère Maintenant jles nique pépère comme si javais lmis-per Maintenant jles nique pépère Maintenant jles nique pépère comme si javais mis-per Dans le ghetto, on va pas jouer les mêmes rôles Dans le ghetto, on a côtoyé le même ssiste-gro Mais il nous a pas fait le même taro Dans le ghetto, maintenant jles nique pépère Maintenant jles nique pépère comme si javais le mis-per Maintenant jles nique pépère Maintenant jles nique pépère comme si javais le mis-per You might also like Posé dans le bloc avec mes O.Gs Voleurs, travailleurs et des gros lers-dea Les bleus tournent plus quune fille au Bois dBou On a le flow qui vous donne le vertige Jme bourre la gueule comme McNulty Jaime quand ta meuf enlève son body Fuck les stups et les indics qui balancent pour un stick Bande de sales maudits Ma coke se retrouve dans ton big nose XXX Depuis Bang Bang Flow jvois les mêmes flows Jtombe sur des sons et jme demande si cest moi qui pose Et oui lalbum a-ve-rri, cest une putain daffaire de famille Négro ça sort le 4 mai, pour tous venir vous mettre K.O sur tatami Elle vient avec toi, elle repart avec moi JokAir fait dans le B-jacking Si le rap ne paye pas, jmets ta hlel sur ltrottoir Dis-moi tu vas faire quoi ? On ta buté dans lcasting Ta sur nous écoute en se mettant des doigts Ta maman trompe ton père sur lson de ma voix Avec un you-voi qui lui fout sans pote-ca Donc elle est enceinte, ça va faire bientôt trois mois Bitch quand je crache tu avales, quand je chie tu nettoies Parcquon mappelle Big Daddy pourquoi ? Pourquoi quand notre caravane passe Toutes ces bitches mouillent grave ? Et tous ces faux négros aboient ? Pourquoi ces négros sont des putes Et ces putes sont des putes ? Pourquoi vont-ils tous perdre du poids ? Les réponses sont dans Affaire de famille Le 4 mai dans les bacs, cet album on la bossé pour toi</t>
+          <t>x2 4 mai, Affaire de famille 4 mai, Affaire de famille 4 mai, Affaire de famille 4 mai, Affaire de famille Je pratique de la MZ music, donc je pratique de la OG music Sponso par la weed tête en lai pépère Elle a fait la sirène, msucé dans la piscine Toi-même tu sais comment jbosse quand Khalina mappelle Genre Bip Bip, jai raté lmis-per Toi quest-cquon tenseigne ? Nous cest de gérer lbusiness Sans le fumer là faudrait qutessayes La rue cest la rue, cest rempli de mange-merde Quand un dealer vise la quantité cest souvent dla merde Toi et ton diplôme sachez que jvous emmerde On est même merde et on fume la même merde Quatre plus quatre égal huit On peut plus compter toutes nos conneries Quand on en additionne ltriple six Ça parle de neuf milli, deuros de vers une heure du mat XXX On est posés à la baraque ou dans le bendo Les contrôles de beuh sont révolus comme la Nintendo Tu pues la merde tes toujours dans les come-back Ma belle tas pas tas pas le minimum ma bite elle ne décolle pas Maintenant jles nique pépère Maintenant jles nique pépère comme si javais lmis-per Maintenant jles nique pépère Maintenant jles nique pépère comme si javais mis-per Dans le ghetto, on va pas jouer les mêmes rôles Dans le ghetto, on a côtoyé le même ssiste-gro Mais il nous a pas fait le même taro Dans le ghetto, maintenant jles nique pépère Maintenant jles nique pépère comme si javais le mis-per Maintenant jles nique pépère Maintenant jles nique pépère comme si javais le mis-per Posé dans le bloc avec mes O.Gs Voleurs, travailleurs et des gros lers-dea Les bleus tournent plus quune fille au Bois dBou On a le flow qui vous donne le vertige Jme bourre la gueule comme McNulty Jaime quand ta meuf enlève son body Fuck les stups et les indics qui balancent pour un stick Bande de sales maudits Ma coke se retrouve dans ton big nose XXX Depuis Bang Bang Flow jvois les mêmes flows Jtombe sur des sons et jme demande si cest moi qui pose Et oui lalbum a-ve-rri, cest une putain daffaire de famille Négro ça sort le 4 mai, pour tous venir vous mettre K.O sur tatami Elle vient avec toi, elle repart avec moi JokAir fait dans le B-jacking Si le rap ne paye pas, jmets ta hlel sur ltrottoir Dis-moi tu vas faire quoi ? On ta buté dans lcasting Ta sur nous écoute en se mettant des doigts Ta maman trompe ton père sur lson de ma voix Avec un you-voi qui lui fout sans pote-ca Donc elle est enceinte, ça va faire bientôt trois mois Bitch quand je crache tu avales, quand je chie tu nettoies Parcquon mappelle Big Daddy pourquoi ? Pourquoi quand notre caravane passe Toutes ces bitches mouillent grave ? Et tous ces faux négros aboient ? Pourquoi ces négros sont des putes Et ces putes sont des putes ? Pourquoi vont-ils tous perdre du poids ? Les réponses sont dans Affaire de famille Le 4 mai dans les bacs, cet album on la bossé pour toi</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MZ, Affaire de famille, cest lhistoire du 4 mai Il font qusucer des bites on va se la jouer gangsters Notre cons elle bonne, ya qutoi qui fume dla merde Comme nos meufs sont bonnes et nos OG sont tous vrais Eh, de la gue-dro dans du cello Demande à Billich qui maîtrise XXX Que des imposteurs, que des mythos Avant lpe-ra vous nfaisiez pas de seille-o Jsuis dans mon quartier tous les jours Toi tu fais lchaud car tas vendu deux-trois bouts Jaime trop les ness-bi qui tméchou Cest vrai qutu connais Hache-P mais connais-tu Abou ? Quelques bitches au tel-ho Accompagné dquelques pelos On passe des soirées de fêlés Nous cest le ghetto, la S coupée dans lcongélo Du biff et des gros sous scellés Négro jsuis dans le maquis, ouais jsuis dans le maquis Des gros culs, jsuis fait au whisky, la concu au tapis On va vous mettre au tapis, et personne ne va se vesqui Eh, eh, pour des tasses on allait barauder Fuck le numéro 2 on vie la première place bande de niamorodes Eh, eh, négro ça sort le 4 mai, négro ça sort le 4 mai Affaire de famille, venus pour tous vous calmer You might also like Les femmes restent les femmes, et les hommes restent les hommes Tourne en rond comme le monde, et la vente de la came Un truc ne va pas quand jregardais mes dessins animés Les méchants cétaient pas les racailles Maman jme suis fait avoir jai fait lvaillant Mais ma tête ne vaut même pas beaucoup dargent sale Jsuis même pas important Jsuis comme cet enfoiré qui mécoute Bon quà faire gratter le quota Tes pété tes bon quà parler dboycottage Nous on bosse, mets le taro et on tfait la totale Attendu comme mon prophète à Golgotha Donc jvais mbarrer comme la CC de Bogota Wesh quest-ce que tu veux qujte dise ? La street cest le deal, braquages et ness-bi Gros biff et folies Affaire de famille, affaire dennemis Soit tu fais la diff où tu suces des bites Attention ma belle tu peux tomber love Parcque quelque part jai le cur en or Mais tout lmonde le saura quand jserai mort Et jlâcherai un smile à la Mickey Mouse Mouse, Mouse, Mouse Et jlâcherai un smile à la Mickey Mouse Mouse, Mouse, Mouse Et jlâcherai un smile à la Mickey Mouse Il vient du ghetto comme les Savastano Chez nous on sfait des câlins comme les Napolitano Jreviens déterminé, vener comme Gennaro Pour liquider dans lgame toute cette bande de putains Fumer, je mange des raisins sans pépins Trop bateau depuis elle mappelle Jean-Pierre Papin Les rappeurs collaborent comme maréchal Pétain Dans crap game jsuis pas là pour faire copain-copain Ça me fera du mal mais là ça mfait du bien Javale la pisse du Diable, me renferme dans un joint Et jme perds dans la merde, dans des paires de gros seins Jfais dlart contemporain quand ils font des dessins Les Gs et les bad bitches me font la bise Les crasseuses, les menteurs ne me serrent pas la main Si tu en tues un, il en reste deux Si tu en tues deux, il en reste un Affaire de famille dans les bacs le 4 mai Aquarium damné, elle me suce la bite sous apné Baloo, ça devient chelou, ça joue moins les mecs de chez nous Rendons à Générations cqui est à Générations Et arrêtons dpasser des chansons dbalourd</t>
+          <t>MZ, Affaire de famille, cest lhistoire du 4 mai Il font qusucer des bites on va se la jouer gangsters Notre cons elle bonne, ya qutoi qui fume dla merde Comme nos meufs sont bonnes et nos OG sont tous vrais Eh, de la gue-dro dans du cello Demande à Billich qui maîtrise XXX Que des imposteurs, que des mythos Avant lpe-ra vous nfaisiez pas de seille-o Jsuis dans mon quartier tous les jours Toi tu fais lchaud car tas vendu deux-trois bouts Jaime trop les ness-bi qui tméchou Cest vrai qutu connais Hache-P mais connais-tu Abou ? Quelques bitches au tel-ho Accompagné dquelques pelos On passe des soirées de fêlés Nous cest le ghetto, la S coupée dans lcongélo Du biff et des gros sous scellés Négro jsuis dans le maquis, ouais jsuis dans le maquis Des gros culs, jsuis fait au whisky, la concu au tapis On va vous mettre au tapis, et personne ne va se vesqui Eh, eh, pour des tasses on allait barauder Fuck le numéro 2 on vie la première place bande de niamorodes Eh, eh, négro ça sort le 4 mai, négro ça sort le 4 mai Affaire de famille, venus pour tous vous calmer Les femmes restent les femmes, et les hommes restent les hommes Tourne en rond comme le monde, et la vente de la came Un truc ne va pas quand jregardais mes dessins animés Les méchants cétaient pas les racailles Maman jme suis fait avoir jai fait lvaillant Mais ma tête ne vaut même pas beaucoup dargent sale Jsuis même pas important Jsuis comme cet enfoiré qui mécoute Bon quà faire gratter le quota Tes pété tes bon quà parler dboycottage Nous on bosse, mets le taro et on tfait la totale Attendu comme mon prophète à Golgotha Donc jvais mbarrer comme la CC de Bogota Wesh quest-ce que tu veux qujte dise ? La street cest le deal, braquages et ness-bi Gros biff et folies Affaire de famille, affaire dennemis Soit tu fais la diff où tu suces des bites Attention ma belle tu peux tomber love Parcque quelque part jai le cur en or Mais tout lmonde le saura quand jserai mort Et jlâcherai un smile à la Mickey Mouse Mouse, Mouse, Mouse Et jlâcherai un smile à la Mickey Mouse Mouse, Mouse, Mouse Et jlâcherai un smile à la Mickey Mouse Il vient du ghetto comme les Savastano Chez nous on sfait des câlins comme les Napolitano Jreviens déterminé, vener comme Gennaro Pour liquider dans lgame toute cette bande de putains Fumer, je mange des raisins sans pépins Trop bateau depuis elle mappelle Jean-Pierre Papin Les rappeurs collaborent comme maréchal Pétain Dans crap game jsuis pas là pour faire copain-copain Ça me fera du mal mais là ça mfait du bien Javale la pisse du Diable, me renferme dans un joint Et jme perds dans la merde, dans des paires de gros seins Jfais dlart contemporain quand ils font des dessins Les Gs et les bad bitches me font la bise Les crasseuses, les menteurs ne me serrent pas la main Si tu en tues un, il en reste deux Si tu en tues deux, il en reste un Affaire de famille dans les bacs le 4 mai Aquarium damné, elle me suce la bite sous apné Baloo, ça devient chelou, ça joue moins les mecs de chez nous Rendons à Générations cqui est à Générations Et arrêtons dpasser des chansons dbalourd</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>x2 Jsors de mon block jpose mon cul à Skyrock Où tout le rap game y a laissé un tas dcrottes Dans cbiz de merde pas là pour faire des potes Mmélanger à ces putes ferait baisser ma cote Si on est doués Cest grâce au Créateur, amen, que Dieu soit loué Tes radios veulent pas nous jouer Affaire de famille dans les bacs, dispo le 4 mai Jsors de mon block jpose mon cul à Skyrock Jsuis fucked up comme Loc Dog Jpars en fumée quand je tire sur ma drogue Comme Kenny dans South Park jmeurs à chaque épisode Toi tu suces pour des feats donc bois pas sur mon Yop Cette merde est contagieuse donc garde tes microbes Mmélanger à ces putes non merci mon pote Jveux pas finir comme cet enfoiré dWilly Lalope Joint dpeuf et mes négros turn up En harmonie comme les bonnes XXX Tes toujours à la recherche des bonnes teubs Paw, drive-by sur les ondes Côté passager jallume tout lmonde Rappeurs, beatmakers, producteurs, managers Pour quon cesse de passer vos chansons immondes You might also like x2 Jsuis dans le bendo, ou dans un bonda Avec Zaïko dans la street depuis longo On a le bang bang flow les rappeurs XXX Le flingue est plus efficace que ton taekwondo Ces fils de pute nous aiment pas Ah que jsuis content À la vie à la mort jcrierai toujours ssage-Pa Jai la rage, jai pas pu mettre de hasba Ma technique XXX nan ne passe pas Petit fils de pute écoute-moi Gros tu nous connais pas On charbonne pour Khalina Grosse descente anti-shit Et ouais mon négro on est àl et on fait du sale Cest MZ Clique, on fuck ta clique Jvous vois vous guérir XXX De la force à XXX Je vous vois tous en mini Pas de numéro une dans le rap, dans toute la France Mais ça le fera jamais, sans mes sons Lui il est naze, lautre jten parle même pas Lui il fait le gangsta avec vlà les mensonges Comment ça tu nous connais pas ? Depuis le début on arrive à petits pas Avec vlà les mains sales Pas de cinéma, pas de similitudes Pour être posés tranquillement ici On nest pas passés sous la table Jten veux pas cest que du biff Mais tas pris ton temps pour voir quon est bénèf Jten veux pas cest que du business Mais tas pris ton temps pour voir quon est bénèf x2</t>
+          <t>x2 Jsors de mon block jpose mon cul à Skyrock Où tout le rap game y a laissé un tas dcrottes Dans cbiz de merde pas là pour faire des potes Mmélanger à ces putes ferait baisser ma cote Si on est doués Cest grâce au Créateur, amen, que Dieu soit loué Tes radios veulent pas nous jouer Affaire de famille dans les bacs, dispo le 4 mai Jsors de mon block jpose mon cul à Skyrock Jsuis fucked up comme Loc Dog Jpars en fumée quand je tire sur ma drogue Comme Kenny dans South Park jmeurs à chaque épisode Toi tu suces pour des feats donc bois pas sur mon Yop Cette merde est contagieuse donc garde tes microbes Mmélanger à ces putes non merci mon pote Jveux pas finir comme cet enfoiré dWilly Lalope Joint dpeuf et mes négros turn up En harmonie comme les bonnes XXX Tes toujours à la recherche des bonnes teubs Paw, drive-by sur les ondes Côté passager jallume tout lmonde Rappeurs, beatmakers, producteurs, managers Pour quon cesse de passer vos chansons immondes x2 Jsuis dans le bendo, ou dans un bonda Avec Zaïko dans la street depuis longo On a le bang bang flow les rappeurs XXX Le flingue est plus efficace que ton taekwondo Ces fils de pute nous aiment pas Ah que jsuis content À la vie à la mort jcrierai toujours ssage-Pa Jai la rage, jai pas pu mettre de hasba Ma technique XXX nan ne passe pas Petit fils de pute écoute-moi Gros tu nous connais pas On charbonne pour Khalina Grosse descente anti-shit Et ouais mon négro on est àl et on fait du sale Cest MZ Clique, on fuck ta clique Jvous vois vous guérir XXX De la force à XXX Je vous vois tous en mini Pas de numéro une dans le rap, dans toute la France Mais ça le fera jamais, sans mes sons Lui il est naze, lautre jten parle même pas Lui il fait le gangsta avec vlà les mensonges Comment ça tu nous connais pas ? Depuis le début on arrive à petits pas Avec vlà les mains sales Pas de cinéma, pas de similitudes Pour être posés tranquillement ici On nest pas passés sous la table Jten veux pas cest que du biff Mais tas pris ton temps pour voir quon est bénèf Jten veux pas cest que du business Mais tas pris ton temps pour voir quon est bénèf x2</t>
         </is>
       </c>
     </row>
@@ -1889,11 +1889,7 @@
           <t>Genius Glitch Problem</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1908,7 +1904,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chers supportrices et supporters, on sait tous ce qui s'est passé mais bon, nous on fait de la musique pour rassembler et réunir, et la vie elle continue. Suite à cette tragédie qui nous a tous touchés, une pensée déjà aux victimes et aux familles des victimes... notre concert au Bataclan il sera reporté et déplacé le 21 Janvier à la Cigale qui est quasi quasi quasi complet. Et pour cette attente, on vous offre cette putain de mixtape gratuite, cette putain de mixtape gratuite ! Le Coup d'Etat, juste avant la Dictature... MZ !You might also like1</t>
+          <t>Chers supportrices et supporters, on sait tous ce qui s'est passé mais bon, nous on fait de la musique pour rassembler et réunir, et la vie elle continue. Suite à cette tragédie qui nous a tous touchés, une pensée déjà aux victimes et aux familles des victimes... notre concert au Bataclan il sera reporté et déplacé le 21 Janvier à la Cigale qui est quasi quasi quasi complet. Et pour cette attente, on vous offre cette putain de mixtape gratuite, cette putain de mixtape gratuite ! Le Coup d'Etat, juste avant la Dictature... MZ !1</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1921,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Le sifflet dans l'cul On encule tous les arbitres Personne imposera sa loi sur l'rain-ter Fuck les lardus Personne nous fera perdre des billes Ici les bleus se font feinter Comme Gattuso tous énervés On est toujours prêts à tacler tous tes ients-cli Certains pélos ne sont pas prêts Paraît que ça fait parler les balles pour des raclis La ppe-fra du bas accumule les billets et ça nous donne la barre Les envieux nous regardent Du banc d'touche et les potos s'tapent des barres MZ Clique, Davidson Présente, KDBzik On joue pas au football mais quand on prend le micro Négro c'est physique J'prends ta meuf en le-le', j'lui passe en pleine lu-lu' Gros gamos, ça joue les footballeurs Wesh bitches, il t'a mis la pilule J'suis désolé ma belle Faut t'ajouter si t'es bonne Viens dans la chambre d'hôtel On jouera pas au football Posés sur le terrain Nan, on joue pas au football Les clichés viennent des gradins Nan, on joue pas au football Posés sur le terrain Nan, on joue pas au football Les clichés viennent des gradins Nan, on joue pas au football Posés sur le terrain Nan, on joue pas au football Les clichés viennent des gradins Nan, on joue pas au football Posés sur le terrain Nan, on joue pas au football On joue pas au football On joue pas au football You might also like J'la défonce toute la nuit J'me défonce toute l'année Temps additionnel, but, la frappe lui perce les filets J'ai vu leur équipe de merde défiler Seuls leurs yeux toucheront les trophées Qui veut nous défier ? Sommeillera jamais dans les bras d'Morphée Bitch, rase la pelouse Ramasse la savonnette sous la douche Ouvre ta bouche Mets les dents, c'est carton rouge Ou pose ton boule sur l'banc d'touche Laurent Black m'a sélectionné C'est la crise, faut faire les totaux Des négros ont voulu m'buter Mais la balle a touché l'poteau Contrôlé positif à la putain d'dope Tes négros sont des putains d'fiottes Ils prennent leurs slips pour des putains d'chiottes J'fais pas la passe, t'es pas des nôtres On cherche le but, ils cherchent la faute Les hooligans leur brisent les côtes On gagne le match avec la plus basse côte Ça prendra moins de temps de compter les bons que les bâtards C'est pas dans le ballon mais ta tête que le keuf met des mbatá Un indice d'un expert, mets le pare-balles Surtout si c'est pour faire le mort quand t'apprends qu't'es papa Hey niagga, tu m'as vu avec un bordel J'ai des taros d'enfer si t'es mortel Respecte un peu ma gueule, j'ai vendu de la frappe à ton père Et niveau compte je t'avoue qu'il était pas prêt Hein ? Quoi ? C'est moi et mon équipe À quoi ça sert de bibi si tu fais pas d'bénéfice C'est pas en restant chez ta mère que tu vas niquer la police Fuck mes ennemis, j'vois que de l'oseille dans ma rétine Faites du papier, arrêtez d'envier Sur la vie d'maman, c'est pas bien d'gratter Chauffe ton couteau, teste tes pochetons Brûle ton plastique, ou va tâter J'ai plus la haine, c'est plus pareil, j'suis pas un hlel J'suis pas méchant, demande à tout l'monde sauf mes ex's M'en veux pas si tu m'connais pas, faut qu't'essayes Et faut qu'tu baises, et faudra t'en contenter Wesh arrêtez de contempler J'compense mes plaies Si tu savais tout c'que j'entendais De les niquer j'en était grave tenté Ils en valent pas la peine 1</t>
+          <t>Le sifflet dans l'cul On encule tous les arbitres Personne imposera sa loi sur l'rain-ter Fuck les lardus Personne nous fera perdre des billes Ici les bleus se font feinter Comme Gattuso tous énervés On est toujours prêts à tacler tous tes ients-cli Certains pélos ne sont pas prêts Paraît que ça fait parler les balles pour des raclis La ppe-fra du bas accumule les billets et ça nous donne la barre Les envieux nous regardent Du banc d'touche et les potos s'tapent des barres MZ Clique, Davidson Présente, KDBzik On joue pas au football mais quand on prend le micro Négro c'est physique J'prends ta meuf en le-le', j'lui passe en pleine lu-lu' Gros gamos, ça joue les footballeurs Wesh bitches, il t'a mis la pilule J'suis désolé ma belle Faut t'ajouter si t'es bonne Viens dans la chambre d'hôtel On jouera pas au football Posés sur le terrain Nan, on joue pas au football Les clichés viennent des gradins Nan, on joue pas au football Posés sur le terrain Nan, on joue pas au football Les clichés viennent des gradins Nan, on joue pas au football Posés sur le terrain Nan, on joue pas au football Les clichés viennent des gradins Nan, on joue pas au football Posés sur le terrain Nan, on joue pas au football On joue pas au football On joue pas au football J'la défonce toute la nuit J'me défonce toute l'année Temps additionnel, but, la frappe lui perce les filets J'ai vu leur équipe de merde défiler Seuls leurs yeux toucheront les trophées Qui veut nous défier ? Sommeillera jamais dans les bras d'Morphée Bitch, rase la pelouse Ramasse la savonnette sous la douche Ouvre ta bouche Mets les dents, c'est carton rouge Ou pose ton boule sur l'banc d'touche Laurent Black m'a sélectionné C'est la crise, faut faire les totaux Des négros ont voulu m'buter Mais la balle a touché l'poteau Contrôlé positif à la putain d'dope Tes négros sont des putains d'fiottes Ils prennent leurs slips pour des putains d'chiottes J'fais pas la passe, t'es pas des nôtres On cherche le but, ils cherchent la faute Les hooligans leur brisent les côtes On gagne le match avec la plus basse côte Ça prendra moins de temps de compter les bons que les bâtards C'est pas dans le ballon mais ta tête que le keuf met des mbatá Un indice d'un expert, mets le pare-balles Surtout si c'est pour faire le mort quand t'apprends qu't'es papa Hey niagga, tu m'as vu avec un bordel J'ai des taros d'enfer si t'es mortel Respecte un peu ma gueule, j'ai vendu de la frappe à ton père Et niveau compte je t'avoue qu'il était pas prêt Hein ? Quoi ? C'est moi et mon équipe À quoi ça sert de bibi si tu fais pas d'bénéfice C'est pas en restant chez ta mère que tu vas niquer la police Fuck mes ennemis, j'vois que de l'oseille dans ma rétine Faites du papier, arrêtez d'envier Sur la vie d'maman, c'est pas bien d'gratter Chauffe ton couteau, teste tes pochetons Brûle ton plastique, ou va tâter J'ai plus la haine, c'est plus pareil, j'suis pas un hlel J'suis pas méchant, demande à tout l'monde sauf mes ex's M'en veux pas si tu m'connais pas, faut qu't'essayes Et faut qu'tu baises, et faudra t'en contenter Wesh arrêtez de contempler J'compense mes plaies Si tu savais tout c'que j'entendais De les niquer j'en était grave tenté Ils en valent pas la peine 1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1938,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>- Là on est là, on est dans le bando ! - Ah, djo tu connais. On est au ssage-Pa. La boutique elle est ouverte H24 - C'est dans le hood mon gars, si tu connais pas, nique ta mère, mon gars - T'as vu on est sur la rue Pathé, on est avec les gavas, tout, tu connais. Un soir d'été avec les fratés... Non, j'rigole t'as vu - Mon gars je viens de Cheche, biatch - Non on est là tu vois. Ce soir on a fumé, on a tisé - Brrrrrah ! - Personne il va baiser, on est pas d'humeur ce soir. On est là entre couilles, ma gueule - Bon les... t'as capté, les bad bitches hein. Le Coran, ils savent très bien qu'est-ce qu'on leur fait - L'autre il est en train de parler tout seul là-bas avec le feu rouge, on sait même pas ce qu'il fait. Tout le monde il est fonscar au tier-quar tu vois. Y'a que des zombies, personne, tu vois - Même le chef il bédave, mon gars, c'es terrible, ouais - Ca parle même pas, tu vois, juste ça fait circuler, tu vois. Un petit peu de temps en temps, tout le monde il est dans ses problèmes hein, au fond on est ensemble - On est là jusqu'à le lendemain, narvalo, t'as pas capté ? C'est chaud - Tellement c'est la merde dans nos têtes, tu vois - Chaud ! - Y'a que nous les condés ce soir dehors, tu vois. Depuis tout à l'heure ils sont en train de tourner, tu sais, ils savent que si ils descendent aujourd'hui, ils sentent l'accident de travail, tu vois - C'est ça qu'ils savent pas ils ont mal choisi leur coup - Ils savent qu'on va les traîner par les... tu vois ? - Espèce de chhh... - On n'est pas d'humeur aujourd'hui, tu vois ce que je veux dire ou pas ? - Hé, ils vont bientôt vite le savoir ces salopes - Voilà, tu vois, chacun ses blèmes-pro, on est là. On cherche le cash money, tu vois ce que je veux dire ou pas ?! - Bah oui - Pour l'instant les poches, elles sont vides, tu vois ce que je veux dire ou pas ? - T'sais nous on parle pas trop d'argent, t'sais, on n'aime pas trop montrer aussi - Tu connais, on est toujours formels nous - Le Coran, hé, y'en a un qui fait le malin je le balafre direct. T'as pas oublié mon gars hein, la ganache elle est trop formelle. Si t'as pas la ganache qui va avec, ah mon gars, c'est terrible pour toi - Soir ce ça va se fucked up comme d'hab hein - Ah mon gars, ça, t'sais, t'as capté hein - Toujours une petite se-con sur le té-cô. On est là. Les ients-cli ils auront toujours leur dose, tu vois ce que je veux dire ou pas - T'façons, t'sais, ils entendent la ganache, la ganache, ils savent très bien c'est qui hein - On a des mamans nous hein, nos mamans elles nous attendent à la baraque, sur la vie de ma mère. Vous croyez on est là pour... on va décorer le quartier comme ça gratuit toute l'année ou quoi ? Franchement le but c'est là, tous les gavas, inchAllah, qu'on puisse s'en sortir, tu vois ce que je veux dire ou pas ? Et là, on se supporte entre nous même si des fois c'est la de-mèr, des fois ça part en yeucous, des fois ça part en sauce tomate. Tu vois le délire ou pas ? Le lendemain on est potos, tu vois, c'est la famille c'est... comme ton frère, ta soeur ou tes parents tu t'embrouilles avec eux, tu te prends la tête, y'a des petits crises par ci, par là, le lendemain vous baisez une grosse pétasse ensemble, il te fait une passe du gauche. Tu vois ou pas ? Tu la prends, tu la re-retournes par ci, tu dis voilà, c'est bon gava, tu vois ce que je veux dire ou pas ? - On aime trop ça hein, c'est trop... t'sais c'est trop... j'aime trop... bah oui, j'aime tropYou might also like</t>
+          <t>- Là on est là, on est dans le bando ! - Ah, djo tu connais. On est au ssage-Pa. La boutique elle est ouverte H24 - C'est dans le hood mon gars, si tu connais pas, nique ta mère, mon gars - T'as vu on est sur la rue Pathé, on est avec les gavas, tout, tu connais. Un soir d'été avec les fratés... Non, j'rigole t'as vu - Mon gars je viens de Cheche, biatch - Non on est là tu vois. Ce soir on a fumé, on a tisé - Brrrrrah ! - Personne il va baiser, on est pas d'humeur ce soir. On est là entre couilles, ma gueule - Bon les... t'as capté, les bad bitches hein. Le Coran, ils savent très bien qu'est-ce qu'on leur fait - L'autre il est en train de parler tout seul là-bas avec le feu rouge, on sait même pas ce qu'il fait. Tout le monde il est fonscar au tier-quar tu vois. Y'a que des zombies, personne, tu vois - Même le chef il bédave, mon gars, c'es terrible, ouais - Ca parle même pas, tu vois, juste ça fait circuler, tu vois. Un petit peu de temps en temps, tout le monde il est dans ses problèmes hein, au fond on est ensemble - On est là jusqu'à le lendemain, narvalo, t'as pas capté ? C'est chaud - Tellement c'est la merde dans nos têtes, tu vois - Chaud ! - Y'a que nous les condés ce soir dehors, tu vois. Depuis tout à l'heure ils sont en train de tourner, tu sais, ils savent que si ils descendent aujourd'hui, ils sentent l'accident de travail, tu vois - C'est ça qu'ils savent pas ils ont mal choisi leur coup - Ils savent qu'on va les traîner par les... tu vois ? - Espèce de chhh... - On n'est pas d'humeur aujourd'hui, tu vois ce que je veux dire ou pas ? - Hé, ils vont bientôt vite le savoir ces salopes - Voilà, tu vois, chacun ses blèmes-pro, on est là. On cherche le cash money, tu vois ce que je veux dire ou pas ?! - Bah oui - Pour l'instant les poches, elles sont vides, tu vois ce que je veux dire ou pas ? - T'sais nous on parle pas trop d'argent, t'sais, on n'aime pas trop montrer aussi - Tu connais, on est toujours formels nous - Le Coran, hé, y'en a un qui fait le malin je le balafre direct. T'as pas oublié mon gars hein, la ganache elle est trop formelle. Si t'as pas la ganache qui va avec, ah mon gars, c'est terrible pour toi - Soir ce ça va se fucked up comme d'hab hein - Ah mon gars, ça, t'sais, t'as capté hein - Toujours une petite se-con sur le té-cô. On est là. Les ients-cli ils auront toujours leur dose, tu vois ce que je veux dire ou pas - T'façons, t'sais, ils entendent la ganache, la ganache, ils savent très bien c'est qui hein - On a des mamans nous hein, nos mamans elles nous attendent à la baraque, sur la vie de ma mère. Vous croyez on est là pour... on va décorer le quartier comme ça gratuit toute l'année ou quoi ? Franchement le but c'est là, tous les gavas, inchAllah, qu'on puisse s'en sortir, tu vois ce que je veux dire ou pas ? Et là, on se supporte entre nous même si des fois c'est la de-mèr, des fois ça part en yeucous, des fois ça part en sauce tomate. Tu vois le délire ou pas ? Le lendemain on est potos, tu vois, c'est la famille c'est... comme ton frère, ta soeur ou tes parents tu t'embrouilles avec eux, tu te prends la tête, y'a des petits crises par ci, par là, le lendemain vous baisez une grosse pétasse ensemble, il te fait une passe du gauche. Tu vois ou pas ? Tu la prends, tu la re-retournes par ci, tu dis voilà, c'est bon gava, tu vois ce que je veux dire ou pas ? - On aime trop ça hein, c'est trop... t'sais c'est trop... j'aime trop... bah oui, j'aime trop</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1955,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Vas-y laisse moi faire mon interlude ! Notre affaire de famille est tombée à l'eau en interne. rires À la base, ici on est juste des jeunes de cités parisiennes. On connaît rien au business ! On a rencontré deux producteurs, soi-disant dirigeants qui ont voulu nous la mettre à l'envers, tu vois ou pas. rires Eh la musique c'est tout ce qu'on a hein ! Et je laisserai personne jouer avec ça. Et ça ils le savent. Tu vois. Notre jeunesse, notre naïveté... elle a pris le dessus sur notre confiance tu vois. On fait juste du son nous. On est pas des stars, on a pas de fans, on a pas de grosses voitures, les paparazzis ils savent même pas qu'on existe tu vois ou pas ! rires Eh nous on est juste des instruments et on se sert de nos voix pour retranscrire ce qu'on vit. On retranscrit nos vies de tous les jours. Tu peux nous croiser en bas du bloc, tu peux nous croiser dans le bloc, tu peux nous croiser dans une chatte, mais je pense pas que tu peux... qu'on peut se croiser dans la même chatte ! rires Bref, tu peux nous croiser dans un verre, tu peux nous croiser derrière ta fumée tu vois ou pas. Parce que nous c'est la MZ, Davidson Presents. Cette mixtape c'est un coup d'état. Avant d'instaurer la dictature. Fin des suceurs, fin des acteurs, fin des mecs qui gonflent le torse derrière les instrus, derrière les clips. Là t'as des vrais mecs de tess' qui font de la vraie musique. Printemps 2016 la MZ elle vient bouleverser le régime. Nique le rap game, nique les autres supporters, aaaaah ! Nique les usurpateurs négro, nique le rap game. La dictature, MZ cliqueYou might also like</t>
+          <t>Vas-y laisse moi faire mon interlude ! Notre affaire de famille est tombée à l'eau en interne. rires À la base, ici on est juste des jeunes de cités parisiennes. On connaît rien au business ! On a rencontré deux producteurs, soi-disant dirigeants qui ont voulu nous la mettre à l'envers, tu vois ou pas. rires Eh la musique c'est tout ce qu'on a hein ! Et je laisserai personne jouer avec ça. Et ça ils le savent. Tu vois. Notre jeunesse, notre naïveté... elle a pris le dessus sur notre confiance tu vois. On fait juste du son nous. On est pas des stars, on a pas de fans, on a pas de grosses voitures, les paparazzis ils savent même pas qu'on existe tu vois ou pas ! rires Eh nous on est juste des instruments et on se sert de nos voix pour retranscrire ce qu'on vit. On retranscrit nos vies de tous les jours. Tu peux nous croiser en bas du bloc, tu peux nous croiser dans le bloc, tu peux nous croiser dans une chatte, mais je pense pas que tu peux... qu'on peut se croiser dans la même chatte ! rires Bref, tu peux nous croiser dans un verre, tu peux nous croiser derrière ta fumée tu vois ou pas. Parce que nous c'est la MZ, Davidson Presents. Cette mixtape c'est un coup d'état. Avant d'instaurer la dictature. Fin des suceurs, fin des acteurs, fin des mecs qui gonflent le torse derrière les instrus, derrière les clips. Là t'as des vrais mecs de tess' qui font de la vraie musique. Printemps 2016 la MZ elle vient bouleverser le régime. Nique le rap game, nique les autres supporters, aaaaah ! Nique les usurpateurs négro, nique le rap game. La dictature, MZ clique</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1972,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Y'a quatre porcs dans une Ford qui rôde à l'heure du crime Et qui rêvent sans doute de faire l'remake du lynchage de Rodney King J'réchauffe la tombe du rap français de mon urine Ici ça sent la sorcellerie comme dans les rues de Kin Le diable a cédé ses Prada pour mettre un legging J'crois voir un coté nécrophile chez tous les médecins légistes Un coté scatophile chez eux à dire de la merde à chaque rime J'baise les chiennes comme un animal c'est mon coté zoophile Schizophrénique comme Anders Breivik Liquide toxique dans la bouteille d'volvic Chevaleret street, lyrisiste, emmène les vies si tristes, seul l'odeur de la mouille nous excite Mes premiers poèmes écris à quinze ans comme Rimbaud Dois-je renoncer aujourd'hui à 20 ans comme Rimbaud R.O.C Jok a.k.a Verlaine et Rimbaud Cent pour cent hétéro ça défouraille comme Rambo Pololo lèche vitrine à Bruxelles, on aime les soirées mondaines Faire un paquet d'oseille et les uvres d'art de Dorcel Dans la tête des pensées malsaines ce soir ta chatte saigne Ils ont jeter les premières pierres, on en a fait une forteresse Tant qu'maman fait ses prières j'ai de quoi rester fort Et j'reste une ordure du manoir qui fait du rap de porc Jok'air de la Mz Music tantôt or tantôt hardcore J'ai fumé trop d'marijuana J'rap que des gros morceaux d'cristal meth à la frontière de Tijuana Cette salope kiffait, quand je la mettais à l'amende Mon sperme dans sa gorge ça coulait comme du bon thé à la menthe Tu veux que j'te tire les cheveux, qu'j'emploie un langage grossier Comme la tribu Ka dans la rue des rosiers Joue pas les G's, si une petite garce te canardise Tise mon Bacardi, j'écoute plus tout ce que ces batards disent J'rap comme un porc, on décapite tous les sophistes Hardcore comme une daronne qui branle son fils R.O.C.H, la punchline est sale J'ai appelé Jok'air et dans ma cave on a baisé Vanessa Chevaleret street, des clochards sidaïques, menditistes Fin 90 c'était la cuisine du grand banditisme La route vers l'enfer est glissante, j'avance droit vers elle On défouraille sur les videurs, comme les frères Vairelles La scène du crime un cri, un surin, une ruelle vide Si j'sors un club de golf ce sera pas pour aller jouer sur un green Au fond d'une cave obscur un ex voyou s'pique Si tu nous butes on f'ra un feat avec Notorious Big Comme une crakers prête à sucer la bite d'un Pitbull pour une galette J'aurai jamais le cash de DJ Khaled Des grosses punchlines complètement crados Y'en a qui boiront du sperme, le jour où la Terre manquera d'eauYou might also like</t>
+          <t>Y'a quatre porcs dans une Ford qui rôde à l'heure du crime Et qui rêvent sans doute de faire l'remake du lynchage de Rodney King J'réchauffe la tombe du rap français de mon urine Ici ça sent la sorcellerie comme dans les rues de Kin Le diable a cédé ses Prada pour mettre un legging J'crois voir un coté nécrophile chez tous les médecins légistes Un coté scatophile chez eux à dire de la merde à chaque rime J'baise les chiennes comme un animal c'est mon coté zoophile Schizophrénique comme Anders Breivik Liquide toxique dans la bouteille d'volvic Chevaleret street, lyrisiste, emmène les vies si tristes, seul l'odeur de la mouille nous excite Mes premiers poèmes écris à quinze ans comme Rimbaud Dois-je renoncer aujourd'hui à 20 ans comme Rimbaud R.O.C Jok a.k.a Verlaine et Rimbaud Cent pour cent hétéro ça défouraille comme Rambo Pololo lèche vitrine à Bruxelles, on aime les soirées mondaines Faire un paquet d'oseille et les uvres d'art de Dorcel Dans la tête des pensées malsaines ce soir ta chatte saigne Ils ont jeter les premières pierres, on en a fait une forteresse Tant qu'maman fait ses prières j'ai de quoi rester fort Et j'reste une ordure du manoir qui fait du rap de porc Jok'air de la Mz Music tantôt or tantôt hardcore J'ai fumé trop d'marijuana J'rap que des gros morceaux d'cristal meth à la frontière de Tijuana Cette salope kiffait, quand je la mettais à l'amende Mon sperme dans sa gorge ça coulait comme du bon thé à la menthe Tu veux que j'te tire les cheveux, qu'j'emploie un langage grossier Comme la tribu Ka dans la rue des rosiers Joue pas les G's, si une petite garce te canardise Tise mon Bacardi, j'écoute plus tout ce que ces batards disent J'rap comme un porc, on décapite tous les sophistes Hardcore comme une daronne qui branle son fils R.O.C.H, la punchline est sale J'ai appelé Jok'air et dans ma cave on a baisé Vanessa Chevaleret street, des clochards sidaïques, menditistes Fin 90 c'était la cuisine du grand banditisme La route vers l'enfer est glissante, j'avance droit vers elle On défouraille sur les videurs, comme les frères Vairelles La scène du crime un cri, un surin, une ruelle vide Si j'sors un club de golf ce sera pas pour aller jouer sur un green Au fond d'une cave obscur un ex voyou s'pique Si tu nous butes on f'ra un feat avec Notorious Big Comme une crakers prête à sucer la bite d'un Pitbull pour une galette J'aurai jamais le cash de DJ Khaled Des grosses punchlines complètement crados Y'en a qui boiront du sperme, le jour où la Terre manquera d'eau</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1989,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush Quest-cquon va faire ? On ne sait que rapper Vendre de la dope, comme on vend nos CD La rue jsuis dedans Avant Dora lexploratrice Jaurai appris à Chippeur à chiper Le temps cest de largent, bloque ça comme Piper Les bleus cest les méchants, nous cest les gentils Qui veut du te-shi ? Qui veut dla bonne weed ? Sniffer dla cocaïne, jvends pas l'hamburger Deux-deux ya les bleus juste là-là-là Tes pas méchant tas une grande gueule-le-le Arrête den vouloir à mon cul-lu-lu-lu Mes gars vont tvouloir à la queue leu leu-leu Oops, oh la la la, jvais mfaire sucer par la pote à Elle est pas dans les loges Elle est juste dans mon lit Et jdis que de la merde Donc jirai vendre de la You might also like Tu sais jsuis toujours postiché dans mon tieks Tu nous paies en cash ici, remballe tes chèques Grosse dédicace à tous ceux qui veulent quon se rate Jfaisais trop dchoses avant dêtre sérieusement dans lrap Donc... Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush Deux-trois flows pour les balader Pe-pom pour les canarder Pas ltemps dse pavaner Chico j'refourguais dans tout Paname Toi tes vautré dans ton canapé Vos rappeurs que des galantés Grammes de cess, litrons d'pilon Pas souvent d'amné Traînes pas si tu sais pas rentrer Moi jpense à quà faire rentrer Des biftons toute lannée Les va-et-vient intriguent le voisinage Si ya les bleus prends la fuite à létage Même si tas lgros boule à Nicki Minaj Moi j'préfère faire les sous, mais pourquoi tu rages ? On a commencé lrap, on déconnait Sans savoir quun jour yaurait dla monnaie Davidson a dit Faut les dégommer Ah bon ? Aujourdhui tu mconnais ? Paraît quça va pas marcher Et qufaut qujaille déposer des CV Chico, jbicravais toutes les secondes Pour sortir des CD Parcque jaurais grave kiffé QuPapa ou Maman soient blindés Depuis mon adolescence Jfonctionne en indé Tu sais jsuis toujours postiché dans mon tieks Tu nous paies en cash ici, remballe tes chèques Grosse dédicace à tous ceux qui veulent quon se rate Jfaisais trop dchoses avant dêtre sérieusement dans lrap Donc... Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush Jai vendu ma dope sur Paname Pas dterrain, pas dbando Jbossais seul avec mon portable Prends ma came, jaurai ton âme La maison nfait pas dcrédit Et nencaisse pas les Paypal Six-cent-cinquante le cent grammes J'détaille et jemballe Ma Marie-Jeanne dans du cellophane Jai quelques contacts pour du sucre de canne De la bonne, de la pure qui te pète le crâne Même si le rap ne marche pas Jnirai plus vendre de kush Cest obsolète comme les casquettes Von Dutch Jai passé lâge djouer à Starsky Hutch Coursé par les keufs Voir ces rappeurs qui vantent la vente de drogue Seulement pour sfaire du buzz Pendant qujfaisais décale mes meuj Tétais privé ddessert Assigné drésidence dans ta bre-ch Tu sais jsuis toujours postiché dans mon tieks Tu nous paies en cash ici, remballe tes chèques Grosse dédicace à tous ceux qui veulent quon se rate Jfaisais trop dchoses avant dêtre sérieusement dans lrap Donc Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush1</t>
+          <t>Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush Quest-cquon va faire ? On ne sait que rapper Vendre de la dope, comme on vend nos CD La rue jsuis dedans Avant Dora lexploratrice Jaurai appris à Chippeur à chiper Le temps cest de largent, bloque ça comme Piper Les bleus cest les méchants, nous cest les gentils Qui veut du te-shi ? Qui veut dla bonne weed ? Sniffer dla cocaïne, jvends pas l'hamburger Deux-deux ya les bleus juste là-là-là Tes pas méchant tas une grande gueule-le-le Arrête den vouloir à mon cul-lu-lu-lu Mes gars vont tvouloir à la queue leu leu-leu Oops, oh la la la, jvais mfaire sucer par la pote à Elle est pas dans les loges Elle est juste dans mon lit Et jdis que de la merde Donc jirai vendre de la Tu sais jsuis toujours postiché dans mon tieks Tu nous paies en cash ici, remballe tes chèques Grosse dédicace à tous ceux qui veulent quon se rate Jfaisais trop dchoses avant dêtre sérieusement dans lrap Donc... Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush Deux-trois flows pour les balader Pe-pom pour les canarder Pas ltemps dse pavaner Chico j'refourguais dans tout Paname Toi tes vautré dans ton canapé Vos rappeurs que des galantés Grammes de cess, litrons d'pilon Pas souvent d'amné Traînes pas si tu sais pas rentrer Moi jpense à quà faire rentrer Des biftons toute lannée Les va-et-vient intriguent le voisinage Si ya les bleus prends la fuite à létage Même si tas lgros boule à Nicki Minaj Moi j'préfère faire les sous, mais pourquoi tu rages ? On a commencé lrap, on déconnait Sans savoir quun jour yaurait dla monnaie Davidson a dit Faut les dégommer Ah bon ? Aujourdhui tu mconnais ? Paraît quça va pas marcher Et qufaut qujaille déposer des CV Chico, jbicravais toutes les secondes Pour sortir des CD Parcque jaurais grave kiffé QuPapa ou Maman soient blindés Depuis mon adolescence Jfonctionne en indé Tu sais jsuis toujours postiché dans mon tieks Tu nous paies en cash ici, remballe tes chèques Grosse dédicace à tous ceux qui veulent quon se rate Jfaisais trop dchoses avant dêtre sérieusement dans lrap Donc... Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush Jai vendu ma dope sur Paname Pas dterrain, pas dbando Jbossais seul avec mon portable Prends ma came, jaurai ton âme La maison nfait pas dcrédit Et nencaisse pas les Paypal Six-cent-cinquante le cent grammes J'détaille et jemballe Ma Marie-Jeanne dans du cellophane Jai quelques contacts pour du sucre de canne De la bonne, de la pure qui te pète le crâne Même si le rap ne marche pas Jnirai plus vendre de kush Cest obsolète comme les casquettes Von Dutch Jai passé lâge djouer à Starsky Hutch Coursé par les keufs Voir ces rappeurs qui vantent la vente de drogue Seulement pour sfaire du buzz Pendant qujfaisais décale mes meuj Tétais privé ddessert Assigné drésidence dans ta bre-ch Tu sais jsuis toujours postiché dans mon tieks Tu nous paies en cash ici, remballe tes chèques Grosse dédicace à tous ceux qui veulent quon se rate Jfaisais trop dchoses avant dêtre sérieusement dans lrap Donc Jmen bats les couilles Jirai vendre de la kush Jmen bats les couilles Jirai vendre de la kush De la kush, de la kush1</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2006,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T'es tombé sous son charme puis elle t'es passée sous le nez Cette pute te veut du mal mais toi tu pourrais tout lui donner Dans les ruelles de Paname elle ne cesse de racoler Tout le monde la connait A elle t'es collé Pourtant elle ne cesse de se faire tourner Tu vous t'es cocu, elle s'offre au plus offrant Mais tu la désires toujours plus, toujours un peu plus forcement Maintenant sur toi cette pute a usé de sa ruse Tes potes te reconnaissent plus Ta mère te reconnait plus T'as dit je t'aime à cette chienne et cette salope s'est tue Tes frères te reconnaissent plus Ton père te reconnait plus Pour elle tu t'endettes,tu tentêtes et tu te tues Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Elle te pète la tête et tu l'as dans le sang Toi et elle en tête à tête tu n'fais pas semblant Tu la snif direct pas la peine de perdre de temps De toi elle s'en branle, elle préfère tes billets de banque Elle a la couleur Madonna ou Mylène Farmer Avec elle tu vis la nuit Avec elle tu vis la vie à 666kmh You might also likeElle n'aurait jamais du te passer sous le nez Tu ne serai jamais tombé love comme à cause de tous ces traits Tu n'étais pas prêt vas y maintenant tires un trait Beaucoup de gens vivent grâce à la Lady Gaga Oh Lady Gaga Les frigos se remplissent grâce à la Lady Gaga Oh Lady Gaga Les prisons se surpeuplent à cause de la Lady Gaga Oh Lady Gaga Drôle est notre humeur à cause de la Lady Gaga Oh Lady Gaga Lady Gaga x16 Oh mon ptit bébé de grande valeur Tu m'as rapporté tellement de malheurs Hmm, oh mon ptit bébé de grande valeur Tu m'as rapporté tellement de malheurs Pas de 09 moi elle était pourrie Mais vas y passe mes 70 balles et j'ai le sourire Oh mon ptit bébé de grande valeur Egal ptit bébé de grands malheurs Je reconnais les prétendants qui t'ont dans la peau Et ceux qui te manipulent qui t'ont dans les poches Oh ma Lady Gaga Je suis pas un hagar Sois bonne pour mes ien-cli et j'en serai gaga Et si c'est la hess je t'emmènerai partout Rencontrer des riches dans le milieu du show buisness Une autre rupture elle date de plusieurs mois Ça venait de moi Maintenant j'ai essayé dans le rap de tess Oh mon ptit bébé de grande valeur Tu m'as rapporté tellement de malheurs Un mal pour un bien je garde bon coeur Je rap et je suis un pauvre qui vient d'ailleurs Les kainri te glorifient, te plébiscitent, te trouvent magnifique Ou maléfique Quand le mal est fait Capable de provoquer des guerres fratricides Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Wesh Tony Montana Wesh Rihanna Wesh Maradona Wesh XXX Eh Eh Lady Gaga Traîne dans les couilles des dealers et atterrit dans les soirées branchées Lady Gaga Peut te transformer la plus grande célébrité en plus gros des déchets Certains se la procurent pour faire de l'oseille D'autres pour leur plaisir perso se la foutent dans le zen Avec elle ils se sentent plus chauds Prêt à fumer un gars quand Lady Gaga coule dans ses veines Si t'as la meilleurs Lady Gaga tattisera la jalousie Que des petits mange-pierres voudront te finir au fusil Ne la touche même pas Ou viendront les soucis Pète un plomb tu pourras finir ta vie en asile Avec elle t'aura les liasses qui t'amèneront les tass Ensuite s'amènera cette putain qu'on appelle la poisse Gros, j'en ai bicrave je sais de quoi je te parle En vrai Lady Gaga n'est qu'un pétasse Filoché par la poisse avant même de me mettre à détailler ma Lady Gaga Elle a monté ma côte au prix des tracas Mais je l'ai maquée , sans que jamais elle ne me hagar Jamais baisser la garde face au charme de cette tshaga Oui c'est moi qui la coache Pas l'inverse coquine Jeu de hanche gauche droite Bise sur le pif des shlaga Rest In Peace à mamzelle Winehouse qui l'a prise pour amie au point de son existence en raquer Qu'est ce que tu veux ma salope est traîtresse, abuse de ta détresse Elle traîne et danse avec la racaille Bisexuelle, elle a rendu accro hommes et femmes en manque de sensations sur Beriz Pas de couleur définie par ses esclaves Mis à part le scénario noir dans le quel ils périssent 1</t>
+          <t>T'es tombé sous son charme puis elle t'es passée sous le nez Cette pute te veut du mal mais toi tu pourrais tout lui donner Dans les ruelles de Paname elle ne cesse de racoler Tout le monde la connait A elle t'es collé Pourtant elle ne cesse de se faire tourner Tu vous t'es cocu, elle s'offre au plus offrant Mais tu la désires toujours plus, toujours un peu plus forcement Maintenant sur toi cette pute a usé de sa ruse Tes potes te reconnaissent plus Ta mère te reconnait plus T'as dit je t'aime à cette chienne et cette salope s'est tue Tes frères te reconnaissent plus Ton père te reconnait plus Pour elle tu t'endettes,tu tentêtes et tu te tues Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Elle te pète la tête et tu l'as dans le sang Toi et elle en tête à tête tu n'fais pas semblant Tu la snif direct pas la peine de perdre de temps De toi elle s'en branle, elle préfère tes billets de banque Elle a la couleur Madonna ou Mylène Farmer Avec elle tu vis la nuit Avec elle tu vis la vie à 666kmh Elle n'aurait jamais du te passer sous le nez Tu ne serai jamais tombé love comme à cause de tous ces traits Tu n'étais pas prêt vas y maintenant tires un trait Beaucoup de gens vivent grâce à la Lady Gaga Oh Lady Gaga Les frigos se remplissent grâce à la Lady Gaga Oh Lady Gaga Les prisons se surpeuplent à cause de la Lady Gaga Oh Lady Gaga Drôle est notre humeur à cause de la Lady Gaga Oh Lady Gaga Lady Gaga x16 Oh mon ptit bébé de grande valeur Tu m'as rapporté tellement de malheurs Hmm, oh mon ptit bébé de grande valeur Tu m'as rapporté tellement de malheurs Pas de 09 moi elle était pourrie Mais vas y passe mes 70 balles et j'ai le sourire Oh mon ptit bébé de grande valeur Egal ptit bébé de grands malheurs Je reconnais les prétendants qui t'ont dans la peau Et ceux qui te manipulent qui t'ont dans les poches Oh ma Lady Gaga Je suis pas un hagar Sois bonne pour mes ien-cli et j'en serai gaga Et si c'est la hess je t'emmènerai partout Rencontrer des riches dans le milieu du show buisness Une autre rupture elle date de plusieurs mois Ça venait de moi Maintenant j'ai essayé dans le rap de tess Oh mon ptit bébé de grande valeur Tu m'as rapporté tellement de malheurs Un mal pour un bien je garde bon coeur Je rap et je suis un pauvre qui vient d'ailleurs Les kainri te glorifient, te plébiscitent, te trouvent magnifique Ou maléfique Quand le mal est fait Capable de provoquer des guerres fratricides Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Oh Lady Gaga Wesh Tony Montana Wesh Rihanna Wesh Maradona Wesh XXX Eh Eh Lady Gaga Traîne dans les couilles des dealers et atterrit dans les soirées branchées Lady Gaga Peut te transformer la plus grande célébrité en plus gros des déchets Certains se la procurent pour faire de l'oseille D'autres pour leur plaisir perso se la foutent dans le zen Avec elle ils se sentent plus chauds Prêt à fumer un gars quand Lady Gaga coule dans ses veines Si t'as la meilleurs Lady Gaga tattisera la jalousie Que des petits mange-pierres voudront te finir au fusil Ne la touche même pas Ou viendront les soucis Pète un plomb tu pourras finir ta vie en asile Avec elle t'aura les liasses qui t'amèneront les tass Ensuite s'amènera cette putain qu'on appelle la poisse Gros, j'en ai bicrave je sais de quoi je te parle En vrai Lady Gaga n'est qu'un pétasse Filoché par la poisse avant même de me mettre à détailler ma Lady Gaga Elle a monté ma côte au prix des tracas Mais je l'ai maquée , sans que jamais elle ne me hagar Jamais baisser la garde face au charme de cette tshaga Oui c'est moi qui la coache Pas l'inverse coquine Jeu de hanche gauche droite Bise sur le pif des shlaga Rest In Peace à mamzelle Winehouse qui l'a prise pour amie au point de son existence en raquer Qu'est ce que tu veux ma salope est traîtresse, abuse de ta détresse Elle traîne et danse avec la racaille Bisexuelle, elle a rendu accro hommes et femmes en manque de sensations sur Beriz Pas de couleur définie par ses esclaves Mis à part le scénario noir dans le quel ils périssent 1</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2023,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright We just really gotta keep on tryin VERSE 1 Sometimes I just cant help myself What you do to me is bad for my health But you make me feel alive like no-one else Take my breath away like a too tight belt Remember when I felt stupid Being next to you I still do it Working the brain like you doin People wondering why you do me Saying you are mine Sounds like music If gods the trailer You are the movie High definition you know im zoomin Wanna live with you and dont just be a roomie We ve known Each other for a long time On the whole it has been so fine They paintin pictures from you and I They show we fit together like you and I You might also likeChorus Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright We just really gotta keep on tryin Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright We just really gotta keep on tryin VERSE 2 Yo Mz Notice this You are like magic Hocus pocus i wanna focus On you if life is work you the bonus If you the streets im the homeless Natural beauty dont have to do anything for it Gimme your hand and I hold it With you on my side I feel like a grown kid I say it one time one time I want you to come by come by And wake me up like the sunshine If you are cocain you are my loveline I say it one time one time I want you to come by come by And wake me up like the sunshine If you are cocain you are my loveline Chorus Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright1</t>
+          <t>Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright We just really gotta keep on tryin VERSE 1 Sometimes I just cant help myself What you do to me is bad for my health But you make me feel alive like no-one else Take my breath away like a too tight belt Remember when I felt stupid Being next to you I still do it Working the brain like you doin People wondering why you do me Saying you are mine Sounds like music If gods the trailer You are the movie High definition you know im zoomin Wanna live with you and dont just be a roomie We ve known Each other for a long time On the whole it has been so fine They paintin pictures from you and I They show we fit together like you and I Chorus Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright We just really gotta keep on tryin Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright We just really gotta keep on tryin VERSE 2 Yo Mz Notice this You are like magic Hocus pocus i wanna focus On you if life is work you the bonus If you the streets im the homeless Natural beauty dont have to do anything for it Gimme your hand and I hold it With you on my side I feel like a grown kid I say it one time one time I want you to come by come by And wake me up like the sunshine If you are cocain you are my loveline I say it one time one time I want you to come by come by And wake me up like the sunshine If you are cocain you are my loveline Chorus Baby you got somethin on your mind I know because you are tryna hide Everything everything everything Is gonna be alright1</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2040,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bien sûr l'industrie va m'faire baisser mon froc J'vais leur chier à la gueule J'suis un loveur bébé t'adoreras me détester En me suçant la queue Sers moi un verre que je raconte mes emmerdes J't'ai dit sers moi un verre que je raconte mes emmerdes J'écris les conneries de la jungle Les femelles c'est dangereux, un coup de queue, un coup de cur Visite à six heures donc aujourd'hui pas d'Google Ecoute la police quand ils te disent ferme ta gueule Pour un négro la vie c'est pas facile J'ai pas le temps, j'ai pas pour habitude d'être fragile Ils pètent un plomb à force de fumer du vieux shit Le rap c'est de l'eau, t'es noir, j't'explique Tu bosseras trois fois plus pour faire trempette dans la piscine Tu crois que ça se résume à baiser des bitchs Le public raffole de tes suceurs de bites J'viens de là où on attend pas le Père Noël On attend plutôt celui qui aura le meilleur matos Ils achètent leurs armes pour leurs clips Nous plutôt pour sécuriser notre peau Les grands médias te tournent le dos T'as pas la gueule à Kev' Adams pour les prendre en levrette Quand je dis des nique ta mère ça passe pas Mais quand c'est des fils à pap... hm ça passe crème Si le rap c'était mieux avant, ferme ta gueule Fais ton deuil et qu'il repose en paix Joue le jeu, c'est la MZ Reconnaît dans toute la France ses supporters J'aime la musique, je veux la révolutionner comme le docteur Tellement d'escrocs, ça ne change pas depuis l'époque des Bone Thugs Hélas, Bébé Nan pétasse le rap c'est comme ta gueule c'est chelou sans make-up You might also like Bien sûr l'industrie va m'faire baisser mon froc J'vais leur chier à la gueule J'suis un loveur bébé t'adoreras me détester En me suçant la queue Sers moi un verre que je raconte mes emmerdes J't'ai dit sers moi un verre que je raconte mes emmerdes Le jour où j'suis venu au monde, papa était en son-pri Mentalité de revanchard, n'ont jamais compris Pas là pour faire du mal mais pour récupérer tout ce qu'ils ont pris C'est pour maman qu'j'vis, et ses putains de factures Papa m'dit d'esquiver les lardus Les petits ne connaissent pas encore les problèmes Les pauvres n'savent pas comment cette vie est dure P'tite merde Déjà qu'j'm'en bats les couilles, j'suis pas là pour t'plaire J'ai jamais compris la crise financière Ils nous prennent pour des cons pendant qu'mon continent pleure On s'en bat les couilles de qui t'es On va sucer personne, allez quittez On a des armes d'Antiquité Seul maître de nos destins, aucun faibles d'esprit on est pas téléguidés Wesh, belek à ton derch Ton soi-disant poto peut changer pour du cash Ton frère de sang peut changer pour une teuch Ta propre femme peut te foutre en cage On a visser dans ce putain de skate-park Au début c'était que pour cette paire de sket-ba Le vice du biff nous a menés au quette-pla Car on voulait plus de grailles dans nos plats J'déteste les suceurs de bites, j'les ai dans le viseur j'débite J'veux que les p'tits frères débitent tout en étant loin d'ces putes Très jeune j'ai jeté les cahiers, j'ai jamais voulu travailler Des kilos, des kils de shit détaillés C'est pas ta mère qui va payer mon loyer Poto j'ai grandi au bled moi, j'veux jamais crié à l'aide moi Car je sais faire des pépettes moi T'inquiète j'ai remarqué ces fils de pute dans le quartier ou en dehors Que des hypocrites et j'les ken moi Si j'les ken XXX ces fils de pute crieront pour que je fasse un XXX Me voir réussir leur font mal à la tête On est pas inquiets les grigris viennent du bled Négro j'ai la rage, ouais négro j'ai la rage Ces fils de pute me foutent la rage Casser la tête pour des futilités, j'ai plus l'âge Le buzz est une pute, le public ingrat Le temps passe vite et moi j'attends de crever Wesh la concu', j'vous donne rendez-vous sur la ligne d'arrivée Depuis Bratatata, ils nous regardent de haut Ma voix sort du bloc, elle résonne dans les halls J'te montre ma vie, en Blu-ray et en V.O Les mots sont dix fois plus explicites qu'une vidéo J'viens te chanter ma B.O J'dors peu la nuit, j'fume beaucoup de bédo J'suis au studio, je n'ai pas de réseau J'bosse pour transformer mes flows en euros Notre affaire de famille est tombée à l'eau Dur d'avancer quand t'es entouré de faux négros comme Zox' et Melopheelo Tout le monde sait combien pour eux j'avais de l'estime Tu n'as rien d'un king, arrêtons la mythologie T'es qu'un imposteur qui veut graille sur ma musique Vous m'avez bien eu M'demande pas pourquoi j'lave mon linge sale en public Si quand j't'appelle tu t'mets constamment sur messagerie J'pourrais être ton fils donc arrête de prendre la fuite Ma vie est triste, moi qui aurait voulu être un artiste J'sais plus où j'mange car j'traîne où j'habite J'traîne dans le bloc avec les mecs d'mon équipe Parlons pas religion, parlons pas politique Parlons pas devant les putes et devant la police Le week-end j'suis fucked up dans le carré VIP J'sors que quand mes couilles et les bouteilles sont vides J'kicke et mes djandjous twerkent Mes OG bougent leurs têtes Maman tes enfants remboursent tes dettes Grâce aux bénef' des concerts et mixtapes J'viens de Chevaleret tout comme Marlo et Chich Donc je me dois de faire du chiffre, et du chiffre, et du chiffre, et du chiffre, et du chiffre, et du chiffre La vie est dure Donc j'bosse comme Isma, j'bosse comme un boss J'bosse comme Davidson La dictature Le régime qu'on instaurera au prochain album</t>
+          <t>Bien sûr l'industrie va m'faire baisser mon froc J'vais leur chier à la gueule J'suis un loveur bébé t'adoreras me détester En me suçant la queue Sers moi un verre que je raconte mes emmerdes J't'ai dit sers moi un verre que je raconte mes emmerdes J'écris les conneries de la jungle Les femelles c'est dangereux, un coup de queue, un coup de cur Visite à six heures donc aujourd'hui pas d'Google Ecoute la police quand ils te disent ferme ta gueule Pour un négro la vie c'est pas facile J'ai pas le temps, j'ai pas pour habitude d'être fragile Ils pètent un plomb à force de fumer du vieux shit Le rap c'est de l'eau, t'es noir, j't'explique Tu bosseras trois fois plus pour faire trempette dans la piscine Tu crois que ça se résume à baiser des bitchs Le public raffole de tes suceurs de bites J'viens de là où on attend pas le Père Noël On attend plutôt celui qui aura le meilleur matos Ils achètent leurs armes pour leurs clips Nous plutôt pour sécuriser notre peau Les grands médias te tournent le dos T'as pas la gueule à Kev' Adams pour les prendre en levrette Quand je dis des nique ta mère ça passe pas Mais quand c'est des fils à pap... hm ça passe crème Si le rap c'était mieux avant, ferme ta gueule Fais ton deuil et qu'il repose en paix Joue le jeu, c'est la MZ Reconnaît dans toute la France ses supporters J'aime la musique, je veux la révolutionner comme le docteur Tellement d'escrocs, ça ne change pas depuis l'époque des Bone Thugs Hélas, Bébé Nan pétasse le rap c'est comme ta gueule c'est chelou sans make-up Bien sûr l'industrie va m'faire baisser mon froc J'vais leur chier à la gueule J'suis un loveur bébé t'adoreras me détester En me suçant la queue Sers moi un verre que je raconte mes emmerdes J't'ai dit sers moi un verre que je raconte mes emmerdes Le jour où j'suis venu au monde, papa était en son-pri Mentalité de revanchard, n'ont jamais compris Pas là pour faire du mal mais pour récupérer tout ce qu'ils ont pris C'est pour maman qu'j'vis, et ses putains de factures Papa m'dit d'esquiver les lardus Les petits ne connaissent pas encore les problèmes Les pauvres n'savent pas comment cette vie est dure P'tite merde Déjà qu'j'm'en bats les couilles, j'suis pas là pour t'plaire J'ai jamais compris la crise financière Ils nous prennent pour des cons pendant qu'mon continent pleure On s'en bat les couilles de qui t'es On va sucer personne, allez quittez On a des armes d'Antiquité Seul maître de nos destins, aucun faibles d'esprit on est pas téléguidés Wesh, belek à ton derch Ton soi-disant poto peut changer pour du cash Ton frère de sang peut changer pour une teuch Ta propre femme peut te foutre en cage On a visser dans ce putain de skate-park Au début c'était que pour cette paire de sket-ba Le vice du biff nous a menés au quette-pla Car on voulait plus de grailles dans nos plats J'déteste les suceurs de bites, j'les ai dans le viseur j'débite J'veux que les p'tits frères débitent tout en étant loin d'ces putes Très jeune j'ai jeté les cahiers, j'ai jamais voulu travailler Des kilos, des kils de shit détaillés C'est pas ta mère qui va payer mon loyer Poto j'ai grandi au bled moi, j'veux jamais crié à l'aide moi Car je sais faire des pépettes moi T'inquiète j'ai remarqué ces fils de pute dans le quartier ou en dehors Que des hypocrites et j'les ken moi Si j'les ken XXX ces fils de pute crieront pour que je fasse un XXX Me voir réussir leur font mal à la tête On est pas inquiets les grigris viennent du bled Négro j'ai la rage, ouais négro j'ai la rage Ces fils de pute me foutent la rage Casser la tête pour des futilités, j'ai plus l'âge Le buzz est une pute, le public ingrat Le temps passe vite et moi j'attends de crever Wesh la concu', j'vous donne rendez-vous sur la ligne d'arrivée Depuis Bratatata, ils nous regardent de haut Ma voix sort du bloc, elle résonne dans les halls J'te montre ma vie, en Blu-ray et en V.O Les mots sont dix fois plus explicites qu'une vidéo J'viens te chanter ma B.O J'dors peu la nuit, j'fume beaucoup de bédo J'suis au studio, je n'ai pas de réseau J'bosse pour transformer mes flows en euros Notre affaire de famille est tombée à l'eau Dur d'avancer quand t'es entouré de faux négros comme Zox' et Melopheelo Tout le monde sait combien pour eux j'avais de l'estime Tu n'as rien d'un king, arrêtons la mythologie T'es qu'un imposteur qui veut graille sur ma musique Vous m'avez bien eu M'demande pas pourquoi j'lave mon linge sale en public Si quand j't'appelle tu t'mets constamment sur messagerie J'pourrais être ton fils donc arrête de prendre la fuite Ma vie est triste, moi qui aurait voulu être un artiste J'sais plus où j'mange car j'traîne où j'habite J'traîne dans le bloc avec les mecs d'mon équipe Parlons pas religion, parlons pas politique Parlons pas devant les putes et devant la police Le week-end j'suis fucked up dans le carré VIP J'sors que quand mes couilles et les bouteilles sont vides J'kicke et mes djandjous twerkent Mes OG bougent leurs têtes Maman tes enfants remboursent tes dettes Grâce aux bénef' des concerts et mixtapes J'viens de Chevaleret tout comme Marlo et Chich Donc je me dois de faire du chiffre, et du chiffre, et du chiffre, et du chiffre, et du chiffre, et du chiffre La vie est dure Donc j'bosse comme Isma, j'bosse comme un boss J'bosse comme Davidson La dictature Le régime qu'on instaurera au prochain album</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2057,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J'suis dans mon coin, je fais c'que j'ai à faire Mais j'te cache pas que j'aime pas les paroles de tous tes putain d'prêcheurs J'suis dans la réaction et l'action J'suis plus dans la shneck à ta soeur, elle me rappelle qu'j'suis un mauvais pécheur On est sur le même bateau, mais on n'a pas la même côte On n'a pas bossé le même eldorado Va t'faire enculer si t'as l'temps Va t'faire enculer si tu tends la main comme un manchot Et où sont passés mes négros ? Mes négros qui, sous la ceinture, font caresser le fer aux abdos Les feuilles tombent et les nuages pleurent On est sur le ter-ter, on est déterminé comme Rambo J'suis comme on n'en fait plus J'lui donne toujours son bonbon même quand j'en peux plus Jaloux j'me souviens pas d'ta gueule comme mon prépuce Tu m'niques par wi-fi, j'te nique dans la vie On ne m'en fait plus, ma p'tite Dehmo imite-moi mais t'as pas l'astuce Ton game il pue la merde comme un pet qu'on propulse J'te nique en musique, en Zeutrei Mafia Du quartier à la métropole, on tourne, on tourne, c'est bon, ouais Blehni tu nous connais pas, on est la nouvelle sensation, ouais On y va à fond pour nos billets et on fume la bonne, ouais T'inquiète, on n'a pas touché ta meuf Vu qu'elle est pas très bonne, ouais On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on n'en fait plus On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on est Mafia, mafia, mafia, mafia Mafia, mafia, mafia On est comme on est, comme on est Mafia, j'ai perdu mon âme dans cette mafia Où les enfants meurent dans les rues de Paname Au bas-fond de Massillia L'ambiance est invivable, les fondations d'nos murs sont peu fiables L'amour est familiale Résidu d'cocaïne sur mes billets d'banque Les schlags et les putes sont en manque De la planque au point d'vente, mais Big Daddy bosse pour s'remplir le ventre À force de sucer t'as des croûtes sur les genoux Gorge profonde ou pas, tu ne seras jamais comme nous 3 comme la MSN sur le terrain du Camp Nou Ils savent qu'on a les mains sales mais qu'on est mignon comme tout Mafia Du quartier à la métropole, on tourne, on tourne, c'est bon, ouais Blehni tu nous connais pas, on est la nouvelle sensation, ouais On y va à fond pour nos billets et on fume la bonne, ouais T'inquiète, on n'a pas touché ta meuf Vu qu'elle est pas très bonne, ouais On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on n'en fait plus On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on est Mafia, mafia, mafia, mafia Mafia, mafia, mafia On est comme on est, comme on est Mafia J'prends l'coffre et j'me barre tel un fuyard S'ta meuf parle de oim, gros méfie-toi J'répète dans ma te-tê, c'est un gros foutoir Elle a vu l'ke-tru, elle veut s'rier-ma Elle a pas d'oseille, j'veux Rihanna Tu cherches à t'montrer, j'veux Kalina J'ai d'la gue-dro en l'stock, fuck leur malinois J'suis avec Majestic dans la vago Rien qu'on barode J'suis fonce-dé, jnouné Toi tu grattes des sticks, ça t'rend paro' On a du bédo, ça roule des gros joints toute la journée Ouais, et j'vois qu't'es vert On est comme on est, tu vas rien faire Paye-moi en liquide, j'dégaine le fer Ivoirien dans l'sang, y'a pas plus fier Du quartier à la métropole, on tourne, on tourne, c'est bon, ouais Blehni tu nous connais pas, on est la nouvelle sensation, ouais On y va à fond pour nos billets et on fume la bonne, ouais T'inquiète, on n'a pas touché ta meuf Vu qu'elle est pas très bonne, ouais On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on n'en fait plus On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on est Mafia, mafia, mafia, mafia Mafia, mafia, mafia On est comme on est, comme on estYou might also like</t>
+          <t>J'suis dans mon coin, je fais c'que j'ai à faire Mais j'te cache pas que j'aime pas les paroles de tous tes putain d'prêcheurs J'suis dans la réaction et l'action J'suis plus dans la shneck à ta soeur, elle me rappelle qu'j'suis un mauvais pécheur On est sur le même bateau, mais on n'a pas la même côte On n'a pas bossé le même eldorado Va t'faire enculer si t'as l'temps Va t'faire enculer si tu tends la main comme un manchot Et où sont passés mes négros ? Mes négros qui, sous la ceinture, font caresser le fer aux abdos Les feuilles tombent et les nuages pleurent On est sur le ter-ter, on est déterminé comme Rambo J'suis comme on n'en fait plus J'lui donne toujours son bonbon même quand j'en peux plus Jaloux j'me souviens pas d'ta gueule comme mon prépuce Tu m'niques par wi-fi, j'te nique dans la vie On ne m'en fait plus, ma p'tite Dehmo imite-moi mais t'as pas l'astuce Ton game il pue la merde comme un pet qu'on propulse J'te nique en musique, en Zeutrei Mafia Du quartier à la métropole, on tourne, on tourne, c'est bon, ouais Blehni tu nous connais pas, on est la nouvelle sensation, ouais On y va à fond pour nos billets et on fume la bonne, ouais T'inquiète, on n'a pas touché ta meuf Vu qu'elle est pas très bonne, ouais On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on n'en fait plus On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on est Mafia, mafia, mafia, mafia Mafia, mafia, mafia On est comme on est, comme on est Mafia, j'ai perdu mon âme dans cette mafia Où les enfants meurent dans les rues de Paname Au bas-fond de Massillia L'ambiance est invivable, les fondations d'nos murs sont peu fiables L'amour est familiale Résidu d'cocaïne sur mes billets d'banque Les schlags et les putes sont en manque De la planque au point d'vente, mais Big Daddy bosse pour s'remplir le ventre À force de sucer t'as des croûtes sur les genoux Gorge profonde ou pas, tu ne seras jamais comme nous 3 comme la MSN sur le terrain du Camp Nou Ils savent qu'on a les mains sales mais qu'on est mignon comme tout Mafia Du quartier à la métropole, on tourne, on tourne, c'est bon, ouais Blehni tu nous connais pas, on est la nouvelle sensation, ouais On y va à fond pour nos billets et on fume la bonne, ouais T'inquiète, on n'a pas touché ta meuf Vu qu'elle est pas très bonne, ouais On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on n'en fait plus On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on est Mafia, mafia, mafia, mafia Mafia, mafia, mafia On est comme on est, comme on est Mafia J'prends l'coffre et j'me barre tel un fuyard S'ta meuf parle de oim, gros méfie-toi J'répète dans ma te-tê, c'est un gros foutoir Elle a vu l'ke-tru, elle veut s'rier-ma Elle a pas d'oseille, j'veux Rihanna Tu cherches à t'montrer, j'veux Kalina J'ai d'la gue-dro en l'stock, fuck leur malinois J'suis avec Majestic dans la vago Rien qu'on barode J'suis fonce-dé, jnouné Toi tu grattes des sticks, ça t'rend paro' On a du bédo, ça roule des gros joints toute la journée Ouais, et j'vois qu't'es vert On est comme on est, tu vas rien faire Paye-moi en liquide, j'dégaine le fer Ivoirien dans l'sang, y'a pas plus fier Du quartier à la métropole, on tourne, on tourne, c'est bon, ouais Blehni tu nous connais pas, on est la nouvelle sensation, ouais On y va à fond pour nos billets et on fume la bonne, ouais T'inquiète, on n'a pas touché ta meuf Vu qu'elle est pas très bonne, ouais On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on n'en fait plus On est comme on n'en fait plus On est comme on n'en fait plus On est comme on est, comme on est, comme on est Mafia, mafia, mafia, mafia Mafia, mafia, mafia On est comme on est, comme on est</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ile razy to syszysz? ycie, samotno w ciszy To czego sam si boj Ja i Ty - spónieni kochankowie Kiedy sowa nic nie znacz Kiedy anioy pacz Wpó otwarte oczy, midzy snem a czuwaniem Pozory, nic ju nie jest tym czym si wydaje Ej kobitko, prosz, nie bd taka smutna Obiecuje, zapomnisz o mnie do jutra To, co pikne ju mino, to co ze si zakoczyo ycie zabio t mio, noc ka po cichu, tak jest tu Miejsce w óku puste, ale ciepe od Twojego snu Milczenie, które tak duo mówio, nic ju nam nie powie Ja i Ty - spónieni kochankowie Na Twojej buzi zy, jak na niebie krople gwiazd Nie zatrzymasz tego, zy wiatr wieje nam w twarz Wilgotnych oczu blask, tego nie zmienia Pocaunkami nie zmusisz mnie do milczenia Daj mi spokój, zostaw, pu mnie Nie potrafi odpowiada umiechem na umiech Wiem ta melodia zabija serca Zobaczysz, zapomnisz, czas to morderca You might also like Ile razy to syszysz? To czego sam si boj Kiedy sowa nic nie znacz Wpó otwarte oczy, midzy snem, a czuwaniem Pozory, nic ju nie jest tym czym si wydaje Mój obraz w Twoich oczach powoli blaknie Puls sabnie, krew krzepnie Nie pasuje do Twojego wiata, nie mog by ju tu Chopak z bloków, z innego kruszcu Znam smak krwi, ez, potu Moi przyjaciele na marginesie mroku Deszcz my wilgoci, alem, smutkiem Kady z nas z niepewnym jutrem Ulice dzi bezludne wypenia szept sów Ksiyc rzuca mi twój cie do stóp Wszystko ju skoczone jest midzy nami Nie wymuszaj mioci, nie szantauj zami Zapomnij o mnie, nie ma mnie od teraz To rzeczywisto ten przymus wywiera Wykasuj mój telefon, to proste jest, widzisz? Wczoraj mnie kochaa, dzi mnie znienawidzisz Ile razy to syszysz? ycie, samotno w ciszy To czego sam si boj Ja i Ty, spónieni kochankowie Kiedy sowa nic nie znacz Kiedy anioy pacz Wpó otwarte oczy, midzy snem a czuwaniem Pozory, nic ju nie jest tym czym si wydaje</t>
+          <t>Ile razy to syszysz? ycie, samotno w ciszy To czego sam si boj Ja i Ty - spónieni kochankowie Kiedy sowa nic nie znacz Kiedy anioy pacz Wpó otwarte oczy, midzy snem a czuwaniem Pozory, nic ju nie jest tym czym si wydaje Ej kobitko, prosz, nie bd taka smutna Obiecuje, zapomnisz o mnie do jutra To, co pikne ju mino, to co ze si zakoczyo ycie zabio t mio, noc ka po cichu, tak jest tu Miejsce w óku puste, ale ciepe od Twojego snu Milczenie, które tak duo mówio, nic ju nam nie powie Ja i Ty - spónieni kochankowie Na Twojej buzi zy, jak na niebie krople gwiazd Nie zatrzymasz tego, zy wiatr wieje nam w twarz Wilgotnych oczu blask, tego nie zmienia Pocaunkami nie zmusisz mnie do milczenia Daj mi spokój, zostaw, pu mnie Nie potrafi odpowiada umiechem na umiech Wiem ta melodia zabija serca Zobaczysz, zapomnisz, czas to morderca Ile razy to syszysz? To czego sam si boj Kiedy sowa nic nie znacz Wpó otwarte oczy, midzy snem, a czuwaniem Pozory, nic ju nie jest tym czym si wydaje Mój obraz w Twoich oczach powoli blaknie Puls sabnie, krew krzepnie Nie pasuje do Twojego wiata, nie mog by ju tu Chopak z bloków, z innego kruszcu Znam smak krwi, ez, potu Moi przyjaciele na marginesie mroku Deszcz my wilgoci, alem, smutkiem Kady z nas z niepewnym jutrem Ulice dzi bezludne wypenia szept sów Ksiyc rzuca mi twój cie do stóp Wszystko ju skoczone jest midzy nami Nie wymuszaj mioci, nie szantauj zami Zapomnij o mnie, nie ma mnie od teraz To rzeczywisto ten przymus wywiera Wykasuj mój telefon, to proste jest, widzisz? Wczoraj mnie kochaa, dzi mnie znienawidzisz Ile razy to syszysz? ycie, samotno w ciszy To czego sam si boj Ja i Ty, spónieni kochankowie Kiedy sowa nic nie znacz Kiedy anioy pacz Wpó otwarte oczy, midzy snem a czuwaniem Pozory, nic ju nie jest tym czym si wydaje</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2091,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mmmh! You know I hustle I hustle Haaard.. I hustle I hustle Haaaard.. Naongeza maujuzi ili nisichokwe na crown, Heeenh Usilete makuzi, Hamtaki nitoke na bounce, Heeenh Ni mzee mbuzi, SHIPAPI, Zitoke hizo blouse, Heeenh Take off the shoes when you walk in the house Na hurudi ndani kama futi ya fundi ukuta Nina bahati f'lani mamluki, Wazushi hunisusa Kesho sio spesho, ikiwa haifiki ka keshokutwa Na ni vyema depo usiwepo, ikiwa street we ni kuruta Na je mnaamini kwenye Get up and get it Au ndio mshalemazwa na ile sit down and see it Siri ikiwa ya wawili haiwi siri mtaji Snitch Na tajiri haukariri, Hauoni watabiri wana-switch Mko bize, Mnataka mniharibie nisitoke Njia yenu ina utelezi, Nije mnipatie matope?? Mna upungufu wa umakini Mnahitaji rapture kama waefeso Luni ki nne kumi na saba Sometimes, Nakaa chini akilini najenga fikra Najiuliza lini mtashika madini ya hichi kichwa Ukauzu huu sio wa kufuga kama mzuzu wa Zavara Msi confuse Kung Fu na ile Lugha ya ishara Na flip hii game, kama Jaguar kwenye maonyesho ya sarakasi Kwa mademu mi zaidi ya viagra inayompa msaada bwana yake So.. Nikimwona mchizi, Anam kiss demu wangu wa zamani Kwenye Lips na ana enjoy nahisi atamu yule demu akinipa m... Sikojoi You might also like I hustle Haaard.. I hustle I hustle Haaaard.. I want some mother shit ka dudu kuwa kwenye tundu sio, Huuh?? Unaweza ukauwa ukawa na uchungu na kilio, Huuh?? Nachojua kiwe sure kiwe ndiyo, Huuh? Tusiwe waoga unataka slogan?? ndiyo hio, Huuh? Naona mnavyonifonza napoonja mafanikio Jeshi la mtu mmoja sitochoka, Sitotoka mbio Sitotoka na kiu ya mgonjwa aliyeponzwa na kauli mbiu hiyo Nakufa moyo nikikwama imani inakosa Kichwani zinatoka, Nani wa kumlaani haswa unanitosa Kwa sehemu husika ni vyema, Game linalipa mapema Ukizishika neema, Hunipa kwa fani ya kufoka Kisha unasema mlaji sio mchumi, Huunh?? Namvisha taji uvunaji unahitaji kanuni, Huunh?? Inakuwaje sina kumi wakati nina tisa Watanijuaje muhuni bila kusababisha Kama mapacha na DO ME, Au May Weather na ngumi?? Juu ya meza au uvunguni, Bila kuwekeza hata thumni?? Nachokieneza hakibumi, Haswa wakinipigisha bars wao huteleza Sio wakati wa R. Kelly wamwache Chris Breezy atishe Akiwa Lubumbashi au na hii chart na Ekotite, Eeeh? Anataka apite, Abaki kati ili bahati isimshike Asitambae na chaki mvute shati hisabati zimtishe Dharau ndio kilema nilichonacho Nawasahau mapema wadau walionitema kisha na hustle Na ninapiga bao, Vyema mbele yao Tena wakiwa macho, Nyamazisha wanao Nena kwa Neema nikivuja Jasho Mziki ni zaidi ya DO RE MI FA SOOO Na wapenda kiki ndio wanalowea mipashoo Na ninasikia siku hizi pesa inafanya upuuzi uwe ishu Kisa inalipa isiwe excuse kwa kila kitu I put my heart and soul, coz this all i know All I know is to hustle I hustle I hustle hard You know I hustle You know I hustle Haaard Wanene</t>
+          <t>Mmmh! You know I hustle I hustle Haaard.. I hustle I hustle Haaaard.. Naongeza maujuzi ili nisichokwe na crown, Heeenh Usilete makuzi, Hamtaki nitoke na bounce, Heeenh Ni mzee mbuzi, SHIPAPI, Zitoke hizo blouse, Heeenh Take off the shoes when you walk in the house Na hurudi ndani kama futi ya fundi ukuta Nina bahati f'lani mamluki, Wazushi hunisusa Kesho sio spesho, ikiwa haifiki ka keshokutwa Na ni vyema depo usiwepo, ikiwa street we ni kuruta Na je mnaamini kwenye Get up and get it Au ndio mshalemazwa na ile sit down and see it Siri ikiwa ya wawili haiwi siri mtaji Snitch Na tajiri haukariri, Hauoni watabiri wana-switch Mko bize, Mnataka mniharibie nisitoke Njia yenu ina utelezi, Nije mnipatie matope?? Mna upungufu wa umakini Mnahitaji rapture kama waefeso Luni ki nne kumi na saba Sometimes, Nakaa chini akilini najenga fikra Najiuliza lini mtashika madini ya hichi kichwa Ukauzu huu sio wa kufuga kama mzuzu wa Zavara Msi confuse Kung Fu na ile Lugha ya ishara Na flip hii game, kama Jaguar kwenye maonyesho ya sarakasi Kwa mademu mi zaidi ya viagra inayompa msaada bwana yake So.. Nikimwona mchizi, Anam kiss demu wangu wa zamani Kwenye Lips na ana enjoy nahisi atamu yule demu akinipa m... Sikojoi I hustle Haaard.. I hustle I hustle Haaaard.. I want some mother shit ka dudu kuwa kwenye tundu sio, Huuh?? Unaweza ukauwa ukawa na uchungu na kilio, Huuh?? Nachojua kiwe sure kiwe ndiyo, Huuh? Tusiwe waoga unataka slogan?? ndiyo hio, Huuh? Naona mnavyonifonza napoonja mafanikio Jeshi la mtu mmoja sitochoka, Sitotoka mbio Sitotoka na kiu ya mgonjwa aliyeponzwa na kauli mbiu hiyo Nakufa moyo nikikwama imani inakosa Kichwani zinatoka, Nani wa kumlaani haswa unanitosa Kwa sehemu husika ni vyema, Game linalipa mapema Ukizishika neema, Hunipa kwa fani ya kufoka Kisha unasema mlaji sio mchumi, Huunh?? Namvisha taji uvunaji unahitaji kanuni, Huunh?? Inakuwaje sina kumi wakati nina tisa Watanijuaje muhuni bila kusababisha Kama mapacha na DO ME, Au May Weather na ngumi?? Juu ya meza au uvunguni, Bila kuwekeza hata thumni?? Nachokieneza hakibumi, Haswa wakinipigisha bars wao huteleza Sio wakati wa R. Kelly wamwache Chris Breezy atishe Akiwa Lubumbashi au na hii chart na Ekotite, Eeeh? Anataka apite, Abaki kati ili bahati isimshike Asitambae na chaki mvute shati hisabati zimtishe Dharau ndio kilema nilichonacho Nawasahau mapema wadau walionitema kisha na hustle Na ninapiga bao, Vyema mbele yao Tena wakiwa macho, Nyamazisha wanao Nena kwa Neema nikivuja Jasho Mziki ni zaidi ya DO RE MI FA SOOO Na wapenda kiki ndio wanalowea mipashoo Na ninasikia siku hizi pesa inafanya upuuzi uwe ishu Kisa inalipa isiwe excuse kwa kila kitu I put my heart and soul, coz this all i know All I know is to hustle I hustle I hustle hard You know I hustle You know I hustle Haaard Wanene</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2108,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Océan d'matière fécale, automatique, illicite comme XXX Mains faites pour le diamant, j'pouvais pas les laisser dans le cambouis Fils d'immigrants du tiers-monde à la débrouille, au bon-char, tant doué XXX du thermos, chaleur humaine en chute quand vient le moment de se renflouer Focalisés sur XXX, XXX XXX Mothefuck ici la MZ, plus grand chose nous fait trembler J'y tremperai pas par inadvertance, apercevoir ma réussite se cambrer J'te raconterai pas des montagnes, ouais J'arrache tout puis je me taille Mentalité à finir écroué ou troué comme l'emmental, l'ami Jamais de fausses notes dans mes écrits Et ce jusqu'à ce que me sucent leurs hauts-placés qui nous méprisent Oh, posé au tièks, j'prépare mes dièzes Je fais partie de ceux que les meufs biens ne fréquentent pas J'fais mon business, les flics me guettent J'm'en bats les steaks tant que je goûte pas au card-pla Faut que j'évite le placard, faut que j'évite le placard Faut que j'évite le placard, faut que je trouve un plan B hé hé Faut que j'évite le placard, faut que j'évite le placard Faut que j'évite le placard, faut que je trouve un plan B hé hé B hé hé, B hé hé J'ai besoin d'un plan, il me faut ce plan Faut que je trouve un plan B hé hé B hé hé, B hé hé Faut pas que je tombe dedans, faut que je trouve ce plan J'ai besoin d'un plan B hé hé You might also like C'est que de prises de risque, fais pas le surpris sur des coups de vice Tu vois que la poisse te piste, dans le biz le salaire n'est jamais fixe Faudra te lever tôt, recharger du bon bédo Fais pas l'imitation ghetto, zappe la cerise sur le gâteau Trouve-toi 2-3 gars sûrs qui t'assurent jusqu'à ta soeur On tombera tous un jour ou l'autre, renvoie-moi juste l'ascenseur Bise aux petites sincères, vise la puissance frère Les renois sont pas prêts, fuck du blé reste le fils de ton père Toujours 2 coups d'avance, demande pas au bonobo comment faire des gosses Quand t'es le 22 sur le terrain, personne te demandera c'est quoi ton poste T'affiche pas comme les B2K Et puis barbie n'est qu'une pute qui ken 1 pour le respect, 2 fais de l'oseille Et arrête de t'astiquer la kékétte Jeune focus, j'dois faire des thunes et faire des gros tubes Même si parfois je suis distrait par des gros culs Depuis que Papa n'est pas là, j'ai du épaulé la mama J'veux faire un paquet de mula sans la même fin que Tony Montana J'suis allé à l'école, j'ai vendu de la drogue Résultat j'ai vendu ma drogue sur le chemin de l'école Et sachez que j'suis pas un bandit mais le reflet de là où j'ai grandi Nos ennemis sont tellement proches que je compte dormir avec un brolique sous le lit Oh, insoumis depuis l'abolition Je rêve de faire l'amour à la vie depuis ma circoncision J'traine dans les rues de ma ville avec les mecs de ma circonscription Comme Mitraillette j'veux atteindre tous mes rêves sans exception Davidson Presents, KDBzik Davidson Presents, KDBzik Davidson Presents, KDBzik Davidson Presents, KDBzik</t>
+          <t>Océan d'matière fécale, automatique, illicite comme XXX Mains faites pour le diamant, j'pouvais pas les laisser dans le cambouis Fils d'immigrants du tiers-monde à la débrouille, au bon-char, tant doué XXX du thermos, chaleur humaine en chute quand vient le moment de se renflouer Focalisés sur XXX, XXX XXX Mothefuck ici la MZ, plus grand chose nous fait trembler J'y tremperai pas par inadvertance, apercevoir ma réussite se cambrer J'te raconterai pas des montagnes, ouais J'arrache tout puis je me taille Mentalité à finir écroué ou troué comme l'emmental, l'ami Jamais de fausses notes dans mes écrits Et ce jusqu'à ce que me sucent leurs hauts-placés qui nous méprisent Oh, posé au tièks, j'prépare mes dièzes Je fais partie de ceux que les meufs biens ne fréquentent pas J'fais mon business, les flics me guettent J'm'en bats les steaks tant que je goûte pas au card-pla Faut que j'évite le placard, faut que j'évite le placard Faut que j'évite le placard, faut que je trouve un plan B hé hé Faut que j'évite le placard, faut que j'évite le placard Faut que j'évite le placard, faut que je trouve un plan B hé hé B hé hé, B hé hé J'ai besoin d'un plan, il me faut ce plan Faut que je trouve un plan B hé hé B hé hé, B hé hé Faut pas que je tombe dedans, faut que je trouve ce plan J'ai besoin d'un plan B hé hé C'est que de prises de risque, fais pas le surpris sur des coups de vice Tu vois que la poisse te piste, dans le biz le salaire n'est jamais fixe Faudra te lever tôt, recharger du bon bédo Fais pas l'imitation ghetto, zappe la cerise sur le gâteau Trouve-toi 2-3 gars sûrs qui t'assurent jusqu'à ta soeur On tombera tous un jour ou l'autre, renvoie-moi juste l'ascenseur Bise aux petites sincères, vise la puissance frère Les renois sont pas prêts, fuck du blé reste le fils de ton père Toujours 2 coups d'avance, demande pas au bonobo comment faire des gosses Quand t'es le 22 sur le terrain, personne te demandera c'est quoi ton poste T'affiche pas comme les B2K Et puis barbie n'est qu'une pute qui ken 1 pour le respect, 2 fais de l'oseille Et arrête de t'astiquer la kékétte Jeune focus, j'dois faire des thunes et faire des gros tubes Même si parfois je suis distrait par des gros culs Depuis que Papa n'est pas là, j'ai du épaulé la mama J'veux faire un paquet de mula sans la même fin que Tony Montana J'suis allé à l'école, j'ai vendu de la drogue Résultat j'ai vendu ma drogue sur le chemin de l'école Et sachez que j'suis pas un bandit mais le reflet de là où j'ai grandi Nos ennemis sont tellement proches que je compte dormir avec un brolique sous le lit Oh, insoumis depuis l'abolition Je rêve de faire l'amour à la vie depuis ma circoncision J'traine dans les rues de ma ville avec les mecs de ma circonscription Comme Mitraillette j'veux atteindre tous mes rêves sans exception Davidson Presents, KDBzik Davidson Presents, KDBzik Davidson Presents, KDBzik Davidson Presents, KDBzik</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2125,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Hey , hey , hey On va s'la refaire Hache-P de la MZ , Motherfucker Tu connais la suite moi j'te fuck Pour tous les mecs des blocks Et ouais dans la coke Ou sont tes rappeurs ont toquent Ils vont faire dans leurs frocs Fuck les Zahia , on veut d'la maille 2012 nique sa grand mère J'suis muslim j'suis pas maïa Tous en bas des tours Le flouss et les embrouilles Dans l'tieks les schmits galère Ils cassent les couilles Qu'est-ce tu veut j'te dise? A part que ça fais du biz' Rien qu'sa tise , fuck le 36 Les c'est pour les G's niggas J'trouve aussi qu'j'sais pas rapper Comme ces piplettes La j'suis en mode branlette , flow zippette Roule un teh' , serre un verre Que j'rentre dans la cabine Que j'froisse le beat comme au grappling Les souris font moins de bruit Lorsque ma clique rapplique Même les Shaquille O'Neal deviennent muet comme Charlie Chaplin J'ai un faible pour les babtous Les négresses , les chabines Tant qu'tu remplis ton legging Le Jok' n'est pas raciste Jok'Air de la MZ , bitches J'vois la vie en rouge Comme une liasse En coupure de billet 10 Du vrai rap de On m'appelle Jok' pololo J'arrive frais comme la banquise Tâche de mouille séchée sur le polo Cerveau d'un bonobo La plupart des go m'trouve loco Négro , sa sonne vrai dans les locaux Je les découpe comme de la loco Mon crew Qui passe sur leurs corps J'rêve de la cagnotte du loto Et tirer sur un porc Des noirs avec des idées noirs C'est vrai qu'on fait peur à la France Davidson présente Davi-Davidson présente han You might also like Davidson présente Paris gros je représente On fais du cash , les ricains kalash, tu crois qu'on plaisante T'es sur la pente , t'auras la honte Si tu nous affrontes T'as la mort et tu rêve d'avoir les lovés que l'on frotte Gros , mes potes on trop la côte Ne taff pas dans la coke Aucun flop , j'visser gramme de coke Dans l'square ou dans l'hip-hop Cocaine , rap , musique 4-4-13 MZ Music Le binôme , bonhomme Galactique S au nom de nos cliques Au nom de l'équipe On gère le beat et le tout met des claques Contre Jeci-jess dégaine le mic' On fais les bac , majeur en l'air Dédié à la BAC , Davidson présente Représente les blancs , les beurres , les blacks C'est qu'y a des blocks Qui roule en loc' , dans le coffre un Passe les douanes , brolique dans le froc Débite la frappe Le genre de bails qu'on adore A Paris 12 , 13 ou Tésseire Pélo augmente le son Quand il vien chercher ton gout dessert Ouais j'commence salement Malement , appelle moi Chich l'allemand L'objectif c'est de faire du biff Donc j'reste pas à attendre sagement Normale non , sortit de la mixtape Bientôt normalement , Davidson représente The collectif Réussir sans cer-su Y'en a peu ça c'est sûr Si ça part en cette-su Attend toi qu'on te tire dessus Tu ma reçu , t'es déçu Par mon réquisitoire Mon micro dans ton cul En guise de suppositoire Tu va t'en apercevoir Mais il faut le voir pour le croire C'est le son des bonhommes Sénégal et Côte d'Ivoire Pour les mecs de tess' Pour les mecs en hess là Davidson représente Binôme , bonhomme Oui je reste la Faut que j'refourgue ma zetla est-ce que vous êtes la? Jok'Air dit leur on est trop fort Mais faut pas que ça s'arrête la Hey yo, moi j'attend pas ton buzz Pas besoin de leur émission Hey yo , Pour faire du buzz</t>
+          <t>Hey , hey , hey On va s'la refaire Hache-P de la MZ , Motherfucker Tu connais la suite moi j'te fuck Pour tous les mecs des blocks Et ouais dans la coke Ou sont tes rappeurs ont toquent Ils vont faire dans leurs frocs Fuck les Zahia , on veut d'la maille 2012 nique sa grand mère J'suis muslim j'suis pas maïa Tous en bas des tours Le flouss et les embrouilles Dans l'tieks les schmits galère Ils cassent les couilles Qu'est-ce tu veut j'te dise? A part que ça fais du biz' Rien qu'sa tise , fuck le 36 Les c'est pour les G's niggas J'trouve aussi qu'j'sais pas rapper Comme ces piplettes La j'suis en mode branlette , flow zippette Roule un teh' , serre un verre Que j'rentre dans la cabine Que j'froisse le beat comme au grappling Les souris font moins de bruit Lorsque ma clique rapplique Même les Shaquille O'Neal deviennent muet comme Charlie Chaplin J'ai un faible pour les babtous Les négresses , les chabines Tant qu'tu remplis ton legging Le Jok' n'est pas raciste Jok'Air de la MZ , bitches J'vois la vie en rouge Comme une liasse En coupure de billet 10 Du vrai rap de On m'appelle Jok' pololo J'arrive frais comme la banquise Tâche de mouille séchée sur le polo Cerveau d'un bonobo La plupart des go m'trouve loco Négro , sa sonne vrai dans les locaux Je les découpe comme de la loco Mon crew Qui passe sur leurs corps J'rêve de la cagnotte du loto Et tirer sur un porc Des noirs avec des idées noirs C'est vrai qu'on fait peur à la France Davidson présente Davi-Davidson présente han Davidson présente Paris gros je représente On fais du cash , les ricains kalash, tu crois qu'on plaisante T'es sur la pente , t'auras la honte Si tu nous affrontes T'as la mort et tu rêve d'avoir les lovés que l'on frotte Gros , mes potes on trop la côte Ne taff pas dans la coke Aucun flop , j'visser gramme de coke Dans l'square ou dans l'hip-hop Cocaine , rap , musique 4-4-13 MZ Music Le binôme , bonhomme Galactique S au nom de nos cliques Au nom de l'équipe On gère le beat et le tout met des claques Contre Jeci-jess dégaine le mic' On fais les bac , majeur en l'air Dédié à la BAC , Davidson présente Représente les blancs , les beurres , les blacks C'est qu'y a des blocks Qui roule en loc' , dans le coffre un Passe les douanes , brolique dans le froc Débite la frappe Le genre de bails qu'on adore A Paris 12 , 13 ou Tésseire Pélo augmente le son Quand il vien chercher ton gout dessert Ouais j'commence salement Malement , appelle moi Chich l'allemand L'objectif c'est de faire du biff Donc j'reste pas à attendre sagement Normale non , sortit de la mixtape Bientôt normalement , Davidson représente The collectif Réussir sans cer-su Y'en a peu ça c'est sûr Si ça part en cette-su Attend toi qu'on te tire dessus Tu ma reçu , t'es déçu Par mon réquisitoire Mon micro dans ton cul En guise de suppositoire Tu va t'en apercevoir Mais il faut le voir pour le croire C'est le son des bonhommes Sénégal et Côte d'Ivoire Pour les mecs de tess' Pour les mecs en hess là Davidson représente Binôme , bonhomme Oui je reste la Faut que j'refourgue ma zetla est-ce que vous êtes la? Jok'Air dit leur on est trop fort Mais faut pas que ça s'arrête la Hey yo, moi j'attend pas ton buzz Pas besoin de leur émission Hey yo , Pour faire du buzz</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MZ... K'air-Jo Big Daddy Pololo Jok, Big Daddy... Tchek J'ai baisé ma première meuf à la même époque où j'ai pris l'mic avec mes reufs À la même époque où papa quittait maman, mes sentiments sont mort dans luf R.I.P l'amour j'écris de mon sperme sur des paires de sseuf' Avant le rap, mes relations avec les filles c'était du genre Nadia-Titeuf Maintenant j'les lèche comme des feuilles, elle m'suce comme un bonbon Po' 6-9 ça pue l'sexe dans la maison.. ça pue l'sexe dans la maison Comme dans leur freestyle remplis de joyeux garçons Moi et eux, c'est un peu comme l'huile et l'eau Dans leurs partouzes musicales tu verras pas Jok'pololo Les soit-disant experts eux s'sont transformés en gros envieux M'voir chuter, leur seul vux, j'risque de faire feu sur eux comme un joint d'beuh J'aime être fucked-up , quand j'les fuck, au pieu, j'sors des phases de ouf, genre suce moi avec tes seins bitch Branle moi avec ta bouche Han Hein... J'éspère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros ont trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu You might also like Salaam, là c'est Dehmo le stre-mon J'suis tout le contraire de Trey Songz J'rappe pas pour ta sur négro Mais pour c'papier que j'consomme Un p'tit tour sur Berize À bord du vaisseau d'Ladji Un Famas, une machette dans l'coffre pour décourager ta frime J'ai taser des couilles pour 30 euros, j'me sens pas ridicule Investis pas sur moi, t'y gagneras rien comme l'équipe des STUP Qu'est c'que j'm'en contrefiche qu'ils pensent que j'lâche des piques sur leur gueule Et j'peux pas m'faire d'ennemis dans c'pera personne meurt c'est qu'du buzz Il sort son gun, on est m.d.r, c'bouffon presse pas la détente C'est pas qu'jsuis fier mais quand j'vendais d'la drogue c'était un putain d'passe-temps Ne fais pas d'moi ton exemple, tu deviendras comme ça c'est sur C'était la hass donc m'en veux pas si j'rackettais ta ceinture Hein... Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Les prod' Ekynoxx, sont hallucinantes Les flows de Zoxea, font halluciner MZ Davidson présente K.D.B.ZIC c'est un film d'horreur appelez Allociné Allociné, pendant qu'ils allaient piner, nous allions rapper dans la cave On est trop raffinés, vous allez taper dans la Gaga Nous, voyez-vous, on a la hargne et partout où on passera on l'fera savoir Dieu m'a dit qu'on allait tout arracher, ok, je vais me fier à sa voix Divine est la foi, gros c'est la fin, bonne est la vie mais enfin Qui vous a dit qu'on arrêterait comme Khadafi On, se battra jusqu'à la fin On peut commencer l'show vu que tout l'monde est là T'as vu comment c'est chaud un flow-zo Modena Prends tout l'monde par surprise comme la mondaine Communique avec des signes, appelle nous Mandela Mandela Mandela Mandela Mandela Mandela Communique avec des signes, appelle nous Mandela Mandela Mandela Mandela Mandela On peut commencer l'show vu que tout l'monde est là Hein... Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu</t>
+          <t>MZ... K'air-Jo Big Daddy Pololo Jok, Big Daddy... Tchek J'ai baisé ma première meuf à la même époque où j'ai pris l'mic avec mes reufs À la même époque où papa quittait maman, mes sentiments sont mort dans luf R.I.P l'amour j'écris de mon sperme sur des paires de sseuf' Avant le rap, mes relations avec les filles c'était du genre Nadia-Titeuf Maintenant j'les lèche comme des feuilles, elle m'suce comme un bonbon Po' 6-9 ça pue l'sexe dans la maison.. ça pue l'sexe dans la maison Comme dans leur freestyle remplis de joyeux garçons Moi et eux, c'est un peu comme l'huile et l'eau Dans leurs partouzes musicales tu verras pas Jok'pololo Les soit-disant experts eux s'sont transformés en gros envieux M'voir chuter, leur seul vux, j'risque de faire feu sur eux comme un joint d'beuh J'aime être fucked-up , quand j'les fuck, au pieu, j'sors des phases de ouf, genre suce moi avec tes seins bitch Branle moi avec ta bouche Han Hein... J'éspère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros ont trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Salaam, là c'est Dehmo le stre-mon J'suis tout le contraire de Trey Songz J'rappe pas pour ta sur négro Mais pour c'papier que j'consomme Un p'tit tour sur Berize À bord du vaisseau d'Ladji Un Famas, une machette dans l'coffre pour décourager ta frime J'ai taser des couilles pour 30 euros, j'me sens pas ridicule Investis pas sur moi, t'y gagneras rien comme l'équipe des STUP Qu'est c'que j'm'en contrefiche qu'ils pensent que j'lâche des piques sur leur gueule Et j'peux pas m'faire d'ennemis dans c'pera personne meurt c'est qu'du buzz Il sort son gun, on est m.d.r, c'bouffon presse pas la détente C'est pas qu'jsuis fier mais quand j'vendais d'la drogue c'était un putain d'passe-temps Ne fais pas d'moi ton exemple, tu deviendras comme ça c'est sur C'était la hass donc m'en veux pas si j'rackettais ta ceinture Hein... Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Les prod' Ekynoxx, sont hallucinantes Les flows de Zoxea, font halluciner MZ Davidson présente K.D.B.ZIC c'est un film d'horreur appelez Allociné Allociné, pendant qu'ils allaient piner, nous allions rapper dans la cave On est trop raffinés, vous allez taper dans la Gaga Nous, voyez-vous, on a la hargne et partout où on passera on l'fera savoir Dieu m'a dit qu'on allait tout arracher, ok, je vais me fier à sa voix Divine est la foi, gros c'est la fin, bonne est la vie mais enfin Qui vous a dit qu'on arrêterait comme Khadafi On, se battra jusqu'à la fin On peut commencer l'show vu que tout l'monde est là T'as vu comment c'est chaud un flow-zo Modena Prends tout l'monde par surprise comme la mondaine Communique avec des signes, appelle nous Mandela Mandela Mandela Mandela Mandela Mandela Communique avec des signes, appelle nous Mandela Mandela Mandela Mandela Mandela On peut commencer l'show vu que tout l'monde est là Hein... Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu Jespère qu'ils sont prêts car on vient prendre nos llets-bi Si il faut tous les crosser on l'fera sans tié-pi Les négros on trop d'avance donc trop d'rage Han-Han, nique le Rap Jeu</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2159,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>C'est noir Autour de moi cest noir Plongé dans le désespoir Je broie le noir J'suis là tu me vois Car c'est la dernière fois La peur sen va j'te dis pas à plus tard C'est noir Autour de moi c'est noir Plongé dans le désespoir Je broie le noir J'suis là tu me vois Car c'est la dernière fois La peur s'en va j'te dis pas à plus tard Jte dis pas à plus tard car là jvais sûrement me faire crever J'en ai marre de vivre ici jai l'impression de tout faire foirer Aucun mal à te faire du mal j'suis juste complètement taré J'crois que cest mieux si je disparais au pire qui va me pleurer Non ce n'était pas qu'un au revoir Les mots n'avaient plus d'espoir Le diable propose encore à boire Perdu dans le désespoir You might also likeJ'me demande ce que tu vois en moi Rien est bien les étoiles s'éteignent Mon coeur vibre plus que pour toi Tout est beau reste la mienne Le flou me traîne dans la brume Tout est sombre tout est lugubre J'vois pas la fin du scénario Tout ça va me rendre paro La mélodie me tourmente le soir Mes idées noires sont pleines d'espoir J'aime plus la vie j'vais m'assommer Mon coeur est noir je l'ai consommé Aucun amour j'ai somnolé J'aime que la mort et la monnaie Jamais, jamais, jamais J'aimerais ne jamais tomber Le ciel ne fait que m'écraser J'ai le coeur noir, ensanglanté Les pensées noires entachées C'est noir, noir noir noir noir noir C'est noir, noir noir noir noir noir C'est noir, noir noir noir noir noir C'est noir Autour de moi c'est noir Plongé dans le désespoir Je broie le noir J'suis là tu me vois Car c'est la dernière fois La peur s'en va j'te dis pas à plus tard J'te dis pas à plus tard car là j'vais sûrement me faire crever J'en ai marre de vivre ici j'ai l'impression de tout faire foirer Aucun mal à te faire du mal j'suis juste complètement taré J'crois que c'est mieux si je disparais au pire qui va me pleurer ?</t>
+          <t>C'est noir Autour de moi cest noir Plongé dans le désespoir Je broie le noir J'suis là tu me vois Car c'est la dernière fois La peur sen va j'te dis pas à plus tard C'est noir Autour de moi c'est noir Plongé dans le désespoir Je broie le noir J'suis là tu me vois Car c'est la dernière fois La peur s'en va j'te dis pas à plus tard Jte dis pas à plus tard car là jvais sûrement me faire crever J'en ai marre de vivre ici jai l'impression de tout faire foirer Aucun mal à te faire du mal j'suis juste complètement taré J'crois que cest mieux si je disparais au pire qui va me pleurer Non ce n'était pas qu'un au revoir Les mots n'avaient plus d'espoir Le diable propose encore à boire Perdu dans le désespoir J'me demande ce que tu vois en moi Rien est bien les étoiles s'éteignent Mon coeur vibre plus que pour toi Tout est beau reste la mienne Le flou me traîne dans la brume Tout est sombre tout est lugubre J'vois pas la fin du scénario Tout ça va me rendre paro La mélodie me tourmente le soir Mes idées noires sont pleines d'espoir J'aime plus la vie j'vais m'assommer Mon coeur est noir je l'ai consommé Aucun amour j'ai somnolé J'aime que la mort et la monnaie Jamais, jamais, jamais J'aimerais ne jamais tomber Le ciel ne fait que m'écraser J'ai le coeur noir, ensanglanté Les pensées noires entachées C'est noir, noir noir noir noir noir C'est noir, noir noir noir noir noir C'est noir, noir noir noir noir noir C'est noir Autour de moi c'est noir Plongé dans le désespoir Je broie le noir J'suis là tu me vois Car c'est la dernière fois La peur s'en va j'te dis pas à plus tard J'te dis pas à plus tard car là j'vais sûrement me faire crever J'en ai marre de vivre ici j'ai l'impression de tout faire foirer Aucun mal à te faire du mal j'suis juste complètement taré J'crois que c'est mieux si je disparais au pire qui va me pleurer ?</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2176,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Bon j'crois qu'il est minuit Japerçois plus trop de kébi J'ai passé ma journée a courir après quelques llet-bi Ce soir les bouteilles d'alcool vont nous inonder Ça galère chaud, tu connais la devise j'vais m'fonceder Rester au tier-q' ce soir serait bidon pas moyen d'bouger en Noctan j'suis plus piéton Dans la caisse du MZ, des mélanges bizarres des joint d'zeub Mes gars sont déjà chaud donc nous cherche pas tu te fera péter le zen man Alcool sur le périph à 200 Y'aura pas d'virée ce soir car on va laisser les niggas Toujours les mêmes bourrés qui sont venu sur place pour ceux qui vont faire du cash devant les sortie de boites Nigga Il faut que ça change, et moi j'attend Ça fait longtemps que je vois les mêmes immigrés sur le trottoir On monte sur Belise, si c'est on ira se défouler à BX Sur un coup de folie ce soir j'vais monter sur Belise Seul ou mal accompagné j'affronte la nuit Bédo sur bédo teille-bou sur teille-bou t'a des feat On est toujours dans les tcheks t'facons se sont tous enfuis Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Il est minuit, j'ai mon sachet d'weed L'insomnie m'colle au sweat comme un tache d'huile Bébé dis moi oui J'te jure je ferais pas de bruit Tes parents dorment, ouvre moi la porte je passe la nuit entre tes cuisses J'te fou le coussin sur la bouche si jamais tu jouis T'inquiète si quelqu'un entre dans ta chambre je me faufile sous le lit Puis je m'enfuis Comme je me suis introduis Allez dis moi juste oui Tout seul au tier-quart je m'ennuie J'ai refoulé les bras de Morphée, le marchand de sable m'a oublié Mes paupières sont toutes rouillées nigga Le soleil m'a renié et la lune m'a adopter m'a bordé jusqu'à n'importe quelle heure Il faut que ça change, et moi j'attend Ça fait longtemps que je marche à l'ombre et que la lumière du jour me fait peur Dans la zik le monde appartient a ceux qui se lève tôt You might also like Sur un coup de folie ce soir j'vais monter sur Belise Seul ou mal accompagné j'affronte la nuit Bédo sur bédo teille-bou sur teille-bou t'a des feat On est toujours dans les tcheks t'facons se sont tous enfuis Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Y'a jamais d'heure fixe ouais rebeu dors Demande aux jonks j'suis sur Beliz J'suis en mode radar frappe détail, et Médine, hall Paris habitât mes phases me viennent aux heures où mes Nikes sabîment sur la capitale Toujours les mêmes galères et aléatoirement les mêmes salaires A la vue des Batman mes frères s'alertent Bref la nuit m'est , mais cela nempêche à ce que je m'épuise a pomper sur mon pers Quatre heure j'ai pas l'coeur a faire des blagues ça m'écoeure J'pense a Marie Maman a raison j'ai l'air dégueu Yeux rouge, le gros boule d'une taspé c'est trop chaud Sous bédo les frères sont dans la détente laisse bé-tom Les nuits blanches y'a beaucoup de mecs sombres Les sorties sur Beriz animées Les embrassent le béton, le cerveau inanimé Sur un coup de folie ce soir j'vais monter sur Belise Seul ou mal accompagné j'affronte la nuit Bédo sur bédo teille-bou sur teille-bou t'a des feat On est toujours dans les tcheks t'facons se sont tous enfuis Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas 1</t>
+          <t>Bon j'crois qu'il est minuit Japerçois plus trop de kébi J'ai passé ma journée a courir après quelques llet-bi Ce soir les bouteilles d'alcool vont nous inonder Ça galère chaud, tu connais la devise j'vais m'fonceder Rester au tier-q' ce soir serait bidon pas moyen d'bouger en Noctan j'suis plus piéton Dans la caisse du MZ, des mélanges bizarres des joint d'zeub Mes gars sont déjà chaud donc nous cherche pas tu te fera péter le zen man Alcool sur le périph à 200 Y'aura pas d'virée ce soir car on va laisser les niggas Toujours les mêmes bourrés qui sont venu sur place pour ceux qui vont faire du cash devant les sortie de boites Nigga Il faut que ça change, et moi j'attend Ça fait longtemps que je vois les mêmes immigrés sur le trottoir On monte sur Belise, si c'est on ira se défouler à BX Sur un coup de folie ce soir j'vais monter sur Belise Seul ou mal accompagné j'affronte la nuit Bédo sur bédo teille-bou sur teille-bou t'a des feat On est toujours dans les tcheks t'facons se sont tous enfuis Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Il est minuit, j'ai mon sachet d'weed L'insomnie m'colle au sweat comme un tache d'huile Bébé dis moi oui J'te jure je ferais pas de bruit Tes parents dorment, ouvre moi la porte je passe la nuit entre tes cuisses J'te fou le coussin sur la bouche si jamais tu jouis T'inquiète si quelqu'un entre dans ta chambre je me faufile sous le lit Puis je m'enfuis Comme je me suis introduis Allez dis moi juste oui Tout seul au tier-quart je m'ennuie J'ai refoulé les bras de Morphée, le marchand de sable m'a oublié Mes paupières sont toutes rouillées nigga Le soleil m'a renié et la lune m'a adopter m'a bordé jusqu'à n'importe quelle heure Il faut que ça change, et moi j'attend Ça fait longtemps que je marche à l'ombre et que la lumière du jour me fait peur Dans la zik le monde appartient a ceux qui se lève tôt Sur un coup de folie ce soir j'vais monter sur Belise Seul ou mal accompagné j'affronte la nuit Bédo sur bédo teille-bou sur teille-bou t'a des feat On est toujours dans les tcheks t'facons se sont tous enfuis Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Y'a jamais d'heure fixe ouais rebeu dors Demande aux jonks j'suis sur Beliz J'suis en mode radar frappe détail, et Médine, hall Paris habitât mes phases me viennent aux heures où mes Nikes sabîment sur la capitale Toujours les mêmes galères et aléatoirement les mêmes salaires A la vue des Batman mes frères s'alertent Bref la nuit m'est , mais cela nempêche à ce que je m'épuise a pomper sur mon pers Quatre heure j'ai pas l'coeur a faire des blagues ça m'écoeure J'pense a Marie Maman a raison j'ai l'air dégueu Yeux rouge, le gros boule d'une taspé c'est trop chaud Sous bédo les frères sont dans la détente laisse bé-tom Les nuits blanches y'a beaucoup de mecs sombres Les sorties sur Beriz animées Les embrassent le béton, le cerveau inanimé Sur un coup de folie ce soir j'vais monter sur Belise Seul ou mal accompagné j'affronte la nuit Bédo sur bédo teille-bou sur teille-bou t'a des feat On est toujours dans les tcheks t'facons se sont tous enfuis Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas Je m'y attendais pas, je m'y attendais pas, je m'y attendais pas 1</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2193,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Hein hein, OK Davidson Presents, KDBZIK Wesh les rappeurs bien ou quoi ? Moi j'pète la forme, c'est quoi le boulot ? Ah ah ah, bande de rigolos ! Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas À tous mes gangstas, tous mes youvois Mes Blacks mes Beurs mes Noishes et mes Whites On assume ce qu'on fait, vous nous aimez pas On s'aime entre nous, donc vous inquiétez pas Du nord au sud, de l'ouest à l'est, nous, personne nous tient en laisse Vous, allez sucer en scred, mecs de tess levez les bras 75 mon numéro Ça m'a jamais intéressé vraiment de jouer les héros Jamais joué de film éro, je n'tape pas dans l'héro Chich au micro a les crocs, objectif faire des euros N'attend pas qu'on te clash fiston pour finir par les attaquer N'attend pas qu'ils donnent le ballon pour aller les tacler Si c'est pas de ta faute, c'est de la faute à qui ? Une seule parole il n'y a pas que les armes qui tue Wesh pourquoi tu cours espèce de fiotte c'est toi qui a le sil-fu Fuck, toi et tes antécédents Ferme ta gueule il y'a pas eu de précédent Tu sais que si tu nous rentre dedans, si t'es pas compétant, on te casse tes dents Yo ça rap dans la cave putain d'prise d'otage faut pas paniquer Negro j'ai la rage me parlez pas de clash Moi j'ai passé l'âge de polémiquer You might also like Panique pas, ce n'est qu'un douze de frappe comme les que-blo qu'on viser Panique surtout pas, devant ce couillon de commissaire Je marche dans la street avec mes niaggas Sûrs de nous on panique pas Le rap français va nous coûter une douille Clik clik hein ? Clik clik quoi ? Clik clik paaaah ! Pour faire rentrer des sous on gâche aucune occaz demande à loka MZ Music le binôme bonhomme les autres sont démodés comme de la local Ça veut faire les foolek mais quand on sort les keutru ils se mettent à galope Wesh ma gueule tu faisais le chaud en bande mais sans tous tes potos tu paniques comme une salope C'est pour mes bétés, pour mes djoulas, pour mes agnis pour mes pulaar Négros mes gars sont highs, foncedés, fucked up tout les soirs Pour mes sistas, pour mes taulards, pour mes niaggas, pour ma mafia Panique pas, négro panique pas, négro click clack pow Ta pute m'suce dans les toilettes juste entre deux cours Elle prononce mon nom quand tu la uette et le tien quand je la netour Ne fais pas le fou ou tu n'a pas iep et parle la langue des sourds Car il y a du poulet dans mon plat de tiep et tout autour de nous Petit comme cousin skeeter Je les baise comme Justin Slayer MC même ton producteur, trouve que c'est nous les meilleurs On opère comme le 11 septembre si t'es dans le building Des noirs avec des idées noires normal que la concurrence panique 2</t>
+          <t>Hein hein, OK Davidson Presents, KDBZIK Wesh les rappeurs bien ou quoi ? Moi j'pète la forme, c'est quoi le boulot ? Ah ah ah, bande de rigolos ! Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas Panique pas, panique pas, panique pas À tous mes gangstas, tous mes youvois Mes Blacks mes Beurs mes Noishes et mes Whites On assume ce qu'on fait, vous nous aimez pas On s'aime entre nous, donc vous inquiétez pas Du nord au sud, de l'ouest à l'est, nous, personne nous tient en laisse Vous, allez sucer en scred, mecs de tess levez les bras 75 mon numéro Ça m'a jamais intéressé vraiment de jouer les héros Jamais joué de film éro, je n'tape pas dans l'héro Chich au micro a les crocs, objectif faire des euros N'attend pas qu'on te clash fiston pour finir par les attaquer N'attend pas qu'ils donnent le ballon pour aller les tacler Si c'est pas de ta faute, c'est de la faute à qui ? Une seule parole il n'y a pas que les armes qui tue Wesh pourquoi tu cours espèce de fiotte c'est toi qui a le sil-fu Fuck, toi et tes antécédents Ferme ta gueule il y'a pas eu de précédent Tu sais que si tu nous rentre dedans, si t'es pas compétant, on te casse tes dents Yo ça rap dans la cave putain d'prise d'otage faut pas paniquer Negro j'ai la rage me parlez pas de clash Moi j'ai passé l'âge de polémiquer Panique pas, ce n'est qu'un douze de frappe comme les que-blo qu'on viser Panique surtout pas, devant ce couillon de commissaire Je marche dans la street avec mes niaggas Sûrs de nous on panique pas Le rap français va nous coûter une douille Clik clik hein ? Clik clik quoi ? Clik clik paaaah ! Pour faire rentrer des sous on gâche aucune occaz demande à loka MZ Music le binôme bonhomme les autres sont démodés comme de la local Ça veut faire les foolek mais quand on sort les keutru ils se mettent à galope Wesh ma gueule tu faisais le chaud en bande mais sans tous tes potos tu paniques comme une salope C'est pour mes bétés, pour mes djoulas, pour mes agnis pour mes pulaar Négros mes gars sont highs, foncedés, fucked up tout les soirs Pour mes sistas, pour mes taulards, pour mes niaggas, pour ma mafia Panique pas, négro panique pas, négro click clack pow Ta pute m'suce dans les toilettes juste entre deux cours Elle prononce mon nom quand tu la uette et le tien quand je la netour Ne fais pas le fou ou tu n'a pas iep et parle la langue des sourds Car il y a du poulet dans mon plat de tiep et tout autour de nous Petit comme cousin skeeter Je les baise comme Justin Slayer MC même ton producteur, trouve que c'est nous les meilleurs On opère comme le 11 septembre si t'es dans le building Des noirs avec des idées noires normal que la concurrence panique 2</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2210,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Te demandes pas pourquoi je parle que d'nous Négro j'm'en fous Ça s'tape pour des broutilles ou le boule d'une zouz Tu m'vois la night plus que l'jour, on aurait rendu c't'enculé de Batman fou Cocaïne cocotte écarte tes cuisses cousine Qu'est-qu'est-qu'est-ce qu'tu comptes faire ? Qui-qui-qui veut faire quoi ? J'vous attends cousin Vous êtes même pas prêts, arrêtez d'faire bleh Dehguemoguo, tu me coguonnaisgué Tu nous aimes pas t'as décoguonégué Blacky m'a dit arrête de te branguanlégué Ok, d'abord j'prend ma moguonnaiegué J'demande pas d'conseils à ceux qui lavent le sol Encore moins a ceux qui crament les soldes Tu sais y'en a qui doivent la réussite qu'à ce négro qui bicrave des sorts En trois coups t'as ché-cra, ça t'as mis mal Maintenant elle s'demande bah c'est qui lanimal Une crasseuse reste une crasseuse même si elle se lave Bon, au moins elle se lave On en a vu des cas rien que ça écarte Odeur de poisson frais bah rien que ça m'écure Wesh poto wake up, roule-moi ton pet' XXX peuvent plus porter tes pecs Tu t'chamailles contre les bleus nous on est en guerre contre l'État Grimpe le mont Everest bah nous on part pour l'espace Tu brailles qu'on peut pas test mais tu peux test qui ? J'me demande si vous êtes prêt et franchement j'en ai pas l'impression J'en, j'en ai pas l'impression J'en, j'en ai pas l'impression J'en ai pas l'impression, je n'ai pas la pression J'en, j'en ai pas l'impression J'en, j'en ai pas l'impression J'en ai pas l'impression, je n'ai pas la pression You might also like Foncedé sur Paris ça barode dans la caisse de XXX J'percute les étoiles sous l'effet de la tise et de la weed Plus on avance dans le biz' et plus j'en vois qui nous haïssent T'étonnes pas si on échoue, à les voir festoyer pire qu'à l'aïd Putain mais qui à l'plus de flow ? Dans quelle clique y'a le plus de faux ? On les baise, ils en redemandent, laquelle de ces MC's est la plus grosse nympho ? Désolé les gars, la MZ met les gaz Si tu comptes m'égaler j't'élimine ça m'est égal Avec mes hooligans, ce qu'on fait est illégal Un peu dans le rap comme dans la vente de came Bien dans l'au-delà ma pute est sous mes draps Elle m'attend patiemment en s'calant les oigts-d J'étais ce p'tit renoi, assis au fond d'la classe Qui a vu Jean-Edouard baiser Loanna Quatre mauvais garçons, quatre noirs avec des idées noires À nous quatre on est les quatre saisons Dans l'rap on vient réécrire l'histoire Donnez moi du MC que je fasse un casse dalle Et que j'le chifonne Posé dans le bloc pilon dans le froc Tout en XXX On est pas nets Il n'y a pas que du Danta y'a aussi de la vodka qui se promène dans ma canette Faites pas d'erreurs nous comparez à sonne-per on est pas dvotre planète J'sais pas d'où je ti-sors ces flows J'suis dans un délire que tu pourras jamais capter Wesh ma gueule tu n'es même pas réglo Sur nous tu fais que ler-par mais tu bouges la tête Présent dans ce game pour les tenir en laisse XXX qui sont les best Grave au dessus négro tu peux pas test J'suis la Tour Eiffel t'es la tour d'ta tess Musicalement j'suis pas là j'ai la tête ailleurs j'fais du lourd le doigt dans l'nez On apporte ce truc qu'ils ont pas dans ce game savoure-le comme un joint d'amné' Les mixtapes, les concerts, les mixtapes, les concerts ma gueule on fait qu'charbonner XXX Jviens montrer aux batards comment faire Ouais comment faire bouger la tête des mecs en marge du système qu'il est courant qu'on enferme Condamné par ma flemme Vla que jme retrouve à arracher le mic aux autres Après XXX de mes dix doigts rapper c'est ce que j'ai trouvé de plus facile à foutre En effet MZ kick le retour des sales gosses au flow infecte Nous bassine pas à l'aide de tes XXX On a tous toujours fait avec Dis à tes MC qu'ils s'amènent sur notre planète et qu'on les loupera pas Parce qu'ici ils assumeront pas les secousses XXX jte les vi-ser en smoothie Nous c'est pas la relève c'est la révélation street entièrement mise en relief par notre talent Pas de fellation scret Ouais déclare la guerre à tout l'game Pour XXXX gros Jsuis écouté par les vrais gars Big up salut les mecs 2</t>
+          <t>Te demandes pas pourquoi je parle que d'nous Négro j'm'en fous Ça s'tape pour des broutilles ou le boule d'une zouz Tu m'vois la night plus que l'jour, on aurait rendu c't'enculé de Batman fou Cocaïne cocotte écarte tes cuisses cousine Qu'est-qu'est-qu'est-ce qu'tu comptes faire ? Qui-qui-qui veut faire quoi ? J'vous attends cousin Vous êtes même pas prêts, arrêtez d'faire bleh Dehguemoguo, tu me coguonnaisgué Tu nous aimes pas t'as décoguonégué Blacky m'a dit arrête de te branguanlégué Ok, d'abord j'prend ma moguonnaiegué J'demande pas d'conseils à ceux qui lavent le sol Encore moins a ceux qui crament les soldes Tu sais y'en a qui doivent la réussite qu'à ce négro qui bicrave des sorts En trois coups t'as ché-cra, ça t'as mis mal Maintenant elle s'demande bah c'est qui lanimal Une crasseuse reste une crasseuse même si elle se lave Bon, au moins elle se lave On en a vu des cas rien que ça écarte Odeur de poisson frais bah rien que ça m'écure Wesh poto wake up, roule-moi ton pet' XXX peuvent plus porter tes pecs Tu t'chamailles contre les bleus nous on est en guerre contre l'État Grimpe le mont Everest bah nous on part pour l'espace Tu brailles qu'on peut pas test mais tu peux test qui ? J'me demande si vous êtes prêt et franchement j'en ai pas l'impression J'en, j'en ai pas l'impression J'en, j'en ai pas l'impression J'en ai pas l'impression, je n'ai pas la pression J'en, j'en ai pas l'impression J'en, j'en ai pas l'impression J'en ai pas l'impression, je n'ai pas la pression Foncedé sur Paris ça barode dans la caisse de XXX J'percute les étoiles sous l'effet de la tise et de la weed Plus on avance dans le biz' et plus j'en vois qui nous haïssent T'étonnes pas si on échoue, à les voir festoyer pire qu'à l'aïd Putain mais qui à l'plus de flow ? Dans quelle clique y'a le plus de faux ? On les baise, ils en redemandent, laquelle de ces MC's est la plus grosse nympho ? Désolé les gars, la MZ met les gaz Si tu comptes m'égaler j't'élimine ça m'est égal Avec mes hooligans, ce qu'on fait est illégal Un peu dans le rap comme dans la vente de came Bien dans l'au-delà ma pute est sous mes draps Elle m'attend patiemment en s'calant les oigts-d J'étais ce p'tit renoi, assis au fond d'la classe Qui a vu Jean-Edouard baiser Loanna Quatre mauvais garçons, quatre noirs avec des idées noires À nous quatre on est les quatre saisons Dans l'rap on vient réécrire l'histoire Donnez moi du MC que je fasse un casse dalle Et que j'le chifonne Posé dans le bloc pilon dans le froc Tout en XXX On est pas nets Il n'y a pas que du Danta y'a aussi de la vodka qui se promène dans ma canette Faites pas d'erreurs nous comparez à sonne-per on est pas dvotre planète J'sais pas d'où je ti-sors ces flows J'suis dans un délire que tu pourras jamais capter Wesh ma gueule tu n'es même pas réglo Sur nous tu fais que ler-par mais tu bouges la tête Présent dans ce game pour les tenir en laisse XXX qui sont les best Grave au dessus négro tu peux pas test J'suis la Tour Eiffel t'es la tour d'ta tess Musicalement j'suis pas là j'ai la tête ailleurs j'fais du lourd le doigt dans l'nez On apporte ce truc qu'ils ont pas dans ce game savoure-le comme un joint d'amné' Les mixtapes, les concerts, les mixtapes, les concerts ma gueule on fait qu'charbonner XXX Jviens montrer aux batards comment faire Ouais comment faire bouger la tête des mecs en marge du système qu'il est courant qu'on enferme Condamné par ma flemme Vla que jme retrouve à arracher le mic aux autres Après XXX de mes dix doigts rapper c'est ce que j'ai trouvé de plus facile à foutre En effet MZ kick le retour des sales gosses au flow infecte Nous bassine pas à l'aide de tes XXX On a tous toujours fait avec Dis à tes MC qu'ils s'amènent sur notre planète et qu'on les loupera pas Parce qu'ici ils assumeront pas les secousses XXX jte les vi-ser en smoothie Nous c'est pas la relève c'est la révélation street entièrement mise en relief par notre talent Pas de fellation scret Ouais déclare la guerre à tout l'game Pour XXXX gros Jsuis écouté par les vrais gars Big up salut les mecs 2</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Helikopter, helikopter, helikopter Wiksa, wiksa, wiksa, wiksa, wiksa Lecimy dzisiaj na pixach Dzida - Walnity Jestem pierdolnity, dzida Jestem prawilnym gociem, dzida Dzida, mam przejebane, pena dzida Jdker na bicie - w tekcie ycie Rampapam, helikopter... Dziwki! Mam 28 lat, wyjebali mnie z roboty Robi pojebany rap i pakuj si w kopoty Typy myl, e mam hajs, a ja w kóko gram za zwroty I jeszcze lubi móci szmal, przez co nigdy nie mam floty Najebany wiod zad, a nas nie zawinie psiarnia W kóko mówi mi mój brat, ebym zacz si ogarnia A ja ju kolejny raz zarzygaem komisariat Jeszcze pono chciaem la tamtych typów w kominiarkach Ole kiedy Ty w kocu doroniesz? Ja to w dupie mam Popiesz si bo skoczysz gdzie pod mostem Ja to w dupie mam W domu jeste gociem, resz jak w pocie To te w dupie mam I by kurwa zmieni w kocu pociel Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to kurwa sram W dupie mam, w dupie mam... You might also like Jako tak od 4 lat, nie potrafi zrobi prawka Wziem si za szycie szmat, standardowo wyszed kasztan Na uczelni wisz rat - wisi praca i poprawka Jeszcze kurwa MZK wyle mi kolejny mandat Kiedy katowaem blat, w kadej pierdolonej chwili Teraz cho mam na to czas, nie mam chci ani siy Rzuciem targanie sztang, akro i kurwa treningi Malowanie ludziom cian, wszdzie tylko robi tyy cigaj t-shirt - rób pieprzony kurwa helikopter cigaj gacie - rób pieprzony kurwa helikopter cigaj bluz - rób pieprzony kurwa helikopter Zanim na kule kapn Ci potu krople Zdejm koszul - rób pieprzony helikopter cigaj majty - rób pieprzony helikopter I skarpety - i rób nimi helikopter Jestem pojebany i to jest okropne Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to sram Lepsze jutro kocz wczoraj Gorsze ni zaczynam dzi Przyszo widz w zych kolorach, a w teraniejszoci syf Jeli mylisz, e to w zoci, albo jest mi chocia wstyd Ja mam na to wyjebane, nie potrzebuje nic Mam w gbokim powaaniu opinie o mym wygldzie O paskudnym zachowaniu i mojej parszywej mordzie Mog nosi swoje ycie, kurwa w plastikowej torbie W dupie mam szacunek ludzi, którzy nic nie wiedz o mnie Moe mam wski horyzont, bd spa w parku na awce Jeste pizd jak oceniasz, kurwa ksiki po okadce atwiej y tym ziomom, niewiadomo jest bogosawiestwem Potrzebujesz tego gówna i niczego kurwa wicej Dzida dzida dzida dzida dzida - w dupie mam Koszula dzisiaj Ci si przyda - w dupie mam Dzida dzida dzida dzida dzida - na to kurwa sram Gacie, gacie - to te Ci si przyda ciagaj majty - rób pieprzony helikopter ciagaj buty - rób pieprzony helikopter Marynark - rób pieprzony helikopter Gdzie ja jestem kurwa? To jest okropne! Pojebace Helikopter migowiec - palimy towiec, walimy browiec, ruchanie owiec Techno, techno, techno To jest okropne... Ja to w dupie mam Tararararara - ja to w dupie mam, ogldam MTV Tararararara - ja to w dupie mam, dzwo na psy Tararararara - trzymam rk w gaciach Tararararara - i za nic nie przepraszam Dry, dry Tarararara - Wszdzie zrób pik Tarararara - Ja to w dupie mam Helikopter... Tarararara - Ja na to kurwa sram Ja to w dupie mam Gówno Dobra kurwa, zmczyem si Kurwa, zmczyem si Gówno, nie prawda Pierdoli, oficjalnie si zwalniam Zwalniam si, wicej nie robi tego gówna Wiksa, wiksa Podpisuje blankiet zwolnienia Id na bruk, kurwa I nie bd si bawi w to cierwo Tarararara Psiiii, cisza Koniec kurwa imprezy...</t>
+          <t>Helikopter, helikopter, helikopter Wiksa, wiksa, wiksa, wiksa, wiksa Lecimy dzisiaj na pixach Dzida - Walnity Jestem pierdolnity, dzida Jestem prawilnym gociem, dzida Dzida, mam przejebane, pena dzida Jdker na bicie - w tekcie ycie Rampapam, helikopter... Dziwki! Mam 28 lat, wyjebali mnie z roboty Robi pojebany rap i pakuj si w kopoty Typy myl, e mam hajs, a ja w kóko gram za zwroty I jeszcze lubi móci szmal, przez co nigdy nie mam floty Najebany wiod zad, a nas nie zawinie psiarnia W kóko mówi mi mój brat, ebym zacz si ogarnia A ja ju kolejny raz zarzygaem komisariat Jeszcze pono chciaem la tamtych typów w kominiarkach Ole kiedy Ty w kocu doroniesz? Ja to w dupie mam Popiesz si bo skoczysz gdzie pod mostem Ja to w dupie mam W domu jeste gociem, resz jak w pocie To te w dupie mam I by kurwa zmieni w kocu pociel Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to kurwa sram W dupie mam, w dupie mam... Jako tak od 4 lat, nie potrafi zrobi prawka Wziem si za szycie szmat, standardowo wyszed kasztan Na uczelni wisz rat - wisi praca i poprawka Jeszcze kurwa MZK wyle mi kolejny mandat Kiedy katowaem blat, w kadej pierdolonej chwili Teraz cho mam na to czas, nie mam chci ani siy Rzuciem targanie sztang, akro i kurwa treningi Malowanie ludziom cian, wszdzie tylko robi tyy cigaj t-shirt - rób pieprzony kurwa helikopter cigaj gacie - rób pieprzony kurwa helikopter cigaj bluz - rób pieprzony kurwa helikopter Zanim na kule kapn Ci potu krople Zdejm koszul - rób pieprzony helikopter cigaj majty - rób pieprzony helikopter I skarpety - i rób nimi helikopter Jestem pojebany i to jest okropne Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to sram Lepsze jutro kocz wczoraj Gorsze ni zaczynam dzi Przyszo widz w zych kolorach, a w teraniejszoci syf Jeli mylisz, e to w zoci, albo jest mi chocia wstyd Ja mam na to wyjebane, nie potrzebuje nic Mam w gbokim powaaniu opinie o mym wygldzie O paskudnym zachowaniu i mojej parszywej mordzie Mog nosi swoje ycie, kurwa w plastikowej torbie W dupie mam szacunek ludzi, którzy nic nie wiedz o mnie Moe mam wski horyzont, bd spa w parku na awce Jeste pizd jak oceniasz, kurwa ksiki po okadce atwiej y tym ziomom, niewiadomo jest bogosawiestwem Potrzebujesz tego gówna i niczego kurwa wicej Dzida dzida dzida dzida dzida - w dupie mam Koszula dzisiaj Ci si przyda - w dupie mam Dzida dzida dzida dzida dzida - na to kurwa sram Gacie, gacie - to te Ci si przyda ciagaj majty - rób pieprzony helikopter ciagaj buty - rób pieprzony helikopter Marynark - rób pieprzony helikopter Gdzie ja jestem kurwa? To jest okropne! Pojebace Helikopter migowiec - palimy towiec, walimy browiec, ruchanie owiec Techno, techno, techno To jest okropne... Ja to w dupie mam Tararararara - ja to w dupie mam, ogldam MTV Tararararara - ja to w dupie mam, dzwo na psy Tararararara - trzymam rk w gaciach Tararararara - i za nic nie przepraszam Dry, dry Tarararara - Wszdzie zrób pik Tarararara - Ja to w dupie mam Helikopter... Tarararara - Ja na to kurwa sram Ja to w dupie mam Gówno Dobra kurwa, zmczyem si Kurwa, zmczyem si Gówno, nie prawda Pierdoli, oficjalnie si zwalniam Zwalniam si, wicej nie robi tego gówna Wiksa, wiksa Podpisuje blankiet zwolnienia Id na bruk, kurwa I nie bd si bawi w to cierwo Tarararara Psiiii, cisza Koniec kurwa imprezy...</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Quand tu parle de concurrence Si c'est nous on le vit bien Vu que t'es même pas fort poto On baise ces salopes Que tu considères comme filles biens Et là t'as pas tord poto Tous les chemins mènent j'sais même pas où J'en ai rien à foutre vu que j'suis fucked up poto On va pas traverser le pont de l'enfer Et j'me dis que c'est à cause de la marque de Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Nous, c'est la concu et je sais que tu kiffes J'avais la flemme donc j'ai repris le flow de Reese dans Beef Il me faut un tas d'oseille c'est instinctif Qu'est-c'que j'm'en bat les reins Que tu préfères t'la foutre dans le pif J'passe d'un sujet à l'autre Comme tous mes plans tombaient à l'eau Comme tous les p'tits bâtards Qui sur nos faces deviennent paranos M et Z, L et Z J'ai la haine parce que j'ai pas ce putain d'disque de platine Et vos avis wAllah j'm'en bats les couilles youc Yeah, comme Lil Jay j'm'la raconte Comme une grosse tasse-pé, grosse tasse-pé Fait gaffe mec, il y'a que maman qui a le droit de taper La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Ouais poto va faire du papier Tu parles mais tu peux même pas m'frapper Starfallah encore moins caner Vous êtes des putes, veuillez vous calmer La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier You might also like Prométhazine codéine j'suis fucked up, fucked up, fucked up, fucked up Joint j'ai ma tête dans le black out, black out, black out, black out Ici l'ambiance vire souvent sauce ketchup, ketchup, ketchup, ketchup Ta pute de sur prend mon sperme produit de make up Les mecs c'est un hold up en live de Skyrock On les braque à visage découvert Bang bang flow, bra ta ta ta nique le rap game On les .... pour leur faire la guerre Ce n'est pas pour faire la paix qu'in pète le calumet Parle calmement dans mon tieks tu peux te faire allumer Toi les billets tu calcules moi les putes me calculent Donc comme Kalina Pololo veut s'faire caliner Yeah il m'faut du vert, jaune, violet Pour colorer ma vie, colorer ma vie J'ai trop traîné, erré dans les rues d'ma ville Promis des choses à maman et à mon ghetto Et mon grand frère vient d'avoir une fille, avoir une fille Donc je veux du vert, jaune, violet pour colorer ma vie On a descendu la On arrive on casse tout Bloqué au rap à l'ancienne MZ Music Volume 3 dans les bacs on est al Tous les projets de la liste J'te les sors collé fesse douce XXX Il y'a du blanc à choper MC casse toi tu veux un featuring On se connait d'où garde la che-pê Bang le rap game j'te la prends plein d'boules Touche un minable nous dans la foulée on déboule Quel que un faut quatre au jour Le rappeur éclaté j'le voit perso de 9 cafté On le pousse d'en la foule Bang Davidson Present, KDB Zik' Le binôme Jeci Jess, Marlo à domicile Wesh les jaloux moi j'vous kiffe en plus vous tombez à pic J'avais grave envie de me vider la vessie J'suis posé en bas de chez toi j'suis fait Toujours déterminé a chiffrer Ah bon bifton m'appelle jy vais Passe ta commande à n'importe quelle heure on viendra t'livrer Toujours en Benibla là j'suis fait Pas d'cinéma négro j'suis vrai Wesh Calotte c'est quoi le délire hein ? J'ai dit pas d'ciné négro j'suis vrai</t>
+          <t>Quand tu parle de concurrence Si c'est nous on le vit bien Vu que t'es même pas fort poto On baise ces salopes Que tu considères comme filles biens Et là t'as pas tord poto Tous les chemins mènent j'sais même pas où J'en ai rien à foutre vu que j'suis fucked up poto On va pas traverser le pont de l'enfer Et j'me dis que c'est à cause de la marque de Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Nous, c'est la concu et je sais que tu kiffes J'avais la flemme donc j'ai repris le flow de Reese dans Beef Il me faut un tas d'oseille c'est instinctif Qu'est-c'que j'm'en bat les reins Que tu préfères t'la foutre dans le pif J'passe d'un sujet à l'autre Comme tous mes plans tombaient à l'eau Comme tous les p'tits bâtards Qui sur nos faces deviennent paranos M et Z, L et Z J'ai la haine parce que j'ai pas ce putain d'disque de platine Et vos avis wAllah j'm'en bats les couilles youc Yeah, comme Lil Jay j'm'la raconte Comme une grosse tasse-pé, grosse tasse-pé Fait gaffe mec, il y'a que maman qui a le droit de taper La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Ouais poto va faire du papier Tu parles mais tu peux même pas m'frapper Starfallah encore moins caner Vous êtes des putes, veuillez vous calmer La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Prométhazine codéine j'suis fucked up, fucked up, fucked up, fucked up Joint j'ai ma tête dans le black out, black out, black out, black out Ici l'ambiance vire souvent sauce ketchup, ketchup, ketchup, ketchup Ta pute de sur prend mon sperme produit de make up Les mecs c'est un hold up en live de Skyrock On les braque à visage découvert Bang bang flow, bra ta ta ta nique le rap game On les .... pour leur faire la guerre Ce n'est pas pour faire la paix qu'in pète le calumet Parle calmement dans mon tieks tu peux te faire allumer Toi les billets tu calcules moi les putes me calculent Donc comme Kalina Pololo veut s'faire caliner Yeah il m'faut du vert, jaune, violet Pour colorer ma vie, colorer ma vie J'ai trop traîné, erré dans les rues d'ma ville Promis des choses à maman et à mon ghetto Et mon grand frère vient d'avoir une fille, avoir une fille Donc je veux du vert, jaune, violet pour colorer ma vie On a descendu la On arrive on casse tout Bloqué au rap à l'ancienne MZ Music Volume 3 dans les bacs on est al Tous les projets de la liste J'te les sors collé fesse douce XXX Il y'a du blanc à choper MC casse toi tu veux un featuring On se connait d'où garde la che-pê Bang le rap game j'te la prends plein d'boules Touche un minable nous dans la foulée on déboule Quel que un faut quatre au jour Le rappeur éclaté j'le voit perso de 9 cafté On le pousse d'en la foule Bang Davidson Present, KDB Zik' Le binôme Jeci Jess, Marlo à domicile Wesh les jaloux moi j'vous kiffe en plus vous tombez à pic J'avais grave envie de me vider la vessie J'suis posé en bas de chez toi j'suis fait Toujours déterminé a chiffrer Ah bon bifton m'appelle jy vais Passe ta commande à n'importe quelle heure on viendra t'livrer Toujours en Benibla là j'suis fait Pas d'cinéma négro j'suis vrai Wesh Calotte c'est quoi le délire hein ? J'ai dit pas d'ciné négro j'suis vrai</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2278,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way You might also like Is my time now All you niggas to the ground now Who open the mouth ill knock down Nigga even if you see me in your town You better runaway nigga when You see me around Im like K.O. son of a gun dont test me Dont stress me Nobody cant face me The nigga whove been with your girl And sleep with her Yeah nigga thats me! Suka! I crush i break in pieces you and your tam Aureo call me hero For my haters phumakim You think youre a real nigga But youre funny like mr. bean Im the best mc sa hip-hop ever seen Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this Game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I wanna be mzansi legend on this Game Thats my aim Money, power, fame I came where i came Nothing change me And im still the same Until today Im been building my Name To be in hall of fame Nigga youre a lame And my success make you feel in pain Turn up! Turn up! I can tell you boy once again Ya girl call me all night to be With her you know what im Sayin Ill destroy nigga who cross my Lane Aureo hot crew keep this Names in your brain Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats My name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way</t>
+          <t>Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way Is my time now All you niggas to the ground now Who open the mouth ill knock down Nigga even if you see me in your town You better runaway nigga when You see me around Im like K.O. son of a gun dont test me Dont stress me Nobody cant face me The nigga whove been with your girl And sleep with her Yeah nigga thats me! Suka! I crush i break in pieces you and your tam Aureo call me hero For my haters phumakim You think youre a real nigga But youre funny like mr. bean Im the best mc sa hip-hop ever seen Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this Game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I wanna be mzansi legend on this Game Thats my aim Money, power, fame I came where i came Nothing change me And im still the same Until today Im been building my Name To be in hall of fame Nigga youre a lame And my success make you feel in pain Turn up! Turn up! I can tell you boy once again Ya girl call me all night to be With her you know what im Sayin Ill destroy nigga who cross my Lane Aureo hot crew keep this Names in your brain Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats My name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Smoking Milli he couldnt breath Suck my dick im big 1622 Gang J'suis chez l'poto qu'est-c'tu m'dis ? C'était la voix de sa petite cousine J'suis le roi des abrutis J'me suis encore fait attraper ce coup-ci Eh, no stress, retournement de situation que j'vais tenter Pas d'panique, j'suis un menteur J'sais déjà c'que j'vais dire dès que j'vais rentrer Trop serein, ici c'est moi qui gère Des mots d'amour autour d'un restau On s'fait l'amour, on s'fait la guerre Ça peut aller très vite à caus d'un texto Par contre toi si tu m'trompes, j't casse la gueule J'rigole, j'm'en bats les couilles, j'en serre une autre En vrai il n'y a pas que des menteurs Les meufs ont rendu des gars paranosYou might also like</t>
+          <t>Smoking Milli he couldnt breath Suck my dick im big 1622 Gang J'suis chez l'poto qu'est-c'tu m'dis ? C'était la voix de sa petite cousine J'suis le roi des abrutis J'me suis encore fait attraper ce coup-ci Eh, no stress, retournement de situation que j'vais tenter Pas d'panique, j'suis un menteur J'sais déjà c'que j'vais dire dès que j'vais rentrer Trop serein, ici c'est moi qui gère Des mots d'amour autour d'un restau On s'fait l'amour, on s'fait la guerre Ça peut aller très vite à caus d'un texto Par contre toi si tu m'trompes, j't casse la gueule J'rigole, j'm'en bats les couilles, j'en serre une autre En vrai il n'y a pas que des menteurs Les meufs ont rendu des gars paranos</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-You might also like</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2329,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Verse 1 I got biz on the daily, tryna find cash so me and all my dawgs can go and have a blast, I know it don't last but its worth the memories, sittin here making this music for all the ghetto kids, they call it Hip Hop, I call it good music, call it soul food coz i know i won't lose it, and if the world choose it, imma be your man, keep it hot on the stove and ready for demand, I be chilling at the back of the house where the boys make noise and the girls wanna bounce, old school, new school, men we don't really care, go ahead play the tune leave you whipping your hair, yah, niko na mzinga na ako na mzinga pia, niko na ka-roach na niko na fegi pia, sina job but niko base natulia nangoja nipate yangu ndio nibbe malkia Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 2 place quiet all naskia ni whistle za birds Vegetation ever green no traces za dry grass Clean gas in the air..no motor cars No industries na kama ziko ziko far Place naweza drink maji straight from the stream With no wories coz najua iko all clean Taste ya milk haiko tampered na ma preservatives Diet mzima ni organic no sweets just honey Place kila mtu ako deep rooted kwa culture Taboos hazivunjwi niku abide ki rasta Tuko into appeasing fore fathers Incase tufanye noma ama msee afanye blander Ile place life span yetu iko long enough Time tunaspend na loved once iko just enough Sio the vice versa much time iko spent kwa works Building the nation okay and then what? Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 3 Nafanya kama karaoke utadhani na-sing ukiniskiza utaniuliza where the hell have you been, yoh , ndani ya nyumba na a pretty young thing, amenivalia bling utadhani beauty queen baby, mi nataka nikupatie joto uki-feel hii mziki nikupatie mtoto though sasa ni kazi nikazie msoto, mtaani na mabeshte hakuna utoto, uh, i keep it real i'm a E-town nigga , skill so ill make hits like jigga for real, stay fresh like the scenery here, everyday's a new day no therapy here, so leta jane leta molly leta melanie pia, ni kujibamba na kusaka hangover, kufanya tunachotaka hatujali ma gova You might also likeHook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu</t>
+          <t>Verse 1 I got biz on the daily, tryna find cash so me and all my dawgs can go and have a blast, I know it don't last but its worth the memories, sittin here making this music for all the ghetto kids, they call it Hip Hop, I call it good music, call it soul food coz i know i won't lose it, and if the world choose it, imma be your man, keep it hot on the stove and ready for demand, I be chilling at the back of the house where the boys make noise and the girls wanna bounce, old school, new school, men we don't really care, go ahead play the tune leave you whipping your hair, yah, niko na mzinga na ako na mzinga pia, niko na ka-roach na niko na fegi pia, sina job but niko base natulia nangoja nipate yangu ndio nibbe malkia Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 2 place quiet all naskia ni whistle za birds Vegetation ever green no traces za dry grass Clean gas in the air..no motor cars No industries na kama ziko ziko far Place naweza drink maji straight from the stream With no wories coz najua iko all clean Taste ya milk haiko tampered na ma preservatives Diet mzima ni organic no sweets just honey Place kila mtu ako deep rooted kwa culture Taboos hazivunjwi niku abide ki rasta Tuko into appeasing fore fathers Incase tufanye noma ama msee afanye blander Ile place life span yetu iko long enough Time tunaspend na loved once iko just enough Sio the vice versa much time iko spent kwa works Building the nation okay and then what? Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 3 Nafanya kama karaoke utadhani na-sing ukiniskiza utaniuliza where the hell have you been, yoh , ndani ya nyumba na a pretty young thing, amenivalia bling utadhani beauty queen baby, mi nataka nikupatie joto uki-feel hii mziki nikupatie mtoto though sasa ni kazi nikazie msoto, mtaani na mabeshte hakuna utoto, uh, i keep it real i'm a E-town nigga , skill so ill make hits like jigga for real, stay fresh like the scenery here, everyday's a new day no therapy here, so leta jane leta molly leta melanie pia, ni kujibamba na kusaka hangover, kufanya tunachotaka hatujali ma gova Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Hey, j'levais à 5 du mat pour aller taffer Elle m'a dit qu'elle avait pas le choix t'façon Aujourd'hui j'men tape de tout lui donner Car à ce jour elle a fait de moi c'grand garçon Des boloss m'appellent pour du stup' Ta vite l'seum, rappelle quand y'a c'tube Mama préférait les études, j'fais mes bails et j'travaille mes tubes Tout ces jaloux vont s'faire casser le cul On bosse, la fatigue me fait du pied mais j'dors peu XXX pas facile, XXX montre-leur qui est le boss Comment dormir si on doit prendre des feuilles ? Allez force à ceux qui doivent se lever tôt pour leurs gosses XXX gravé sur le torse, y'a qu'la famille pour mettre des coups d'crosses You might also like Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Je vois toujours les même choses, je vois pas la vie en rose J'ai fais du rap mon métronome, mes frères ont des bobos Soignés par le bédo, n'ait pas peur des keufs et du flashball La rue je l'ai tellement côtoyé que je la connais par coeur Maintenant je la chante et puis rien d'autre La street tourne en rond en détaillant du carré Et après s'barre au cachot J'fais péter mon talent comme le Belaire Appelle-moi XXX j'ai la frappe du tonnerre J'viens roucouler à l'heure où Maman s'réveille Je change ce quotidien vicieux et le sert Cite-moi la paix est le nerf de la guerre Du bonheur à gogo malgré mes méfaits Je fais des monuments comme Gustave Eiffel Ma musique est chaude comme ci elle squattait l'Enfer Khey ça parle de MZ Music par ci, par là Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo J'ai écrit tout comme Rimbaud, traîné tout comme Rondo Petit je squattais le bendo pendant que ces pelos partent en collo Professeur du ghetto Bitch, j'suis pas nouveau, j'ai ce qu'il te faut J'ai la meilleure dope et le meilleur flow oh no Qui fait le tour de la France sans télé ni radio ? Studio, Bendo, Bédo2</t>
+          <t>Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Hey, j'levais à 5 du mat pour aller taffer Elle m'a dit qu'elle avait pas le choix t'façon Aujourd'hui j'men tape de tout lui donner Car à ce jour elle a fait de moi c'grand garçon Des boloss m'appellent pour du stup' Ta vite l'seum, rappelle quand y'a c'tube Mama préférait les études, j'fais mes bails et j'travaille mes tubes Tout ces jaloux vont s'faire casser le cul On bosse, la fatigue me fait du pied mais j'dors peu XXX pas facile, XXX montre-leur qui est le boss Comment dormir si on doit prendre des feuilles ? Allez force à ceux qui doivent se lever tôt pour leurs gosses XXX gravé sur le torse, y'a qu'la famille pour mettre des coups d'crosses Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Je vois toujours les même choses, je vois pas la vie en rose J'ai fais du rap mon métronome, mes frères ont des bobos Soignés par le bédo, n'ait pas peur des keufs et du flashball La rue je l'ai tellement côtoyé que je la connais par coeur Maintenant je la chante et puis rien d'autre La street tourne en rond en détaillant du carré Et après s'barre au cachot J'fais péter mon talent comme le Belaire Appelle-moi XXX j'ai la frappe du tonnerre J'viens roucouler à l'heure où Maman s'réveille Je change ce quotidien vicieux et le sert Cite-moi la paix est le nerf de la guerre Du bonheur à gogo malgré mes méfaits Je fais des monuments comme Gustave Eiffel Ma musique est chaude comme ci elle squattait l'Enfer Khey ça parle de MZ Music par ci, par là Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo J'ai écrit tout comme Rimbaud, traîné tout comme Rondo Petit je squattais le bendo pendant que ces pelos partent en collo Professeur du ghetto Bitch, j'suis pas nouveau, j'ai ce qu'il te faut J'ai la meilleure dope et le meilleur flow oh no Qui fait le tour de la France sans télé ni radio ? Studio, Bendo, Bédo2</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE SLVEY Skyscrapers spacestations Easy chillin' Find me high on leisure Black and white outfit 101 dalmations Ukhalazela ngan' Mntaka Ma Movin' fast in the maze no Ramadan All you ride or dies need some wheel alignment Malum' Tshe on the throne 8 ball in the hole Game over wet like a coaster Summon these hoes like I'm clothed In a red and white coat with a beard That's matching my outfit, yea 258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris You might also likeVERSE Mz Yea, Project baby gettin' 109 Yea,None of these bxtes can Fk with my guys Yea,Bad tingz keep 6 on my side Yea, I'm D.I.D still dope in disguise V.I.P so can't F×k with declines Mr Wintro still cold on the beat SLVEY I swear Money gone make me mize men Like how money made many mize me So many M So many, damn We live for the dead Presidents THE END</t>
+          <t>258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE SLVEY Skyscrapers spacestations Easy chillin' Find me high on leisure Black and white outfit 101 dalmations Ukhalazela ngan' Mntaka Ma Movin' fast in the maze no Ramadan All you ride or dies need some wheel alignment Malum' Tshe on the throne 8 ball in the hole Game over wet like a coaster Summon these hoes like I'm clothed In a red and white coat with a beard That's matching my outfit, yea 258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE Mz Yea, Project baby gettin' 109 Yea,None of these bxtes can Fk with my guys Yea,Bad tingz keep 6 on my side Yea, I'm D.I.D still dope in disguise V.I.P so can't F×k with declines Mr Wintro still cold on the beat SLVEY I swear Money gone make me mize men Like how money made many mize me So many M So many, damn We live for the dead Presidents THE END</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2380,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur Eh, avec clique lâche la troisième bouteille on est fonce-dé Aujourd'hui tant qu'on prend pas de biff on va pas pioncer Y'a qu'devant l'OPJ et la daronne qu'on s'tait Dans le bendo qui contrôle les bails négro on l'sait On est venu on a rappé tout seuls on est monté J'te parle de bitchs, j'te parle de drogues, j'insulte les condés Et les puristes diront que j'fais du rap d'illétré Yeah, yeah Les soldats on sait les compter J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur You might also like J'en ai rien a foutre de l'avis des puristes Ces bouffons viennent pas de ma street Aucuns de mes semblables dans les grands médias et maisons de disque Normal qu'on me prenne pour l'antéchrist Spermatozoïdes plus rapide que Muriel Hurtis J'suis le bébé qui vient faire jouir sa puéricultrice Le dernier de la classe qui baise son institutrice Un moteur de Bugatti dans une Peugeot 106 Pour ça que ces mecs graves veulent braquer mon flow Ils parlent de meufs maintenant, ils parlent de drogues maintenant Ces négros savent, ces négros dansent, ces négros chantent, maintenant Tout l'monde est Big Daddy sans le savoir vraiment Depuis l'arrivée de l'élu plus rien n'est plus comme avant Passe-moi la balle maintenant, j'remonte le score maintenant Si j'y vais fort c'est pour mon squad, Davidson Presents J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur S-A-L-I-F, Ol kainry, Nessbeal, Sefyu, Mac Tyer, Mafia K1 et les XXX thugs XXX De la musique de la bonne dope B2O Et vous disiez que le rap était en deuil Et j'en passe j'pourrais pas t'apprendre la musique moi c'est la musique qui m'a apprit, j'fuck les puristes comme la police Tiens comme dirais Rohff Je hardcore comme je veux Je tue comme je veux, enculé d'tes cheveux Yeah, toi c'est pas les filles c'est plutôt le rap qui t'as brisé ton petit cur Ecoute mon pote j'm'en bas les couilles j'suis pas ton sauveur T'es le seul à avoir des problèmes parce que je calcule pas tes commentaires J'te le répète, j'm'en bas les couilles j'suis pas ton sauveur</t>
+          <t>J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur Eh, avec clique lâche la troisième bouteille on est fonce-dé Aujourd'hui tant qu'on prend pas de biff on va pas pioncer Y'a qu'devant l'OPJ et la daronne qu'on s'tait Dans le bendo qui contrôle les bails négro on l'sait On est venu on a rappé tout seuls on est monté J'te parle de bitchs, j'te parle de drogues, j'insulte les condés Et les puristes diront que j'fais du rap d'illétré Yeah, yeah Les soldats on sait les compter J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur J'en ai rien a foutre de l'avis des puristes Ces bouffons viennent pas de ma street Aucuns de mes semblables dans les grands médias et maisons de disque Normal qu'on me prenne pour l'antéchrist Spermatozoïdes plus rapide que Muriel Hurtis J'suis le bébé qui vient faire jouir sa puéricultrice Le dernier de la classe qui baise son institutrice Un moteur de Bugatti dans une Peugeot 106 Pour ça que ces mecs graves veulent braquer mon flow Ils parlent de meufs maintenant, ils parlent de drogues maintenant Ces négros savent, ces négros dansent, ces négros chantent, maintenant Tout l'monde est Big Daddy sans le savoir vraiment Depuis l'arrivée de l'élu plus rien n'est plus comme avant Passe-moi la balle maintenant, j'remonte le score maintenant Si j'y vais fort c'est pour mon squad, Davidson Presents J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur S-A-L-I-F, Ol kainry, Nessbeal, Sefyu, Mac Tyer, Mafia K1 et les XXX thugs XXX De la musique de la bonne dope B2O Et vous disiez que le rap était en deuil Et j'en passe j'pourrais pas t'apprendre la musique moi c'est la musique qui m'a apprit, j'fuck les puristes comme la police Tiens comme dirais Rohff Je hardcore comme je veux Je tue comme je veux, enculé d'tes cheveux Yeah, toi c'est pas les filles c'est plutôt le rap qui t'as brisé ton petit cur Ecoute mon pote j'm'en bas les couilles j'suis pas ton sauveur T'es le seul à avoir des problèmes parce que je calcule pas tes commentaires J'te le répète, j'm'en bas les couilles j'suis pas ton sauveur</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2397,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>On se pavane dans la ville Les bécanes sont levées en i-i-i On entends des coups de feu, qui ré-ti sur qui qui qui ? J'suis posé ma belle Pas besoin de tes fesses Mais pourquoi tu m'appelles ? Je suis posé à Valèse Mes gars me dise tout Pourquoi toi tu joue le fou ? T'as trahi la miff, à cette pute tu disais tout Un verre de trop, une arme chargée Il te met à genoux devant tout le monde rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou J'ai trimé dans les ruelles d'Aubert mais toi t'étais où ? Je tournais en rond dans la cellule dansant comme un fou Hum comme un fou Oui je suis fou de toi Ma belle danse sur la piste, défoule toi Grosse gamelle tout le monde rit, ça tourne sur le net J'pense tout comme toi j'trouve ces gens sont malhonnêtes Tous malhonnêtes en plus ça se la pète Toute cette brutalité rien que pour buzzer You might also like C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou T'entends MS partout j'ai ramené de la qualité T'veux marcher avec nous mais toi es-tu validé ? J'plais sur Youtube pense-tu que je suis une célébrité ? Avec ma Family Bang Bang toi tu n'as pas idée Hum t'es prêt pour nous signer, tu n'es pas prêt Hum t'es pas prêt pour nous acheter, tu n'es pas prêt Hum t'es prêt pour la rendre heureuse, tu n'es pas prêt Hum t'es pas prêt mais pour le buzz toi t'es prêt C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou</t>
+          <t>On se pavane dans la ville Les bécanes sont levées en i-i-i On entends des coups de feu, qui ré-ti sur qui qui qui ? J'suis posé ma belle Pas besoin de tes fesses Mais pourquoi tu m'appelles ? Je suis posé à Valèse Mes gars me dise tout Pourquoi toi tu joue le fou ? T'as trahi la miff, à cette pute tu disais tout Un verre de trop, une arme chargée Il te met à genoux devant tout le monde rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou J'ai trimé dans les ruelles d'Aubert mais toi t'étais où ? Je tournais en rond dans la cellule dansant comme un fou Hum comme un fou Oui je suis fou de toi Ma belle danse sur la piste, défoule toi Grosse gamelle tout le monde rit, ça tourne sur le net J'pense tout comme toi j'trouve ces gens sont malhonnêtes Tous malhonnêtes en plus ça se la pète Toute cette brutalité rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou T'entends MS partout j'ai ramené de la qualité T'veux marcher avec nous mais toi es-tu validé ? J'plais sur Youtube pense-tu que je suis une célébrité ? Avec ma Family Bang Bang toi tu n'as pas idée Hum t'es prêt pour nous signer, tu n'es pas prêt Hum t'es pas prêt pour nous acheter, tu n'es pas prêt Hum t'es prêt pour la rendre heureuse, tu n'es pas prêt Hum t'es pas prêt mais pour le buzz toi t'es prêt C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2414,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Paroles de Casa Crew Eh eh ta jahhad a l3awd Ayo, Casa Crew jaw daro lfawda Casa Crew m3akom lyom Wach ngolk Album lowl, Casa Crew way Smiyto Al Bassma Chaht Man Production Album Al Bassma Casa Crew Bach te39el 3lih mzyan a 3chiri F jkater ga3 l3chran Casa Crew a 3chiri Album dyalna 9sa7a Makaynch smo3lih Bassma f tarikh rap maghribi Li taybghiw pur rap music underground Mzyan, yeah a3chiri Basma b-b-basma, hak fassma Album Al Bassma lhdma dyal 3am Represent Casa Crew Caprice Chaht Man J-Ok Masta Flow Yo Wach ngolk a 3chiri Album machi sahel Casa Crew Khadma s3iba machi sahla 3ammerni nsali w m3aya drari Yeah 2007, hna dima Masta Flow f les instrus 3awd couplet men à zéro Al Bassma f khater ga3 l3chran 2007 golna klam sbou3a Eh eh, ga3 li kaybghiw rap maghribi a3chiri Represent lmgharba m3akom M3ak l'Caprice, f'khater ga3 l3chran Wach angolk a3chiri L'ga3 les fans, li hnaya w lhih Wlyoma makayn ghi smo3lih Casa Crew yo ya yeah yeah Casa Crew yo ya yeah yeah Album smiyto Al BassmaYou might also like</t>
+          <t>Paroles de Casa Crew Eh eh ta jahhad a l3awd Ayo, Casa Crew jaw daro lfawda Casa Crew m3akom lyom Wach ngolk Album lowl, Casa Crew way Smiyto Al Bassma Chaht Man Production Album Al Bassma Casa Crew Bach te39el 3lih mzyan a 3chiri F jkater ga3 l3chran Casa Crew a 3chiri Album dyalna 9sa7a Makaynch smo3lih Bassma f tarikh rap maghribi Li taybghiw pur rap music underground Mzyan, yeah a3chiri Basma b-b-basma, hak fassma Album Al Bassma lhdma dyal 3am Represent Casa Crew Caprice Chaht Man J-Ok Masta Flow Yo Wach ngolk a 3chiri Album machi sahel Casa Crew Khadma s3iba machi sahla 3ammerni nsali w m3aya drari Yeah 2007, hna dima Masta Flow f les instrus 3awd couplet men à zéro Al Bassma f khater ga3 l3chran 2007 golna klam sbou3a Eh eh, ga3 li kaybghiw rap maghribi a3chiri Represent lmgharba m3akom M3ak l'Caprice, f'khater ga3 l3chran Wach angolk a3chiri L'ga3 les fans, li hnaya w lhih Wlyoma makayn ghi smo3lih Casa Crew yo ya yeah yeah Casa Crew yo ya yeah yeah Album smiyto Al Bassma</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2431,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Quoi d'neuf fils de pute ? Wesh, toujours les mêmes buts ou quoi ? Evolue, continue, casse du sucre sur mon dos Mais surtout fais le comme une brute La vie est dure pour toi j'comprends mec Tu n'as pas de talent, tu rages sur les autres constament Tu me donnes de la pêche inconsciement Remets -toi en question bordel même tes potes te fuient T'as pas d'ami, t'as pas d'vie, t'es comme les murs de la té-ci Tout le monde passe à tes côtés Malheureux de nature, personne te calcule A part pour dire du mal des gens, fils de pute, tu ne parles plus Wesh fils de pute, wesh fils de chienne Wesh mes oreille siffle mais hurle tellement tu te déchaines A part ça, quoi d'neuf mon XXX comme un join d'peuf You might also like Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Quoi d'neuf fils de pute ? Pourquoi autant de ragots ? XXX, tu passes ton temps à parler sur les autres, tu fais de la peine iako Tu t'ennuies car ta vie est un échec Les mecs comme toi méritent pas qu'on les check Toujours là à t'occuper de s'qui te regarde pas Monter des gens contre d'autres on te connait pour ça dans le tiek Wesh fils de pute, paraît que t'aimes pas ma couleur de peau Vos contrôles de merde feront qu'un jour ça merdra, on vous fera la peau Quoi d'neuf fils de pute ? Ca fait quel effet de venir casser nos portes, de déranger les darons, tout ça pour nous soulever ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Tu veux jacter avec tes potes Consulter les plus grands marabous Rien ni personne ne viendra à bout de mon crew T'inquète, on tient le coup On tient le bout et c'est le bon Poto, c'est tout droit dans ton fion Y a du flow, y a du fond, y a que des bonhommes attention Sévère est la correction Fallait, fallait pas nous chécher MZ Music et Le Binome, bonhomme, on est trop déter' Quoi d'neuf fils de pute ? Alors quoi d'neuf fils de pute ? Hein, tu voulais ma chute ? Mais t'inquète, j'arriverai bien à mon but hein</t>
+          <t>Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Quoi d'neuf fils de pute ? Wesh, toujours les mêmes buts ou quoi ? Evolue, continue, casse du sucre sur mon dos Mais surtout fais le comme une brute La vie est dure pour toi j'comprends mec Tu n'as pas de talent, tu rages sur les autres constament Tu me donnes de la pêche inconsciement Remets -toi en question bordel même tes potes te fuient T'as pas d'ami, t'as pas d'vie, t'es comme les murs de la té-ci Tout le monde passe à tes côtés Malheureux de nature, personne te calcule A part pour dire du mal des gens, fils de pute, tu ne parles plus Wesh fils de pute, wesh fils de chienne Wesh mes oreille siffle mais hurle tellement tu te déchaines A part ça, quoi d'neuf mon XXX comme un join d'peuf Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Quoi d'neuf fils de pute ? Pourquoi autant de ragots ? XXX, tu passes ton temps à parler sur les autres, tu fais de la peine iako Tu t'ennuies car ta vie est un échec Les mecs comme toi méritent pas qu'on les check Toujours là à t'occuper de s'qui te regarde pas Monter des gens contre d'autres on te connait pour ça dans le tiek Wesh fils de pute, paraît que t'aimes pas ma couleur de peau Vos contrôles de merde feront qu'un jour ça merdra, on vous fera la peau Quoi d'neuf fils de pute ? Ca fait quel effet de venir casser nos portes, de déranger les darons, tout ça pour nous soulever ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Tu veux jacter avec tes potes Consulter les plus grands marabous Rien ni personne ne viendra à bout de mon crew T'inquète, on tient le coup On tient le bout et c'est le bon Poto, c'est tout droit dans ton fion Y a du flow, y a du fond, y a que des bonhommes attention Sévère est la correction Fallait, fallait pas nous chécher MZ Music et Le Binome, bonhomme, on est trop déter' Quoi d'neuf fils de pute ? Alors quoi d'neuf fils de pute ? Hein, tu voulais ma chute ? Mais t'inquète, j'arriverai bien à mon but hein</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2448,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope Aucun d'mes gars tape la coke C'est à vous de mon ghetto J'bois pas d'eau Sponsorisé par tchapalo Soirée de baisés, mes gars sont sous bédo Ta chaude meuf est sur mes côtes Ramène la voir le véto Fais pas l'chaud pour des gos J'vais t'faire danser, j'ai mon glock J'ai la dalle Quand j'vois tous ces haineux et quand j'fais des billets Quand j'vois toutes ces formes, et ces putes s'déshabiller Quand mes négros enfermés sortent de taule Dans l'tiekson avec mes négros Alcooliques on boit dans des brocs Y'a... Y'a d'la... You might also like Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Négro y'a d'la dope Mes jeunes OG sont dans l'bloc Mes jeunes OG sont sur chaque blanche et en bénéficient comme le king de la pop Rentre dans la chambre, bébé ferme bien la porte Qu'on fasse un huis clos, cambre bien ton dos Que j'bosse mes abdos Sur moi fais des squats comme si j'étais ton coach Des lignes se dessinent entre elle et moi Elle sent qu'elle aime, on a MDMA Chaque jour que Dieu fait j'suis fucked up Coup d'twerk c'est un hold up Pose ton string et ton crop-top Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope J'te jure que tout l'monde est fait, personne s'en souviendra d'la veille Y'a d'la go, tu connais la devise vole comme un papillon, pique comme une abeille Y'a d'la grosse, y'a d'la grosse coupure mes gars ont tournés déterminés Y'a d'l'alcool, y'a d'l'alcool partout, enfoiré touche pas à ma 'teille Y'a d'la dope dope dope dope, on accueille snoopy dog dog dog Y'a d'la dose dose dose dose, on fait la diff' c'est bank bank-able Ferme ta gueule, on connaît pas, t'es qui ? Ah là reste tranquille C'est pas l'tout, ici y'a pas d'king, tout l'monde fuck la police Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go</t>
+          <t>Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope Aucun d'mes gars tape la coke C'est à vous de mon ghetto J'bois pas d'eau Sponsorisé par tchapalo Soirée de baisés, mes gars sont sous bédo Ta chaude meuf est sur mes côtes Ramène la voir le véto Fais pas l'chaud pour des gos J'vais t'faire danser, j'ai mon glock J'ai la dalle Quand j'vois tous ces haineux et quand j'fais des billets Quand j'vois toutes ces formes, et ces putes s'déshabiller Quand mes négros enfermés sortent de taule Dans l'tiekson avec mes négros Alcooliques on boit dans des brocs Y'a... Y'a d'la... Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Négro y'a d'la dope Mes jeunes OG sont dans l'bloc Mes jeunes OG sont sur chaque blanche et en bénéficient comme le king de la pop Rentre dans la chambre, bébé ferme bien la porte Qu'on fasse un huis clos, cambre bien ton dos Que j'bosse mes abdos Sur moi fais des squats comme si j'étais ton coach Des lignes se dessinent entre elle et moi Elle sent qu'elle aime, on a MDMA Chaque jour que Dieu fait j'suis fucked up Coup d'twerk c'est un hold up Pose ton string et ton crop-top Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope J'te jure que tout l'monde est fait, personne s'en souviendra d'la veille Y'a d'la go, tu connais la devise vole comme un papillon, pique comme une abeille Y'a d'la grosse, y'a d'la grosse coupure mes gars ont tournés déterminés Y'a d'l'alcool, y'a d'l'alcool partout, enfoiré touche pas à ma 'teille Y'a d'la dope dope dope dope, on accueille snoopy dog dog dog Y'a d'la dose dose dose dose, on fait la diff' c'est bank bank-able Ferme ta gueule, on connaît pas, t'es qui ? Ah là reste tranquille C'est pas l'tout, ici y'a pas d'king, tout l'monde fuck la police Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2465,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>, - ! ! , ! , ! , - ! , , , , !You might also like</t>
+          <t>, - ! ! , ! , ! , - ! , , , , !</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_MZ_songs.xlsx
+++ b/data/02_intermediate/cleaned_MZ_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,12 +2222,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Plomo</t>
+          <t>Potrzebuję</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Helikopter, helikopter, helikopter Wiksa, wiksa, wiksa, wiksa, wiksa Lecimy dzisiaj na pixach Dzida - Walnity Jestem pierdolnity, dzida Jestem prawilnym gociem, dzida Dzida, mam przejebane, pena dzida Jdker na bicie - w tekcie ycie Rampapam, helikopter... Dziwki! Mam 28 lat, wyjebali mnie z roboty Robi pojebany rap i pakuj si w kopoty Typy myl, e mam hajs, a ja w kóko gram za zwroty I jeszcze lubi móci szmal, przez co nigdy nie mam floty Najebany wiod zad, a nas nie zawinie psiarnia W kóko mówi mi mój brat, ebym zacz si ogarnia A ja ju kolejny raz zarzygaem komisariat Jeszcze pono chciaem la tamtych typów w kominiarkach Ole kiedy Ty w kocu doroniesz? Ja to w dupie mam Popiesz si bo skoczysz gdzie pod mostem Ja to w dupie mam W domu jeste gociem, resz jak w pocie To te w dupie mam I by kurwa zmieni w kocu pociel Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to kurwa sram W dupie mam, w dupie mam... Jako tak od 4 lat, nie potrafi zrobi prawka Wziem si za szycie szmat, standardowo wyszed kasztan Na uczelni wisz rat - wisi praca i poprawka Jeszcze kurwa MZK wyle mi kolejny mandat Kiedy katowaem blat, w kadej pierdolonej chwili Teraz cho mam na to czas, nie mam chci ani siy Rzuciem targanie sztang, akro i kurwa treningi Malowanie ludziom cian, wszdzie tylko robi tyy cigaj t-shirt - rób pieprzony kurwa helikopter cigaj gacie - rób pieprzony kurwa helikopter cigaj bluz - rób pieprzony kurwa helikopter Zanim na kule kapn Ci potu krople Zdejm koszul - rób pieprzony helikopter cigaj majty - rób pieprzony helikopter I skarpety - i rób nimi helikopter Jestem pojebany i to jest okropne Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to sram Lepsze jutro kocz wczoraj Gorsze ni zaczynam dzi Przyszo widz w zych kolorach, a w teraniejszoci syf Jeli mylisz, e to w zoci, albo jest mi chocia wstyd Ja mam na to wyjebane, nie potrzebuje nic Mam w gbokim powaaniu opinie o mym wygldzie O paskudnym zachowaniu i mojej parszywej mordzie Mog nosi swoje ycie, kurwa w plastikowej torbie W dupie mam szacunek ludzi, którzy nic nie wiedz o mnie Moe mam wski horyzont, bd spa w parku na awce Jeste pizd jak oceniasz, kurwa ksiki po okadce atwiej y tym ziomom, niewiadomo jest bogosawiestwem Potrzebujesz tego gówna i niczego kurwa wicej Dzida dzida dzida dzida dzida - w dupie mam Koszula dzisiaj Ci si przyda - w dupie mam Dzida dzida dzida dzida dzida - na to kurwa sram Gacie, gacie - to te Ci si przyda ciagaj majty - rób pieprzony helikopter ciagaj buty - rób pieprzony helikopter Marynark - rób pieprzony helikopter Gdzie ja jestem kurwa? To jest okropne! Pojebace Helikopter migowiec - palimy towiec, walimy browiec, ruchanie owiec Techno, techno, techno To jest okropne... Ja to w dupie mam Tararararara - ja to w dupie mam, ogldam MTV Tararararara - ja to w dupie mam, dzwo na psy Tararararara - trzymam rk w gaciach Tararararara - i za nic nie przepraszam Dry, dry Tarararara - Wszdzie zrób pik Tarararara - Ja to w dupie mam Helikopter... Tarararara - Ja na to kurwa sram Ja to w dupie mam Gówno Dobra kurwa, zmczyem si Kurwa, zmczyem si Gówno, nie prawda Pierdoli, oficjalnie si zwalniam Zwalniam si, wicej nie robi tego gówna Wiksa, wiksa Podpisuje blankiet zwolnienia Id na bruk, kurwa I nie bd si bawi w to cierwo Tarararara Psiiii, cisza Koniec kurwa imprezy...</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Potrzebuję</t>
+          <t>Robert Kalina</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Helikopter, helikopter, helikopter Wiksa, wiksa, wiksa, wiksa, wiksa Lecimy dzisiaj na pixach Dzida - Walnity Jestem pierdolnity, dzida Jestem prawilnym gociem, dzida Dzida, mam przejebane, pena dzida Jdker na bicie - w tekcie ycie Rampapam, helikopter... Dziwki! Mam 28 lat, wyjebali mnie z roboty Robi pojebany rap i pakuj si w kopoty Typy myl, e mam hajs, a ja w kóko gram za zwroty I jeszcze lubi móci szmal, przez co nigdy nie mam floty Najebany wiod zad, a nas nie zawinie psiarnia W kóko mówi mi mój brat, ebym zacz si ogarnia A ja ju kolejny raz zarzygaem komisariat Jeszcze pono chciaem la tamtych typów w kominiarkach Ole kiedy Ty w kocu doroniesz? Ja to w dupie mam Popiesz si bo skoczysz gdzie pod mostem Ja to w dupie mam W domu jeste gociem, resz jak w pocie To te w dupie mam I by kurwa zmieni w kocu pociel Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to kurwa sram W dupie mam, w dupie mam... Jako tak od 4 lat, nie potrafi zrobi prawka Wziem si za szycie szmat, standardowo wyszed kasztan Na uczelni wisz rat - wisi praca i poprawka Jeszcze kurwa MZK wyle mi kolejny mandat Kiedy katowaem blat, w kadej pierdolonej chwili Teraz cho mam na to czas, nie mam chci ani siy Rzuciem targanie sztang, akro i kurwa treningi Malowanie ludziom cian, wszdzie tylko robi tyy cigaj t-shirt - rób pieprzony kurwa helikopter cigaj gacie - rób pieprzony kurwa helikopter cigaj bluz - rób pieprzony kurwa helikopter Zanim na kule kapn Ci potu krople Zdejm koszul - rób pieprzony helikopter cigaj majty - rób pieprzony helikopter I skarpety - i rób nimi helikopter Jestem pojebany i to jest okropne Ja to w dupie mam - na to kurwa sram Ja to w dupie mam - na to sram Lepsze jutro kocz wczoraj Gorsze ni zaczynam dzi Przyszo widz w zych kolorach, a w teraniejszoci syf Jeli mylisz, e to w zoci, albo jest mi chocia wstyd Ja mam na to wyjebane, nie potrzebuje nic Mam w gbokim powaaniu opinie o mym wygldzie O paskudnym zachowaniu i mojej parszywej mordzie Mog nosi swoje ycie, kurwa w plastikowej torbie W dupie mam szacunek ludzi, którzy nic nie wiedz o mnie Moe mam wski horyzont, bd spa w parku na awce Jeste pizd jak oceniasz, kurwa ksiki po okadce atwiej y tym ziomom, niewiadomo jest bogosawiestwem Potrzebujesz tego gówna i niczego kurwa wicej Dzida dzida dzida dzida dzida - w dupie mam Koszula dzisiaj Ci si przyda - w dupie mam Dzida dzida dzida dzida dzida - na to kurwa sram Gacie, gacie - to te Ci si przyda ciagaj majty - rób pieprzony helikopter ciagaj buty - rób pieprzony helikopter Marynark - rób pieprzony helikopter Gdzie ja jestem kurwa? To jest okropne! Pojebace Helikopter migowiec - palimy towiec, walimy browiec, ruchanie owiec Techno, techno, techno To jest okropne... Ja to w dupie mam Tararararara - ja to w dupie mam, ogldam MTV Tararararara - ja to w dupie mam, dzwo na psy Tararararara - trzymam rk w gaciach Tararararara - i za nic nie przepraszam Dry, dry Tarararara - Wszdzie zrób pik Tarararara - Ja to w dupie mam Helikopter... Tarararara - Ja na to kurwa sram Ja to w dupie mam Gówno Dobra kurwa, zmczyem si Kurwa, zmczyem si Gówno, nie prawda Pierdoli, oficjalnie si zwalniam Zwalniam si, wicej nie robi tego gówna Wiksa, wiksa Podpisuje blankiet zwolnienia Id na bruk, kurwa I nie bd si bawi w to cierwo Tarararara Psiiii, cisza Koniec kurwa imprezy...</t>
+          <t>Quand tu parle de concurrence Si c'est nous on le vit bien Vu que t'es même pas fort poto On baise ces salopes Que tu considères comme filles biens Et là t'as pas tord poto Tous les chemins mènent j'sais même pas où J'en ai rien à foutre vu que j'suis fucked up poto On va pas traverser le pont de l'enfer Et j'me dis que c'est à cause de la marque de Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Nous, c'est la concu et je sais que tu kiffes J'avais la flemme donc j'ai repris le flow de Reese dans Beef Il me faut un tas d'oseille c'est instinctif Qu'est-c'que j'm'en bat les reins Que tu préfères t'la foutre dans le pif J'passe d'un sujet à l'autre Comme tous mes plans tombaient à l'eau Comme tous les p'tits bâtards Qui sur nos faces deviennent paranos M et Z, L et Z J'ai la haine parce que j'ai pas ce putain d'disque de platine Et vos avis wAllah j'm'en bats les couilles youc Yeah, comme Lil Jay j'm'la raconte Comme une grosse tasse-pé, grosse tasse-pé Fait gaffe mec, il y'a que maman qui a le droit de taper La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Ouais poto va faire du papier Tu parles mais tu peux même pas m'frapper Starfallah encore moins caner Vous êtes des putes, veuillez vous calmer La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Prométhazine codéine j'suis fucked up, fucked up, fucked up, fucked up Joint j'ai ma tête dans le black out, black out, black out, black out Ici l'ambiance vire souvent sauce ketchup, ketchup, ketchup, ketchup Ta pute de sur prend mon sperme produit de make up Les mecs c'est un hold up en live de Skyrock On les braque à visage découvert Bang bang flow, bra ta ta ta nique le rap game On les .... pour leur faire la guerre Ce n'est pas pour faire la paix qu'in pète le calumet Parle calmement dans mon tieks tu peux te faire allumer Toi les billets tu calcules moi les putes me calculent Donc comme Kalina Pololo veut s'faire caliner Yeah il m'faut du vert, jaune, violet Pour colorer ma vie, colorer ma vie J'ai trop traîné, erré dans les rues d'ma ville Promis des choses à maman et à mon ghetto Et mon grand frère vient d'avoir une fille, avoir une fille Donc je veux du vert, jaune, violet pour colorer ma vie On a descendu la On arrive on casse tout Bloqué au rap à l'ancienne MZ Music Volume 3 dans les bacs on est al Tous les projets de la liste J'te les sors collé fesse douce XXX Il y'a du blanc à choper MC casse toi tu veux un featuring On se connait d'où garde la che-pê Bang le rap game j'te la prends plein d'boules Touche un minable nous dans la foulée on déboule Quel que un faut quatre au jour Le rappeur éclaté j'le voit perso de 9 cafté On le pousse d'en la foule Bang Davidson Present, KDB Zik' Le binôme Jeci Jess, Marlo à domicile Wesh les jaloux moi j'vous kiffe en plus vous tombez à pic J'avais grave envie de me vider la vessie J'suis posé en bas de chez toi j'suis fait Toujours déterminé a chiffrer Ah bon bifton m'appelle jy vais Passe ta commande à n'importe quelle heure on viendra t'livrer Toujours en Benibla là j'suis fait Pas d'cinéma négro j'suis vrai Wesh Calotte c'est quoi le délire hein ? J'ai dit pas d'ciné négro j'suis vrai</t>
         </is>
       </c>
     </row>
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Robert Kalina</t>
+          <t>Say Whatchu Wanna Say</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Quand tu parle de concurrence Si c'est nous on le vit bien Vu que t'es même pas fort poto On baise ces salopes Que tu considères comme filles biens Et là t'as pas tord poto Tous les chemins mènent j'sais même pas où J'en ai rien à foutre vu que j'suis fucked up poto On va pas traverser le pont de l'enfer Et j'me dis que c'est à cause de la marque de Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Robert Kalina, Robert Kalina, Robert Kalina Nous, c'est la concu et je sais que tu kiffes J'avais la flemme donc j'ai repris le flow de Reese dans Beef Il me faut un tas d'oseille c'est instinctif Qu'est-c'que j'm'en bat les reins Que tu préfères t'la foutre dans le pif J'passe d'un sujet à l'autre Comme tous mes plans tombaient à l'eau Comme tous les p'tits bâtards Qui sur nos faces deviennent paranos M et Z, L et Z J'ai la haine parce que j'ai pas ce putain d'disque de platine Et vos avis wAllah j'm'en bats les couilles youc Yeah, comme Lil Jay j'm'la raconte Comme une grosse tasse-pé, grosse tasse-pé Fait gaffe mec, il y'a que maman qui a le droit de taper La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Ouais poto va faire du papier Tu parles mais tu peux même pas m'frapper Starfallah encore moins caner Vous êtes des putes, veuillez vous calmer La vie est pas juste, la vie est une pute Donc qu'est-c'que t'attends pour la baiser, la baiser Arrête d'envier poto va faire du papier Prométhazine codéine j'suis fucked up, fucked up, fucked up, fucked up Joint j'ai ma tête dans le black out, black out, black out, black out Ici l'ambiance vire souvent sauce ketchup, ketchup, ketchup, ketchup Ta pute de sur prend mon sperme produit de make up Les mecs c'est un hold up en live de Skyrock On les braque à visage découvert Bang bang flow, bra ta ta ta nique le rap game On les .... pour leur faire la guerre Ce n'est pas pour faire la paix qu'in pète le calumet Parle calmement dans mon tieks tu peux te faire allumer Toi les billets tu calcules moi les putes me calculent Donc comme Kalina Pololo veut s'faire caliner Yeah il m'faut du vert, jaune, violet Pour colorer ma vie, colorer ma vie J'ai trop traîné, erré dans les rues d'ma ville Promis des choses à maman et à mon ghetto Et mon grand frère vient d'avoir une fille, avoir une fille Donc je veux du vert, jaune, violet pour colorer ma vie On a descendu la On arrive on casse tout Bloqué au rap à l'ancienne MZ Music Volume 3 dans les bacs on est al Tous les projets de la liste J'te les sors collé fesse douce XXX Il y'a du blanc à choper MC casse toi tu veux un featuring On se connait d'où garde la che-pê Bang le rap game j'te la prends plein d'boules Touche un minable nous dans la foulée on déboule Quel que un faut quatre au jour Le rappeur éclaté j'le voit perso de 9 cafté On le pousse d'en la foule Bang Davidson Present, KDB Zik' Le binôme Jeci Jess, Marlo à domicile Wesh les jaloux moi j'vous kiffe en plus vous tombez à pic J'avais grave envie de me vider la vessie J'suis posé en bas de chez toi j'suis fait Toujours déterminé a chiffrer Ah bon bifton m'appelle jy vais Passe ta commande à n'importe quelle heure on viendra t'livrer Toujours en Benibla là j'suis fait Pas d'cinéma négro j'suis vrai Wesh Calotte c'est quoi le délire hein ? J'ai dit pas d'ciné négro j'suis vrai</t>
+          <t>Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way Is my time now All you niggas to the ground now Who open the mouth ill knock down Nigga even if you see me in your town You better runaway nigga when You see me around Im like K.O. son of a gun dont test me Dont stress me Nobody cant face me The nigga whove been with your girl And sleep with her Yeah nigga thats me! Suka! I crush i break in pieces you and your tam Aureo call me hero For my haters phumakim You think youre a real nigga But youre funny like mr. bean Im the best mc sa hip-hop ever seen Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this Game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I wanna be mzansi legend on this Game Thats my aim Money, power, fame I came where i came Nothing change me And im still the same Until today Im been building my Name To be in hall of fame Nigga youre a lame And my success make you feel in pain Turn up! Turn up! I can tell you boy once again Ya girl call me all night to be With her you know what im Sayin Ill destroy nigga who cross my Lane Aureo hot crew keep this Names in your brain Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats My name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Say Whatchu Wanna Say</t>
+          <t>Sinners</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way Is my time now All you niggas to the ground now Who open the mouth ill knock down Nigga even if you see me in your town You better runaway nigga when You see me around Im like K.O. son of a gun dont test me Dont stress me Nobody cant face me The nigga whove been with your girl And sleep with her Yeah nigga thats me! Suka! I crush i break in pieces you and your tam Aureo call me hero For my haters phumakim You think youre a real nigga But youre funny like mr. bean Im the best mc sa hip-hop ever seen Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats my name Is my time now, is my time to shine on this Game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I wanna be mzansi legend on this Game Thats my aim Money, power, fame I came where i came Nothing change me And im still the same Until today Im been building my Name To be in hall of fame Nigga youre a lame And my success make you feel in pain Turn up! Turn up! I can tell you boy once again Ya girl call me all night to be With her you know what im Sayin Ill destroy nigga who cross my Lane Aureo hot crew keep this Names in your brain Nobody cant drag me down I run over who cross my way Yeah im rude boy i dont care what you say Aureo aka gold ohh yeah Thats My name Is my time now, is my time to shine on this game I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way I dont care whatchu say Im just doing my way</t>
+          <t>Smoking Milli he couldnt breath Suck my dick im big 1622 Gang J'suis chez l'poto qu'est-c'tu m'dis ? C'était la voix de sa petite cousine J'suis le roi des abrutis J'me suis encore fait attraper ce coup-ci Eh, no stress, retournement de situation que j'vais tenter Pas d'panique, j'suis un menteur J'sais déjà c'que j'vais dire dès que j'vais rentrer Trop serein, ici c'est moi qui gère Des mots d'amour autour d'un restau On s'fait l'amour, on s'fait la guerre Ça peut aller très vite à caus d'un texto Par contre toi si tu m'trompes, j't casse la gueule J'rigole, j'm'en bats les couilles, j'en serre une autre En vrai il n'y a pas que des menteurs Les meufs ont rendu des gars paranos</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sinners</t>
+          <t>Slow</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Smoking Milli he couldnt breath Suck my dick im big 1622 Gang J'suis chez l'poto qu'est-c'tu m'dis ? C'était la voix de sa petite cousine J'suis le roi des abrutis J'me suis encore fait attraper ce coup-ci Eh, no stress, retournement de situation que j'vais tenter Pas d'panique, j'suis un menteur J'sais déjà c'que j'vais dire dès que j'vais rentrer Trop serein, ici c'est moi qui gère Des mots d'amour autour d'un restau On s'fait l'amour, on s'fait la guerre Ça peut aller très vite à caus d'un texto Par contre toi si tu m'trompes, j't casse la gueule J'rigole, j'm'en bats les couilles, j'en serre une autre En vrai il n'y a pas que des menteurs Les meufs ont rendu des gars paranos</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2307,12 +2307,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Slow</t>
+          <t>Straight of the Stove</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Verse 1 I got biz on the daily, tryna find cash so me and all my dawgs can go and have a blast, I know it don't last but its worth the memories, sittin here making this music for all the ghetto kids, they call it Hip Hop, I call it good music, call it soul food coz i know i won't lose it, and if the world choose it, imma be your man, keep it hot on the stove and ready for demand, I be chilling at the back of the house where the boys make noise and the girls wanna bounce, old school, new school, men we don't really care, go ahead play the tune leave you whipping your hair, yah, niko na mzinga na ako na mzinga pia, niko na ka-roach na niko na fegi pia, sina job but niko base natulia nangoja nipate yangu ndio nibbe malkia Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 2 place quiet all naskia ni whistle za birds Vegetation ever green no traces za dry grass Clean gas in the air..no motor cars No industries na kama ziko ziko far Place naweza drink maji straight from the stream With no wories coz najua iko all clean Taste ya milk haiko tampered na ma preservatives Diet mzima ni organic no sweets just honey Place kila mtu ako deep rooted kwa culture Taboos hazivunjwi niku abide ki rasta Tuko into appeasing fore fathers Incase tufanye noma ama msee afanye blander Ile place life span yetu iko long enough Time tunaspend na loved once iko just enough Sio the vice versa much time iko spent kwa works Building the nation okay and then what? Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 3 Nafanya kama karaoke utadhani na-sing ukiniskiza utaniuliza where the hell have you been, yoh , ndani ya nyumba na a pretty young thing, amenivalia bling utadhani beauty queen baby, mi nataka nikupatie joto uki-feel hii mziki nikupatie mtoto though sasa ni kazi nikazie msoto, mtaani na mabeshte hakuna utoto, uh, i keep it real i'm a E-town nigga , skill so ill make hits like jigga for real, stay fresh like the scenery here, everyday's a new day no therapy here, so leta jane leta molly leta melanie pia, ni kujibamba na kusaka hangover, kufanya tunachotaka hatujali ma gova Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu</t>
         </is>
       </c>
     </row>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Straight of the Stove</t>
+          <t>Studio.Bendo.Dodo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Verse 1 I got biz on the daily, tryna find cash so me and all my dawgs can go and have a blast, I know it don't last but its worth the memories, sittin here making this music for all the ghetto kids, they call it Hip Hop, I call it good music, call it soul food coz i know i won't lose it, and if the world choose it, imma be your man, keep it hot on the stove and ready for demand, I be chilling at the back of the house where the boys make noise and the girls wanna bounce, old school, new school, men we don't really care, go ahead play the tune leave you whipping your hair, yah, niko na mzinga na ako na mzinga pia, niko na ka-roach na niko na fegi pia, sina job but niko base natulia nangoja nipate yangu ndio nibbe malkia Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 2 place quiet all naskia ni whistle za birds Vegetation ever green no traces za dry grass Clean gas in the air..no motor cars No industries na kama ziko ziko far Place naweza drink maji straight from the stream With no wories coz najua iko all clean Taste ya milk haiko tampered na ma preservatives Diet mzima ni organic no sweets just honey Place kila mtu ako deep rooted kwa culture Taboos hazivunjwi niku abide ki rasta Tuko into appeasing fore fathers Incase tufanye noma ama msee afanye blander Ile place life span yetu iko long enough Time tunaspend na loved once iko just enough Sio the vice versa much time iko spent kwa works Building the nation okay and then what? Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu Verse 3 Nafanya kama karaoke utadhani na-sing ukiniskiza utaniuliza where the hell have you been, yoh , ndani ya nyumba na a pretty young thing, amenivalia bling utadhani beauty queen baby, mi nataka nikupatie joto uki-feel hii mziki nikupatie mtoto though sasa ni kazi nikazie msoto, mtaani na mabeshte hakuna utoto, uh, i keep it real i'm a E-town nigga , skill so ill make hits like jigga for real, stay fresh like the scenery here, everyday's a new day no therapy here, so leta jane leta molly leta melanie pia, ni kujibamba na kusaka hangover, kufanya tunachotaka hatujali ma gova Hook It's a new day, nafeel poa pia, Sina stress y'all, Nafeel poa pia, It's a new day, ni ku-Lounge tu, mtaani na mabeshte ni ku-hang tu</t>
+          <t>Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Hey, j'levais à 5 du mat pour aller taffer Elle m'a dit qu'elle avait pas le choix t'façon Aujourd'hui j'men tape de tout lui donner Car à ce jour elle a fait de moi c'grand garçon Des boloss m'appellent pour du stup' Ta vite l'seum, rappelle quand y'a c'tube Mama préférait les études, j'fais mes bails et j'travaille mes tubes Tout ces jaloux vont s'faire casser le cul On bosse, la fatigue me fait du pied mais j'dors peu XXX pas facile, XXX montre-leur qui est le boss Comment dormir si on doit prendre des feuilles ? Allez force à ceux qui doivent se lever tôt pour leurs gosses XXX gravé sur le torse, y'a qu'la famille pour mettre des coups d'crosses Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Je vois toujours les même choses, je vois pas la vie en rose J'ai fais du rap mon métronome, mes frères ont des bobos Soignés par le bédo, n'ait pas peur des keufs et du flashball La rue je l'ai tellement côtoyé que je la connais par coeur Maintenant je la chante et puis rien d'autre La street tourne en rond en détaillant du carré Et après s'barre au cachot J'fais péter mon talent comme le Belaire Appelle-moi XXX j'ai la frappe du tonnerre J'viens roucouler à l'heure où Maman s'réveille Je change ce quotidien vicieux et le sert Cite-moi la paix est le nerf de la guerre Du bonheur à gogo malgré mes méfaits Je fais des monuments comme Gustave Eiffel Ma musique est chaude comme ci elle squattait l'Enfer Khey ça parle de MZ Music par ci, par là Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo J'ai écrit tout comme Rimbaud, traîné tout comme Rondo Petit je squattais le bendo pendant que ces pelos partent en collo Professeur du ghetto Bitch, j'suis pas nouveau, j'ai ce qu'il te faut J'ai la meilleure dope et le meilleur flow oh no Qui fait le tour de la France sans télé ni radio ? Studio, Bendo, Bédo2</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Studio.Bendo.Dodo</t>
+          <t>Tetris (25/8 Finesse)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Hey, j'levais à 5 du mat pour aller taffer Elle m'a dit qu'elle avait pas le choix t'façon Aujourd'hui j'men tape de tout lui donner Car à ce jour elle a fait de moi c'grand garçon Des boloss m'appellent pour du stup' Ta vite l'seum, rappelle quand y'a c'tube Mama préférait les études, j'fais mes bails et j'travaille mes tubes Tout ces jaloux vont s'faire casser le cul On bosse, la fatigue me fait du pied mais j'dors peu XXX pas facile, XXX montre-leur qui est le boss Comment dormir si on doit prendre des feuilles ? Allez force à ceux qui doivent se lever tôt pour leurs gosses XXX gravé sur le torse, y'a qu'la famille pour mettre des coups d'crosses Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Je vois toujours les même choses, je vois pas la vie en rose J'ai fais du rap mon métronome, mes frères ont des bobos Soignés par le bédo, n'ait pas peur des keufs et du flashball La rue je l'ai tellement côtoyé que je la connais par coeur Maintenant je la chante et puis rien d'autre La street tourne en rond en détaillant du carré Et après s'barre au cachot J'fais péter mon talent comme le Belaire Appelle-moi XXX j'ai la frappe du tonnerre J'viens roucouler à l'heure où Maman s'réveille Je change ce quotidien vicieux et le sert Cite-moi la paix est le nerf de la guerre Du bonheur à gogo malgré mes méfaits Je fais des monuments comme Gustave Eiffel Ma musique est chaude comme ci elle squattait l'Enfer Khey ça parle de MZ Music par ci, par là Cette nuit j'ai rêvé de lovés, j'ai la barre j'viens d'me lever On sait qu'le taff paye tôt ou tard, ouais, donc on le fais Au quartier pour un rien chiffrer, au studio pour tous les gifler On s'doit d's'occuper de la mama, ouais donc on le fait Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo elle passe par ici Studio, Bendo, Dodo elle passera par là-bas Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo Studio, Bendo, Dodo J'ai écrit tout comme Rimbaud, traîné tout comme Rondo Petit je squattais le bendo pendant que ces pelos partent en collo Professeur du ghetto Bitch, j'suis pas nouveau, j'ai ce qu'il te faut J'ai la meilleure dope et le meilleur flow oh no Qui fait le tour de la France sans télé ni radio ? Studio, Bendo, Bédo2</t>
+          <t>258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE SLVEY Skyscrapers spacestations Easy chillin' Find me high on leisure Black and white outfit 101 dalmations Ukhalazela ngan' Mntaka Ma Movin' fast in the maze no Ramadan All you ride or dies need some wheel alignment Malum' Tshe on the throne 8 ball in the hole Game over wet like a coaster Summon these hoes like I'm clothed In a red and white coat with a beard That's matching my outfit, yea 258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE Mz Yea, Project baby gettin' 109 Yea,None of these bxtes can Fk with my guys Yea,Bad tingz keep 6 on my side Yea, I'm D.I.D still dope in disguise V.I.P so can't F×k with declines Mr Wintro still cold on the beat SLVEY I swear Money gone make me mize men Like how money made many mize me So many M So many, damn We live for the dead Presidents THE END</t>
         </is>
       </c>
     </row>
@@ -2358,12 +2358,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tetris (25/8 Finesse)</t>
+          <t>Ton sauveur</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE SLVEY Skyscrapers spacestations Easy chillin' Find me high on leisure Black and white outfit 101 dalmations Ukhalazela ngan' Mntaka Ma Movin' fast in the maze no Ramadan All you ride or dies need some wheel alignment Malum' Tshe on the throne 8 ball in the hole Game over wet like a coaster Summon these hoes like I'm clothed In a red and white coat with a beard That's matching my outfit, yea 258 Finesse I'm showing face that ain't no regular presence Started building my name out the trenches Now how I'm staking these cheques It reminds me of Tetris VERSE Mz Yea, Project baby gettin' 109 Yea,None of these bxtes can Fk with my guys Yea,Bad tingz keep 6 on my side Yea, I'm D.I.D still dope in disguise V.I.P so can't F×k with declines Mr Wintro still cold on the beat SLVEY I swear Money gone make me mize men Like how money made many mize me So many M So many, damn We live for the dead Presidents THE END</t>
+          <t>J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur Eh, avec clique lâche la troisième bouteille on est fonce-dé Aujourd'hui tant qu'on prend pas de biff on va pas pioncer Y'a qu'devant l'OPJ et la daronne qu'on s'tait Dans le bendo qui contrôle les bails négro on l'sait On est venu on a rappé tout seuls on est monté J'te parle de bitchs, j'te parle de drogues, j'insulte les condés Et les puristes diront que j'fais du rap d'illétré Yeah, yeah Les soldats on sait les compter J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur J'en ai rien a foutre de l'avis des puristes Ces bouffons viennent pas de ma street Aucuns de mes semblables dans les grands médias et maisons de disque Normal qu'on me prenne pour l'antéchrist Spermatozoïdes plus rapide que Muriel Hurtis J'suis le bébé qui vient faire jouir sa puéricultrice Le dernier de la classe qui baise son institutrice Un moteur de Bugatti dans une Peugeot 106 Pour ça que ces mecs graves veulent braquer mon flow Ils parlent de meufs maintenant, ils parlent de drogues maintenant Ces négros savent, ces négros dansent, ces négros chantent, maintenant Tout l'monde est Big Daddy sans le savoir vraiment Depuis l'arrivée de l'élu plus rien n'est plus comme avant Passe-moi la balle maintenant, j'remonte le score maintenant Si j'y vais fort c'est pour mon squad, Davidson Presents J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur S-A-L-I-F, Ol kainry, Nessbeal, Sefyu, Mac Tyer, Mafia K1 et les XXX thugs XXX De la musique de la bonne dope B2O Et vous disiez que le rap était en deuil Et j'en passe j'pourrais pas t'apprendre la musique moi c'est la musique qui m'a apprit, j'fuck les puristes comme la police Tiens comme dirais Rohff Je hardcore comme je veux Je tue comme je veux, enculé d'tes cheveux Yeah, toi c'est pas les filles c'est plutôt le rap qui t'as brisé ton petit cur Ecoute mon pote j'm'en bas les couilles j'suis pas ton sauveur T'es le seul à avoir des problèmes parce que je calcule pas tes commentaires J'te le répète, j'm'en bas les couilles j'suis pas ton sauveur</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2375,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ton sauveur</t>
+          <t>Truc de fou</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur Eh, avec clique lâche la troisième bouteille on est fonce-dé Aujourd'hui tant qu'on prend pas de biff on va pas pioncer Y'a qu'devant l'OPJ et la daronne qu'on s'tait Dans le bendo qui contrôle les bails négro on l'sait On est venu on a rappé tout seuls on est monté J'te parle de bitchs, j'te parle de drogues, j'insulte les condés Et les puristes diront que j'fais du rap d'illétré Yeah, yeah Les soldats on sait les compter J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur J'en ai rien a foutre de l'avis des puristes Ces bouffons viennent pas de ma street Aucuns de mes semblables dans les grands médias et maisons de disque Normal qu'on me prenne pour l'antéchrist Spermatozoïdes plus rapide que Muriel Hurtis J'suis le bébé qui vient faire jouir sa puéricultrice Le dernier de la classe qui baise son institutrice Un moteur de Bugatti dans une Peugeot 106 Pour ça que ces mecs graves veulent braquer mon flow Ils parlent de meufs maintenant, ils parlent de drogues maintenant Ces négros savent, ces négros dansent, ces négros chantent, maintenant Tout l'monde est Big Daddy sans le savoir vraiment Depuis l'arrivée de l'élu plus rien n'est plus comme avant Passe-moi la balle maintenant, j'remonte le score maintenant Si j'y vais fort c'est pour mon squad, Davidson Presents J'te parle de bitchs, j'te parle d'alcool J'te parle de drogues, j'insulte les bleus J'fais ma musique, je fais ce que je veux Toi petit con tu fermes ta gueule J'm'en bas les couilles j'suis pas ton sauveur S-A-L-I-F, Ol kainry, Nessbeal, Sefyu, Mac Tyer, Mafia K1 et les XXX thugs XXX De la musique de la bonne dope B2O Et vous disiez que le rap était en deuil Et j'en passe j'pourrais pas t'apprendre la musique moi c'est la musique qui m'a apprit, j'fuck les puristes comme la police Tiens comme dirais Rohff Je hardcore comme je veux Je tue comme je veux, enculé d'tes cheveux Yeah, toi c'est pas les filles c'est plutôt le rap qui t'as brisé ton petit cur Ecoute mon pote j'm'en bas les couilles j'suis pas ton sauveur T'es le seul à avoir des problèmes parce que je calcule pas tes commentaires J'te le répète, j'm'en bas les couilles j'suis pas ton sauveur</t>
+          <t>On se pavane dans la ville Les bécanes sont levées en i-i-i On entends des coups de feu, qui ré-ti sur qui qui qui ? J'suis posé ma belle Pas besoin de tes fesses Mais pourquoi tu m'appelles ? Je suis posé à Valèse Mes gars me dise tout Pourquoi toi tu joue le fou ? T'as trahi la miff, à cette pute tu disais tout Un verre de trop, une arme chargée Il te met à genoux devant tout le monde rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou J'ai trimé dans les ruelles d'Aubert mais toi t'étais où ? Je tournais en rond dans la cellule dansant comme un fou Hum comme un fou Oui je suis fou de toi Ma belle danse sur la piste, défoule toi Grosse gamelle tout le monde rit, ça tourne sur le net J'pense tout comme toi j'trouve ces gens sont malhonnêtes Tous malhonnêtes en plus ça se la pète Toute cette brutalité rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou T'entends MS partout j'ai ramené de la qualité T'veux marcher avec nous mais toi es-tu validé ? J'plais sur Youtube pense-tu que je suis une célébrité ? Avec ma Family Bang Bang toi tu n'as pas idée Hum t'es prêt pour nous signer, tu n'es pas prêt Hum t'es pas prêt pour nous acheter, tu n'es pas prêt Hum t'es prêt pour la rendre heureuse, tu n'es pas prêt Hum t'es pas prêt mais pour le buzz toi t'es prêt C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou</t>
         </is>
       </c>
     </row>
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Truc de fou</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>On se pavane dans la ville Les bécanes sont levées en i-i-i On entends des coups de feu, qui ré-ti sur qui qui qui ? J'suis posé ma belle Pas besoin de tes fesses Mais pourquoi tu m'appelles ? Je suis posé à Valèse Mes gars me dise tout Pourquoi toi tu joue le fou ? T'as trahi la miff, à cette pute tu disais tout Un verre de trop, une arme chargée Il te met à genoux devant tout le monde rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou J'ai trimé dans les ruelles d'Aubert mais toi t'étais où ? Je tournais en rond dans la cellule dansant comme un fou Hum comme un fou Oui je suis fou de toi Ma belle danse sur la piste, défoule toi Grosse gamelle tout le monde rit, ça tourne sur le net J'pense tout comme toi j'trouve ces gens sont malhonnêtes Tous malhonnêtes en plus ça se la pète Toute cette brutalité rien que pour buzzer C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou T'entends MS partout j'ai ramené de la qualité T'veux marcher avec nous mais toi es-tu validé ? J'plais sur Youtube pense-tu que je suis une célébrité ? Avec ma Family Bang Bang toi tu n'as pas idée Hum t'es prêt pour nous signer, tu n'es pas prêt Hum t'es pas prêt pour nous acheter, tu n'es pas prêt Hum t'es prêt pour la rendre heureuse, tu n'es pas prêt Hum t'es pas prêt mais pour le buzz toi t'es prêt C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou C'est un truc de fou un truc de fou Un truc de fou un truc de fou Embrouille, amour, argent sur le net tout le monde sait tout C'est un truc de fou un truc de fou Un truc de fou un truc de fou Tout le monde sait tout C'est un truc de fou</t>
+          <t>Paroles de Casa Crew Eh eh ta jahhad a l3awd Ayo, Casa Crew jaw daro lfawda Casa Crew m3akom lyom Wach ngolk Album lowl, Casa Crew way Smiyto Al Bassma Chaht Man Production Album Al Bassma Casa Crew Bach te39el 3lih mzyan a 3chiri F jkater ga3 l3chran Casa Crew a 3chiri Album dyalna 9sa7a Makaynch smo3lih Bassma f tarikh rap maghribi Li taybghiw pur rap music underground Mzyan, yeah a3chiri Basma b-b-basma, hak fassma Album Al Bassma lhdma dyal 3am Represent Casa Crew Caprice Chaht Man J-Ok Masta Flow Yo Wach ngolk a 3chiri Album machi sahel Casa Crew Khadma s3iba machi sahla 3ammerni nsali w m3aya drari Yeah 2007, hna dima Masta Flow f les instrus 3awd couplet men à zéro Al Bassma f khater ga3 l3chran 2007 golna klam sbou3a Eh eh, ga3 li kaybghiw rap maghribi a3chiri Represent lmgharba m3akom M3ak l'Caprice, f'khater ga3 l3chran Wach angolk a3chiri L'ga3 les fans, li hnaya w lhih Wlyoma makayn ghi smo3lih Casa Crew yo ya yeah yeah Casa Crew yo ya yeah yeah Album smiyto Al Bassma</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>What’s up b#@%*$ ?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Paroles de Casa Crew Eh eh ta jahhad a l3awd Ayo, Casa Crew jaw daro lfawda Casa Crew m3akom lyom Wach ngolk Album lowl, Casa Crew way Smiyto Al Bassma Chaht Man Production Album Al Bassma Casa Crew Bach te39el 3lih mzyan a 3chiri F jkater ga3 l3chran Casa Crew a 3chiri Album dyalna 9sa7a Makaynch smo3lih Bassma f tarikh rap maghribi Li taybghiw pur rap music underground Mzyan, yeah a3chiri Basma b-b-basma, hak fassma Album Al Bassma lhdma dyal 3am Represent Casa Crew Caprice Chaht Man J-Ok Masta Flow Yo Wach ngolk a 3chiri Album machi sahel Casa Crew Khadma s3iba machi sahla 3ammerni nsali w m3aya drari Yeah 2007, hna dima Masta Flow f les instrus 3awd couplet men à zéro Al Bassma f khater ga3 l3chran 2007 golna klam sbou3a Eh eh, ga3 li kaybghiw rap maghribi a3chiri Represent lmgharba m3akom M3ak l'Caprice, f'khater ga3 l3chran Wach angolk a3chiri L'ga3 les fans, li hnaya w lhih Wlyoma makayn ghi smo3lih Casa Crew yo ya yeah yeah Casa Crew yo ya yeah yeah Album smiyto Al Bassma</t>
+          <t>Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Quoi d'neuf fils de pute ? Wesh, toujours les mêmes buts ou quoi ? Evolue, continue, casse du sucre sur mon dos Mais surtout fais le comme une brute La vie est dure pour toi j'comprends mec Tu n'as pas de talent, tu rages sur les autres constament Tu me donnes de la pêche inconsciement Remets -toi en question bordel même tes potes te fuient T'as pas d'ami, t'as pas d'vie, t'es comme les murs de la té-ci Tout le monde passe à tes côtés Malheureux de nature, personne te calcule A part pour dire du mal des gens, fils de pute, tu ne parles plus Wesh fils de pute, wesh fils de chienne Wesh mes oreille siffle mais hurle tellement tu te déchaines A part ça, quoi d'neuf mon XXX comme un join d'peuf Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Quoi d'neuf fils de pute ? Pourquoi autant de ragots ? XXX, tu passes ton temps à parler sur les autres, tu fais de la peine iako Tu t'ennuies car ta vie est un échec Les mecs comme toi méritent pas qu'on les check Toujours là à t'occuper de s'qui te regarde pas Monter des gens contre d'autres on te connait pour ça dans le tiek Wesh fils de pute, paraît que t'aimes pas ma couleur de peau Vos contrôles de merde feront qu'un jour ça merdra, on vous fera la peau Quoi d'neuf fils de pute ? Ca fait quel effet de venir casser nos portes, de déranger les darons, tout ça pour nous soulever ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Tu veux jacter avec tes potes Consulter les plus grands marabous Rien ni personne ne viendra à bout de mon crew T'inquète, on tient le coup On tient le bout et c'est le bon Poto, c'est tout droit dans ton fion Y a du flow, y a du fond, y a que des bonhommes attention Sévère est la correction Fallait, fallait pas nous chécher MZ Music et Le Binome, bonhomme, on est trop déter' Quoi d'neuf fils de pute ? Alors quoi d'neuf fils de pute ? Hein, tu voulais ma chute ? Mais t'inquète, j'arriverai bien à mon but hein</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What’s up b#@%*$ ?</t>
+          <t>Y’a d’la dope</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Quoi d'neuf fils de pute ? Wesh, toujours les mêmes buts ou quoi ? Evolue, continue, casse du sucre sur mon dos Mais surtout fais le comme une brute La vie est dure pour toi j'comprends mec Tu n'as pas de talent, tu rages sur les autres constament Tu me donnes de la pêche inconsciement Remets -toi en question bordel même tes potes te fuient T'as pas d'ami, t'as pas d'vie, t'es comme les murs de la té-ci Tout le monde passe à tes côtés Malheureux de nature, personne te calcule A part pour dire du mal des gens, fils de pute, tu ne parles plus Wesh fils de pute, wesh fils de chienne Wesh mes oreille siffle mais hurle tellement tu te déchaines A part ça, quoi d'neuf mon XXX comme un join d'peuf Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Quoi d'neuf fils de pute ? Pourquoi autant de ragots ? XXX, tu passes ton temps à parler sur les autres, tu fais de la peine iako Tu t'ennuies car ta vie est un échec Les mecs comme toi méritent pas qu'on les check Toujours là à t'occuper de s'qui te regarde pas Monter des gens contre d'autres on te connait pour ça dans le tiek Wesh fils de pute, paraît que t'aimes pas ma couleur de peau Vos contrôles de merde feront qu'un jour ça merdra, on vous fera la peau Quoi d'neuf fils de pute ? Ca fait quel effet de venir casser nos portes, de déranger les darons, tout ça pour nous soulever ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début Wesh, quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Quoi d'neuf fils de pute ? Wesh, quoi d'neuf fils de pute ? J'suis venu shooter dans ta ruche Tu rêves de voir ma chute J'en suis même pas au début wesh Tu veux jacter avec tes potes Consulter les plus grands marabous Rien ni personne ne viendra à bout de mon crew T'inquète, on tient le coup On tient le bout et c'est le bon Poto, c'est tout droit dans ton fion Y a du flow, y a du fond, y a que des bonhommes attention Sévère est la correction Fallait, fallait pas nous chécher MZ Music et Le Binome, bonhomme, on est trop déter' Quoi d'neuf fils de pute ? Alors quoi d'neuf fils de pute ? Hein, tu voulais ma chute ? Mais t'inquète, j'arriverai bien à mon but hein</t>
+          <t>Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope Aucun d'mes gars tape la coke C'est à vous de mon ghetto J'bois pas d'eau Sponsorisé par tchapalo Soirée de baisés, mes gars sont sous bédo Ta chaude meuf est sur mes côtes Ramène la voir le véto Fais pas l'chaud pour des gos J'vais t'faire danser, j'ai mon glock J'ai la dalle Quand j'vois tous ces haineux et quand j'fais des billets Quand j'vois toutes ces formes, et ces putes s'déshabiller Quand mes négros enfermés sortent de taule Dans l'tiekson avec mes négros Alcooliques on boit dans des brocs Y'a... Y'a d'la... Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Négro y'a d'la dope Mes jeunes OG sont dans l'bloc Mes jeunes OG sont sur chaque blanche et en bénéficient comme le king de la pop Rentre dans la chambre, bébé ferme bien la porte Qu'on fasse un huis clos, cambre bien ton dos Que j'bosse mes abdos Sur moi fais des squats comme si j'étais ton coach Des lignes se dessinent entre elle et moi Elle sent qu'elle aime, on a MDMA Chaque jour que Dieu fait j'suis fucked up Coup d'twerk c'est un hold up Pose ton string et ton crop-top Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope J'te jure que tout l'monde est fait, personne s'en souviendra d'la veille Y'a d'la go, tu connais la devise vole comme un papillon, pique comme une abeille Y'a d'la grosse, y'a d'la grosse coupure mes gars ont tournés déterminés Y'a d'l'alcool, y'a d'l'alcool partout, enfoiré touche pas à ma 'teille Y'a d'la dope dope dope dope, on accueille snoopy dog dog dog Y'a d'la dose dose dose dose, on fait la diff' c'est bank bank-able Ferme ta gueule, on connaît pas, t'es qui ? Ah là reste tranquille C'est pas l'tout, ici y'a pas d'king, tout l'monde fuck la police Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go</t>
         </is>
       </c>
     </row>
@@ -2443,27 +2443,10 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Y’a d’la dope</t>
+          <t>Саундтрек к сериалу Школа ГЛАЗАМИ ШКОЛЬНИКА (19 серия, 4 сезон)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
-        <is>
-          <t>Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope Aucun d'mes gars tape la coke C'est à vous de mon ghetto J'bois pas d'eau Sponsorisé par tchapalo Soirée de baisés, mes gars sont sous bédo Ta chaude meuf est sur mes côtes Ramène la voir le véto Fais pas l'chaud pour des gos J'vais t'faire danser, j'ai mon glock J'ai la dalle Quand j'vois tous ces haineux et quand j'fais des billets Quand j'vois toutes ces formes, et ces putes s'déshabiller Quand mes négros enfermés sortent de taule Dans l'tiekson avec mes négros Alcooliques on boit dans des brocs Y'a... Y'a d'la... Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Négro y'a d'la dope Mes jeunes OG sont dans l'bloc Mes jeunes OG sont sur chaque blanche et en bénéficient comme le king de la pop Rentre dans la chambre, bébé ferme bien la porte Qu'on fasse un huis clos, cambre bien ton dos Que j'bosse mes abdos Sur moi fais des squats comme si j'étais ton coach Des lignes se dessinent entre elle et moi Elle sent qu'elle aime, on a MDMA Chaque jour que Dieu fait j'suis fucked up Coup d'twerk c'est un hold up Pose ton string et ton crop-top Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go Y'a d'la dope J'te jure que tout l'monde est fait, personne s'en souviendra d'la veille Y'a d'la go, tu connais la devise vole comme un papillon, pique comme une abeille Y'a d'la grosse, y'a d'la grosse coupure mes gars ont tournés déterminés Y'a d'l'alcool, y'a d'l'alcool partout, enfoiré touche pas à ma 'teille Y'a d'la dope dope dope dope, on accueille snoopy dog dog dog Y'a d'la dose dose dose dose, on fait la diff' c'est bank bank-able Ferme ta gueule, on connaît pas, t'es qui ? Ah là reste tranquille C'est pas l'tout, ici y'a pas d'king, tout l'monde fuck la police Y'a d'la dope, oh J'bois pas d'eau, oh Tout l'monde est stone, oh Y'a d'la dope, oh Y'a d'la dope Y'a d'la dope, dope, dope J'bois pas d'eau J'bois pas d'eau, d'eau, d'eau Tout l'monde est stone On est stone, stone, stone Y'a d'la go Y'a d'la go, go, go</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>MZ</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Саундтрек к сериалу Школа ГЛАЗАМИ ШКОЛЬНИКА (19 серия, 4 сезон)</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>, - ! ! , ! , ! , - ! , , , , !</t>
         </is>
